--- a/IndexResults.xlsx
+++ b/IndexResults.xlsx
@@ -5136,28 +5136,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>2.660829544067383</v>
+        <v>2.985713005065918</v>
       </c>
       <c r="D2" t="n">
-        <v>1.500659258067383</v>
+        <v>1.825542719065918</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>1.433689475059509</v>
+        <v>1.666364669799805</v>
       </c>
       <c r="G2" t="n">
-        <v>1.011793926059509</v>
+        <v>1.244469120799805</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6970187425613403</v>
+        <v>0.6862800717353821</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5302140755613404</v>
+        <v>0.5194754047353821</v>
       </c>
     </row>
     <row r="3">
@@ -5170,28 +5170,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>7.454771518707275</v>
+        <v>7.885547637939453</v>
       </c>
       <c r="D3" t="n">
-        <v>1.518284677707276</v>
+        <v>1.949060796939453</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>3.907788276672363</v>
+        <v>3.857335090637207</v>
       </c>
       <c r="G3" t="n">
-        <v>3.231883702672363</v>
+        <v>3.181430516637207</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.088882327079773</v>
+        <v>1.018165826797485</v>
       </c>
       <c r="J3" t="n">
-        <v>1.088882327079773</v>
+        <v>1.018165826797485</v>
       </c>
     </row>
     <row r="4">
@@ -5204,28 +5204,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.596454620361328</v>
+        <v>2.792040348052979</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05018602836132802</v>
+        <v>0.2457717560529784</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>1.403252124786377</v>
+        <v>1.548440456390381</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9127780047863769</v>
+        <v>1.057966336390381</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8837248086929321</v>
+        <v>0.9442155361175537</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3626657726929321</v>
+        <v>0.4231565001175537</v>
       </c>
     </row>
     <row r="5">
@@ -5238,28 +5238,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>3.720128297805786</v>
+        <v>4.345468521118164</v>
       </c>
       <c r="D5" t="n">
-        <v>6.943621812194214</v>
+        <v>6.318281588881836</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.011733293533325</v>
+        <v>2.391232013702393</v>
       </c>
       <c r="G5" t="n">
-        <v>3.356017621466675</v>
+        <v>2.976518901297608</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5798280239105225</v>
+        <v>0.5320755243301392</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3201617520894775</v>
+        <v>0.3679142516698608</v>
       </c>
     </row>
     <row r="6">
@@ -5272,28 +5272,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>3.837928771972656</v>
+        <v>4.509252548217773</v>
       </c>
       <c r="D6" t="n">
-        <v>11.74161115802734</v>
+        <v>11.07028738178223</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>2.044372081756592</v>
+        <v>2.453482389450073</v>
       </c>
       <c r="G6" t="n">
-        <v>5.092283327243408</v>
+        <v>4.683173019549927</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4928235709667206</v>
+        <v>0.4212439656257629</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4310060950332795</v>
+        <v>0.5025857003742371</v>
       </c>
     </row>
     <row r="7">
@@ -5306,28 +5306,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>2.673049211502075</v>
+        <v>3.155509233474731</v>
       </c>
       <c r="D7" t="n">
-        <v>1.653658923502075</v>
+        <v>2.136118945474731</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>1.579972505569458</v>
+        <v>1.948856472969055</v>
       </c>
       <c r="G7" t="n">
-        <v>1.901355775430542</v>
+        <v>1.532471808030945</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7510823011398315</v>
+        <v>0.7797296643257141</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1338892021398316</v>
+        <v>0.1625365653257141</v>
       </c>
     </row>
     <row r="8">
@@ -5340,28 +5340,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>8.369730949401855</v>
+        <v>9.777908325195312</v>
       </c>
       <c r="D8" t="n">
-        <v>10.21755707059814</v>
+        <v>8.809379694804687</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>4.592566967010498</v>
+        <v>5.231948375701904</v>
       </c>
       <c r="G8" t="n">
-        <v>3.131228388989502</v>
+        <v>2.491846980298096</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5198175311088562</v>
+        <v>0.3569011092185974</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6195205318911439</v>
+        <v>0.7824369537814027</v>
       </c>
     </row>
     <row r="9">
@@ -5374,28 +5374,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.257236957550049</v>
+        <v>4.035505771636963</v>
       </c>
       <c r="D9" t="n">
-        <v>1.894137674449951</v>
+        <v>2.115868860363037</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>2.503689050674438</v>
+        <v>2.320379018783569</v>
       </c>
       <c r="G9" t="n">
-        <v>1.301785329674438</v>
+        <v>1.118475297783569</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.852887272834778</v>
+        <v>2.026827335357666</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3656140758347779</v>
+        <v>0.5395541383576661</v>
       </c>
     </row>
     <row r="10">
@@ -5408,28 +5408,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>6.595162868499756</v>
+        <v>6.599264144897461</v>
       </c>
       <c r="D10" t="n">
-        <v>5.771334091500243</v>
+        <v>5.767232815102538</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>3.786634683609009</v>
+        <v>3.594142436981201</v>
       </c>
       <c r="G10" t="n">
-        <v>1.262094175609009</v>
+        <v>1.069601928981201</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>1.904489517211914</v>
+        <v>2.029211521148682</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05199083478808597</v>
+        <v>0.07273116914868161</v>
       </c>
     </row>
     <row r="11">
@@ -5442,28 +5442,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>2.635162115097046</v>
+        <v>2.959320545196533</v>
       </c>
       <c r="D11" t="n">
-        <v>1.660561223097046</v>
+        <v>1.984719653196533</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>1.429652214050293</v>
+        <v>1.663965702056885</v>
       </c>
       <c r="G11" t="n">
-        <v>1.036016299050293</v>
+        <v>1.270329787056885</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7386218309402466</v>
+        <v>0.7512681484222412</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5776627919402466</v>
+        <v>0.5903091094222412</v>
       </c>
     </row>
     <row r="12">
@@ -5476,28 +5476,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>2.450855731964111</v>
+        <v>2.730371713638306</v>
       </c>
       <c r="D12" t="n">
-        <v>1.665049859964111</v>
+        <v>1.944565841638306</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>1.357065439224243</v>
+        <v>1.568234205245972</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6645902242242432</v>
+        <v>0.8757589902459717</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7012312412261963</v>
+        <v>0.6840726137161255</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5057803862261963</v>
+        <v>0.4886217587161255</v>
       </c>
     </row>
     <row r="13">
@@ -5510,28 +5510,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>2.69336986541748</v>
+        <v>3.190076351165771</v>
       </c>
       <c r="D13" t="n">
-        <v>1.65893966541748</v>
+        <v>2.155646151165771</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>1.553630352020264</v>
+        <v>1.909752130508423</v>
       </c>
       <c r="G13" t="n">
-        <v>1.462805874979736</v>
+        <v>1.106684096491577</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6652632355690002</v>
+        <v>0.6449164152145386</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2568137765690002</v>
+        <v>0.2364669562145386</v>
       </c>
     </row>
     <row r="14">
@@ -5544,28 +5544,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>42.27043151855469</v>
+        <v>45.38466262817383</v>
       </c>
       <c r="D14" t="n">
-        <v>19.53342418144531</v>
+        <v>16.41919307182617</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>24.91251564025879</v>
+        <v>25.43562889099121</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09898203974121245</v>
+        <v>0.4241312109912094</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>4.193805694580078</v>
+        <v>3.568578243255615</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4633244865800781</v>
+        <v>0.1619029647443848</v>
       </c>
     </row>
     <row r="15">
@@ -5578,28 +5578,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.645393133163452</v>
+        <v>2.881556749343872</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1267396571634523</v>
+        <v>0.3629032733438722</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>1.435453176498413</v>
+        <v>1.607715487480164</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7672793164984131</v>
+        <v>0.9395416274801636</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8577475547790527</v>
+        <v>0.9117971658706665</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3544565157790527</v>
+        <v>0.4085061268706665</v>
       </c>
     </row>
     <row r="16">
@@ -5612,28 +5612,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>2.675269842147827</v>
+        <v>3.016243457794189</v>
       </c>
       <c r="D16" t="n">
-        <v>1.669073835147827</v>
+        <v>2.01004745079419</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>1.446464776992798</v>
+        <v>1.689941883087158</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9816768449927978</v>
+        <v>1.225153951087158</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6903015375137329</v>
+        <v>0.6767956614494324</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5041770555137329</v>
+        <v>0.4906711794494324</v>
       </c>
     </row>
     <row r="17">
@@ -5646,28 +5646,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.805154323577881</v>
+        <v>2.969455480575562</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4244474315778808</v>
+        <v>0.5887485885755614</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>1.645916938781738</v>
+        <v>1.809633255004883</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06237969621826167</v>
+        <v>0.1013366200048829</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>1.104800820350647</v>
+        <v>1.219240069389343</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2697412963506469</v>
+        <v>0.3841805453893432</v>
       </c>
     </row>
     <row r="18">
@@ -5680,28 +5680,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>3.282413482666016</v>
+        <v>3.710961580276489</v>
       </c>
       <c r="D18" t="n">
-        <v>1.501718702666016</v>
+        <v>1.930266800276489</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>1.73322319984436</v>
+        <v>2.001359462738037</v>
       </c>
       <c r="G18" t="n">
-        <v>1.22770329184436</v>
+        <v>1.495839554738037</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6774381995201111</v>
+        <v>0.6671308875083923</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5012419265201111</v>
+        <v>0.4909346145083924</v>
       </c>
     </row>
     <row r="19">
@@ -5714,28 +5714,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>3.929058074951172</v>
+        <v>3.65820050239563</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2172396789511719</v>
+        <v>0.05361789360437008</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>2.808722257614136</v>
+        <v>2.742839574813843</v>
       </c>
       <c r="G19" t="n">
-        <v>3.106075298385864</v>
+        <v>3.171957981186157</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>2.563151836395264</v>
+        <v>2.894708156585693</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5969671666047365</v>
+        <v>0.2654108464143068</v>
       </c>
     </row>
     <row r="20">
@@ -5748,28 +5748,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>3.304088830947876</v>
+        <v>3.882920265197754</v>
       </c>
       <c r="D20" t="n">
-        <v>2.201944050947876</v>
+        <v>2.780775485197754</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>1.81419563293457</v>
+        <v>2.191182613372803</v>
       </c>
       <c r="G20" t="n">
-        <v>1.01651024593457</v>
+        <v>1.393497226372803</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6058900356292725</v>
+        <v>0.5711994767189026</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4567951716292725</v>
+        <v>0.4221046127189026</v>
       </c>
     </row>
     <row r="21">
@@ -5782,28 +5782,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>66.89989471435547</v>
+        <v>72.28815460205078</v>
       </c>
       <c r="D21" t="n">
-        <v>14.15295815564453</v>
+        <v>8.764698267949214</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>39.83512115478516</v>
+        <v>41.01333999633789</v>
       </c>
       <c r="G21" t="n">
-        <v>4.052295184785159</v>
+        <v>5.230514026337893</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>6.633116722106934</v>
+        <v>5.479600429534912</v>
       </c>
       <c r="J21" t="n">
-        <v>2.020188175106933</v>
+        <v>0.866671882534912</v>
       </c>
     </row>
     <row r="22">
@@ -5816,28 +5816,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>2.404112339019775</v>
+        <v>2.228124618530273</v>
       </c>
       <c r="D22" t="n">
-        <v>1.934787301019775</v>
+        <v>1.758799580530273</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.505560517311096</v>
+        <v>1.482076168060303</v>
       </c>
       <c r="G22" t="n">
-        <v>1.183943938311096</v>
+        <v>1.160459589060303</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>1.530551075935364</v>
+        <v>1.723846077919006</v>
       </c>
       <c r="J22" t="n">
-        <v>1.188408645935364</v>
+        <v>1.381703647919006</v>
       </c>
     </row>
     <row r="23">
@@ -5850,28 +5850,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>138.1945037841797</v>
+        <v>151.3982543945312</v>
       </c>
       <c r="D23" t="n">
-        <v>10.36882001582032</v>
+        <v>2.834930594531244</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>83.94135284423828</v>
+        <v>87.96112823486328</v>
       </c>
       <c r="G23" t="n">
-        <v>6.188723364238285</v>
+        <v>10.20849875486329</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>13.97128486633301</v>
+        <v>11.00533485412598</v>
       </c>
       <c r="J23" t="n">
-        <v>5.658479466333008</v>
+        <v>2.692529454125976</v>
       </c>
     </row>
     <row r="24">
@@ -5884,28 +5884,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.681257724761963</v>
+        <v>2.695235252380371</v>
       </c>
       <c r="D24" t="n">
-        <v>0.541464651761963</v>
+        <v>0.5554421793803712</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.53288459777832</v>
+        <v>1.589046120643616</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8972965527783203</v>
+        <v>0.9534580756436157</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>1.167176485061646</v>
+        <v>1.294523358345032</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5637047280616455</v>
+        <v>0.6910516013450317</v>
       </c>
     </row>
     <row r="25">
@@ -5918,28 +5918,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>14.49907779693604</v>
+        <v>16.11297035217285</v>
       </c>
       <c r="D25" t="n">
-        <v>7.616017533063964</v>
+        <v>6.002124977827147</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>8.055271148681641</v>
+        <v>8.624403953552246</v>
       </c>
       <c r="G25" t="n">
-        <v>0.269718358681641</v>
+        <v>0.8388511635522464</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9711678028106689</v>
+        <v>0.926136314868927</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2148048181893309</v>
+        <v>0.2598363061310729</v>
       </c>
     </row>
     <row r="26">
@@ -5952,28 +5952,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>7.830771446228027</v>
+        <v>8.886796951293945</v>
       </c>
       <c r="D26" t="n">
-        <v>10.81174131377197</v>
+        <v>9.755715808706054</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>4.236865043640137</v>
+        <v>4.657942295074463</v>
       </c>
       <c r="G26" t="n">
-        <v>1.668453607359863</v>
+        <v>1.247376355925537</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7065811157226562</v>
+        <v>0.5746695399284363</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5994410432773438</v>
+        <v>0.7313526190715638</v>
       </c>
     </row>
     <row r="27">
@@ -5986,28 +5986,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>2.915222883224487</v>
+        <v>3.396462917327881</v>
       </c>
       <c r="D27" t="n">
-        <v>1.803178504224487</v>
+        <v>2.284418538327881</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>1.689886450767517</v>
+        <v>2.042331218719482</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2177167977675172</v>
+        <v>0.5701615657194825</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7759455442428589</v>
+        <v>0.8101410865783691</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4650135922428589</v>
+        <v>0.4992091345783691</v>
       </c>
     </row>
     <row r="28">
@@ -6020,28 +6020,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>4.374326229095459</v>
+        <v>5.300391674041748</v>
       </c>
       <c r="D28" t="n">
-        <v>3.370103349095459</v>
+        <v>4.296168794041748</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>2.441871404647827</v>
+        <v>3.004124402999878</v>
       </c>
       <c r="G28" t="n">
-        <v>1.580326214647827</v>
+        <v>2.142579212999878</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.435612827539444</v>
+        <v>0.3488757610321045</v>
       </c>
       <c r="J28" t="n">
-        <v>0.349267456539444</v>
+        <v>0.2625303900321045</v>
       </c>
     </row>
     <row r="29">
@@ -6054,28 +6054,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>3.309933185577393</v>
+        <v>3.891472339630127</v>
       </c>
       <c r="D29" t="n">
-        <v>5.639146745422607</v>
+        <v>5.057607591369873</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>1.80434513092041</v>
+        <v>2.182848930358887</v>
       </c>
       <c r="G29" t="n">
-        <v>3.92969407507959</v>
+        <v>3.551190275641114</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5863006114959717</v>
+        <v>0.5433005094528198</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2608534335040283</v>
+        <v>0.3038535355471802</v>
       </c>
     </row>
     <row r="30">
@@ -6088,28 +6088,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>5.113199710845947</v>
+        <v>5.592398166656494</v>
       </c>
       <c r="D30" t="n">
-        <v>1.251228621845947</v>
+        <v>1.730427077656494</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>2.768450975418091</v>
+        <v>2.981121063232422</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6027124254180909</v>
+        <v>0.8153825132324219</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9182441234588623</v>
+        <v>0.9114353656768799</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1086308895411376</v>
+        <v>0.1154396473231201</v>
       </c>
     </row>
     <row r="31">
@@ -6122,28 +6122,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>5.832607746124268</v>
+        <v>7.346885681152344</v>
       </c>
       <c r="D31" t="n">
-        <v>3.138478441124267</v>
+        <v>4.652756376152343</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>3.967593908309937</v>
+        <v>5.022552013397217</v>
       </c>
       <c r="G31" t="n">
-        <v>5.030985839690063</v>
+        <v>3.976027734602782</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>1.213182330131531</v>
+        <v>1.174307107925415</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1378036201315307</v>
+        <v>0.09892839792541497</v>
       </c>
     </row>
     <row r="32">
@@ -6156,28 +6156,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>3.175855159759521</v>
+        <v>3.523268699645996</v>
       </c>
       <c r="D32" t="n">
-        <v>6.409049084240479</v>
+        <v>6.061635544354004</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>2.060371875762939</v>
+        <v>2.384280443191528</v>
       </c>
       <c r="G32" t="n">
-        <v>26.04525199423706</v>
+        <v>25.72134342680847</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>1.297498345375061</v>
+        <v>1.429320454597473</v>
       </c>
       <c r="J32" t="n">
-        <v>6.581316207624939</v>
+        <v>6.449494098402527</v>
       </c>
     </row>
     <row r="33">
@@ -6190,28 +6190,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>9.032919883728027</v>
+        <v>10.1871223449707</v>
       </c>
       <c r="D33" t="n">
-        <v>13.07972969627197</v>
+        <v>11.9255272350293</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>4.937234878540039</v>
+        <v>5.368279457092285</v>
       </c>
       <c r="G33" t="n">
-        <v>2.165108642459961</v>
+        <v>1.734064063907715</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8068472743034363</v>
+        <v>0.6492693424224854</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8181673366965638</v>
+        <v>0.9757452685775148</v>
       </c>
     </row>
   </sheetData>
@@ -6295,28 +6295,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>1.942517518997192</v>
+        <v>2.374356269836426</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7823472329971923</v>
+        <v>1.214185983836426</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>1.113709211349487</v>
+        <v>1.566684007644653</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6918136623494873</v>
+        <v>1.144788458644653</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3350333571434021</v>
+        <v>0.341555118560791</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1682286901434021</v>
+        <v>0.174750451560791</v>
       </c>
     </row>
     <row r="3">
@@ -6329,28 +6329,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>12.08202266693115</v>
+        <v>11.58379364013672</v>
       </c>
       <c r="D3" t="n">
-        <v>6.145535825931153</v>
+        <v>5.647306799136719</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>2.822030067443848</v>
+        <v>2.031209468841553</v>
       </c>
       <c r="G3" t="n">
-        <v>2.146125493443848</v>
+        <v>1.355304894841553</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.337687373161316</v>
+        <v>1.709491729736328</v>
       </c>
       <c r="J3" t="n">
-        <v>1.337687373161316</v>
+        <v>1.709491729736328</v>
       </c>
     </row>
     <row r="4">
@@ -6363,28 +6363,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>1.775142192840576</v>
+        <v>2.257012605667114</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7711263991594239</v>
+        <v>0.2892559863328859</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7176318764686584</v>
+        <v>1.183891892433167</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2271577564686584</v>
+        <v>0.6934177724331665</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.56148362159729</v>
+        <v>0.6687783002853394</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04042458559729001</v>
+        <v>0.1477192642853393</v>
       </c>
     </row>
     <row r="5">
@@ -6397,28 +6397,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>3.827046871185303</v>
+        <v>4.352572441101074</v>
       </c>
       <c r="D5" t="n">
-        <v>6.836703238814698</v>
+        <v>6.311177668898926</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.820977210998535</v>
+        <v>2.881639719009399</v>
       </c>
       <c r="G5" t="n">
-        <v>2.546773704001465</v>
+        <v>2.486111195990601</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3205442428588867</v>
+        <v>0.5510348677635193</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5794455331411132</v>
+        <v>0.3489549082364807</v>
       </c>
     </row>
     <row r="6">
@@ -6431,28 +6431,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>3.977112531661987</v>
+        <v>4.538599967956543</v>
       </c>
       <c r="D6" t="n">
-        <v>11.60242739833801</v>
+        <v>11.04093996204346</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>2.779070377349854</v>
+        <v>2.838595151901245</v>
       </c>
       <c r="G6" t="n">
-        <v>4.357585031650147</v>
+        <v>4.298060257098755</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2176616191864014</v>
+        <v>0.3743461966514587</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7061680468135987</v>
+        <v>0.5494834693485413</v>
       </c>
     </row>
     <row r="7">
@@ -6465,28 +6465,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>2.384349346160889</v>
+        <v>2.653178215026855</v>
       </c>
       <c r="D7" t="n">
-        <v>1.364959058160889</v>
+        <v>1.633787927026855</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>3.226858615875244</v>
+        <v>3.33758544921875</v>
       </c>
       <c r="G7" t="n">
-        <v>0.254469665124756</v>
+        <v>0.1437428317812501</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4489301741123199</v>
+        <v>0.7203691601753235</v>
       </c>
       <c r="J7" t="n">
-        <v>0.16826292488768</v>
+        <v>0.1031760611753235</v>
       </c>
     </row>
     <row r="8">
@@ -6499,28 +6499,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44624328613281</v>
+        <v>15.88552379608154</v>
       </c>
       <c r="D8" t="n">
-        <v>2.141044733867187</v>
+        <v>2.701764223918456</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>6.518205165863037</v>
+        <v>6.019084930419922</v>
       </c>
       <c r="G8" t="n">
-        <v>1.205590190136963</v>
+        <v>1.704710425580078</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8359876871109009</v>
+        <v>0.7064862847328186</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3033503758890992</v>
+        <v>0.4328517782671815</v>
       </c>
     </row>
     <row r="9">
@@ -6533,28 +6533,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>3.976182222366333</v>
+        <v>4.19097375869751</v>
       </c>
       <c r="D9" t="n">
-        <v>2.175192409633667</v>
+        <v>1.96040087330249</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.312221884727478</v>
+        <v>1.391063332557678</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1103181637274779</v>
+        <v>0.1891596115576781</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>2.376359462738037</v>
+        <v>3.027742624282837</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8890862657380372</v>
+        <v>1.540469427282837</v>
       </c>
     </row>
     <row r="10">
@@ -6567,28 +6567,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>10.06741046905518</v>
+        <v>9.118462562561035</v>
       </c>
       <c r="D10" t="n">
-        <v>2.299086490944823</v>
+        <v>3.248034397438964</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>2.844887256622314</v>
+        <v>2.344147443771362</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3203467486223146</v>
+        <v>0.1803930642286375</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>2.827415466308594</v>
+        <v>3.68931770324707</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8709351143085937</v>
+        <v>1.73283735124707</v>
       </c>
     </row>
     <row r="11">
@@ -6601,28 +6601,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>1.970905303955078</v>
+        <v>2.383257865905762</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9963044119550781</v>
+        <v>1.408656973905762</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>1.184384107589722</v>
+        <v>1.620479345321655</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7907481925897217</v>
+        <v>1.226843430321655</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3954313993453979</v>
+        <v>0.4485877156257629</v>
       </c>
       <c r="J11" t="n">
-        <v>0.234472360345398</v>
+        <v>0.287628676625763</v>
       </c>
     </row>
     <row r="12">
@@ -6635,28 +6635,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>1.649494886398315</v>
+        <v>2.011305093765259</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8636890143983155</v>
+        <v>1.225499221765259</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>1.177370429039001</v>
+        <v>1.679888367652893</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4848952140390015</v>
+        <v>0.9874131526528931</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2909376621246338</v>
+        <v>0.2843056321144104</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09548680712463378</v>
+        <v>0.08885477711441039</v>
       </c>
     </row>
     <row r="13">
@@ -6669,28 +6669,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>2.334432601928711</v>
+        <v>2.65187668800354</v>
       </c>
       <c r="D13" t="n">
-        <v>1.300002401928711</v>
+        <v>1.61744648800354</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>2.854131460189819</v>
+        <v>2.986883401870728</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1623047668101805</v>
+        <v>0.02955282512927226</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3008828163146973</v>
+        <v>0.4671549797058105</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1075666426853027</v>
+        <v>0.05870552070581053</v>
       </c>
     </row>
     <row r="14">
@@ -6703,28 +6703,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>57.23095321655273</v>
+        <v>50.40801239013672</v>
       </c>
       <c r="D14" t="n">
-        <v>4.572902483447265</v>
+        <v>11.39584330986328</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>21.63408088684082</v>
+        <v>19.04250144958496</v>
       </c>
       <c r="G14" t="n">
-        <v>3.377416793159181</v>
+        <v>5.968996230415041</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>3.734375953674316</v>
+        <v>3.840111017227173</v>
       </c>
       <c r="J14" t="n">
-        <v>0.003894745674316358</v>
+        <v>0.1096298092271728</v>
       </c>
     </row>
     <row r="15">
@@ -6737,28 +6737,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>1.905271291732788</v>
+        <v>2.369013071060181</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6133821842672118</v>
+        <v>0.1496404049398192</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9072614908218384</v>
+        <v>1.364164113998413</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2390876308218384</v>
+        <v>0.6959902539984131</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5411571264266968</v>
+        <v>0.6594159603118896</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03786608742669673</v>
+        <v>0.1561249213118896</v>
       </c>
     </row>
     <row r="16">
@@ -6771,28 +6771,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>1.991329669952393</v>
+        <v>2.415356636047363</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9851336629523926</v>
+        <v>1.409160629047363</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>1.222657799720764</v>
+        <v>1.659606695175171</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7578698677207641</v>
+        <v>1.194818763175171</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3275057673454285</v>
+        <v>0.3435870409011841</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1413812853454285</v>
+        <v>0.1574625589011841</v>
       </c>
     </row>
     <row r="17">
@@ -6805,28 +6805,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.251729249954224</v>
+        <v>2.62572455406189</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1289776420457764</v>
+        <v>0.2450176620618896</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>2.005203485488892</v>
+        <v>2.300405979156494</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2969068504888916</v>
+        <v>0.5921093441564942</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8410775661468506</v>
+        <v>1.283591270446777</v>
       </c>
       <c r="J17" t="n">
-        <v>0.006018042146850533</v>
+        <v>0.4485317464467773</v>
       </c>
     </row>
     <row r="18">
@@ -6839,28 +6839,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>2.825493574142456</v>
+        <v>3.416694402694702</v>
       </c>
       <c r="D18" t="n">
-        <v>1.044798794142456</v>
+        <v>1.635999622694702</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>1.521363019943237</v>
+        <v>1.806470155715942</v>
       </c>
       <c r="G18" t="n">
-        <v>1.015843111943237</v>
+        <v>1.300950247715942</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4244984090328217</v>
+        <v>0.5278410315513611</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2483021360328217</v>
+        <v>0.3516447585513611</v>
       </c>
     </row>
     <row r="19">
@@ -6873,28 +6873,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>2.853010177612305</v>
+        <v>2.829382181167603</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8588082183876953</v>
+        <v>0.8824362148323974</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>6.18170166015625</v>
+        <v>5.884305477142334</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2669041041562501</v>
+        <v>0.03049207885766592</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>4.950889110565186</v>
+        <v>5.555104732513428</v>
       </c>
       <c r="J19" t="n">
-        <v>1.790770107565185</v>
+        <v>2.394985729513428</v>
       </c>
     </row>
     <row r="20">
@@ -6907,28 +6907,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>3.184297800064087</v>
+        <v>3.648085594177246</v>
       </c>
       <c r="D20" t="n">
-        <v>2.082153020064087</v>
+        <v>2.545940814177246</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>2.720710754394531</v>
+        <v>2.823693037033081</v>
       </c>
       <c r="G20" t="n">
-        <v>1.923025367394531</v>
+        <v>2.026007650033081</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3121135830879211</v>
+        <v>0.5178852677345276</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1630187190879211</v>
+        <v>0.3687904037345276</v>
       </c>
     </row>
     <row r="21">
@@ -6941,28 +6941,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>86.14724731445312</v>
+        <v>74.92030334472656</v>
       </c>
       <c r="D21" t="n">
-        <v>5.09439444445313</v>
+        <v>6.132549525273433</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>36.04639434814453</v>
+        <v>32.07742309570312</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2635683781445337</v>
+        <v>3.705402874296873</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>5.532562255859375</v>
+        <v>5.268833637237549</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9196337088593749</v>
+        <v>0.6559050902375487</v>
       </c>
     </row>
     <row r="22">
@@ -6975,28 +6975,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.418201446533203</v>
+        <v>1.658899784088135</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9488764085332031</v>
+        <v>1.189574746088135</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.366087794303894</v>
+        <v>1.779869794845581</v>
       </c>
       <c r="G22" t="n">
-        <v>1.044471215303894</v>
+        <v>1.458253215845581</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>1.491104960441589</v>
+        <v>1.938125014305115</v>
       </c>
       <c r="J22" t="n">
-        <v>1.148962530441589</v>
+        <v>1.595982584305115</v>
       </c>
     </row>
     <row r="23">
@@ -7009,28 +7009,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>165.5515594482422</v>
+        <v>140.7057952880859</v>
       </c>
       <c r="D23" t="n">
-        <v>16.98823564824218</v>
+        <v>7.857528511914069</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>87.21096038818359</v>
+        <v>77.06606292724609</v>
       </c>
       <c r="G23" t="n">
-        <v>9.458330908183598</v>
+        <v>0.6865665527539022</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>10.5327730178833</v>
+        <v>9.635126113891602</v>
       </c>
       <c r="J23" t="n">
-        <v>2.219967617883301</v>
+        <v>1.322320713891601</v>
       </c>
     </row>
     <row r="24">
@@ -7043,28 +7043,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>1.864072322845459</v>
+        <v>2.311699867248535</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2757207501545409</v>
+        <v>0.1719067942485353</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9710851311683655</v>
+        <v>1.418355941772461</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3354970861683655</v>
+        <v>0.7827678967724609</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8535585403442383</v>
+        <v>1.219704747200012</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2500867833442383</v>
+        <v>0.6162329902000122</v>
       </c>
     </row>
     <row r="25">
@@ -7077,28 +7077,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>26.47661781311035</v>
+        <v>24.36164093017578</v>
       </c>
       <c r="D25" t="n">
-        <v>4.361522483110353</v>
+        <v>2.246545600175782</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>8.695051193237305</v>
+        <v>7.455506324768066</v>
       </c>
       <c r="G25" t="n">
-        <v>0.909498403237305</v>
+        <v>0.3300464652319333</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>1.20359218120575</v>
+        <v>1.383713960647583</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01761956020574962</v>
+        <v>0.1977413396475831</v>
       </c>
     </row>
     <row r="26">
@@ -7111,28 +7111,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>14.87607002258301</v>
+        <v>14.40752601623535</v>
       </c>
       <c r="D26" t="n">
-        <v>3.766442737416991</v>
+        <v>4.234986743764647</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>5.100915908813477</v>
+        <v>4.564055919647217</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8044027421865234</v>
+        <v>1.341262731352783</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9088867902755737</v>
+        <v>0.9074907898902893</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3971353687244263</v>
+        <v>0.3985313691097108</v>
       </c>
     </row>
     <row r="27">
@@ -7145,28 +7145,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>2.695189476013184</v>
+        <v>3.047936677932739</v>
       </c>
       <c r="D27" t="n">
-        <v>1.583145097013184</v>
+        <v>1.935892298932739</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>3.067669630050659</v>
+        <v>3.154399633407593</v>
       </c>
       <c r="G27" t="n">
-        <v>1.595499977050659</v>
+        <v>1.682229980407593</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4891064167022705</v>
+        <v>0.8113832473754883</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1781744647022705</v>
+        <v>0.5004512953754883</v>
       </c>
     </row>
     <row r="28">
@@ -7179,28 +7179,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>5.347249031066895</v>
+        <v>5.877412796020508</v>
       </c>
       <c r="D28" t="n">
-        <v>4.343026151066894</v>
+        <v>4.873189916020507</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>5.01438045501709</v>
+        <v>5.005501270294189</v>
       </c>
       <c r="G28" t="n">
-        <v>4.15283526501709</v>
+        <v>4.143956080294189</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2985560297966003</v>
+        <v>0.3664909601211548</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2122106587966003</v>
+        <v>0.2801455891211548</v>
       </c>
     </row>
     <row r="29">
@@ -7213,28 +7213,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>3.165491342544556</v>
+        <v>3.638219356536865</v>
       </c>
       <c r="D29" t="n">
-        <v>5.783588588455444</v>
+        <v>5.310860574463135</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>2.588360786437988</v>
+        <v>2.72237229347229</v>
       </c>
       <c r="G29" t="n">
-        <v>3.145678419562012</v>
+        <v>3.01166691252771</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2872321605682373</v>
+        <v>0.4614459276199341</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5599218844317627</v>
+        <v>0.3857081173800659</v>
       </c>
     </row>
     <row r="30">
@@ -7247,28 +7247,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>6.520754814147949</v>
+        <v>6.539582252502441</v>
       </c>
       <c r="D30" t="n">
-        <v>2.658783725147949</v>
+        <v>2.677611163502442</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>2.722468614578247</v>
+        <v>2.700036764144897</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5567300645782471</v>
+        <v>0.5342982141448975</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9422315359115601</v>
+        <v>1.251571178436279</v>
       </c>
       <c r="J30" t="n">
-        <v>0.08464347708843989</v>
+        <v>0.2246961654362793</v>
       </c>
     </row>
     <row r="31">
@@ -7281,28 +7281,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>6.638989448547363</v>
+        <v>6.402006149291992</v>
       </c>
       <c r="D31" t="n">
-        <v>3.944860143547363</v>
+        <v>3.707876844291992</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>13.92824459075928</v>
+        <v>13.51854133605957</v>
       </c>
       <c r="G31" t="n">
-        <v>4.929664842759278</v>
+        <v>4.519961588059571</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>2.910800218582153</v>
+        <v>2.383280038833618</v>
       </c>
       <c r="J31" t="n">
-        <v>1.835421508582153</v>
+        <v>1.307901328833618</v>
       </c>
     </row>
     <row r="32">
@@ -7315,28 +7315,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.757955074310303</v>
+        <v>2.902321100234985</v>
       </c>
       <c r="D32" t="n">
-        <v>6.826949169689698</v>
+        <v>6.682583143765015</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>5.460315704345703</v>
+        <v>5.305318355560303</v>
       </c>
       <c r="G32" t="n">
-        <v>22.6453081656543</v>
+        <v>22.8003055144397</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>1.62068498134613</v>
+        <v>2.158366918563843</v>
       </c>
       <c r="J32" t="n">
-        <v>6.258129571653869</v>
+        <v>5.720447634436157</v>
       </c>
     </row>
     <row r="33">
@@ -7349,28 +7349,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>17.97560119628906</v>
+        <v>17.03968238830566</v>
       </c>
       <c r="D33" t="n">
-        <v>4.137048383710937</v>
+        <v>5.072967191694335</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>5.85263729095459</v>
+        <v>5.16995096206665</v>
       </c>
       <c r="G33" t="n">
-        <v>1.24970623004541</v>
+        <v>1.932392558933349</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.092695474624634</v>
+        <v>1.204048991203308</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5323191363753663</v>
+        <v>0.420965619796692</v>
       </c>
     </row>
   </sheetData>

--- a/IndexResults.xlsx
+++ b/IndexResults.xlsx
@@ -500,28 +500,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>3.524984309247755</v>
+        <v>2.063843799057848</v>
       </c>
       <c r="D2" t="n">
-        <v>2.364814023247755</v>
+        <v>0.9036735130578477</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>2.288066253965174</v>
+        <v>0.9898245938166661</v>
       </c>
       <c r="G2" t="n">
-        <v>1.866170704965174</v>
+        <v>0.5679290448166661</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6222443502867944</v>
+        <v>0.180641159898064</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4554396832867944</v>
+        <v>0.01383649289806396</v>
       </c>
     </row>
     <row r="3">
@@ -534,28 +534,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>11.54371550822559</v>
+        <v>7.524972089326914</v>
       </c>
       <c r="D3" t="n">
-        <v>5.607228667225592</v>
+        <v>1.588485248326914</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3531220156818469</v>
+        <v>-1.179571159876032</v>
       </c>
       <c r="G3" t="n">
-        <v>1.029026589681847</v>
+        <v>1.855475733876032</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.087771606036061</v>
+        <v>0.7066702300860199</v>
       </c>
       <c r="J3" t="n">
-        <v>1.087771606036061</v>
+        <v>0.7066702300860199</v>
       </c>
     </row>
     <row r="4">
@@ -568,28 +568,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>3.816778122104188</v>
+        <v>2.304348956952286</v>
       </c>
       <c r="D4" t="n">
-        <v>1.270509530104188</v>
+        <v>0.2419196350477137</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>1.924152270905973</v>
+        <v>0.6039662655514704</v>
       </c>
       <c r="G4" t="n">
-        <v>1.433678150905973</v>
+        <v>0.1134921455514704</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8963915481807556</v>
+        <v>0.4335578311504709</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3753325121807556</v>
+        <v>0.08750120484952917</v>
       </c>
     </row>
     <row r="5">
@@ -602,28 +602,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>4.75848280449799</v>
+        <v>6.198298642750636</v>
       </c>
       <c r="D5" t="n">
-        <v>5.905267305502011</v>
+        <v>4.465451467249364</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>3.14164787904513</v>
+        <v>4.291895258416879</v>
       </c>
       <c r="G5" t="n">
-        <v>2.22610303595487</v>
+        <v>1.075855656583121</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6283526549771009</v>
+        <v>0.5262272562374022</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2716371210228991</v>
+        <v>0.3737625197625978</v>
       </c>
     </row>
     <row r="6">
@@ -636,28 +636,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>4.94849444645426</v>
+        <v>6.355978203416536</v>
       </c>
       <c r="D6" t="n">
-        <v>10.63104548354574</v>
+        <v>9.223561726583464</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>3.002300400897101</v>
+        <v>4.13242279898599</v>
       </c>
       <c r="G6" t="n">
-        <v>4.134355008102899</v>
+        <v>3.00423261001401</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4856633552656766</v>
+        <v>0.3802650449798219</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4381663107343234</v>
+        <v>0.5435646210201781</v>
       </c>
     </row>
     <row r="7">
@@ -670,28 +670,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>2.77011697040838</v>
+        <v>1.114717198995614</v>
       </c>
       <c r="D7" t="n">
-        <v>1.75072668240838</v>
+        <v>0.0953269109956143</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>4.090039942128816</v>
+        <v>3.33783161727384</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6087116611288157</v>
+        <v>0.1434966637261605</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8967982025773288</v>
+        <v>0.4491796456671291</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2796051035773288</v>
+        <v>0.1680134533328709</v>
       </c>
     </row>
     <row r="8">
@@ -704,28 +704,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>10.25716417682596</v>
+        <v>13.87528336417444</v>
       </c>
       <c r="D8" t="n">
-        <v>8.330123843174038</v>
+        <v>4.712004655825558</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>4.528512807833282</v>
+        <v>6.464530670646858</v>
       </c>
       <c r="G8" t="n">
-        <v>3.195282548166718</v>
+        <v>1.259264685353142</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7418628530639872</v>
+        <v>2.164007678279527</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3974752099360128</v>
+        <v>1.024669615279526</v>
       </c>
     </row>
     <row r="9">
@@ -738,28 +738,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>6.210820241360901</v>
+        <v>9.936724110207914</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05944560936090149</v>
+        <v>3.785349478207914</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.546187344446367</v>
+        <v>3.600021337719661</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3442836234463671</v>
+        <v>2.398117616719661</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>2.126952434944189</v>
+        <v>3.502381670146</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6396792379441889</v>
+        <v>2.015108473146</v>
       </c>
     </row>
     <row r="10">
@@ -772,28 +772,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>9.435029061581336</v>
+        <v>12.86924118089089</v>
       </c>
       <c r="D10" t="n">
-        <v>2.931467898418664</v>
+        <v>0.5027442208908894</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>1.329512297988914</v>
+        <v>3.215137689505908</v>
       </c>
       <c r="G10" t="n">
-        <v>1.195028210011086</v>
+        <v>0.690597181505908</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>2.249244763071762</v>
+        <v>3.562869671228744</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2927644110717618</v>
+        <v>1.606389319228744</v>
       </c>
     </row>
     <row r="11">
@@ -806,28 +806,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>3.537061818642715</v>
+        <v>2.084901163861009</v>
       </c>
       <c r="D11" t="n">
-        <v>2.562460926642715</v>
+        <v>1.110300271861009</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>2.373916104850511</v>
+        <v>1.081655654985663</v>
       </c>
       <c r="G11" t="n">
-        <v>1.980280189850511</v>
+        <v>0.6880197399856627</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7132127368218575</v>
+        <v>0.2714257117386629</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5522536978218575</v>
+        <v>0.1104666727386629</v>
       </c>
     </row>
     <row r="12">
@@ -840,28 +840,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>2.915481231464856</v>
+        <v>1.527871487752722</v>
       </c>
       <c r="D12" t="n">
-        <v>2.129675359464856</v>
+        <v>0.742065615752722</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>2.53138185961163</v>
+        <v>1.273747751817485</v>
       </c>
       <c r="G12" t="n">
-        <v>1.83890664461163</v>
+        <v>0.5812725368174854</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.59931366905852</v>
+        <v>0.1747437467709378</v>
       </c>
       <c r="J12" t="n">
-        <v>0.40386281405852</v>
+        <v>0.02070710822906216</v>
       </c>
     </row>
     <row r="13">
@@ -874,28 +874,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>2.820267124022909</v>
+        <v>1.129722667071334</v>
       </c>
       <c r="D13" t="n">
-        <v>1.785836924022909</v>
+        <v>0.09529246707133421</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>3.798770175077967</v>
+        <v>3.025669915217042</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7823339480779676</v>
+        <v>0.009233688217042513</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7155051902120259</v>
+        <v>0.2638521391103963</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3070557312120258</v>
+        <v>0.1445973198896037</v>
       </c>
     </row>
     <row r="14">
@@ -908,28 +908,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>56.87533370334597</v>
+        <v>55.26126441361441</v>
       </c>
       <c r="D14" t="n">
-        <v>4.928521996654027</v>
+        <v>6.542591286385587</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>17.91549445052061</v>
+        <v>17.14268139270906</v>
       </c>
       <c r="G14" t="n">
-        <v>7.096003229479393</v>
+        <v>7.868816287290937</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>2.630101287824517</v>
+        <v>2.011937355260239</v>
       </c>
       <c r="J14" t="n">
-        <v>1.100379920175483</v>
+        <v>1.718543852739761</v>
       </c>
     </row>
     <row r="15">
@@ -942,28 +942,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>3.796234342238522</v>
+        <v>2.301140156137099</v>
       </c>
       <c r="D15" t="n">
-        <v>1.277580866238522</v>
+        <v>0.2175133198629009</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>2.100337784915455</v>
+        <v>0.7883047088322055</v>
       </c>
       <c r="G15" t="n">
-        <v>1.432163924915455</v>
+        <v>0.1201308488322055</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8789239208063093</v>
+        <v>0.4215234707274091</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3756328818063093</v>
+        <v>0.08176756827259091</v>
       </c>
     </row>
     <row r="16">
@@ -976,28 +976,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>3.498670129195811</v>
+        <v>2.048602306946799</v>
       </c>
       <c r="D16" t="n">
-        <v>2.492474122195811</v>
+        <v>1.042406299946799</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>2.385313904811722</v>
+        <v>1.09262133924415</v>
       </c>
       <c r="G16" t="n">
-        <v>1.920525972811722</v>
+        <v>0.6278334072441499</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6219596237125165</v>
+        <v>0.183369590208194</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4358351417125165</v>
+        <v>0.002754891791806019</v>
       </c>
     </row>
     <row r="17">
@@ -1010,28 +1010,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>3.553182697010456</v>
+        <v>1.749338313494743</v>
       </c>
       <c r="D17" t="n">
-        <v>1.172475805010456</v>
+        <v>0.6313685785052572</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>3.083977799456988</v>
+        <v>2.261094681050345</v>
       </c>
       <c r="G17" t="n">
-        <v>1.375681164456988</v>
+        <v>0.552798046050345</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>1.297901265824536</v>
+        <v>0.8008296836173432</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4628417418245361</v>
+        <v>0.03422984038265686</v>
       </c>
     </row>
     <row r="18">
@@ -1044,28 +1044,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>4.625915480059565</v>
+        <v>3.064159860418455</v>
       </c>
       <c r="D18" t="n">
-        <v>2.845220700059564</v>
+        <v>1.283465080418455</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>2.202909747613095</v>
+        <v>0.8467462758321789</v>
       </c>
       <c r="G18" t="n">
-        <v>1.697389839613094</v>
+        <v>0.3412263678321789</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6640125111686391</v>
+        <v>0.2010098972974121</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4878162381686392</v>
+        <v>0.02481362429741216</v>
       </c>
     </row>
     <row r="19">
@@ -1078,28 +1078,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>3.345197601453823</v>
+        <v>7.713100067353675</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3666207945461766</v>
+        <v>4.001281671353675</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>5.589622507541835</v>
+        <v>8.00297260472083</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3251750484581653</v>
+        <v>2.08817504872083</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>3.371638370322679</v>
+        <v>4.870318895366932</v>
       </c>
       <c r="J19" t="n">
-        <v>0.211519367322679</v>
+        <v>1.710199892366932</v>
       </c>
     </row>
     <row r="20">
@@ -1112,28 +1112,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>4.048906981103769</v>
+        <v>5.566596299965031</v>
       </c>
       <c r="D20" t="n">
-        <v>2.946762201103769</v>
+        <v>4.464451519965031</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>3.325576919586887</v>
+        <v>4.520450632351119</v>
       </c>
       <c r="G20" t="n">
-        <v>2.527891532586887</v>
+        <v>3.722765245351119</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6549619231923267</v>
+        <v>0.5687155256799128</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5058670591923267</v>
+        <v>0.4196206616799128</v>
       </c>
     </row>
     <row r="21">
@@ -1146,28 +1146,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>88.57607782440728</v>
+        <v>85.68473067836607</v>
       </c>
       <c r="D21" t="n">
-        <v>7.523224954407283</v>
+        <v>4.63187780836607</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>33.43993111450082</v>
+        <v>31.76409982463617</v>
       </c>
       <c r="G21" t="n">
-        <v>2.342894855499182</v>
+        <v>4.018726145363829</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>3.282727440981202</v>
+        <v>2.537693506781943</v>
       </c>
       <c r="J21" t="n">
-        <v>1.330201106018798</v>
+        <v>2.075235040218057</v>
       </c>
     </row>
     <row r="22">
@@ -1180,28 +1180,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>3.166309966138803</v>
+        <v>1.3726865488563</v>
       </c>
       <c r="D22" t="n">
-        <v>2.696984928138803</v>
+        <v>0.9033615108562998</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>2.699946229440292</v>
+        <v>1.895524670459141</v>
       </c>
       <c r="G22" t="n">
-        <v>2.378329650440292</v>
+        <v>1.573908091459141</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>1.796678759602443</v>
+        <v>1.283435362036034</v>
       </c>
       <c r="J22" t="n">
-        <v>1.454536329602443</v>
+        <v>0.9412929320360339</v>
       </c>
     </row>
     <row r="23">
@@ -1214,28 +1214,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>171.8352260522801</v>
+        <v>167.3221638003977</v>
       </c>
       <c r="D23" t="n">
-        <v>23.27190225228006</v>
+        <v>18.75884000039767</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>92.83684293870016</v>
+        <v>89.65240602596401</v>
       </c>
       <c r="G23" t="n">
-        <v>15.08421345870016</v>
+        <v>11.89977654596402</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>6.681128984084169</v>
+        <v>6.053882615325977</v>
       </c>
       <c r="J23" t="n">
-        <v>1.631676415915831</v>
+        <v>2.258922784674024</v>
       </c>
     </row>
     <row r="24">
@@ -1248,28 +1248,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>3.810233647398613</v>
+        <v>2.337181524295313</v>
       </c>
       <c r="D24" t="n">
-        <v>1.670440574398613</v>
+        <v>0.1973884512953132</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>2.241178371162189</v>
+        <v>0.9480553024326079</v>
       </c>
       <c r="G24" t="n">
-        <v>1.605590326162189</v>
+        <v>0.3124672574326079</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>1.308649993211744</v>
+        <v>0.8440850542562492</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7051782362117439</v>
+        <v>0.2406132972562492</v>
       </c>
     </row>
     <row r="25">
@@ -1282,28 +1282,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>19.78710241772608</v>
+        <v>20.1378721711578</v>
       </c>
       <c r="D25" t="n">
-        <v>2.327992912273917</v>
+        <v>1.977223158842204</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>5.281581329451348</v>
+        <v>5.764659445254495</v>
       </c>
       <c r="G25" t="n">
-        <v>2.503971460548652</v>
+        <v>2.020893344745505</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5562302753837582</v>
+        <v>0.2653028354050277</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6297423456162416</v>
+        <v>0.9206697855949721</v>
       </c>
     </row>
     <row r="26">
@@ -1316,28 +1316,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>10.31102407040192</v>
+        <v>13.78724274158217</v>
       </c>
       <c r="D26" t="n">
-        <v>8.331488689598075</v>
+        <v>4.855270018417825</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>2.983214476179589</v>
+        <v>4.853279641023168</v>
       </c>
       <c r="G26" t="n">
-        <v>2.922104174820411</v>
+        <v>1.052039009976832</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8690697594236533</v>
+        <v>2.246283199182345</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4369523995763468</v>
+        <v>0.9402610401823452</v>
       </c>
     </row>
     <row r="27">
@@ -1350,28 +1350,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>3.303006110926455</v>
+        <v>2.008513794466044</v>
       </c>
       <c r="D27" t="n">
-        <v>2.190961731926455</v>
+        <v>0.8964694154660438</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>3.831815964867417</v>
+        <v>2.621570492504017</v>
       </c>
       <c r="G27" t="n">
-        <v>2.359646311867417</v>
+        <v>1.149400839504017</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9293086104083719</v>
+        <v>0.524587618157637</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6183766584083719</v>
+        <v>0.213655666157637</v>
       </c>
     </row>
     <row r="28">
@@ -1384,28 +1384,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>4.843338608458144</v>
+        <v>6.414606311406601</v>
       </c>
       <c r="D28" t="n">
-        <v>3.839115728458144</v>
+        <v>5.410383431406601</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>4.68231166018651</v>
+        <v>5.893642914273527</v>
       </c>
       <c r="G28" t="n">
-        <v>3.82076647018651</v>
+        <v>5.032097724273527</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5753516979501453</v>
+        <v>0.5139122773329845</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4890063269501453</v>
+        <v>0.4275669063329845</v>
       </c>
     </row>
     <row r="29">
@@ -1418,28 +1418,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>4.098556128020903</v>
+        <v>5.600600602216629</v>
       </c>
       <c r="D29" t="n">
-        <v>4.850523802979097</v>
+        <v>3.348479328783371</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>3.211509913489746</v>
+        <v>4.397564151186488</v>
       </c>
       <c r="G29" t="n">
-        <v>2.522529292510254</v>
+        <v>1.336475054813512</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6118657681171485</v>
+        <v>0.5228535336521223</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2352882768828515</v>
+        <v>0.3243005113478777</v>
       </c>
     </row>
     <row r="30">
@@ -1452,28 +1452,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>7.074930081643116</v>
+        <v>8.248236589685119</v>
       </c>
       <c r="D30" t="n">
-        <v>3.212958992643116</v>
+        <v>4.386265500685119</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>2.272687686547767</v>
+        <v>3.281212699650668</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1069491365477666</v>
+        <v>1.115474149650668</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>1.039889217570557</v>
+        <v>0.8664561907690392</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01301420457055724</v>
+        <v>0.1604188222309607</v>
       </c>
     </row>
     <row r="31">
@@ -1486,28 +1486,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>3.006687083899297</v>
+        <v>2.051589390476337</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3125577788992966</v>
+        <v>0.6425399145236628</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>11.7056590292652</v>
+        <v>11.3097456813629</v>
       </c>
       <c r="G31" t="n">
-        <v>2.707079281265203</v>
+        <v>2.311165933362899</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>2.072528402045613</v>
+        <v>1.79336415229766</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9971496920456124</v>
+        <v>0.7179854422976601</v>
       </c>
     </row>
     <row r="32">
@@ -1520,28 +1520,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.868338801545766</v>
+        <v>1.872537987339014</v>
       </c>
       <c r="D32" t="n">
-        <v>6.716565442454234</v>
+        <v>7.712366256660986</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>5.311280882556106</v>
+        <v>4.66131950209913</v>
       </c>
       <c r="G32" t="n">
-        <v>22.79434298744389</v>
+        <v>23.44430436790087</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>1.70835739262262</v>
+        <v>1.982392937807223</v>
       </c>
       <c r="J32" t="n">
-        <v>6.17045716037738</v>
+        <v>5.896421615192777</v>
       </c>
     </row>
     <row r="33">
@@ -1554,28 +1554,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>11.7311277309227</v>
+        <v>15.11766838105552</v>
       </c>
       <c r="D33" t="n">
-        <v>10.3815218490773</v>
+        <v>6.994981198944483</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>3.285314471322336</v>
+        <v>5.102049498852717</v>
       </c>
       <c r="G33" t="n">
-        <v>3.817029049677664</v>
+        <v>2.000294022147283</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.033239753082913</v>
+        <v>2.391013923408484</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5917748579170867</v>
+        <v>0.7659993124084843</v>
       </c>
     </row>
   </sheetData>
@@ -1659,28 +1659,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>1.203440056799999</v>
+        <v>1.260348568219999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0432697707999985</v>
+        <v>0.1001782822199986</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3821741909500002</v>
+        <v>0.3790015017200001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03972135804999982</v>
+        <v>0.04289404727999985</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1481407316600001</v>
+        <v>0.1537783376500001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01866393533999985</v>
+        <v>0.01302632934999992</v>
       </c>
     </row>
     <row r="3">
@@ -1693,28 +1693,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>13.93448073870002</v>
+        <v>13.83211174471002</v>
       </c>
       <c r="D3" t="n">
-        <v>7.997993897700018</v>
+        <v>7.895624903710019</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>1.808685585540001</v>
+        <v>1.817837896440002</v>
       </c>
       <c r="G3" t="n">
-        <v>1.132781011540001</v>
+        <v>1.141933322440002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9227475129700005</v>
+        <v>0.6326276371300001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9227475129700005</v>
+        <v>0.6326276371300001</v>
       </c>
     </row>
     <row r="4">
@@ -1727,28 +1727,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.421490956909999</v>
+        <v>2.395452919</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1247776350900009</v>
+        <v>0.1508156730000003</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7188137280300002</v>
+        <v>0.7176761924700003</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2283396080300002</v>
+        <v>0.2272020724700002</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5704565864099993</v>
+        <v>0.6357533367099997</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04939755040999927</v>
+        <v>0.1146943007099996</v>
       </c>
     </row>
     <row r="5">
@@ -1761,28 +1761,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>5.646334426669998</v>
+        <v>5.924697992009999</v>
       </c>
       <c r="D5" t="n">
-        <v>5.017415683330002</v>
+        <v>4.739052117990002</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>3.030520644330001</v>
+        <v>3.081905059100001</v>
       </c>
       <c r="G5" t="n">
-        <v>2.337230270669999</v>
+        <v>2.285845855899999</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5966433494400002</v>
+        <v>0.5407154231300002</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3033464265599998</v>
+        <v>0.3592743528699998</v>
       </c>
     </row>
     <row r="6">
@@ -1795,28 +1795,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>6.939039860660002</v>
+        <v>6.950514822290001</v>
       </c>
       <c r="D6" t="n">
-        <v>8.640500069339996</v>
+        <v>8.62902510771</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>4.090186334449999</v>
+        <v>4.369222151680001</v>
       </c>
       <c r="G6" t="n">
-        <v>3.046469074550001</v>
+        <v>2.76743325732</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.50002602703</v>
+        <v>0.53590123583</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4238036389700001</v>
+        <v>0.38792843017</v>
       </c>
     </row>
     <row r="7">
@@ -1829,28 +1829,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>1.095548958249999</v>
+        <v>0.9858856958799994</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07615867024999901</v>
+        <v>0.03350459212000068</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>5.308941273639996</v>
+        <v>5.358974974769995</v>
       </c>
       <c r="G7" t="n">
-        <v>1.827612992639996</v>
+        <v>1.877646693769995</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4617573418499998</v>
+        <v>0.47920768546</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1554357571500001</v>
+        <v>0.13798541354</v>
       </c>
     </row>
     <row r="8">
@@ -1863,28 +1863,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>17.80430762236001</v>
+        <v>17.90981375262001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7829803976399887</v>
+        <v>0.6774742673799885</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>6.545813136959998</v>
+        <v>6.694840113210001</v>
       </c>
       <c r="G8" t="n">
-        <v>1.177982219040002</v>
+        <v>1.02895524279</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>1.018863064940001</v>
+        <v>1.022054991940001</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1204749980599993</v>
+        <v>0.117283071059999</v>
       </c>
     </row>
     <row r="9">
@@ -1897,28 +1897,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.664321041939997</v>
+        <v>4.525074056089998</v>
       </c>
       <c r="D9" t="n">
-        <v>1.487053590060003</v>
+        <v>1.626300575910001</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.025324961700001</v>
+        <v>0.9926786791900005</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1765787592999994</v>
+        <v>0.2092250418099996</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.051360061570001</v>
+        <v>1.433650046019999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4359131354299994</v>
+        <v>0.05362315098000048</v>
       </c>
     </row>
     <row r="10">
@@ -1931,28 +1931,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>8.58965259079001</v>
+        <v>10.23904142231001</v>
       </c>
       <c r="D10" t="n">
-        <v>3.776844369209989</v>
+        <v>2.127455537689992</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>4.80705467981</v>
+        <v>5.032259705599999</v>
       </c>
       <c r="G10" t="n">
-        <v>2.28251417181</v>
+        <v>2.507719197599999</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>1.95064370465</v>
+        <v>2.03556448407</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005836647349999557</v>
+        <v>0.07908413206999954</v>
       </c>
     </row>
     <row r="11">
@@ -1965,28 +1965,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>1.700909059440001</v>
+        <v>1.64986810113</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7263081674400009</v>
+        <v>0.6752672091300005</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>0.61093360935</v>
+        <v>0.6118108414199999</v>
       </c>
       <c r="G11" t="n">
-        <v>0.21729769435</v>
+        <v>0.2181749264199999</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.33224486511</v>
+        <v>0.3161716893499999</v>
       </c>
       <c r="J11" t="n">
-        <v>0.17128582611</v>
+        <v>0.1552126503499999</v>
       </c>
     </row>
     <row r="12">
@@ -1999,28 +1999,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7587689503800006</v>
+        <v>0.7419596655600005</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02703692161999938</v>
+        <v>0.04384620643999948</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5433215975599998</v>
+        <v>0.5588386924199995</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1491536174400002</v>
+        <v>0.1336365225800005</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.16369263155</v>
+        <v>0.17686212145</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03175822345000001</v>
+        <v>0.01858873354999999</v>
       </c>
     </row>
     <row r="13">
@@ -2033,28 +2033,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>1.211696083259999</v>
+        <v>1.157737495339999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1772658832599985</v>
+        <v>0.1233072953399987</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>5.733554319979999</v>
+        <v>5.868307809529999</v>
       </c>
       <c r="G13" t="n">
-        <v>2.717118092979999</v>
+        <v>2.851871582529999</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3786990003900002</v>
+        <v>0.3886510529300003</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02975045860999986</v>
+        <v>0.01979840606999972</v>
       </c>
     </row>
     <row r="14">
@@ -2067,28 +2067,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>29.64252553876997</v>
+        <v>29.44525355974997</v>
       </c>
       <c r="D14" t="n">
-        <v>32.16133016123003</v>
+        <v>32.35860214025003</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>28.33833646545999</v>
+        <v>31.41438194225998</v>
       </c>
       <c r="G14" t="n">
-        <v>3.326838785459991</v>
+        <v>6.402884262259974</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>5.609592363950004</v>
+        <v>5.912811369640001</v>
       </c>
       <c r="J14" t="n">
-        <v>1.879111155950004</v>
+        <v>2.182330161640001</v>
       </c>
     </row>
     <row r="15">
@@ -2101,28 +2101,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.04607050106</v>
+        <v>2.08743865676</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4725829749400003</v>
+        <v>0.43121481924</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.62817593388</v>
+        <v>0.6247996716100002</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03999792611999997</v>
+        <v>0.04337418838999985</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.37454933318</v>
+        <v>0.43397017848</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1287417058200001</v>
+        <v>0.06932086052000003</v>
       </c>
     </row>
     <row r="16">
@@ -2135,28 +2135,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>1.151278495299998</v>
+        <v>1.146006520709999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1450824882999984</v>
+        <v>0.1398105137099988</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4006967776200002</v>
+        <v>0.4013282368600002</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06409115437999985</v>
+        <v>0.06345969513999983</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1458109050700002</v>
+        <v>0.1474595230800001</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04031357692999984</v>
+        <v>0.03866495891999991</v>
       </c>
     </row>
     <row r="17">
@@ -2169,28 +2169,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.674625038359999</v>
+        <v>2.372160896480001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2939181463599994</v>
+        <v>0.008545995519999572</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>1.561466770950001</v>
+        <v>1.429071644080001</v>
       </c>
       <c r="G17" t="n">
-        <v>0.146829864049999</v>
+        <v>0.2792249909199993</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9011419827100002</v>
+        <v>0.8756453741500002</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06608245871000018</v>
+        <v>0.04058585015000016</v>
       </c>
     </row>
     <row r="18">
@@ -2203,28 +2203,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>2.51297876138</v>
+        <v>2.41875929334</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7322839813800004</v>
+        <v>0.63806451334</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6030512434199995</v>
+        <v>0.5704620616999996</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09753133541999948</v>
+        <v>0.06494215369999956</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2472412613900002</v>
+        <v>0.2492256857800002</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07104498839000026</v>
+        <v>0.07302941278000016</v>
       </c>
     </row>
     <row r="19">
@@ -2237,28 +2237,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>3.338299330310001</v>
+        <v>4.070554655010001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3735190656899987</v>
+        <v>0.3587362590100014</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>7.638273932379999</v>
+        <v>8.345169184479998</v>
       </c>
       <c r="G19" t="n">
-        <v>1.723476376379999</v>
+        <v>2.430371628479998</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>2.46436282027</v>
+        <v>2.5093753371</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6957561827300003</v>
+        <v>0.6507436659000003</v>
       </c>
     </row>
     <row r="20">
@@ -2271,28 +2271,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>2.133671469420001</v>
+        <v>3.030407429070001</v>
       </c>
       <c r="D20" t="n">
-        <v>1.031526689420001</v>
+        <v>1.928262649070001</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>3.736950825060001</v>
+        <v>4.063247780700002</v>
       </c>
       <c r="G20" t="n">
-        <v>2.939265438060001</v>
+        <v>3.265562393700002</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5028613476700002</v>
+        <v>0.5479290619100003</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3537664836700002</v>
+        <v>0.3988341979100004</v>
       </c>
     </row>
     <row r="21">
@@ -2305,28 +2305,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>77.29131967859999</v>
+        <v>78.19019098969</v>
       </c>
       <c r="D21" t="n">
-        <v>3.761533191400005</v>
+        <v>2.86266188031</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>42.35854494025995</v>
+        <v>43.40219922455993</v>
       </c>
       <c r="G21" t="n">
-        <v>6.575718970259949</v>
+        <v>7.619373254559932</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>6.287925658270003</v>
+        <v>6.316050089310003</v>
       </c>
       <c r="J21" t="n">
-        <v>1.674997111270003</v>
+        <v>1.703121542310003</v>
       </c>
     </row>
     <row r="22">
@@ -2339,28 +2339,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.415825699590001</v>
+        <v>1.580308760380001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9465006615900011</v>
+        <v>1.110983722380001</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.13121965821</v>
+        <v>1.1070112644</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8096030792099995</v>
+        <v>0.7853946853999998</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>2.194908626489999</v>
+        <v>2.319528613749999</v>
       </c>
       <c r="J22" t="n">
-        <v>1.852766196489999</v>
+        <v>1.977386183749999</v>
       </c>
     </row>
     <row r="23">
@@ -2373,28 +2373,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>85.51599956470001</v>
+        <v>85.49842197319002</v>
       </c>
       <c r="D23" t="n">
-        <v>63.0473242353</v>
+        <v>63.06490182680999</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>45.55576664275993</v>
+        <v>45.73186024455991</v>
       </c>
       <c r="G23" t="n">
-        <v>32.19686283724007</v>
+        <v>32.02076923544008</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>11.26294613621</v>
+        <v>10.76745630682</v>
       </c>
       <c r="J23" t="n">
-        <v>2.950140736210004</v>
+        <v>2.454650906820001</v>
       </c>
     </row>
     <row r="24">
@@ -2407,28 +2407,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.928519790110002</v>
+        <v>3.037234148999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7887267171100016</v>
+        <v>0.8974410759999993</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.003203373310001</v>
+        <v>0.8925132890500008</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3676153283100014</v>
+        <v>0.2569252440500008</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>1.07165658664</v>
+        <v>1.09207543744</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4681848296400003</v>
+        <v>0.4886036804399999</v>
       </c>
     </row>
     <row r="25">
@@ -2441,28 +2441,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>31.53531023836999</v>
+        <v>31.41412838766999</v>
       </c>
       <c r="D25" t="n">
-        <v>9.420214908369989</v>
+        <v>9.299033057669995</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>8.543510443180001</v>
+        <v>8.302443282880001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.757957653180001</v>
+        <v>0.5168904928800009</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>1.229092488000002</v>
+        <v>1.046428185130001</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0431198670000017</v>
+        <v>0.1395444358699987</v>
       </c>
     </row>
     <row r="26">
@@ -2475,28 +2475,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>17.53173996791001</v>
+        <v>17.43950280264001</v>
       </c>
       <c r="D26" t="n">
-        <v>1.110772792089993</v>
+        <v>1.203009957359992</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>5.494672795070001</v>
+        <v>5.862150326830002</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4106458559299986</v>
+        <v>0.04316832416999805</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>1.137098324420001</v>
+        <v>1.13384700127</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1689238345799995</v>
+        <v>0.1721751577299997</v>
       </c>
     </row>
     <row r="27">
@@ -2509,28 +2509,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>1.506554203599999</v>
+        <v>1.26018189427</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3945098245999994</v>
+        <v>0.1481375152699995</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>2.499060731890001</v>
+        <v>2.662792360680001</v>
       </c>
       <c r="G27" t="n">
-        <v>1.026891078890001</v>
+        <v>1.190622707680002</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4524754015399998</v>
+        <v>0.45833001667</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1415434495399998</v>
+        <v>0.1473980646699999</v>
       </c>
     </row>
     <row r="28">
@@ -2543,28 +2543,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>11.01158499882</v>
+        <v>10.65368380614</v>
       </c>
       <c r="D28" t="n">
-        <v>10.00736211882</v>
+        <v>9.649460926140002</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>8.458355910680005</v>
+        <v>8.507838645640003</v>
       </c>
       <c r="G28" t="n">
-        <v>7.596810720680005</v>
+        <v>7.646293455640003</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6847216730799999</v>
+        <v>0.6891893357599999</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5983763020799999</v>
+        <v>0.6028439647599999</v>
       </c>
     </row>
     <row r="29">
@@ -2577,28 +2577,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>2.113667852120001</v>
+        <v>2.720626765940003</v>
       </c>
       <c r="D29" t="n">
-        <v>6.835412078879999</v>
+        <v>6.228453165059997</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>5.160522665940002</v>
+        <v>5.479342186110002</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5735165400599982</v>
+        <v>0.2546970198899983</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.42278061148</v>
+        <v>0.4654027098300002</v>
       </c>
       <c r="J29" t="n">
-        <v>0.42437343352</v>
+        <v>0.3817513351699998</v>
       </c>
     </row>
     <row r="30">
@@ -2611,28 +2611,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>3.258864525750001</v>
+        <v>3.554671102730002</v>
       </c>
       <c r="D30" t="n">
-        <v>0.603106563249999</v>
+        <v>0.3072999862699981</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>1.295178431590001</v>
+        <v>1.421739439150001</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8705601184099991</v>
+        <v>0.7439991108499986</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5987913835200001</v>
+        <v>0.5752603578899999</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4280836294799999</v>
+        <v>0.4516146551100001</v>
       </c>
     </row>
     <row r="31">
@@ -2645,28 +2645,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>3.50237025931</v>
+        <v>3.431326072440001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.80824095431</v>
+        <v>0.7371967674400008</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>5.225952890950003</v>
+        <v>5.655670528760002</v>
       </c>
       <c r="G31" t="n">
-        <v>3.772626857049996</v>
+        <v>3.342909219239997</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>1.465565218839998</v>
+        <v>1.921738430399998</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3901865088399981</v>
+        <v>0.8463597203999975</v>
       </c>
     </row>
     <row r="32">
@@ -2679,28 +2679,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.878315422030001</v>
+        <v>3.738634335920002</v>
       </c>
       <c r="D32" t="n">
-        <v>6.70658882197</v>
+        <v>5.846269908079998</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>5.480569766199999</v>
+        <v>5.478660517609999</v>
       </c>
       <c r="G32" t="n">
-        <v>22.6250541038</v>
+        <v>22.62696335239</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>2.396773178329997</v>
+        <v>2.038841182919999</v>
       </c>
       <c r="J32" t="n">
-        <v>5.482041374670002</v>
+        <v>5.839973370080001</v>
       </c>
     </row>
     <row r="33">
@@ -2713,28 +2713,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>21.09209261170004</v>
+        <v>21.30673311909004</v>
       </c>
       <c r="D33" t="n">
-        <v>1.020556968299964</v>
+        <v>0.8059164609099625</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>6.954027643659995</v>
+        <v>7.010635934179992</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1483158773400053</v>
+        <v>0.09170758682000812</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.47971403987</v>
+        <v>1.47749229214</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1453005711300004</v>
+        <v>0.1475223188600003</v>
       </c>
     </row>
   </sheetData>
@@ -2818,28 +2818,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>1.236396943699597</v>
+        <v>1.22902014208854</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07622665769959736</v>
+        <v>0.06884985608853977</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3947923912970007</v>
+        <v>0.3948965874185156</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02710315770299926</v>
+        <v>0.0269989615814844</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1387618070834848</v>
+        <v>0.1405618858508576</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02804285991651514</v>
+        <v>0.02624278114914241</v>
       </c>
     </row>
     <row r="3">
@@ -2852,28 +2852,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>14.40919336905178</v>
+        <v>14.40806105503452</v>
       </c>
       <c r="D3" t="n">
-        <v>8.472706528051781</v>
+        <v>8.471574214034522</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>1.977986899112876</v>
+        <v>2.020994708890896</v>
       </c>
       <c r="G3" t="n">
-        <v>1.302082325112876</v>
+        <v>1.345090134890896</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.109468239301523</v>
+        <v>0.8350422884161742</v>
       </c>
       <c r="J3" t="n">
-        <v>1.109468239301523</v>
+        <v>0.8350422884161742</v>
       </c>
     </row>
     <row r="4">
@@ -2886,28 +2886,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.32544645561254</v>
+        <v>2.403610219110198</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2208221363874605</v>
+        <v>0.1426583728898021</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7113842968041347</v>
+        <v>0.6981816782918643</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2209101768041347</v>
+        <v>0.2077075582918643</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7612593285448088</v>
+        <v>0.7638163872046707</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2402002925448088</v>
+        <v>0.2427573512046707</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>5.41726321603415</v>
+        <v>5.860140485638007</v>
       </c>
       <c r="D5" t="n">
-        <v>5.246486893965851</v>
+        <v>4.803609624361993</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.860761649247247</v>
+        <v>2.936924646131913</v>
       </c>
       <c r="G5" t="n">
-        <v>2.506989265752753</v>
+        <v>2.430826268868088</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.578795743103885</v>
+        <v>0.5270175135685632</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3211940328961149</v>
+        <v>0.3729722624314368</v>
       </c>
     </row>
     <row r="6">
@@ -2954,28 +2954,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>6.654189131956905</v>
+        <v>6.958836583493122</v>
       </c>
       <c r="D6" t="n">
-        <v>8.925350798043095</v>
+        <v>8.620703346506877</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>3.690932133265668</v>
+        <v>3.758309154630443</v>
       </c>
       <c r="G6" t="n">
-        <v>3.445723275734332</v>
+        <v>3.378346254369557</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5005847004225865</v>
+        <v>0.5198519074617743</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4232449655774135</v>
+        <v>0.4039777585382257</v>
       </c>
     </row>
     <row r="7">
@@ -2988,28 +2988,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>1.126675772416687</v>
+        <v>1.052043617116119</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1072854844166868</v>
+        <v>0.03265332911611907</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>5.796430142613948</v>
+        <v>5.827875025548018</v>
       </c>
       <c r="G7" t="n">
-        <v>2.315101861613948</v>
+        <v>2.346546744548017</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4710040317132774</v>
+        <v>0.4781311018641485</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1461890672867226</v>
+        <v>0.1390619971358514</v>
       </c>
     </row>
     <row r="8">
@@ -3022,28 +3022,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>17.31321739350757</v>
+        <v>17.61729623691872</v>
       </c>
       <c r="D8" t="n">
-        <v>1.274070626492431</v>
+        <v>0.9699917830812836</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>6.396499004000468</v>
+        <v>6.498456749023544</v>
       </c>
       <c r="G8" t="n">
-        <v>1.327296351999532</v>
+        <v>1.225338606976456</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.999920873751267</v>
+        <v>1.008847741294352</v>
       </c>
       <c r="J8" t="n">
-        <v>0.139417189248733</v>
+        <v>0.1304903217056486</v>
       </c>
     </row>
     <row r="9">
@@ -3056,28 +3056,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.462416097435191</v>
+        <v>4.582462677846272</v>
       </c>
       <c r="D9" t="n">
-        <v>1.688958534564809</v>
+        <v>1.568911954153728</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.010355297222765</v>
+        <v>1.009059474568929</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1915484237772347</v>
+        <v>0.1928442464310707</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.055008919426801</v>
+        <v>1.374099059733089</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4322642775731991</v>
+        <v>0.1131741372669113</v>
       </c>
     </row>
     <row r="10">
@@ -3090,28 +3090,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>9.506795712428664</v>
+        <v>11.65578383363665</v>
       </c>
       <c r="D10" t="n">
-        <v>2.859701247571335</v>
+        <v>0.7107131263633537</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>5.935032208104388</v>
+        <v>5.999779710836559</v>
       </c>
       <c r="G10" t="n">
-        <v>3.410491700104388</v>
+        <v>3.475239202836559</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>2.215518145419143</v>
+        <v>2.33039686663328</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2590377934191432</v>
+        <v>0.3739165146332797</v>
       </c>
     </row>
     <row r="11">
@@ -3124,28 +3124,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>1.698501970801724</v>
+        <v>1.649247282850856</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7239010788017242</v>
+        <v>0.6746463908508558</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6161411100779466</v>
+        <v>0.59634920054746</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2225051950779466</v>
+        <v>0.20271328554746</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3261172396387673</v>
+        <v>0.3008589010276784</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1651582006387673</v>
+        <v>0.1398998620276784</v>
       </c>
     </row>
     <row r="12">
@@ -3158,28 +3158,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>1.042934510287687</v>
+        <v>1.08229982907741</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2571286382876875</v>
+        <v>0.29649395707741</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5566000912188064</v>
+        <v>0.5429239539904671</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1358751237811936</v>
+        <v>0.1495512610095329</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1699590806762105</v>
+        <v>0.1635350397442329</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02549177432378949</v>
+        <v>0.03191581525576714</v>
       </c>
     </row>
     <row r="13">
@@ -3192,28 +3192,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>1.214997660853798</v>
+        <v>1.177015231878475</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1805674608537975</v>
+        <v>0.1425850318784745</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>6.506223519184947</v>
+        <v>6.522348732188648</v>
       </c>
       <c r="G13" t="n">
-        <v>3.489787292184947</v>
+        <v>3.505912505188649</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3993039292351512</v>
+        <v>0.42316633350637</v>
       </c>
       <c r="J13" t="n">
-        <v>0.009145529764848837</v>
+        <v>0.01471687450636994</v>
       </c>
     </row>
     <row r="14">
@@ -3226,10 +3226,10 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>28.94912941074988</v>
+        <v>28.85440046034801</v>
       </c>
       <c r="D14" t="n">
-        <v>32.85472628925012</v>
+        <v>32.94945523965199</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
@@ -3244,10 +3244,10 @@
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>6.077448808822898</v>
+        <v>6.070147666547199</v>
       </c>
       <c r="J14" t="n">
-        <v>2.346967600822898</v>
+        <v>2.339666458547199</v>
       </c>
     </row>
     <row r="15">
@@ -3260,28 +3260,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.032260131198015</v>
+        <v>2.071789064726729</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4863933448019848</v>
+        <v>0.4468644112732711</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6377150491102532</v>
+        <v>0.6351647323366053</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03045881088974678</v>
+        <v>0.0330091276633947</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4026348210579553</v>
+        <v>0.4068955800982297</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1006562179420448</v>
+        <v>0.09639545890177031</v>
       </c>
     </row>
     <row r="16">
@@ -3294,28 +3294,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>1.184650508664592</v>
+        <v>1.179549738454571</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1784545016645918</v>
+        <v>0.1733537314545706</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3972230538842872</v>
+        <v>0.3978783867550948</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06756487811571277</v>
+        <v>0.06690954524490517</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1362321162525245</v>
+        <v>0.1391254815488472</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04989236574747552</v>
+        <v>0.04699900045115279</v>
       </c>
     </row>
     <row r="17">
@@ -3328,28 +3328,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.581879245518579</v>
+        <v>2.412281218919012</v>
       </c>
       <c r="D17" t="n">
-        <v>0.201172353518579</v>
+        <v>0.0315743269190123</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>1.383000865099478</v>
+        <v>1.296791375238737</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3252957699005221</v>
+        <v>0.4115052597612627</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8085806808958266</v>
+        <v>0.8032296690504402</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02647884310417348</v>
+        <v>0.03182985494955981</v>
       </c>
     </row>
     <row r="18">
@@ -3362,28 +3362,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>2.513349635979526</v>
+        <v>2.461381278132112</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7326548559795263</v>
+        <v>0.6806864981321123</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6256861866386026</v>
+        <v>0.6182943903035616</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1201662786386026</v>
+        <v>0.1127744823035616</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2774251397173987</v>
+        <v>0.267337504445798</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1012288667173987</v>
+        <v>0.09114123144579803</v>
       </c>
     </row>
     <row r="19">
@@ -3396,28 +3396,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>3.33214648730316</v>
+        <v>3.60131079269679</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3796719086968396</v>
+        <v>0.1105076033032097</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>8.260684755519454</v>
+        <v>8.4420064525968</v>
       </c>
       <c r="G19" t="n">
-        <v>2.345887199519455</v>
+        <v>2.5272088965968</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>2.474978962338342</v>
+        <v>2.517770885611605</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6851400406616577</v>
+        <v>0.6423481173883947</v>
       </c>
     </row>
     <row r="20">
@@ -3430,28 +3430,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>2.376696392702539</v>
+        <v>3.306449112772966</v>
       </c>
       <c r="D20" t="n">
-        <v>1.274551612702539</v>
+        <v>2.204304332772966</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>3.548034292094115</v>
+        <v>3.615782329260273</v>
       </c>
       <c r="G20" t="n">
-        <v>2.750348905094115</v>
+        <v>2.818096942260273</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4968553181519585</v>
+        <v>0.5349213332059073</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3477604541519585</v>
+        <v>0.3858264692059073</v>
       </c>
     </row>
     <row r="21">
@@ -3464,28 +3464,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>73.93403498193881</v>
+        <v>74.36244750395916</v>
       </c>
       <c r="D21" t="n">
-        <v>7.118817888061187</v>
+        <v>6.690405366040835</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>36.23072336048951</v>
+        <v>36.22914275893417</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4478973904895085</v>
+        <v>0.446316788934169</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>6.167822533969735</v>
+        <v>6.179211916835136</v>
       </c>
       <c r="J21" t="n">
-        <v>1.554893986969735</v>
+        <v>1.566283369835136</v>
       </c>
     </row>
     <row r="22">
@@ -3498,28 +3498,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.408140495150735</v>
+        <v>1.443621573464308</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9388154571507354</v>
+        <v>0.9742965354643083</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.023864645441168</v>
+        <v>1.030801084134737</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7022480664411681</v>
+        <v>0.709184505134737</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>2.047588841205097</v>
+        <v>2.344497240173488</v>
       </c>
       <c r="J22" t="n">
-        <v>1.705446411205097</v>
+        <v>2.002354810173488</v>
       </c>
     </row>
     <row r="23">
@@ -3532,10 +3532,10 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>80.40832147609218</v>
+        <v>80.31928596396524</v>
       </c>
       <c r="D23" t="n">
-        <v>68.15500232390782</v>
+        <v>68.24403783603476</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
@@ -3550,10 +3550,10 @@
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>10.45781583377566</v>
+        <v>10.2549893930974</v>
       </c>
       <c r="J23" t="n">
-        <v>2.145010433775662</v>
+        <v>1.9421839930974</v>
       </c>
     </row>
     <row r="24">
@@ -3566,28 +3566,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.966058428692084</v>
+        <v>2.948588411200382</v>
       </c>
       <c r="D24" t="n">
-        <v>0.826265355692084</v>
+        <v>0.8087953382003819</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.003679175753328</v>
+        <v>0.9851905189394538</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3680911307533283</v>
+        <v>0.3496024739394538</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9953103191305744</v>
+        <v>0.9696227863995873</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3918385621305744</v>
+        <v>0.3661510293995873</v>
       </c>
     </row>
     <row r="25">
@@ -3600,28 +3600,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>28.89237791464096</v>
+        <v>28.42244589140336</v>
       </c>
       <c r="D25" t="n">
-        <v>6.777282584640961</v>
+        <v>6.307350561403361</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>7.534588408641177</v>
+        <v>7.46088979276906</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2509643813588225</v>
+        <v>0.3246629972309396</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>1.064416667905601</v>
+        <v>0.9745716174168366</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1215559530943986</v>
+        <v>0.2114010035831633</v>
       </c>
     </row>
     <row r="26">
@@ -3634,28 +3634,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>17.37637110135789</v>
+        <v>17.37212989793426</v>
       </c>
       <c r="D26" t="n">
-        <v>1.266141658642105</v>
+        <v>1.270382862065741</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>5.614619082230666</v>
+        <v>5.750841831873888</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2906995687693339</v>
+        <v>0.1544768191261117</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>1.188998304916266</v>
+        <v>1.195033845553856</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1170238540837338</v>
+        <v>0.1109883134461438</v>
       </c>
     </row>
     <row r="27">
@@ -3668,28 +3668,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>1.4351164349298</v>
+        <v>1.391407737768348</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3230720559298004</v>
+        <v>0.2793633587683484</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>2.537711404367764</v>
+        <v>2.531564419941681</v>
       </c>
       <c r="G27" t="n">
-        <v>1.065541751367764</v>
+        <v>1.059394766941681</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4472838854522333</v>
+        <v>0.4776400300787796</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1363519334522333</v>
+        <v>0.1667080780787796</v>
       </c>
     </row>
     <row r="28">
@@ -3702,28 +3702,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>10.66601631828746</v>
+        <v>10.74946030861786</v>
       </c>
       <c r="D28" t="n">
-        <v>9.661793438287459</v>
+        <v>9.745237428617862</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>7.853067098919579</v>
+        <v>7.879348406428899</v>
       </c>
       <c r="G28" t="n">
-        <v>6.991521908919579</v>
+        <v>7.017803216428899</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.639471058107457</v>
+        <v>0.6457561947393997</v>
       </c>
       <c r="J28" t="n">
-        <v>0.553125687107457</v>
+        <v>0.5594108237393998</v>
       </c>
     </row>
     <row r="29">
@@ -3736,28 +3736,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>2.495509341007329</v>
+        <v>3.239869711054037</v>
       </c>
       <c r="D29" t="n">
-        <v>6.453570589992671</v>
+        <v>5.709210219945962</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>4.499382617431785</v>
+        <v>4.535952193085504</v>
       </c>
       <c r="G29" t="n">
-        <v>1.234656588568216</v>
+        <v>1.198087012914496</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4383939662291595</v>
+        <v>0.4799683250352662</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4087600787708405</v>
+        <v>0.3671857199647338</v>
       </c>
     </row>
     <row r="30">
@@ -3770,28 +3770,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>3.51494746685165</v>
+        <v>3.677283773366741</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3470236221483498</v>
+        <v>0.1846873156332585</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>1.471526447307986</v>
+        <v>1.532780803617817</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6942121026920138</v>
+        <v>0.6329577463821834</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6280964871183127</v>
+        <v>0.5606255924365866</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3987785258816873</v>
+        <v>0.4662494205634133</v>
       </c>
     </row>
     <row r="31">
@@ -3804,28 +3804,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>3.327275448156886</v>
+        <v>3.242298937620613</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6331461431568859</v>
+        <v>0.5481696326206134</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>6.029109142826743</v>
+        <v>6.146991867144842</v>
       </c>
       <c r="G31" t="n">
-        <v>2.969470605173256</v>
+        <v>2.851587880855157</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>1.507772591618938</v>
+        <v>2.069999697829691</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4323938816189381</v>
+        <v>0.9946209878296906</v>
       </c>
     </row>
     <row r="32">
@@ -3838,28 +3838,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.872155164553426</v>
+        <v>2.978502947982493</v>
       </c>
       <c r="D32" t="n">
-        <v>6.712749079446574</v>
+        <v>6.606401296017507</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>5.462278641433663</v>
+        <v>5.544906558104016</v>
       </c>
       <c r="G32" t="n">
-        <v>22.64334522856634</v>
+        <v>22.56071731189598</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>2.500038390377779</v>
+        <v>2.081581287788091</v>
       </c>
       <c r="J32" t="n">
-        <v>5.37877616262222</v>
+        <v>5.797233265211909</v>
       </c>
     </row>
     <row r="33">
@@ -3872,28 +3872,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>19.98964248080414</v>
+        <v>20.33843563472583</v>
       </c>
       <c r="D33" t="n">
-        <v>2.123007099195863</v>
+        <v>1.774213945274173</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>6.900327104398047</v>
+        <v>6.949430944290469</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2020164166019525</v>
+        <v>0.1529125767095305</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.344720814864175</v>
+        <v>1.396882393792025</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2802937961358247</v>
+        <v>0.2281322172079749</v>
       </c>
     </row>
   </sheetData>
@@ -3977,28 +3977,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>1.236396943699597</v>
+        <v>1.22902014208854</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07622665769959736</v>
+        <v>0.06884985608853977</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3947923912970007</v>
+        <v>0.3948965874185156</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02710315770299926</v>
+        <v>0.0269989615814844</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1387618070834848</v>
+        <v>0.1405618858508576</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02804285991651514</v>
+        <v>0.02624278114914241</v>
       </c>
     </row>
     <row r="3">
@@ -4011,28 +4011,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>14.40919336905178</v>
+        <v>14.40806105503452</v>
       </c>
       <c r="D3" t="n">
-        <v>8.472706528051781</v>
+        <v>8.471574214034522</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>1.977986899112876</v>
+        <v>2.020994708890896</v>
       </c>
       <c r="G3" t="n">
-        <v>1.302082325112876</v>
+        <v>1.345090134890896</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.109468239301523</v>
+        <v>0.8350422884161742</v>
       </c>
       <c r="J3" t="n">
-        <v>1.109468239301523</v>
+        <v>0.8350422884161742</v>
       </c>
     </row>
     <row r="4">
@@ -4045,28 +4045,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.32544645561254</v>
+        <v>2.403610219110198</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2208221363874605</v>
+        <v>0.1426583728898021</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7113842968041347</v>
+        <v>0.6981816782918643</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2209101768041347</v>
+        <v>0.2077075582918643</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7612593285448088</v>
+        <v>0.7638163872046707</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2402002925448088</v>
+        <v>0.2427573512046707</v>
       </c>
     </row>
     <row r="5">
@@ -4079,28 +4079,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>5.41726321603415</v>
+        <v>5.860140485638007</v>
       </c>
       <c r="D5" t="n">
-        <v>5.246486893965851</v>
+        <v>4.803609624361993</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.860761649247247</v>
+        <v>2.936924646131913</v>
       </c>
       <c r="G5" t="n">
-        <v>2.506989265752753</v>
+        <v>2.430826268868088</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.578795743103885</v>
+        <v>0.5270175135685632</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3211940328961149</v>
+        <v>0.3729722624314368</v>
       </c>
     </row>
     <row r="6">
@@ -4113,28 +4113,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>6.654189131956905</v>
+        <v>6.958836583493122</v>
       </c>
       <c r="D6" t="n">
-        <v>8.925350798043095</v>
+        <v>8.620703346506877</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>3.690932133265668</v>
+        <v>3.758309154630443</v>
       </c>
       <c r="G6" t="n">
-        <v>3.445723275734332</v>
+        <v>3.378346254369557</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5005847004225865</v>
+        <v>0.5198519074617743</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4232449655774135</v>
+        <v>0.4039777585382257</v>
       </c>
     </row>
     <row r="7">
@@ -4147,28 +4147,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>1.126675772416687</v>
+        <v>1.052043617116119</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1072854844166868</v>
+        <v>0.03265332911611907</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>5.796430142613948</v>
+        <v>5.827875025548018</v>
       </c>
       <c r="G7" t="n">
-        <v>2.315101861613948</v>
+        <v>2.346546744548017</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4710040317132774</v>
+        <v>0.4781311018641485</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1461890672867226</v>
+        <v>0.1390619971358514</v>
       </c>
     </row>
     <row r="8">
@@ -4181,28 +4181,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>17.31321739350757</v>
+        <v>17.61729623691872</v>
       </c>
       <c r="D8" t="n">
-        <v>1.274070626492431</v>
+        <v>0.9699917830812836</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>6.396499004000468</v>
+        <v>6.498456749023544</v>
       </c>
       <c r="G8" t="n">
-        <v>1.327296351999532</v>
+        <v>1.225338606976456</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.999920873751267</v>
+        <v>1.008847741294352</v>
       </c>
       <c r="J8" t="n">
-        <v>0.139417189248733</v>
+        <v>0.1304903217056486</v>
       </c>
     </row>
     <row r="9">
@@ -4215,28 +4215,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.462416097435191</v>
+        <v>4.582462677846272</v>
       </c>
       <c r="D9" t="n">
-        <v>1.688958534564809</v>
+        <v>1.568911954153728</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.010355297222765</v>
+        <v>1.009059474568929</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1915484237772347</v>
+        <v>0.1928442464310707</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.055008919426801</v>
+        <v>1.374099059733089</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4322642775731991</v>
+        <v>0.1131741372669113</v>
       </c>
     </row>
     <row r="10">
@@ -4249,28 +4249,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>9.506795712428664</v>
+        <v>11.65578383363665</v>
       </c>
       <c r="D10" t="n">
-        <v>2.859701247571335</v>
+        <v>0.7107131263633537</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>5.935032208104388</v>
+        <v>5.999779710836559</v>
       </c>
       <c r="G10" t="n">
-        <v>3.410491700104388</v>
+        <v>3.475239202836559</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>2.215518145419143</v>
+        <v>2.33039686663328</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2590377934191432</v>
+        <v>0.3739165146332797</v>
       </c>
     </row>
     <row r="11">
@@ -4283,28 +4283,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>1.698501970801724</v>
+        <v>1.649247282850856</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7239010788017242</v>
+        <v>0.6746463908508558</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6161411100779466</v>
+        <v>0.59634920054746</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2225051950779466</v>
+        <v>0.20271328554746</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3261172396387673</v>
+        <v>0.3008589010276784</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1651582006387673</v>
+        <v>0.1398998620276784</v>
       </c>
     </row>
     <row r="12">
@@ -4317,28 +4317,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>1.042934510287687</v>
+        <v>1.08229982907741</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2571286382876875</v>
+        <v>0.29649395707741</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5566000912188064</v>
+        <v>0.5429239539904671</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1358751237811936</v>
+        <v>0.1495512610095329</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1699590806762105</v>
+        <v>0.1635350397442329</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02549177432378949</v>
+        <v>0.03191581525576714</v>
       </c>
     </row>
     <row r="13">
@@ -4351,28 +4351,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>1.214997660853798</v>
+        <v>1.177015231878475</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1805674608537975</v>
+        <v>0.1425850318784745</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>6.506223519184947</v>
+        <v>6.522348732188648</v>
       </c>
       <c r="G13" t="n">
-        <v>3.489787292184947</v>
+        <v>3.505912505188649</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3993039292351512</v>
+        <v>0.42316633350637</v>
       </c>
       <c r="J13" t="n">
-        <v>0.009145529764848837</v>
+        <v>0.01471687450636994</v>
       </c>
     </row>
     <row r="14">
@@ -4385,10 +4385,10 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>28.94912941074988</v>
+        <v>28.85440046034801</v>
       </c>
       <c r="D14" t="n">
-        <v>32.85472628925012</v>
+        <v>32.94945523965199</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
@@ -4403,10 +4403,10 @@
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>6.077448808822898</v>
+        <v>6.070147666547199</v>
       </c>
       <c r="J14" t="n">
-        <v>2.346967600822898</v>
+        <v>2.339666458547199</v>
       </c>
     </row>
     <row r="15">
@@ -4419,28 +4419,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.032260131198015</v>
+        <v>2.071789064726729</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4863933448019848</v>
+        <v>0.4468644112732711</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6377150491102532</v>
+        <v>0.6351647323366053</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03045881088974678</v>
+        <v>0.0330091276633947</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4026348210579553</v>
+        <v>0.4068955800982297</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1006562179420448</v>
+        <v>0.09639545890177031</v>
       </c>
     </row>
     <row r="16">
@@ -4453,28 +4453,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>1.184650508664592</v>
+        <v>1.179549738454571</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1784545016645918</v>
+        <v>0.1733537314545706</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3972230538842872</v>
+        <v>0.3978783867550948</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06756487811571277</v>
+        <v>0.06690954524490517</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1362321162525245</v>
+        <v>0.1391254815488472</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04989236574747552</v>
+        <v>0.04699900045115279</v>
       </c>
     </row>
     <row r="17">
@@ -4487,28 +4487,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.581879245518579</v>
+        <v>2.412281218919012</v>
       </c>
       <c r="D17" t="n">
-        <v>0.201172353518579</v>
+        <v>0.0315743269190123</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>1.383000865099478</v>
+        <v>1.296791375238737</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3252957699005221</v>
+        <v>0.4115052597612627</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8085806808958266</v>
+        <v>0.8032296690504402</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02647884310417348</v>
+        <v>0.03182985494955981</v>
       </c>
     </row>
     <row r="18">
@@ -4521,28 +4521,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>2.513349635979526</v>
+        <v>2.461381278132112</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7326548559795263</v>
+        <v>0.6806864981321123</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6256861866386026</v>
+        <v>0.6182943903035616</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1201662786386026</v>
+        <v>0.1127744823035616</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2774251397173987</v>
+        <v>0.267337504445798</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1012288667173987</v>
+        <v>0.09114123144579803</v>
       </c>
     </row>
     <row r="19">
@@ -4555,28 +4555,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>3.33214648730316</v>
+        <v>3.60131079269679</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3796719086968396</v>
+        <v>0.1105076033032097</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>8.260684755519454</v>
+        <v>8.4420064525968</v>
       </c>
       <c r="G19" t="n">
-        <v>2.345887199519455</v>
+        <v>2.5272088965968</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>2.474978962338342</v>
+        <v>2.517770885611605</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6851400406616577</v>
+        <v>0.6423481173883947</v>
       </c>
     </row>
     <row r="20">
@@ -4589,28 +4589,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>2.376696392702539</v>
+        <v>3.306449112772966</v>
       </c>
       <c r="D20" t="n">
-        <v>1.274551612702539</v>
+        <v>2.204304332772966</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>3.548034292094115</v>
+        <v>3.615782329260273</v>
       </c>
       <c r="G20" t="n">
-        <v>2.750348905094115</v>
+        <v>2.818096942260273</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4968553181519585</v>
+        <v>0.5349213332059073</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3477604541519585</v>
+        <v>0.3858264692059073</v>
       </c>
     </row>
     <row r="21">
@@ -4623,28 +4623,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>73.93403498193881</v>
+        <v>74.36244750395916</v>
       </c>
       <c r="D21" t="n">
-        <v>7.118817888061187</v>
+        <v>6.690405366040835</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>36.23072336048951</v>
+        <v>36.22914275893417</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4478973904895085</v>
+        <v>0.446316788934169</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>6.167822533969735</v>
+        <v>6.179211916835136</v>
       </c>
       <c r="J21" t="n">
-        <v>1.554893986969735</v>
+        <v>1.566283369835136</v>
       </c>
     </row>
     <row r="22">
@@ -4657,28 +4657,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.408140495150735</v>
+        <v>1.443621573464308</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9388154571507354</v>
+        <v>0.9742965354643083</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.023864645441168</v>
+        <v>1.030801084134737</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7022480664411681</v>
+        <v>0.709184505134737</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>2.047588841205097</v>
+        <v>2.344497240173488</v>
       </c>
       <c r="J22" t="n">
-        <v>1.705446411205097</v>
+        <v>2.002354810173488</v>
       </c>
     </row>
     <row r="23">
@@ -4691,10 +4691,10 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>80.40832147609218</v>
+        <v>80.31928596396524</v>
       </c>
       <c r="D23" t="n">
-        <v>68.15500232390782</v>
+        <v>68.24403783603476</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
@@ -4709,10 +4709,10 @@
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>10.45781583377566</v>
+        <v>10.2549893930974</v>
       </c>
       <c r="J23" t="n">
-        <v>2.145010433775662</v>
+        <v>1.9421839930974</v>
       </c>
     </row>
     <row r="24">
@@ -4725,28 +4725,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.966058428692084</v>
+        <v>2.948588411200382</v>
       </c>
       <c r="D24" t="n">
-        <v>0.826265355692084</v>
+        <v>0.8087953382003819</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.003679175753328</v>
+        <v>0.9851905189394538</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3680911307533283</v>
+        <v>0.3496024739394538</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9953103191305744</v>
+        <v>0.9696227863995873</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3918385621305744</v>
+        <v>0.3661510293995873</v>
       </c>
     </row>
     <row r="25">
@@ -4759,28 +4759,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>28.89237791464096</v>
+        <v>28.42244589140336</v>
       </c>
       <c r="D25" t="n">
-        <v>6.777282584640961</v>
+        <v>6.307350561403361</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>7.534588408641177</v>
+        <v>7.46088979276906</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2509643813588225</v>
+        <v>0.3246629972309396</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>1.064416667905601</v>
+        <v>0.9745716174168366</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1215559530943986</v>
+        <v>0.2114010035831633</v>
       </c>
     </row>
     <row r="26">
@@ -4793,28 +4793,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>17.37637110135789</v>
+        <v>17.37212989793426</v>
       </c>
       <c r="D26" t="n">
-        <v>1.266141658642105</v>
+        <v>1.270382862065741</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>5.614619082230666</v>
+        <v>5.750841831873888</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2906995687693339</v>
+        <v>0.1544768191261117</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>1.188998304916266</v>
+        <v>1.195033845553856</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1170238540837338</v>
+        <v>0.1109883134461438</v>
       </c>
     </row>
     <row r="27">
@@ -4827,28 +4827,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>1.4351164349298</v>
+        <v>1.391407737768348</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3230720559298004</v>
+        <v>0.2793633587683484</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>2.537711404367764</v>
+        <v>2.531564419941681</v>
       </c>
       <c r="G27" t="n">
-        <v>1.065541751367764</v>
+        <v>1.059394766941681</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4472838854522333</v>
+        <v>0.4776400300787796</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1363519334522333</v>
+        <v>0.1667080780787796</v>
       </c>
     </row>
     <row r="28">
@@ -4861,28 +4861,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>10.66601631828746</v>
+        <v>10.74946030861786</v>
       </c>
       <c r="D28" t="n">
-        <v>9.661793438287459</v>
+        <v>9.745237428617862</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>7.853067098919579</v>
+        <v>7.879348406428899</v>
       </c>
       <c r="G28" t="n">
-        <v>6.991521908919579</v>
+        <v>7.017803216428899</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.639471058107457</v>
+        <v>0.6457561947393997</v>
       </c>
       <c r="J28" t="n">
-        <v>0.553125687107457</v>
+        <v>0.5594108237393998</v>
       </c>
     </row>
     <row r="29">
@@ -4895,28 +4895,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>2.495509341007329</v>
+        <v>3.239869711054037</v>
       </c>
       <c r="D29" t="n">
-        <v>6.453570589992671</v>
+        <v>5.709210219945962</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>4.499382617431785</v>
+        <v>4.535952193085504</v>
       </c>
       <c r="G29" t="n">
-        <v>1.234656588568216</v>
+        <v>1.198087012914496</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4383939662291595</v>
+        <v>0.4799683250352662</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4087600787708405</v>
+        <v>0.3671857199647338</v>
       </c>
     </row>
     <row r="30">
@@ -4929,28 +4929,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>3.51494746685165</v>
+        <v>3.677283773366741</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3470236221483498</v>
+        <v>0.1846873156332585</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>1.471526447307986</v>
+        <v>1.532780803617817</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6942121026920138</v>
+        <v>0.6329577463821834</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6280964871183127</v>
+        <v>0.5606255924365866</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3987785258816873</v>
+        <v>0.4662494205634133</v>
       </c>
     </row>
     <row r="31">
@@ -4963,28 +4963,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>3.327275448156886</v>
+        <v>3.242298937620613</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6331461431568859</v>
+        <v>0.5481696326206134</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>6.029109142826743</v>
+        <v>6.146991867144842</v>
       </c>
       <c r="G31" t="n">
-        <v>2.969470605173256</v>
+        <v>2.851587880855157</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>1.507772591618938</v>
+        <v>2.069999697829691</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4323938816189381</v>
+        <v>0.9946209878296906</v>
       </c>
     </row>
     <row r="32">
@@ -4997,28 +4997,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.872155164553426</v>
+        <v>2.978502947982493</v>
       </c>
       <c r="D32" t="n">
-        <v>6.712749079446574</v>
+        <v>6.606401296017507</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>5.462278641433663</v>
+        <v>5.544906558104016</v>
       </c>
       <c r="G32" t="n">
-        <v>22.64334522856634</v>
+        <v>22.56071731189598</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>2.500038390377779</v>
+        <v>2.081581287788091</v>
       </c>
       <c r="J32" t="n">
-        <v>5.37877616262222</v>
+        <v>5.797233265211909</v>
       </c>
     </row>
     <row r="33">
@@ -5031,28 +5031,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>19.98964248080414</v>
+        <v>20.33843563472583</v>
       </c>
       <c r="D33" t="n">
-        <v>2.123007099195863</v>
+        <v>1.774213945274173</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>6.900327104398047</v>
+        <v>6.949430944290469</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2020164166019525</v>
+        <v>0.1529125767095305</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.344720814864175</v>
+        <v>1.396882393792025</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2802937961358247</v>
+        <v>0.2281322172079749</v>
       </c>
     </row>
   </sheetData>
@@ -5136,28 +5136,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>2.985713005065918</v>
+        <v>2.216148138046265</v>
       </c>
       <c r="D2" t="n">
-        <v>1.825542719065918</v>
+        <v>1.055977852046265</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>1.666364669799805</v>
+        <v>0.7773134112358093</v>
       </c>
       <c r="G2" t="n">
-        <v>1.244469120799805</v>
+        <v>0.3554178622358093</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6862800717353821</v>
+        <v>0.4091185927391052</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5194754047353821</v>
+        <v>0.2423139257391052</v>
       </c>
     </row>
     <row r="3">
@@ -5170,28 +5170,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>7.885547637939453</v>
+        <v>3.191313028335571</v>
       </c>
       <c r="D3" t="n">
-        <v>1.949060796939453</v>
+        <v>2.745173812664429</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>3.857335090637207</v>
+        <v>1.562781572341919</v>
       </c>
       <c r="G3" t="n">
-        <v>3.181430516637207</v>
+        <v>0.8868769983419189</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.018165826797485</v>
+        <v>1.31159508228302</v>
       </c>
       <c r="J3" t="n">
-        <v>1.018165826797485</v>
+        <v>1.31159508228302</v>
       </c>
     </row>
     <row r="4">
@@ -5204,28 +5204,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.792040348052979</v>
+        <v>2.336992979049683</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2457717560529784</v>
+        <v>0.2092756129503175</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>1.548440456390381</v>
+        <v>0.8091912269592285</v>
       </c>
       <c r="G4" t="n">
-        <v>1.057966336390381</v>
+        <v>0.3187171069592285</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9442155361175537</v>
+        <v>0.4779019951820374</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4231565001175537</v>
+        <v>0.04315704081796268</v>
       </c>
     </row>
     <row r="5">
@@ -5238,28 +5238,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>4.345468521118164</v>
+        <v>8.902141571044922</v>
       </c>
       <c r="D5" t="n">
-        <v>6.318281588881836</v>
+        <v>1.761608538955079</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.391232013702393</v>
+        <v>4.898034572601318</v>
       </c>
       <c r="G5" t="n">
-        <v>2.976518901297608</v>
+        <v>0.4697163423986819</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5320755243301392</v>
+        <v>0.09751374274492264</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3679142516698608</v>
+        <v>0.8024760332550773</v>
       </c>
     </row>
     <row r="6">
@@ -5272,28 +5272,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>4.509252548217773</v>
+        <v>8.832705497741699</v>
       </c>
       <c r="D6" t="n">
-        <v>11.07028738178223</v>
+        <v>6.7468344322583</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>2.453482389450073</v>
+        <v>4.870738983154297</v>
       </c>
       <c r="G6" t="n">
-        <v>4.683173019549927</v>
+        <v>2.265916425845703</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4212439656257629</v>
+        <v>0.061382956802845</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5025857003742371</v>
+        <v>0.862446709197155</v>
       </c>
     </row>
     <row r="7">
@@ -5306,28 +5306,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>3.155509233474731</v>
+        <v>1.432744026184082</v>
       </c>
       <c r="D7" t="n">
-        <v>2.136118945474731</v>
+        <v>0.4133537381840819</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>1.948856472969055</v>
+        <v>3.716546535491943</v>
       </c>
       <c r="G7" t="n">
-        <v>1.532471808030945</v>
+        <v>0.2352182544919432</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7797296643257141</v>
+        <v>0.6909183263778687</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1625365653257141</v>
+        <v>0.07372522737786869</v>
       </c>
     </row>
     <row r="8">
@@ -5340,28 +5340,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>9.777908325195312</v>
+        <v>10.60783958435059</v>
       </c>
       <c r="D8" t="n">
-        <v>8.809379694804687</v>
+        <v>7.979448435649413</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>5.231948375701904</v>
+        <v>5.233143329620361</v>
       </c>
       <c r="G8" t="n">
-        <v>2.491846980298096</v>
+        <v>2.490652026379639</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3569011092185974</v>
+        <v>1.368748188018799</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7824369537814027</v>
+        <v>0.2294101250187988</v>
       </c>
     </row>
     <row r="9">
@@ -5374,28 +5374,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.035505771636963</v>
+        <v>9.489166259765625</v>
       </c>
       <c r="D9" t="n">
-        <v>2.115868860363037</v>
+        <v>3.337791627765625</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>2.320379018783569</v>
+        <v>4.62142276763916</v>
       </c>
       <c r="G9" t="n">
-        <v>1.118475297783569</v>
+        <v>3.41951904663916</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>2.026827335357666</v>
+        <v>1.694361567497253</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5395541383576661</v>
+        <v>0.2070883704972535</v>
       </c>
     </row>
     <row r="10">
@@ -5408,28 +5408,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>6.599264144897461</v>
+        <v>10.97823333740234</v>
       </c>
       <c r="D10" t="n">
-        <v>5.767232815102538</v>
+        <v>1.388263622597655</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>3.594142436981201</v>
+        <v>5.258485794067383</v>
       </c>
       <c r="G10" t="n">
-        <v>1.069601928981201</v>
+        <v>2.733945286067383</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>2.029211521148682</v>
+        <v>2.039793491363525</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07273116914868161</v>
+        <v>0.08331313936352536</v>
       </c>
     </row>
     <row r="11">
@@ -5442,28 +5442,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>2.959320545196533</v>
+        <v>2.25495433807373</v>
       </c>
       <c r="D11" t="n">
-        <v>1.984719653196533</v>
+        <v>1.28035344607373</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>1.663965702056885</v>
+        <v>0.7906249165534973</v>
       </c>
       <c r="G11" t="n">
-        <v>1.270329787056885</v>
+        <v>0.3969890015534973</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7512681484222412</v>
+        <v>0.4272965788841248</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5903091094222412</v>
+        <v>0.2663375398841248</v>
       </c>
     </row>
     <row r="12">
@@ -5476,28 +5476,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>2.730371713638306</v>
+        <v>2.121472835540771</v>
       </c>
       <c r="D12" t="n">
-        <v>1.944565841638306</v>
+        <v>1.335666963540771</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>1.568234205245972</v>
+        <v>0.7477541565895081</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8757589902459717</v>
+        <v>0.05527894158950808</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6840726137161255</v>
+        <v>0.3842414319515228</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4886217587161255</v>
+        <v>0.1887905769515228</v>
       </c>
     </row>
     <row r="13">
@@ -5510,28 +5510,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>3.190076351165771</v>
+        <v>1.373082876205444</v>
       </c>
       <c r="D13" t="n">
-        <v>2.155646151165771</v>
+        <v>0.3386526762054443</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>1.909752130508423</v>
+        <v>3.641356945037842</v>
       </c>
       <c r="G13" t="n">
-        <v>1.106684096491577</v>
+        <v>0.624920718037842</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6449164152145386</v>
+        <v>0.6740386486053467</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2364669562145386</v>
+        <v>0.2655891896053467</v>
       </c>
     </row>
     <row r="14">
@@ -5544,28 +5544,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>45.38466262817383</v>
+        <v>35.56485366821289</v>
       </c>
       <c r="D14" t="n">
-        <v>16.41919307182617</v>
+        <v>26.23900203178711</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>25.43562889099121</v>
+        <v>18.3933048248291</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4241312109912094</v>
+        <v>6.6181928551709</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>3.568578243255615</v>
+        <v>5.809548854827881</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1619029647443848</v>
+        <v>2.079067646827881</v>
       </c>
     </row>
     <row r="15">
@@ -5578,28 +5578,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.881556749343872</v>
+        <v>2.341193437576294</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3629032733438722</v>
+        <v>0.1774600384237059</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>1.607715487480164</v>
+        <v>0.8140217065811157</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9395416274801636</v>
+        <v>0.1458478465811157</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9117971658706665</v>
+        <v>0.4732697606086731</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4085061268706665</v>
+        <v>0.03002127839132696</v>
       </c>
     </row>
     <row r="16">
@@ -5612,28 +5612,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>3.016243457794189</v>
+        <v>2.21985125541687</v>
       </c>
       <c r="D16" t="n">
-        <v>2.01004745079419</v>
+        <v>1.21365524841687</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>1.689941883087158</v>
+        <v>0.7803188562393188</v>
       </c>
       <c r="G16" t="n">
-        <v>1.225153951087158</v>
+        <v>0.3155309242393188</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6767956614494324</v>
+        <v>0.4079669117927551</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4906711794494324</v>
+        <v>0.2218424297927551</v>
       </c>
     </row>
     <row r="17">
@@ -5646,28 +5646,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.969455480575562</v>
+        <v>1.609201431274414</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5887485885755614</v>
+        <v>0.771505460725586</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>1.809633255004883</v>
+        <v>3.865636348724365</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1013366200048829</v>
+        <v>2.157339713724365</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>1.219240069389343</v>
+        <v>0.7734209299087524</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3841805453893432</v>
+        <v>0.06163859409124761</v>
       </c>
     </row>
     <row r="18">
@@ -5680,28 +5680,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>3.710961580276489</v>
+        <v>2.431018590927124</v>
       </c>
       <c r="D18" t="n">
-        <v>1.930266800276489</v>
+        <v>0.6503238109271241</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>2.001359462738037</v>
+        <v>0.8561937808990479</v>
       </c>
       <c r="G18" t="n">
-        <v>1.495839554738037</v>
+        <v>0.3506738728990478</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6671308875083923</v>
+        <v>0.4574771523475647</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4909346145083924</v>
+        <v>0.2812808793475647</v>
       </c>
     </row>
     <row r="19">
@@ -5714,28 +5714,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>3.65820050239563</v>
+        <v>10.23264026641846</v>
       </c>
       <c r="D19" t="n">
-        <v>0.05361789360437008</v>
+        <v>6.520821870418457</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>2.742839574813843</v>
+        <v>5.085048198699951</v>
       </c>
       <c r="G19" t="n">
-        <v>3.171957981186157</v>
+        <v>0.8297493573000487</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>2.894708156585693</v>
+        <v>2.011760950088501</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2654108464143068</v>
+        <v>1.148358052911499</v>
       </c>
     </row>
     <row r="20">
@@ -5748,28 +5748,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>3.882920265197754</v>
+        <v>8.716438293457031</v>
       </c>
       <c r="D20" t="n">
-        <v>2.780775485197754</v>
+        <v>7.614293513457032</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>2.191182613372803</v>
+        <v>4.820240497589111</v>
       </c>
       <c r="G20" t="n">
-        <v>1.393497226372803</v>
+        <v>4.022555110589112</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5711994767189026</v>
+        <v>0.06970984488725662</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4221046127189026</v>
+        <v>0.07938501911274337</v>
       </c>
     </row>
     <row r="21">
@@ -5782,28 +5782,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>72.28815460205078</v>
+        <v>52.90345001220703</v>
       </c>
       <c r="D21" t="n">
-        <v>8.764698267949214</v>
+        <v>28.14940285779296</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>41.01333999633789</v>
+        <v>27.68494415283203</v>
       </c>
       <c r="G21" t="n">
-        <v>5.230514026337893</v>
+        <v>8.097881817167966</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>5.479600429534912</v>
+        <v>8.792165756225586</v>
       </c>
       <c r="J21" t="n">
-        <v>0.866671882534912</v>
+        <v>4.179237209225586</v>
       </c>
     </row>
     <row r="22">
@@ -5816,28 +5816,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>2.228124618530273</v>
+        <v>1.758501648902893</v>
       </c>
       <c r="D22" t="n">
-        <v>1.758799580530273</v>
+        <v>1.289176610902893</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.482076168060303</v>
+        <v>3.970914363861084</v>
       </c>
       <c r="G22" t="n">
-        <v>1.160459589060303</v>
+        <v>3.649297784861084</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>1.723846077919006</v>
+        <v>0.8675689697265625</v>
       </c>
       <c r="J22" t="n">
-        <v>1.381703647919006</v>
+        <v>0.5254265397265625</v>
       </c>
     </row>
     <row r="23">
@@ -5850,28 +5850,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>151.3982543945312</v>
+        <v>104.3151092529297</v>
       </c>
       <c r="D23" t="n">
-        <v>2.834930594531244</v>
+        <v>44.24821454707032</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>87.96112823486328</v>
+        <v>55.3821907043457</v>
       </c>
       <c r="G23" t="n">
-        <v>10.20849875486329</v>
+        <v>22.37043877565429</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>11.00533485412598</v>
+        <v>17.36931228637695</v>
       </c>
       <c r="J23" t="n">
-        <v>2.692529454125976</v>
+        <v>9.056506886376953</v>
       </c>
     </row>
     <row r="24">
@@ -5884,28 +5884,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.695235252380371</v>
+        <v>2.508342981338501</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5554421793803712</v>
+        <v>0.3685499083385011</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.589046120643616</v>
+        <v>0.8734674453735352</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9534580756436157</v>
+        <v>0.2378794003735352</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>1.294523358345032</v>
+        <v>0.5692845582962036</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6910516013450317</v>
+        <v>0.03418719870379638</v>
       </c>
     </row>
     <row r="25">
@@ -5918,28 +5918,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>16.11297035217285</v>
+        <v>15.05298233032227</v>
       </c>
       <c r="D25" t="n">
-        <v>6.002124977827147</v>
+        <v>7.062112999677733</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>8.624403953552246</v>
+        <v>7.829206466674805</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8388511635522464</v>
+        <v>0.04365367667480502</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>0.926136314868927</v>
+        <v>1.407685041427612</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2598363061310729</v>
+        <v>0.2217124204276124</v>
       </c>
     </row>
     <row r="26">
@@ -5952,28 +5952,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>8.886796951293945</v>
+        <v>10.4402904510498</v>
       </c>
       <c r="D26" t="n">
-        <v>9.755715808706054</v>
+        <v>8.202222308950194</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>4.657942295074463</v>
+        <v>5.10288143157959</v>
       </c>
       <c r="G26" t="n">
-        <v>1.247376355925537</v>
+        <v>0.8024372194204101</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5746695399284363</v>
+        <v>1.442653775215149</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7313526190715638</v>
+        <v>0.1366316162151489</v>
       </c>
     </row>
     <row r="27">
@@ -5986,28 +5986,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>3.396462917327881</v>
+        <v>2.410921096801758</v>
       </c>
       <c r="D27" t="n">
-        <v>2.284418538327881</v>
+        <v>1.298876717801758</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>2.042331218719482</v>
+        <v>0.8716699481010437</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5701615657194825</v>
+        <v>0.6004997048989562</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8101410865783691</v>
+        <v>0.4577807188034058</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4992091345783691</v>
+        <v>0.1468487668034058</v>
       </c>
     </row>
     <row r="28">
@@ -6020,28 +6020,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>5.300391674041748</v>
+        <v>9.197603225708008</v>
       </c>
       <c r="D28" t="n">
-        <v>4.296168794041748</v>
+        <v>8.193380345708007</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>3.004124402999878</v>
+        <v>5.068692684173584</v>
       </c>
       <c r="G28" t="n">
-        <v>2.142579212999878</v>
+        <v>4.207147494173584</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3488757610321045</v>
+        <v>0.09714091569185257</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2625303900321045</v>
+        <v>0.01079554469185257</v>
       </c>
     </row>
     <row r="29">
@@ -6054,28 +6054,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>3.891472339630127</v>
+        <v>8.677961349487305</v>
       </c>
       <c r="D29" t="n">
-        <v>5.057607591369873</v>
+        <v>0.2711185815126953</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>2.182848930358887</v>
+        <v>4.802918434143066</v>
       </c>
       <c r="G29" t="n">
-        <v>3.551190275641114</v>
+        <v>0.9311207718569339</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5433005094528198</v>
+        <v>0.05838192254304886</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3038535355471802</v>
+        <v>0.7887721224569512</v>
       </c>
     </row>
     <row r="30">
@@ -6088,28 +6088,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>5.592398166656494</v>
+        <v>9.880153656005859</v>
       </c>
       <c r="D30" t="n">
-        <v>1.730427077656494</v>
+        <v>6.01818256700586</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>2.981121063232422</v>
+        <v>5.282248020172119</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8153825132324219</v>
+        <v>3.116509470172119</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9114353656768799</v>
+        <v>0.4353588819503784</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1154396473231201</v>
+        <v>0.5915161310496215</v>
       </c>
     </row>
     <row r="31">
@@ -6122,28 +6122,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>7.346885681152344</v>
+        <v>2.828965425491333</v>
       </c>
       <c r="D31" t="n">
-        <v>4.652756376152343</v>
+        <v>0.1348361204913329</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>5.022552013397217</v>
+        <v>4.888720512390137</v>
       </c>
       <c r="G31" t="n">
-        <v>3.976027734602782</v>
+        <v>4.109859235609862</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>1.174307107925415</v>
+        <v>0.8326188325881958</v>
       </c>
       <c r="J31" t="n">
-        <v>0.09892839792541497</v>
+        <v>0.2427598774118043</v>
       </c>
     </row>
     <row r="32">
@@ -6156,28 +6156,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>3.523268699645996</v>
+        <v>1.216747641563416</v>
       </c>
       <c r="D32" t="n">
-        <v>6.061635544354004</v>
+        <v>8.368156602436585</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>2.384280443191528</v>
+        <v>2.023202896118164</v>
       </c>
       <c r="G32" t="n">
-        <v>25.72134342680847</v>
+        <v>26.08242097388183</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>1.429320454597473</v>
+        <v>2.298352718353271</v>
       </c>
       <c r="J32" t="n">
-        <v>6.449494098402527</v>
+        <v>5.580461834646728</v>
       </c>
     </row>
     <row r="33">
@@ -6190,28 +6190,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>10.1871223449707</v>
+        <v>11.29006195068359</v>
       </c>
       <c r="D33" t="n">
-        <v>11.9255272350293</v>
+        <v>10.82258762931641</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>5.368279457092285</v>
+        <v>5.470247268676758</v>
       </c>
       <c r="G33" t="n">
-        <v>1.734064063907715</v>
+        <v>1.632096252323242</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6492693424224854</v>
+        <v>1.635118246078491</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9757452685775148</v>
+        <v>0.0101036350784911</v>
       </c>
     </row>
   </sheetData>
@@ -6295,28 +6295,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>2.374356269836426</v>
+        <v>1.474927544593811</v>
       </c>
       <c r="D2" t="n">
-        <v>1.214185983836426</v>
+        <v>0.314757258593811</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>1.566684007644653</v>
+        <v>0.4180921316146851</v>
       </c>
       <c r="G2" t="n">
-        <v>1.144788458644653</v>
+        <v>0.003803417385314922</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.341555118560791</v>
+        <v>0.1407113075256348</v>
       </c>
       <c r="J2" t="n">
-        <v>0.174750451560791</v>
+        <v>0.02609335947436522</v>
       </c>
     </row>
     <row r="3">
@@ -6329,28 +6329,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>11.58379364013672</v>
+        <v>4.082234859466553</v>
       </c>
       <c r="D3" t="n">
-        <v>5.647306799136719</v>
+        <v>1.854251981533447</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>2.031209468841553</v>
+        <v>0.89788419008255</v>
       </c>
       <c r="G3" t="n">
-        <v>1.355304894841553</v>
+        <v>0.22197961608255</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.709491729736328</v>
+        <v>0.8863400816917419</v>
       </c>
       <c r="J3" t="n">
-        <v>1.709491729736328</v>
+        <v>0.8863400816917419</v>
       </c>
     </row>
     <row r="4">
@@ -6363,28 +6363,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.257012605667114</v>
+        <v>1.660008072853088</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2892559863328859</v>
+        <v>0.8862605191469117</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>1.183891892433167</v>
+        <v>0.4259487688541412</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6934177724331665</v>
+        <v>0.06452535114585878</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6687783002853394</v>
+        <v>0.3935792446136475</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1477192642853393</v>
+        <v>0.1274797913863526</v>
       </c>
     </row>
     <row r="5">
@@ -6397,28 +6397,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>4.352572441101074</v>
+        <v>5.794471263885498</v>
       </c>
       <c r="D5" t="n">
-        <v>6.311177668898926</v>
+        <v>4.869278846114502</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.881639719009399</v>
+        <v>4.200136661529541</v>
       </c>
       <c r="G5" t="n">
-        <v>2.486111195990601</v>
+        <v>1.167614253470459</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5510348677635193</v>
+        <v>0.5160558819770813</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3489549082364807</v>
+        <v>0.3839338940229187</v>
       </c>
     </row>
     <row r="6">
@@ -6431,28 +6431,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>4.538599967956543</v>
+        <v>5.93470287322998</v>
       </c>
       <c r="D6" t="n">
-        <v>11.04093996204346</v>
+        <v>9.644837056770019</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>2.838595151901245</v>
+        <v>4.232087135314941</v>
       </c>
       <c r="G6" t="n">
-        <v>4.298060257098755</v>
+        <v>2.904568273685059</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3743461966514587</v>
+        <v>0.3968363106250763</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5494834693485413</v>
+        <v>0.5269933553749238</v>
       </c>
     </row>
     <row r="7">
@@ -6465,28 +6465,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>2.653178215026855</v>
+        <v>1.08449387550354</v>
       </c>
       <c r="D7" t="n">
-        <v>1.633787927026855</v>
+        <v>0.06510358750353995</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>3.33758544921875</v>
+        <v>2.334474325180054</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1437428317812501</v>
+        <v>1.146853955819946</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7203691601753235</v>
+        <v>0.6624815464019775</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1031760611753235</v>
+        <v>0.04528844740197757</v>
       </c>
     </row>
     <row r="8">
@@ -6499,28 +6499,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>15.88552379608154</v>
+        <v>19.13936042785645</v>
       </c>
       <c r="D8" t="n">
-        <v>2.701764223918456</v>
+        <v>0.5520724078564463</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>6.019084930419922</v>
+        <v>7.801872730255127</v>
       </c>
       <c r="G8" t="n">
-        <v>1.704710425580078</v>
+        <v>0.07807737425512684</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7064862847328186</v>
+        <v>0.6866127848625183</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4328517782671815</v>
+        <v>0.4527252781374818</v>
       </c>
     </row>
     <row r="9">
@@ -6533,28 +6533,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.19097375869751</v>
+        <v>5.876325130462646</v>
       </c>
       <c r="D9" t="n">
-        <v>1.96040087330249</v>
+        <v>0.2750495015373531</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.391063332557678</v>
+        <v>3.0339195728302</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1891596115576781</v>
+        <v>1.8320158518302</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>3.027742624282837</v>
+        <v>4.387969017028809</v>
       </c>
       <c r="J9" t="n">
-        <v>1.540469427282837</v>
+        <v>2.900695820028809</v>
       </c>
     </row>
     <row r="10">
@@ -6567,28 +6567,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>9.118462562561035</v>
+        <v>13.35875606536865</v>
       </c>
       <c r="D10" t="n">
-        <v>3.248034397438964</v>
+        <v>0.9922591053686531</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>2.344147443771362</v>
+        <v>4.899152755737305</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1803930642286375</v>
+        <v>2.374612247737305</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>3.68931770324707</v>
+        <v>4.384274482727051</v>
       </c>
       <c r="J10" t="n">
-        <v>1.73283735124707</v>
+        <v>2.427794130727051</v>
       </c>
     </row>
     <row r="11">
@@ -6601,28 +6601,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>2.383257865905762</v>
+        <v>1.550931096076965</v>
       </c>
       <c r="D11" t="n">
-        <v>1.408656973905762</v>
+        <v>0.5763302040769653</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>1.620479345321655</v>
+        <v>0.4720922112464905</v>
       </c>
       <c r="G11" t="n">
-        <v>1.226843430321655</v>
+        <v>0.07845629624649048</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4485877156257629</v>
+        <v>0.2250712513923645</v>
       </c>
       <c r="J11" t="n">
-        <v>0.287628676625763</v>
+        <v>0.0641122123923645</v>
       </c>
     </row>
     <row r="12">
@@ -6635,28 +6635,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>2.011305093765259</v>
+        <v>1.171140313148499</v>
       </c>
       <c r="D12" t="n">
-        <v>1.225499221765259</v>
+        <v>0.3853344411484986</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>1.679888367652893</v>
+        <v>0.3079760670661926</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9874131526528931</v>
+        <v>0.3844991479338074</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2843056321144104</v>
+        <v>0.05435699969530106</v>
       </c>
       <c r="J12" t="n">
-        <v>0.08885477711441039</v>
+        <v>0.141093855304699</v>
       </c>
     </row>
     <row r="13">
@@ -6669,28 +6669,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>2.65187668800354</v>
+        <v>1.065675020217896</v>
       </c>
       <c r="D13" t="n">
-        <v>1.61744648800354</v>
+        <v>0.03124482021789543</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>2.986883401870728</v>
+        <v>1.937743544578552</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02955282512927226</v>
+        <v>1.078692682421448</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4671549797058105</v>
+        <v>0.4754815697669983</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05870552070581053</v>
+        <v>0.06703211076699828</v>
       </c>
     </row>
     <row r="14">
@@ -6703,28 +6703,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>50.40801239013672</v>
+        <v>50.27548217773438</v>
       </c>
       <c r="D14" t="n">
-        <v>11.39584330986328</v>
+        <v>11.52837352226562</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>19.04250144958496</v>
+        <v>20.50690650939941</v>
       </c>
       <c r="G14" t="n">
-        <v>5.968996230415041</v>
+        <v>4.504591170600587</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>3.840111017227173</v>
+        <v>2.873213768005371</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1096298092271728</v>
+        <v>0.857267439994629</v>
       </c>
     </row>
     <row r="15">
@@ -6737,28 +6737,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.369013071060181</v>
+        <v>1.701187372207642</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1496404049398192</v>
+        <v>0.8174661037923583</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>1.364164113998413</v>
+        <v>0.4825678169727325</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6959902539984131</v>
+        <v>0.1856060430272675</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6594159603118896</v>
+        <v>0.385315865278244</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1561249213118896</v>
+        <v>0.117975173721756</v>
       </c>
     </row>
     <row r="16">
@@ -6771,28 +6771,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>2.415356636047363</v>
+        <v>1.489795804023743</v>
       </c>
       <c r="D16" t="n">
-        <v>1.409160629047363</v>
+        <v>0.4835997970237427</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>1.659606695175171</v>
+        <v>0.44692462682724</v>
       </c>
       <c r="G16" t="n">
-        <v>1.194818763175171</v>
+        <v>0.01786330517276002</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3435870409011841</v>
+        <v>0.1425458192825317</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1574625589011841</v>
+        <v>0.04357866271746827</v>
       </c>
     </row>
     <row r="17">
@@ -6805,28 +6805,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.62572455406189</v>
+        <v>1.191705942153931</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2450176620618896</v>
+        <v>1.189000949846069</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>2.300405979156494</v>
+        <v>2.665846109390259</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5921093441564942</v>
+        <v>0.9575494743902588</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>1.283591270446777</v>
+        <v>0.9474708437919617</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4485317464467773</v>
+        <v>0.1124113197919616</v>
       </c>
     </row>
     <row r="18">
@@ -6839,28 +6839,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>3.416694402694702</v>
+        <v>2.228156089782715</v>
       </c>
       <c r="D18" t="n">
-        <v>1.635999622694702</v>
+        <v>0.4474613097827149</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>1.806470155715942</v>
+        <v>0.756753146648407</v>
       </c>
       <c r="G18" t="n">
-        <v>1.300950247715942</v>
+        <v>0.251233238648407</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5278410315513611</v>
+        <v>0.3014887273311615</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3516447585513611</v>
+        <v>0.1252924543311615</v>
       </c>
     </row>
     <row r="19">
@@ -6873,28 +6873,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>2.829382181167603</v>
+        <v>4.160349369049072</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8824362148323974</v>
+        <v>0.4485309730490723</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>5.884305477142334</v>
+        <v>6.762848854064941</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03049207885766592</v>
+        <v>0.8480512980649415</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>5.555104732513428</v>
+        <v>7.518585681915283</v>
       </c>
       <c r="J19" t="n">
-        <v>2.394985729513428</v>
+        <v>4.358466678915283</v>
       </c>
     </row>
     <row r="20">
@@ -6907,28 +6907,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>3.648085594177246</v>
+        <v>5.510651588439941</v>
       </c>
       <c r="D20" t="n">
-        <v>2.545940814177246</v>
+        <v>4.408506808439942</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>2.823693037033081</v>
+        <v>4.215993404388428</v>
       </c>
       <c r="G20" t="n">
-        <v>2.026007650033081</v>
+        <v>3.418308017388428</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5178852677345276</v>
+        <v>0.5327234864234924</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3687904037345276</v>
+        <v>0.3836286224234924</v>
       </c>
     </row>
     <row r="21">
@@ -6941,28 +6941,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>74.92030334472656</v>
+        <v>75.09088134765625</v>
       </c>
       <c r="D21" t="n">
-        <v>6.132549525273433</v>
+        <v>5.961971522343745</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>32.07742309570312</v>
+        <v>34.58391952514648</v>
       </c>
       <c r="G21" t="n">
-        <v>3.705402874296873</v>
+        <v>1.198906444853513</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>5.268833637237549</v>
+        <v>4.240622043609619</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6559050902375487</v>
+        <v>0.372306503390381</v>
       </c>
     </row>
     <row r="22">
@@ -6975,28 +6975,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.658899784088135</v>
+        <v>1.059423208236694</v>
       </c>
       <c r="D22" t="n">
-        <v>1.189574746088135</v>
+        <v>0.5900981702366943</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.779869794845581</v>
+        <v>2.856479644775391</v>
       </c>
       <c r="G22" t="n">
-        <v>1.458253215845581</v>
+        <v>2.534863065775391</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>1.938125014305115</v>
+        <v>1.334533333778381</v>
       </c>
       <c r="J22" t="n">
-        <v>1.595982584305115</v>
+        <v>0.9923909037783814</v>
       </c>
     </row>
     <row r="23">
@@ -7009,28 +7009,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>140.7057952880859</v>
+        <v>145.8936462402344</v>
       </c>
       <c r="D23" t="n">
-        <v>7.857528511914069</v>
+        <v>2.669677559765631</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>77.06606292724609</v>
+        <v>83.10706329345703</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6865665527539022</v>
+        <v>5.354433813457035</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>9.635126113891602</v>
+        <v>8.739484786987305</v>
       </c>
       <c r="J23" t="n">
-        <v>1.322320713891601</v>
+        <v>0.4266793869873045</v>
       </c>
     </row>
     <row r="24">
@@ -7043,28 +7043,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.311699867248535</v>
+        <v>1.95828914642334</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1719067942485353</v>
+        <v>0.18150392657666</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.418355941772461</v>
+        <v>0.6583144068717957</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7827678967724609</v>
+        <v>0.02272636187179566</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>1.219704747200012</v>
+        <v>0.7719733119010925</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6162329902000122</v>
+        <v>0.1685015549010925</v>
       </c>
     </row>
     <row r="25">
@@ -7077,28 +7077,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>24.36164093017578</v>
+        <v>22.82402801513672</v>
       </c>
       <c r="D25" t="n">
-        <v>2.246545600175782</v>
+        <v>0.7089326851367197</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>7.455506324768066</v>
+        <v>7.874546527862549</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3300464652319333</v>
+        <v>0.08899373786254916</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>1.383713960647583</v>
+        <v>0.6643476486206055</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1977413396475831</v>
+        <v>0.5216249723793944</v>
       </c>
     </row>
     <row r="26">
@@ -7111,28 +7111,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>14.40752601623535</v>
+        <v>17.46600341796875</v>
       </c>
       <c r="D26" t="n">
-        <v>4.234986743764647</v>
+        <v>1.176509342031249</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>4.564055919647217</v>
+        <v>6.123980522155762</v>
       </c>
       <c r="G26" t="n">
-        <v>1.341262731352783</v>
+        <v>0.2186618711557617</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9074907898902893</v>
+        <v>1.071439146995544</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3985313691097108</v>
+        <v>0.2345830120044556</v>
       </c>
     </row>
     <row r="27">
@@ -7145,28 +7145,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>3.047936677932739</v>
+        <v>2.012962579727173</v>
       </c>
       <c r="D27" t="n">
-        <v>1.935892298932739</v>
+        <v>0.9009182007271728</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>3.154399633407593</v>
+        <v>1.031071186065674</v>
       </c>
       <c r="G27" t="n">
-        <v>1.682229980407593</v>
+        <v>0.4410984669343261</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8113832473754883</v>
+        <v>0.4715348482131958</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5004512953754883</v>
+        <v>0.1606028962131958</v>
       </c>
     </row>
     <row r="28">
@@ -7179,28 +7179,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>5.877412796020508</v>
+        <v>6.397416591644287</v>
       </c>
       <c r="D28" t="n">
-        <v>4.873189916020507</v>
+        <v>5.393193711644287</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>5.005501270294189</v>
+        <v>4.770992755889893</v>
       </c>
       <c r="G28" t="n">
-        <v>4.143956080294189</v>
+        <v>3.909447565889892</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3664909601211548</v>
+        <v>0.4300205707550049</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2801455891211548</v>
+        <v>0.3436751997550049</v>
       </c>
     </row>
     <row r="29">
@@ -7213,28 +7213,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>3.638219356536865</v>
+        <v>5.525795936584473</v>
       </c>
       <c r="D29" t="n">
-        <v>5.310860574463135</v>
+        <v>3.423283994415527</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>2.72237229347229</v>
+        <v>4.201491355895996</v>
       </c>
       <c r="G29" t="n">
-        <v>3.01166691252771</v>
+        <v>1.532547850104004</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4614459276199341</v>
+        <v>0.4985865652561188</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3857081173800659</v>
+        <v>0.3485674797438812</v>
       </c>
     </row>
     <row r="30">
@@ -7247,28 +7247,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>6.539582252502441</v>
+        <v>6.416353225708008</v>
       </c>
       <c r="D30" t="n">
-        <v>2.677611163502442</v>
+        <v>2.554382136708008</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>2.700036764144897</v>
+        <v>3.832135915756226</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5342982141448975</v>
+        <v>1.666397365756226</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>1.251571178436279</v>
+        <v>0.8785938024520874</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2246961654362793</v>
+        <v>0.1482812105479125</v>
       </c>
     </row>
     <row r="31">
@@ -7281,28 +7281,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>6.402006149291992</v>
+        <v>2.532572984695435</v>
       </c>
       <c r="D31" t="n">
-        <v>3.707876844291992</v>
+        <v>0.1615563203045656</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>13.51854133605957</v>
+        <v>10.74196815490723</v>
       </c>
       <c r="G31" t="n">
-        <v>4.519961588059571</v>
+        <v>1.743388406907227</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>2.383280038833618</v>
+        <v>2.144591093063354</v>
       </c>
       <c r="J31" t="n">
-        <v>1.307901328833618</v>
+        <v>1.069212383063354</v>
       </c>
     </row>
     <row r="32">
@@ -7315,28 +7315,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.902321100234985</v>
+        <v>2.079420328140259</v>
       </c>
       <c r="D32" t="n">
-        <v>6.682583143765015</v>
+        <v>7.505483915859742</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>5.305318355560303</v>
+        <v>3.632548809051514</v>
       </c>
       <c r="G32" t="n">
-        <v>22.8003055144397</v>
+        <v>24.47307506094849</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>2.158366918563843</v>
+        <v>2.114997148513794</v>
       </c>
       <c r="J32" t="n">
-        <v>5.720447634436157</v>
+        <v>5.763817404486206</v>
       </c>
     </row>
     <row r="33">
@@ -7349,28 +7349,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>17.03968238830566</v>
+        <v>20.82835388183594</v>
       </c>
       <c r="D33" t="n">
-        <v>5.072967191694335</v>
+        <v>1.284295698164062</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>5.16995096206665</v>
+        <v>7.446923732757568</v>
       </c>
       <c r="G33" t="n">
-        <v>1.932392558933349</v>
+        <v>0.3445802117575685</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.204048991203308</v>
+        <v>1.216149926185608</v>
       </c>
       <c r="J33" t="n">
-        <v>0.420965619796692</v>
+        <v>0.4088646848143922</v>
       </c>
     </row>
   </sheetData>

--- a/IndexResults.xlsx
+++ b/IndexResults.xlsx
@@ -500,28 +500,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>2.063843799057848</v>
+        <v>3.524984309247755</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9036735130578477</v>
+        <v>2.364814023247755</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9898245938166661</v>
+        <v>2.288066253965174</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5679290448166661</v>
+        <v>1.866170704965174</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.180641159898064</v>
+        <v>0.6222443502867944</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01383649289806396</v>
+        <v>0.4554396832867944</v>
       </c>
     </row>
     <row r="3">
@@ -534,28 +534,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>7.524972089326914</v>
+        <v>11.54371550822559</v>
       </c>
       <c r="D3" t="n">
-        <v>1.588485248326914</v>
+        <v>5.607228667225592</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.179571159876032</v>
+        <v>-0.3531220156818469</v>
       </c>
       <c r="G3" t="n">
-        <v>1.855475733876032</v>
+        <v>1.029026589681847</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7066702300860199</v>
+        <v>1.087771606036061</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7066702300860199</v>
+        <v>1.087771606036061</v>
       </c>
     </row>
     <row r="4">
@@ -568,28 +568,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.304348956952286</v>
+        <v>3.816778122104188</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2419196350477137</v>
+        <v>1.270509530104188</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6039662655514704</v>
+        <v>1.924152270905973</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1134921455514704</v>
+        <v>1.433678150905973</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4335578311504709</v>
+        <v>0.8963915481807556</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08750120484952917</v>
+        <v>0.3753325121807556</v>
       </c>
     </row>
     <row r="5">
@@ -602,28 +602,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>6.198298642750636</v>
+        <v>4.75848280449799</v>
       </c>
       <c r="D5" t="n">
-        <v>4.465451467249364</v>
+        <v>5.905267305502011</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>4.291895258416879</v>
+        <v>3.14164787904513</v>
       </c>
       <c r="G5" t="n">
-        <v>1.075855656583121</v>
+        <v>2.22610303595487</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5262272562374022</v>
+        <v>0.6283526549771009</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3737625197625978</v>
+        <v>0.2716371210228991</v>
       </c>
     </row>
     <row r="6">
@@ -636,28 +636,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>6.355978203416536</v>
+        <v>4.94849444645426</v>
       </c>
       <c r="D6" t="n">
-        <v>9.223561726583464</v>
+        <v>10.63104548354574</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>4.13242279898599</v>
+        <v>3.002300400897101</v>
       </c>
       <c r="G6" t="n">
-        <v>3.00423261001401</v>
+        <v>4.134355008102899</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3802650449798219</v>
+        <v>0.4856633552656766</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5435646210201781</v>
+        <v>0.4381663107343234</v>
       </c>
     </row>
     <row r="7">
@@ -670,28 +670,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>1.114717198995614</v>
+        <v>2.77011697040838</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0953269109956143</v>
+        <v>1.75072668240838</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>3.33783161727384</v>
+        <v>4.090039942128816</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1434966637261605</v>
+        <v>0.6087116611288157</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4491796456671291</v>
+        <v>0.8967982025773288</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1680134533328709</v>
+        <v>0.2796051035773288</v>
       </c>
     </row>
     <row r="8">
@@ -704,28 +704,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>13.87528336417444</v>
+        <v>10.25716417682596</v>
       </c>
       <c r="D8" t="n">
-        <v>4.712004655825558</v>
+        <v>8.330123843174038</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>6.464530670646858</v>
+        <v>4.528512807833282</v>
       </c>
       <c r="G8" t="n">
-        <v>1.259264685353142</v>
+        <v>3.195282548166718</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>2.164007678279527</v>
+        <v>0.7418628530639872</v>
       </c>
       <c r="J8" t="n">
-        <v>1.024669615279526</v>
+        <v>0.3974752099360128</v>
       </c>
     </row>
     <row r="9">
@@ -738,28 +738,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>9.936724110207914</v>
+        <v>6.210820241360901</v>
       </c>
       <c r="D9" t="n">
-        <v>3.785349478207914</v>
+        <v>0.05944560936090149</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>3.600021337719661</v>
+        <v>1.546187344446367</v>
       </c>
       <c r="G9" t="n">
-        <v>2.398117616719661</v>
+        <v>0.3442836234463671</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>3.502381670146</v>
+        <v>2.126952434944189</v>
       </c>
       <c r="J9" t="n">
-        <v>2.015108473146</v>
+        <v>0.6396792379441889</v>
       </c>
     </row>
     <row r="10">
@@ -772,28 +772,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>12.86924118089089</v>
+        <v>9.435029061581336</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5027442208908894</v>
+        <v>2.931467898418664</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>3.215137689505908</v>
+        <v>1.329512297988914</v>
       </c>
       <c r="G10" t="n">
-        <v>0.690597181505908</v>
+        <v>1.195028210011086</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>3.562869671228744</v>
+        <v>2.249244763071762</v>
       </c>
       <c r="J10" t="n">
-        <v>1.606389319228744</v>
+        <v>0.2927644110717618</v>
       </c>
     </row>
     <row r="11">
@@ -806,28 +806,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>2.084901163861009</v>
+        <v>3.537061818642715</v>
       </c>
       <c r="D11" t="n">
-        <v>1.110300271861009</v>
+        <v>2.562460926642715</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>1.081655654985663</v>
+        <v>2.373916104850511</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6880197399856627</v>
+        <v>1.980280189850511</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2714257117386629</v>
+        <v>0.7132127368218575</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1104666727386629</v>
+        <v>0.5522536978218575</v>
       </c>
     </row>
     <row r="12">
@@ -840,28 +840,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>1.527871487752722</v>
+        <v>2.915481231464856</v>
       </c>
       <c r="D12" t="n">
-        <v>0.742065615752722</v>
+        <v>2.129675359464856</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>1.273747751817485</v>
+        <v>2.53138185961163</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5812725368174854</v>
+        <v>1.83890664461163</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1747437467709378</v>
+        <v>0.59931366905852</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02070710822906216</v>
+        <v>0.40386281405852</v>
       </c>
     </row>
     <row r="13">
@@ -874,28 +874,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>1.129722667071334</v>
+        <v>2.820267124022909</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09529246707133421</v>
+        <v>1.785836924022909</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>3.025669915217042</v>
+        <v>3.798770175077967</v>
       </c>
       <c r="G13" t="n">
-        <v>0.009233688217042513</v>
+        <v>0.7823339480779676</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2638521391103963</v>
+        <v>0.7155051902120259</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1445973198896037</v>
+        <v>0.3070557312120258</v>
       </c>
     </row>
     <row r="14">
@@ -908,28 +908,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>55.26126441361441</v>
+        <v>56.87533370334597</v>
       </c>
       <c r="D14" t="n">
-        <v>6.542591286385587</v>
+        <v>4.928521996654027</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>17.14268139270906</v>
+        <v>17.91549445052061</v>
       </c>
       <c r="G14" t="n">
-        <v>7.868816287290937</v>
+        <v>7.096003229479393</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>2.011937355260239</v>
+        <v>2.630101287824517</v>
       </c>
       <c r="J14" t="n">
-        <v>1.718543852739761</v>
+        <v>1.100379920175483</v>
       </c>
     </row>
     <row r="15">
@@ -942,28 +942,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.301140156137099</v>
+        <v>3.796234342238522</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2175133198629009</v>
+        <v>1.277580866238522</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7883047088322055</v>
+        <v>2.100337784915455</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1201308488322055</v>
+        <v>1.432163924915455</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4215234707274091</v>
+        <v>0.8789239208063093</v>
       </c>
       <c r="J15" t="n">
-        <v>0.08176756827259091</v>
+        <v>0.3756328818063093</v>
       </c>
     </row>
     <row r="16">
@@ -976,28 +976,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>2.048602306946799</v>
+        <v>3.498670129195811</v>
       </c>
       <c r="D16" t="n">
-        <v>1.042406299946799</v>
+        <v>2.492474122195811</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>1.09262133924415</v>
+        <v>2.385313904811722</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6278334072441499</v>
+        <v>1.920525972811722</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.183369590208194</v>
+        <v>0.6219596237125165</v>
       </c>
       <c r="J16" t="n">
-        <v>0.002754891791806019</v>
+        <v>0.4358351417125165</v>
       </c>
     </row>
     <row r="17">
@@ -1010,28 +1010,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>1.749338313494743</v>
+        <v>3.553182697010456</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6313685785052572</v>
+        <v>1.172475805010456</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>2.261094681050345</v>
+        <v>3.083977799456988</v>
       </c>
       <c r="G17" t="n">
-        <v>0.552798046050345</v>
+        <v>1.375681164456988</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8008296836173432</v>
+        <v>1.297901265824536</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03422984038265686</v>
+        <v>0.4628417418245361</v>
       </c>
     </row>
     <row r="18">
@@ -1044,28 +1044,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>3.064159860418455</v>
+        <v>4.625915480059565</v>
       </c>
       <c r="D18" t="n">
-        <v>1.283465080418455</v>
+        <v>2.845220700059564</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8467462758321789</v>
+        <v>2.202909747613095</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3412263678321789</v>
+        <v>1.697389839613094</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2010098972974121</v>
+        <v>0.6640125111686391</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02481362429741216</v>
+        <v>0.4878162381686392</v>
       </c>
     </row>
     <row r="19">
@@ -1078,28 +1078,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>7.713100067353675</v>
+        <v>3.345197601453823</v>
       </c>
       <c r="D19" t="n">
-        <v>4.001281671353675</v>
+        <v>0.3666207945461766</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>8.00297260472083</v>
+        <v>5.589622507541835</v>
       </c>
       <c r="G19" t="n">
-        <v>2.08817504872083</v>
+        <v>0.3251750484581653</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>4.870318895366932</v>
+        <v>3.371638370322679</v>
       </c>
       <c r="J19" t="n">
-        <v>1.710199892366932</v>
+        <v>0.211519367322679</v>
       </c>
     </row>
     <row r="20">
@@ -1112,28 +1112,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>5.566596299965031</v>
+        <v>4.048906981103769</v>
       </c>
       <c r="D20" t="n">
-        <v>4.464451519965031</v>
+        <v>2.946762201103769</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>4.520450632351119</v>
+        <v>3.325576919586887</v>
       </c>
       <c r="G20" t="n">
-        <v>3.722765245351119</v>
+        <v>2.527891532586887</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5687155256799128</v>
+        <v>0.6549619231923267</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4196206616799128</v>
+        <v>0.5058670591923267</v>
       </c>
     </row>
     <row r="21">
@@ -1146,28 +1146,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>85.68473067836607</v>
+        <v>88.57607782440728</v>
       </c>
       <c r="D21" t="n">
-        <v>4.63187780836607</v>
+        <v>7.523224954407283</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>31.76409982463617</v>
+        <v>33.43993111450082</v>
       </c>
       <c r="G21" t="n">
-        <v>4.018726145363829</v>
+        <v>2.342894855499182</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>2.537693506781943</v>
+        <v>3.282727440981202</v>
       </c>
       <c r="J21" t="n">
-        <v>2.075235040218057</v>
+        <v>1.330201106018798</v>
       </c>
     </row>
     <row r="22">
@@ -1180,28 +1180,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.3726865488563</v>
+        <v>3.166309966138803</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9033615108562998</v>
+        <v>2.696984928138803</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.895524670459141</v>
+        <v>2.699946229440292</v>
       </c>
       <c r="G22" t="n">
-        <v>1.573908091459141</v>
+        <v>2.378329650440292</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>1.283435362036034</v>
+        <v>1.796678759602443</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9412929320360339</v>
+        <v>1.454536329602443</v>
       </c>
     </row>
     <row r="23">
@@ -1214,28 +1214,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>167.3221638003977</v>
+        <v>171.8352260522801</v>
       </c>
       <c r="D23" t="n">
-        <v>18.75884000039767</v>
+        <v>23.27190225228006</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>89.65240602596401</v>
+        <v>92.83684293870016</v>
       </c>
       <c r="G23" t="n">
-        <v>11.89977654596402</v>
+        <v>15.08421345870016</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>6.053882615325977</v>
+        <v>6.681128984084169</v>
       </c>
       <c r="J23" t="n">
-        <v>2.258922784674024</v>
+        <v>1.631676415915831</v>
       </c>
     </row>
     <row r="24">
@@ -1248,28 +1248,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.337181524295313</v>
+        <v>3.810233647398613</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1973884512953132</v>
+        <v>1.670440574398613</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9480553024326079</v>
+        <v>2.241178371162189</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3124672574326079</v>
+        <v>1.605590326162189</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8440850542562492</v>
+        <v>1.308649993211744</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2406132972562492</v>
+        <v>0.7051782362117439</v>
       </c>
     </row>
     <row r="25">
@@ -1282,28 +1282,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>20.1378721711578</v>
+        <v>19.78710241772608</v>
       </c>
       <c r="D25" t="n">
-        <v>1.977223158842204</v>
+        <v>2.327992912273917</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>5.764659445254495</v>
+        <v>5.281581329451348</v>
       </c>
       <c r="G25" t="n">
-        <v>2.020893344745505</v>
+        <v>2.503971460548652</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2653028354050277</v>
+        <v>0.5562302753837582</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9206697855949721</v>
+        <v>0.6297423456162416</v>
       </c>
     </row>
     <row r="26">
@@ -1316,28 +1316,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>13.78724274158217</v>
+        <v>10.31102407040192</v>
       </c>
       <c r="D26" t="n">
-        <v>4.855270018417825</v>
+        <v>8.331488689598075</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>4.853279641023168</v>
+        <v>2.983214476179589</v>
       </c>
       <c r="G26" t="n">
-        <v>1.052039009976832</v>
+        <v>2.922104174820411</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>2.246283199182345</v>
+        <v>0.8690697594236533</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9402610401823452</v>
+        <v>0.4369523995763468</v>
       </c>
     </row>
     <row r="27">
@@ -1350,28 +1350,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>2.008513794466044</v>
+        <v>3.303006110926455</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8964694154660438</v>
+        <v>2.190961731926455</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>2.621570492504017</v>
+        <v>3.831815964867417</v>
       </c>
       <c r="G27" t="n">
-        <v>1.149400839504017</v>
+        <v>2.359646311867417</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.524587618157637</v>
+        <v>0.9293086104083719</v>
       </c>
       <c r="J27" t="n">
-        <v>0.213655666157637</v>
+        <v>0.6183766584083719</v>
       </c>
     </row>
     <row r="28">
@@ -1384,28 +1384,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>6.414606311406601</v>
+        <v>4.843338608458144</v>
       </c>
       <c r="D28" t="n">
-        <v>5.410383431406601</v>
+        <v>3.839115728458144</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>5.893642914273527</v>
+        <v>4.68231166018651</v>
       </c>
       <c r="G28" t="n">
-        <v>5.032097724273527</v>
+        <v>3.82076647018651</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5139122773329845</v>
+        <v>0.5753516979501453</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4275669063329845</v>
+        <v>0.4890063269501453</v>
       </c>
     </row>
     <row r="29">
@@ -1418,28 +1418,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>5.600600602216629</v>
+        <v>4.098556128020903</v>
       </c>
       <c r="D29" t="n">
-        <v>3.348479328783371</v>
+        <v>4.850523802979097</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>4.397564151186488</v>
+        <v>3.211509913489746</v>
       </c>
       <c r="G29" t="n">
-        <v>1.336475054813512</v>
+        <v>2.522529292510254</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5228535336521223</v>
+        <v>0.6118657681171485</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3243005113478777</v>
+        <v>0.2352882768828515</v>
       </c>
     </row>
     <row r="30">
@@ -1452,28 +1452,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>8.248236589685119</v>
+        <v>7.074930081643116</v>
       </c>
       <c r="D30" t="n">
-        <v>4.386265500685119</v>
+        <v>3.212958992643116</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>3.281212699650668</v>
+        <v>2.272687686547767</v>
       </c>
       <c r="G30" t="n">
-        <v>1.115474149650668</v>
+        <v>0.1069491365477666</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8664561907690392</v>
+        <v>1.039889217570557</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1604188222309607</v>
+        <v>0.01301420457055724</v>
       </c>
     </row>
     <row r="31">
@@ -1486,28 +1486,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>2.051589390476337</v>
+        <v>3.006687083899297</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6425399145236628</v>
+        <v>0.3125577788992966</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>11.3097456813629</v>
+        <v>11.7056590292652</v>
       </c>
       <c r="G31" t="n">
-        <v>2.311165933362899</v>
+        <v>2.707079281265203</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>1.79336415229766</v>
+        <v>2.072528402045613</v>
       </c>
       <c r="J31" t="n">
-        <v>0.7179854422976601</v>
+        <v>0.9971496920456124</v>
       </c>
     </row>
     <row r="32">
@@ -1520,28 +1520,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>1.872537987339014</v>
+        <v>2.868338801545766</v>
       </c>
       <c r="D32" t="n">
-        <v>7.712366256660986</v>
+        <v>6.716565442454234</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>4.66131950209913</v>
+        <v>5.311280882556106</v>
       </c>
       <c r="G32" t="n">
-        <v>23.44430436790087</v>
+        <v>22.79434298744389</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>1.982392937807223</v>
+        <v>1.70835739262262</v>
       </c>
       <c r="J32" t="n">
-        <v>5.896421615192777</v>
+        <v>6.17045716037738</v>
       </c>
     </row>
     <row r="33">
@@ -1554,28 +1554,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>15.11766838105552</v>
+        <v>11.7311277309227</v>
       </c>
       <c r="D33" t="n">
-        <v>6.994981198944483</v>
+        <v>10.3815218490773</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>5.102049498852717</v>
+        <v>3.285314471322336</v>
       </c>
       <c r="G33" t="n">
-        <v>2.000294022147283</v>
+        <v>3.817029049677664</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>2.391013923408484</v>
+        <v>1.033239753082913</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7659993124084843</v>
+        <v>0.5917748579170867</v>
       </c>
     </row>
   </sheetData>
@@ -1659,28 +1659,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>1.260348568219999</v>
+        <v>1.203440056799999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1001782822199986</v>
+        <v>0.0432697707999985</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3790015017200001</v>
+        <v>0.3821741909500002</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04289404727999985</v>
+        <v>0.03972135804999982</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1537783376500001</v>
+        <v>0.1481407316600001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01302632934999992</v>
+        <v>0.01866393533999985</v>
       </c>
     </row>
     <row r="3">
@@ -1693,28 +1693,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>13.83211174471002</v>
+        <v>13.93448073870002</v>
       </c>
       <c r="D3" t="n">
-        <v>7.895624903710019</v>
+        <v>7.997993897700018</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>1.817837896440002</v>
+        <v>1.808685585540001</v>
       </c>
       <c r="G3" t="n">
-        <v>1.141933322440002</v>
+        <v>1.132781011540001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6326276371300001</v>
+        <v>0.9227475129700005</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6326276371300001</v>
+        <v>0.9227475129700005</v>
       </c>
     </row>
     <row r="4">
@@ -1727,28 +1727,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.395452919</v>
+        <v>2.421490956909999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1508156730000003</v>
+        <v>0.1247776350900009</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7176761924700003</v>
+        <v>0.7188137280300002</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2272020724700002</v>
+        <v>0.2283396080300002</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6357533367099997</v>
+        <v>0.5704565864099993</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1146943007099996</v>
+        <v>0.04939755040999927</v>
       </c>
     </row>
     <row r="5">
@@ -1761,28 +1761,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>5.924697992009999</v>
+        <v>5.646334426669998</v>
       </c>
       <c r="D5" t="n">
-        <v>4.739052117990002</v>
+        <v>5.017415683330002</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>3.081905059100001</v>
+        <v>3.030520644330001</v>
       </c>
       <c r="G5" t="n">
-        <v>2.285845855899999</v>
+        <v>2.337230270669999</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5407154231300002</v>
+        <v>0.5966433494400002</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3592743528699998</v>
+        <v>0.3033464265599998</v>
       </c>
     </row>
     <row r="6">
@@ -1795,28 +1795,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>6.950514822290001</v>
+        <v>6.939039860660002</v>
       </c>
       <c r="D6" t="n">
-        <v>8.62902510771</v>
+        <v>8.640500069339996</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>4.369222151680001</v>
+        <v>4.090186334449999</v>
       </c>
       <c r="G6" t="n">
-        <v>2.76743325732</v>
+        <v>3.046469074550001</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.53590123583</v>
+        <v>0.50002602703</v>
       </c>
       <c r="J6" t="n">
-        <v>0.38792843017</v>
+        <v>0.4238036389700001</v>
       </c>
     </row>
     <row r="7">
@@ -1829,28 +1829,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9858856958799994</v>
+        <v>1.095548958249999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03350459212000068</v>
+        <v>0.07615867024999901</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>5.358974974769995</v>
+        <v>5.308941273639996</v>
       </c>
       <c r="G7" t="n">
-        <v>1.877646693769995</v>
+        <v>1.827612992639996</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.47920768546</v>
+        <v>0.4617573418499998</v>
       </c>
       <c r="J7" t="n">
-        <v>0.13798541354</v>
+        <v>0.1554357571500001</v>
       </c>
     </row>
     <row r="8">
@@ -1863,28 +1863,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>17.90981375262001</v>
+        <v>17.80430762236001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6774742673799885</v>
+        <v>0.7829803976399887</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>6.694840113210001</v>
+        <v>6.545813136959998</v>
       </c>
       <c r="G8" t="n">
-        <v>1.02895524279</v>
+        <v>1.177982219040002</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>1.022054991940001</v>
+        <v>1.018863064940001</v>
       </c>
       <c r="J8" t="n">
-        <v>0.117283071059999</v>
+        <v>0.1204749980599993</v>
       </c>
     </row>
     <row r="9">
@@ -1897,28 +1897,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.525074056089998</v>
+        <v>4.664321041939997</v>
       </c>
       <c r="D9" t="n">
-        <v>1.626300575910001</v>
+        <v>1.487053590060003</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9926786791900005</v>
+        <v>1.025324961700001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2092250418099996</v>
+        <v>0.1765787592999994</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.433650046019999</v>
+        <v>1.051360061570001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05362315098000048</v>
+        <v>0.4359131354299994</v>
       </c>
     </row>
     <row r="10">
@@ -1931,28 +1931,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>10.23904142231001</v>
+        <v>8.58965259079001</v>
       </c>
       <c r="D10" t="n">
-        <v>2.127455537689992</v>
+        <v>3.776844369209989</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>5.032259705599999</v>
+        <v>4.80705467981</v>
       </c>
       <c r="G10" t="n">
-        <v>2.507719197599999</v>
+        <v>2.28251417181</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>2.03556448407</v>
+        <v>1.95064370465</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07908413206999954</v>
+        <v>0.005836647349999557</v>
       </c>
     </row>
     <row r="11">
@@ -1965,28 +1965,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>1.64986810113</v>
+        <v>1.700909059440001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6752672091300005</v>
+        <v>0.7263081674400009</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6118108414199999</v>
+        <v>0.61093360935</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2181749264199999</v>
+        <v>0.21729769435</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3161716893499999</v>
+        <v>0.33224486511</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1552126503499999</v>
+        <v>0.17128582611</v>
       </c>
     </row>
     <row r="12">
@@ -1999,28 +1999,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7419596655600005</v>
+        <v>0.7587689503800006</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04384620643999948</v>
+        <v>0.02703692161999938</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5588386924199995</v>
+        <v>0.5433215975599998</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1336365225800005</v>
+        <v>0.1491536174400002</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.17686212145</v>
+        <v>0.16369263155</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01858873354999999</v>
+        <v>0.03175822345000001</v>
       </c>
     </row>
     <row r="13">
@@ -2033,28 +2033,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>1.157737495339999</v>
+        <v>1.211696083259999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1233072953399987</v>
+        <v>0.1772658832599985</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>5.868307809529999</v>
+        <v>5.733554319979999</v>
       </c>
       <c r="G13" t="n">
-        <v>2.851871582529999</v>
+        <v>2.717118092979999</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3886510529300003</v>
+        <v>0.3786990003900002</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01979840606999972</v>
+        <v>0.02975045860999986</v>
       </c>
     </row>
     <row r="14">
@@ -2067,28 +2067,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>29.44525355974997</v>
+        <v>29.64252553876997</v>
       </c>
       <c r="D14" t="n">
-        <v>32.35860214025003</v>
+        <v>32.16133016123003</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>31.41438194225998</v>
+        <v>28.33833646545999</v>
       </c>
       <c r="G14" t="n">
-        <v>6.402884262259974</v>
+        <v>3.326838785459991</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>5.912811369640001</v>
+        <v>5.609592363950004</v>
       </c>
       <c r="J14" t="n">
-        <v>2.182330161640001</v>
+        <v>1.879111155950004</v>
       </c>
     </row>
     <row r="15">
@@ -2101,28 +2101,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.08743865676</v>
+        <v>2.04607050106</v>
       </c>
       <c r="D15" t="n">
-        <v>0.43121481924</v>
+        <v>0.4725829749400003</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6247996716100002</v>
+        <v>0.62817593388</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04337418838999985</v>
+        <v>0.03999792611999997</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.43397017848</v>
+        <v>0.37454933318</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06932086052000003</v>
+        <v>0.1287417058200001</v>
       </c>
     </row>
     <row r="16">
@@ -2135,28 +2135,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>1.146006520709999</v>
+        <v>1.151278495299998</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1398105137099988</v>
+        <v>0.1450824882999984</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4013282368600002</v>
+        <v>0.4006967776200002</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06345969513999983</v>
+        <v>0.06409115437999985</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1474595230800001</v>
+        <v>0.1458109050700002</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03866495891999991</v>
+        <v>0.04031357692999984</v>
       </c>
     </row>
     <row r="17">
@@ -2169,28 +2169,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.372160896480001</v>
+        <v>2.674625038359999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.008545995519999572</v>
+        <v>0.2939181463599994</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>1.429071644080001</v>
+        <v>1.561466770950001</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2792249909199993</v>
+        <v>0.146829864049999</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8756453741500002</v>
+        <v>0.9011419827100002</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04058585015000016</v>
+        <v>0.06608245871000018</v>
       </c>
     </row>
     <row r="18">
@@ -2203,28 +2203,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>2.41875929334</v>
+        <v>2.51297876138</v>
       </c>
       <c r="D18" t="n">
-        <v>0.63806451334</v>
+        <v>0.7322839813800004</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5704620616999996</v>
+        <v>0.6030512434199995</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06494215369999956</v>
+        <v>0.09753133541999948</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2492256857800002</v>
+        <v>0.2472412613900002</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07302941278000016</v>
+        <v>0.07104498839000026</v>
       </c>
     </row>
     <row r="19">
@@ -2237,28 +2237,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>4.070554655010001</v>
+        <v>3.338299330310001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3587362590100014</v>
+        <v>0.3735190656899987</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>8.345169184479998</v>
+        <v>7.638273932379999</v>
       </c>
       <c r="G19" t="n">
-        <v>2.430371628479998</v>
+        <v>1.723476376379999</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>2.5093753371</v>
+        <v>2.46436282027</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6507436659000003</v>
+        <v>0.6957561827300003</v>
       </c>
     </row>
     <row r="20">
@@ -2271,28 +2271,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>3.030407429070001</v>
+        <v>2.133671469420001</v>
       </c>
       <c r="D20" t="n">
-        <v>1.928262649070001</v>
+        <v>1.031526689420001</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>4.063247780700002</v>
+        <v>3.736950825060001</v>
       </c>
       <c r="G20" t="n">
-        <v>3.265562393700002</v>
+        <v>2.939265438060001</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5479290619100003</v>
+        <v>0.5028613476700002</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3988341979100004</v>
+        <v>0.3537664836700002</v>
       </c>
     </row>
     <row r="21">
@@ -2305,28 +2305,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>78.19019098969</v>
+        <v>77.29131967859999</v>
       </c>
       <c r="D21" t="n">
-        <v>2.86266188031</v>
+        <v>3.761533191400005</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>43.40219922455993</v>
+        <v>42.35854494025995</v>
       </c>
       <c r="G21" t="n">
-        <v>7.619373254559932</v>
+        <v>6.575718970259949</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>6.316050089310003</v>
+        <v>6.287925658270003</v>
       </c>
       <c r="J21" t="n">
-        <v>1.703121542310003</v>
+        <v>1.674997111270003</v>
       </c>
     </row>
     <row r="22">
@@ -2339,28 +2339,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.580308760380001</v>
+        <v>1.415825699590001</v>
       </c>
       <c r="D22" t="n">
-        <v>1.110983722380001</v>
+        <v>0.9465006615900011</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.1070112644</v>
+        <v>1.13121965821</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7853946853999998</v>
+        <v>0.8096030792099995</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>2.319528613749999</v>
+        <v>2.194908626489999</v>
       </c>
       <c r="J22" t="n">
-        <v>1.977386183749999</v>
+        <v>1.852766196489999</v>
       </c>
     </row>
     <row r="23">
@@ -2373,28 +2373,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>85.49842197319002</v>
+        <v>85.51599956470001</v>
       </c>
       <c r="D23" t="n">
-        <v>63.06490182680999</v>
+        <v>63.0473242353</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>45.73186024455991</v>
+        <v>45.55576664275993</v>
       </c>
       <c r="G23" t="n">
-        <v>32.02076923544008</v>
+        <v>32.19686283724007</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>10.76745630682</v>
+        <v>11.26294613621</v>
       </c>
       <c r="J23" t="n">
-        <v>2.454650906820001</v>
+        <v>2.950140736210004</v>
       </c>
     </row>
     <row r="24">
@@ -2407,28 +2407,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>3.037234148999999</v>
+        <v>2.928519790110002</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8974410759999993</v>
+        <v>0.7887267171100016</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8925132890500008</v>
+        <v>1.003203373310001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2569252440500008</v>
+        <v>0.3676153283100014</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>1.09207543744</v>
+        <v>1.07165658664</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4886036804399999</v>
+        <v>0.4681848296400003</v>
       </c>
     </row>
     <row r="25">
@@ -2441,28 +2441,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>31.41412838766999</v>
+        <v>31.53531023836999</v>
       </c>
       <c r="D25" t="n">
-        <v>9.299033057669995</v>
+        <v>9.420214908369989</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>8.302443282880001</v>
+        <v>8.543510443180001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5168904928800009</v>
+        <v>0.757957653180001</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>1.046428185130001</v>
+        <v>1.229092488000002</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1395444358699987</v>
+        <v>0.0431198670000017</v>
       </c>
     </row>
     <row r="26">
@@ -2475,28 +2475,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>17.43950280264001</v>
+        <v>17.53173996791001</v>
       </c>
       <c r="D26" t="n">
-        <v>1.203009957359992</v>
+        <v>1.110772792089993</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>5.862150326830002</v>
+        <v>5.494672795070001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04316832416999805</v>
+        <v>0.4106458559299986</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>1.13384700127</v>
+        <v>1.137098324420001</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1721751577299997</v>
+        <v>0.1689238345799995</v>
       </c>
     </row>
     <row r="27">
@@ -2509,28 +2509,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>1.26018189427</v>
+        <v>1.506554203599999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1481375152699995</v>
+        <v>0.3945098245999994</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>2.662792360680001</v>
+        <v>2.499060731890001</v>
       </c>
       <c r="G27" t="n">
-        <v>1.190622707680002</v>
+        <v>1.026891078890001</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.45833001667</v>
+        <v>0.4524754015399998</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1473980646699999</v>
+        <v>0.1415434495399998</v>
       </c>
     </row>
     <row r="28">
@@ -2543,28 +2543,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>10.65368380614</v>
+        <v>11.01158499882</v>
       </c>
       <c r="D28" t="n">
-        <v>9.649460926140002</v>
+        <v>10.00736211882</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>8.507838645640003</v>
+        <v>8.458355910680005</v>
       </c>
       <c r="G28" t="n">
-        <v>7.646293455640003</v>
+        <v>7.596810720680005</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6891893357599999</v>
+        <v>0.6847216730799999</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6028439647599999</v>
+        <v>0.5983763020799999</v>
       </c>
     </row>
     <row r="29">
@@ -2577,28 +2577,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>2.720626765940003</v>
+        <v>2.113667852120001</v>
       </c>
       <c r="D29" t="n">
-        <v>6.228453165059997</v>
+        <v>6.835412078879999</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>5.479342186110002</v>
+        <v>5.160522665940002</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2546970198899983</v>
+        <v>0.5735165400599982</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4654027098300002</v>
+        <v>0.42278061148</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3817513351699998</v>
+        <v>0.42437343352</v>
       </c>
     </row>
     <row r="30">
@@ -2611,28 +2611,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>3.554671102730002</v>
+        <v>3.258864525750001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3072999862699981</v>
+        <v>0.603106563249999</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>1.421739439150001</v>
+        <v>1.295178431590001</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7439991108499986</v>
+        <v>0.8705601184099991</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5752603578899999</v>
+        <v>0.5987913835200001</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4516146551100001</v>
+        <v>0.4280836294799999</v>
       </c>
     </row>
     <row r="31">
@@ -2645,28 +2645,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>3.431326072440001</v>
+        <v>3.50237025931</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7371967674400008</v>
+        <v>0.80824095431</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>5.655670528760002</v>
+        <v>5.225952890950003</v>
       </c>
       <c r="G31" t="n">
-        <v>3.342909219239997</v>
+        <v>3.772626857049996</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>1.921738430399998</v>
+        <v>1.465565218839998</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8463597203999975</v>
+        <v>0.3901865088399981</v>
       </c>
     </row>
     <row r="32">
@@ -2679,28 +2679,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>3.738634335920002</v>
+        <v>2.878315422030001</v>
       </c>
       <c r="D32" t="n">
-        <v>5.846269908079998</v>
+        <v>6.70658882197</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>5.478660517609999</v>
+        <v>5.480569766199999</v>
       </c>
       <c r="G32" t="n">
-        <v>22.62696335239</v>
+        <v>22.6250541038</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>2.038841182919999</v>
+        <v>2.396773178329997</v>
       </c>
       <c r="J32" t="n">
-        <v>5.839973370080001</v>
+        <v>5.482041374670002</v>
       </c>
     </row>
     <row r="33">
@@ -2713,28 +2713,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>21.30673311909004</v>
+        <v>21.09209261170004</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8059164609099625</v>
+        <v>1.020556968299964</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>7.010635934179992</v>
+        <v>6.954027643659995</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09170758682000812</v>
+        <v>0.1483158773400053</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.47749229214</v>
+        <v>1.47971403987</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1475223188600003</v>
+        <v>0.1453005711300004</v>
       </c>
     </row>
   </sheetData>
@@ -2818,28 +2818,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>1.22902014208854</v>
+        <v>1.236396943699597</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06884985608853977</v>
+        <v>0.07622665769959736</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3948965874185156</v>
+        <v>0.3947923912970007</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0269989615814844</v>
+        <v>0.02710315770299926</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1405618858508576</v>
+        <v>0.1387618070834848</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02624278114914241</v>
+        <v>0.02804285991651514</v>
       </c>
     </row>
     <row r="3">
@@ -2852,28 +2852,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>14.40806105503452</v>
+        <v>14.40919336905178</v>
       </c>
       <c r="D3" t="n">
-        <v>8.471574214034522</v>
+        <v>8.472706528051781</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>2.020994708890896</v>
+        <v>1.977986899112876</v>
       </c>
       <c r="G3" t="n">
-        <v>1.345090134890896</v>
+        <v>1.302082325112876</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8350422884161742</v>
+        <v>1.109468239301523</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8350422884161742</v>
+        <v>1.109468239301523</v>
       </c>
     </row>
     <row r="4">
@@ -2886,28 +2886,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.403610219110198</v>
+        <v>2.32544645561254</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1426583728898021</v>
+        <v>0.2208221363874605</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6981816782918643</v>
+        <v>0.7113842968041347</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2077075582918643</v>
+        <v>0.2209101768041347</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7638163872046707</v>
+        <v>0.7612593285448088</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2427573512046707</v>
+        <v>0.2402002925448088</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>5.860140485638007</v>
+        <v>5.41726321603415</v>
       </c>
       <c r="D5" t="n">
-        <v>4.803609624361993</v>
+        <v>5.246486893965851</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.936924646131913</v>
+        <v>2.860761649247247</v>
       </c>
       <c r="G5" t="n">
-        <v>2.430826268868088</v>
+        <v>2.506989265752753</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5270175135685632</v>
+        <v>0.578795743103885</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3729722624314368</v>
+        <v>0.3211940328961149</v>
       </c>
     </row>
     <row r="6">
@@ -2954,28 +2954,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>6.958836583493122</v>
+        <v>6.654189131956905</v>
       </c>
       <c r="D6" t="n">
-        <v>8.620703346506877</v>
+        <v>8.925350798043095</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>3.758309154630443</v>
+        <v>3.690932133265668</v>
       </c>
       <c r="G6" t="n">
-        <v>3.378346254369557</v>
+        <v>3.445723275734332</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5198519074617743</v>
+        <v>0.5005847004225865</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4039777585382257</v>
+        <v>0.4232449655774135</v>
       </c>
     </row>
     <row r="7">
@@ -2988,28 +2988,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>1.052043617116119</v>
+        <v>1.126675772416687</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03265332911611907</v>
+        <v>0.1072854844166868</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>5.827875025548018</v>
+        <v>5.796430142613948</v>
       </c>
       <c r="G7" t="n">
-        <v>2.346546744548017</v>
+        <v>2.315101861613948</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4781311018641485</v>
+        <v>0.4710040317132774</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1390619971358514</v>
+        <v>0.1461890672867226</v>
       </c>
     </row>
     <row r="8">
@@ -3022,28 +3022,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>17.61729623691872</v>
+        <v>17.31321739350757</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9699917830812836</v>
+        <v>1.274070626492431</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>6.498456749023544</v>
+        <v>6.396499004000468</v>
       </c>
       <c r="G8" t="n">
-        <v>1.225338606976456</v>
+        <v>1.327296351999532</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>1.008847741294352</v>
+        <v>0.999920873751267</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1304903217056486</v>
+        <v>0.139417189248733</v>
       </c>
     </row>
     <row r="9">
@@ -3056,28 +3056,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.582462677846272</v>
+        <v>4.462416097435191</v>
       </c>
       <c r="D9" t="n">
-        <v>1.568911954153728</v>
+        <v>1.688958534564809</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.009059474568929</v>
+        <v>1.010355297222765</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1928442464310707</v>
+        <v>0.1915484237772347</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.374099059733089</v>
+        <v>1.055008919426801</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1131741372669113</v>
+        <v>0.4322642775731991</v>
       </c>
     </row>
     <row r="10">
@@ -3090,28 +3090,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>11.65578383363665</v>
+        <v>9.506795712428664</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7107131263633537</v>
+        <v>2.859701247571335</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>5.999779710836559</v>
+        <v>5.935032208104388</v>
       </c>
       <c r="G10" t="n">
-        <v>3.475239202836559</v>
+        <v>3.410491700104388</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>2.33039686663328</v>
+        <v>2.215518145419143</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3739165146332797</v>
+        <v>0.2590377934191432</v>
       </c>
     </row>
     <row r="11">
@@ -3124,28 +3124,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>1.649247282850856</v>
+        <v>1.698501970801724</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6746463908508558</v>
+        <v>0.7239010788017242</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>0.59634920054746</v>
+        <v>0.6161411100779466</v>
       </c>
       <c r="G11" t="n">
-        <v>0.20271328554746</v>
+        <v>0.2225051950779466</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3008589010276784</v>
+        <v>0.3261172396387673</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1398998620276784</v>
+        <v>0.1651582006387673</v>
       </c>
     </row>
     <row r="12">
@@ -3158,28 +3158,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>1.08229982907741</v>
+        <v>1.042934510287687</v>
       </c>
       <c r="D12" t="n">
-        <v>0.29649395707741</v>
+        <v>0.2571286382876875</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5429239539904671</v>
+        <v>0.5566000912188064</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1495512610095329</v>
+        <v>0.1358751237811936</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1635350397442329</v>
+        <v>0.1699590806762105</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03191581525576714</v>
+        <v>0.02549177432378949</v>
       </c>
     </row>
     <row r="13">
@@ -3192,28 +3192,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>1.177015231878475</v>
+        <v>1.214997660853798</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1425850318784745</v>
+        <v>0.1805674608537975</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>6.522348732188648</v>
+        <v>6.506223519184947</v>
       </c>
       <c r="G13" t="n">
-        <v>3.505912505188649</v>
+        <v>3.489787292184947</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.42316633350637</v>
+        <v>0.3993039292351512</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01471687450636994</v>
+        <v>0.009145529764848837</v>
       </c>
     </row>
     <row r="14">
@@ -3226,10 +3226,10 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>28.85440046034801</v>
+        <v>28.94912941074988</v>
       </c>
       <c r="D14" t="n">
-        <v>32.94945523965199</v>
+        <v>32.85472628925012</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
@@ -3244,10 +3244,10 @@
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>6.070147666547199</v>
+        <v>6.077448808822898</v>
       </c>
       <c r="J14" t="n">
-        <v>2.339666458547199</v>
+        <v>2.346967600822898</v>
       </c>
     </row>
     <row r="15">
@@ -3260,28 +3260,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.071789064726729</v>
+        <v>2.032260131198015</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4468644112732711</v>
+        <v>0.4863933448019848</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6351647323366053</v>
+        <v>0.6377150491102532</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0330091276633947</v>
+        <v>0.03045881088974678</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4068955800982297</v>
+        <v>0.4026348210579553</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09639545890177031</v>
+        <v>0.1006562179420448</v>
       </c>
     </row>
     <row r="16">
@@ -3294,28 +3294,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>1.179549738454571</v>
+        <v>1.184650508664592</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1733537314545706</v>
+        <v>0.1784545016645918</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3978783867550948</v>
+        <v>0.3972230538842872</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06690954524490517</v>
+        <v>0.06756487811571277</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1391254815488472</v>
+        <v>0.1362321162525245</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04699900045115279</v>
+        <v>0.04989236574747552</v>
       </c>
     </row>
     <row r="17">
@@ -3328,28 +3328,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.412281218919012</v>
+        <v>2.581879245518579</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0315743269190123</v>
+        <v>0.201172353518579</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>1.296791375238737</v>
+        <v>1.383000865099478</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4115052597612627</v>
+        <v>0.3252957699005221</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8032296690504402</v>
+        <v>0.8085806808958266</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03182985494955981</v>
+        <v>0.02647884310417348</v>
       </c>
     </row>
     <row r="18">
@@ -3362,28 +3362,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>2.461381278132112</v>
+        <v>2.513349635979526</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6806864981321123</v>
+        <v>0.7326548559795263</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6182943903035616</v>
+        <v>0.6256861866386026</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1127744823035616</v>
+        <v>0.1201662786386026</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.267337504445798</v>
+        <v>0.2774251397173987</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09114123144579803</v>
+        <v>0.1012288667173987</v>
       </c>
     </row>
     <row r="19">
@@ -3396,28 +3396,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>3.60131079269679</v>
+        <v>3.33214648730316</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1105076033032097</v>
+        <v>0.3796719086968396</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>8.4420064525968</v>
+        <v>8.260684755519454</v>
       </c>
       <c r="G19" t="n">
-        <v>2.5272088965968</v>
+        <v>2.345887199519455</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>2.517770885611605</v>
+        <v>2.474978962338342</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6423481173883947</v>
+        <v>0.6851400406616577</v>
       </c>
     </row>
     <row r="20">
@@ -3430,28 +3430,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>3.306449112772966</v>
+        <v>2.376696392702539</v>
       </c>
       <c r="D20" t="n">
-        <v>2.204304332772966</v>
+        <v>1.274551612702539</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>3.615782329260273</v>
+        <v>3.548034292094115</v>
       </c>
       <c r="G20" t="n">
-        <v>2.818096942260273</v>
+        <v>2.750348905094115</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5349213332059073</v>
+        <v>0.4968553181519585</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3858264692059073</v>
+        <v>0.3477604541519585</v>
       </c>
     </row>
     <row r="21">
@@ -3464,28 +3464,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>74.36244750395916</v>
+        <v>73.93403498193881</v>
       </c>
       <c r="D21" t="n">
-        <v>6.690405366040835</v>
+        <v>7.118817888061187</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>36.22914275893417</v>
+        <v>36.23072336048951</v>
       </c>
       <c r="G21" t="n">
-        <v>0.446316788934169</v>
+        <v>0.4478973904895085</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>6.179211916835136</v>
+        <v>6.167822533969735</v>
       </c>
       <c r="J21" t="n">
-        <v>1.566283369835136</v>
+        <v>1.554893986969735</v>
       </c>
     </row>
     <row r="22">
@@ -3498,28 +3498,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.443621573464308</v>
+        <v>1.408140495150735</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9742965354643083</v>
+        <v>0.9388154571507354</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.030801084134737</v>
+        <v>1.023864645441168</v>
       </c>
       <c r="G22" t="n">
-        <v>0.709184505134737</v>
+        <v>0.7022480664411681</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>2.344497240173488</v>
+        <v>2.047588841205097</v>
       </c>
       <c r="J22" t="n">
-        <v>2.002354810173488</v>
+        <v>1.705446411205097</v>
       </c>
     </row>
     <row r="23">
@@ -3532,10 +3532,10 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>80.31928596396524</v>
+        <v>80.40832147609218</v>
       </c>
       <c r="D23" t="n">
-        <v>68.24403783603476</v>
+        <v>68.15500232390782</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
@@ -3550,10 +3550,10 @@
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>10.2549893930974</v>
+        <v>10.45781583377566</v>
       </c>
       <c r="J23" t="n">
-        <v>1.9421839930974</v>
+        <v>2.145010433775662</v>
       </c>
     </row>
     <row r="24">
@@ -3566,28 +3566,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.948588411200382</v>
+        <v>2.966058428692084</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8087953382003819</v>
+        <v>0.826265355692084</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9851905189394538</v>
+        <v>1.003679175753328</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3496024739394538</v>
+        <v>0.3680911307533283</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9696227863995873</v>
+        <v>0.9953103191305744</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3661510293995873</v>
+        <v>0.3918385621305744</v>
       </c>
     </row>
     <row r="25">
@@ -3600,28 +3600,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>28.42244589140336</v>
+        <v>28.89237791464096</v>
       </c>
       <c r="D25" t="n">
-        <v>6.307350561403361</v>
+        <v>6.777282584640961</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>7.46088979276906</v>
+        <v>7.534588408641177</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3246629972309396</v>
+        <v>0.2509643813588225</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9745716174168366</v>
+        <v>1.064416667905601</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2114010035831633</v>
+        <v>0.1215559530943986</v>
       </c>
     </row>
     <row r="26">
@@ -3634,28 +3634,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>17.37212989793426</v>
+        <v>17.37637110135789</v>
       </c>
       <c r="D26" t="n">
-        <v>1.270382862065741</v>
+        <v>1.266141658642105</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>5.750841831873888</v>
+        <v>5.614619082230666</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1544768191261117</v>
+        <v>0.2906995687693339</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>1.195033845553856</v>
+        <v>1.188998304916266</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1109883134461438</v>
+        <v>0.1170238540837338</v>
       </c>
     </row>
     <row r="27">
@@ -3668,28 +3668,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>1.391407737768348</v>
+        <v>1.4351164349298</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2793633587683484</v>
+        <v>0.3230720559298004</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>2.531564419941681</v>
+        <v>2.537711404367764</v>
       </c>
       <c r="G27" t="n">
-        <v>1.059394766941681</v>
+        <v>1.065541751367764</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4776400300787796</v>
+        <v>0.4472838854522333</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1667080780787796</v>
+        <v>0.1363519334522333</v>
       </c>
     </row>
     <row r="28">
@@ -3702,28 +3702,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>10.74946030861786</v>
+        <v>10.66601631828746</v>
       </c>
       <c r="D28" t="n">
-        <v>9.745237428617862</v>
+        <v>9.661793438287459</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>7.879348406428899</v>
+        <v>7.853067098919579</v>
       </c>
       <c r="G28" t="n">
-        <v>7.017803216428899</v>
+        <v>6.991521908919579</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6457561947393997</v>
+        <v>0.639471058107457</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5594108237393998</v>
+        <v>0.553125687107457</v>
       </c>
     </row>
     <row r="29">
@@ -3736,28 +3736,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>3.239869711054037</v>
+        <v>2.495509341007329</v>
       </c>
       <c r="D29" t="n">
-        <v>5.709210219945962</v>
+        <v>6.453570589992671</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>4.535952193085504</v>
+        <v>4.499382617431785</v>
       </c>
       <c r="G29" t="n">
-        <v>1.198087012914496</v>
+        <v>1.234656588568216</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4799683250352662</v>
+        <v>0.4383939662291595</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3671857199647338</v>
+        <v>0.4087600787708405</v>
       </c>
     </row>
     <row r="30">
@@ -3770,28 +3770,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>3.677283773366741</v>
+        <v>3.51494746685165</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1846873156332585</v>
+        <v>0.3470236221483498</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>1.532780803617817</v>
+        <v>1.471526447307986</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6329577463821834</v>
+        <v>0.6942121026920138</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5606255924365866</v>
+        <v>0.6280964871183127</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4662494205634133</v>
+        <v>0.3987785258816873</v>
       </c>
     </row>
     <row r="31">
@@ -3804,28 +3804,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>3.242298937620613</v>
+        <v>3.327275448156886</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5481696326206134</v>
+        <v>0.6331461431568859</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>6.146991867144842</v>
+        <v>6.029109142826743</v>
       </c>
       <c r="G31" t="n">
-        <v>2.851587880855157</v>
+        <v>2.969470605173256</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>2.069999697829691</v>
+        <v>1.507772591618938</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9946209878296906</v>
+        <v>0.4323938816189381</v>
       </c>
     </row>
     <row r="32">
@@ -3838,28 +3838,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.978502947982493</v>
+        <v>2.872155164553426</v>
       </c>
       <c r="D32" t="n">
-        <v>6.606401296017507</v>
+        <v>6.712749079446574</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>5.544906558104016</v>
+        <v>5.462278641433663</v>
       </c>
       <c r="G32" t="n">
-        <v>22.56071731189598</v>
+        <v>22.64334522856634</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>2.081581287788091</v>
+        <v>2.500038390377779</v>
       </c>
       <c r="J32" t="n">
-        <v>5.797233265211909</v>
+        <v>5.37877616262222</v>
       </c>
     </row>
     <row r="33">
@@ -3872,28 +3872,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>20.33843563472583</v>
+        <v>19.98964248080414</v>
       </c>
       <c r="D33" t="n">
-        <v>1.774213945274173</v>
+        <v>2.123007099195863</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>6.949430944290469</v>
+        <v>6.900327104398047</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1529125767095305</v>
+        <v>0.2020164166019525</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.396882393792025</v>
+        <v>1.344720814864175</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2281322172079749</v>
+        <v>0.2802937961358247</v>
       </c>
     </row>
   </sheetData>
@@ -3977,28 +3977,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>1.22902014208854</v>
+        <v>1.236396943699597</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06884985608853977</v>
+        <v>0.07622665769959736</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3948965874185156</v>
+        <v>0.3947923912970007</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0269989615814844</v>
+        <v>0.02710315770299926</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1405618858508576</v>
+        <v>0.1387618070834848</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02624278114914241</v>
+        <v>0.02804285991651514</v>
       </c>
     </row>
     <row r="3">
@@ -4011,28 +4011,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>14.40806105503452</v>
+        <v>14.40919336905178</v>
       </c>
       <c r="D3" t="n">
-        <v>8.471574214034522</v>
+        <v>8.472706528051781</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>2.020994708890896</v>
+        <v>1.977986899112876</v>
       </c>
       <c r="G3" t="n">
-        <v>1.345090134890896</v>
+        <v>1.302082325112876</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8350422884161742</v>
+        <v>1.109468239301523</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8350422884161742</v>
+        <v>1.109468239301523</v>
       </c>
     </row>
     <row r="4">
@@ -4045,28 +4045,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.403610219110198</v>
+        <v>2.32544645561254</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1426583728898021</v>
+        <v>0.2208221363874605</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6981816782918643</v>
+        <v>0.7113842968041347</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2077075582918643</v>
+        <v>0.2209101768041347</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7638163872046707</v>
+        <v>0.7612593285448088</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2427573512046707</v>
+        <v>0.2402002925448088</v>
       </c>
     </row>
     <row r="5">
@@ -4079,28 +4079,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>5.860140485638007</v>
+        <v>5.41726321603415</v>
       </c>
       <c r="D5" t="n">
-        <v>4.803609624361993</v>
+        <v>5.246486893965851</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.936924646131913</v>
+        <v>2.860761649247247</v>
       </c>
       <c r="G5" t="n">
-        <v>2.430826268868088</v>
+        <v>2.506989265752753</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5270175135685632</v>
+        <v>0.578795743103885</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3729722624314368</v>
+        <v>0.3211940328961149</v>
       </c>
     </row>
     <row r="6">
@@ -4113,28 +4113,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>6.958836583493122</v>
+        <v>6.654189131956905</v>
       </c>
       <c r="D6" t="n">
-        <v>8.620703346506877</v>
+        <v>8.925350798043095</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>3.758309154630443</v>
+        <v>3.690932133265668</v>
       </c>
       <c r="G6" t="n">
-        <v>3.378346254369557</v>
+        <v>3.445723275734332</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5198519074617743</v>
+        <v>0.5005847004225865</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4039777585382257</v>
+        <v>0.4232449655774135</v>
       </c>
     </row>
     <row r="7">
@@ -4147,28 +4147,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>1.052043617116119</v>
+        <v>1.126675772416687</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03265332911611907</v>
+        <v>0.1072854844166868</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>5.827875025548018</v>
+        <v>5.796430142613948</v>
       </c>
       <c r="G7" t="n">
-        <v>2.346546744548017</v>
+        <v>2.315101861613948</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4781311018641485</v>
+        <v>0.4710040317132774</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1390619971358514</v>
+        <v>0.1461890672867226</v>
       </c>
     </row>
     <row r="8">
@@ -4181,28 +4181,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>17.61729623691872</v>
+        <v>17.31321739350757</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9699917830812836</v>
+        <v>1.274070626492431</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>6.498456749023544</v>
+        <v>6.396499004000468</v>
       </c>
       <c r="G8" t="n">
-        <v>1.225338606976456</v>
+        <v>1.327296351999532</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>1.008847741294352</v>
+        <v>0.999920873751267</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1304903217056486</v>
+        <v>0.139417189248733</v>
       </c>
     </row>
     <row r="9">
@@ -4215,28 +4215,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.582462677846272</v>
+        <v>4.462416097435191</v>
       </c>
       <c r="D9" t="n">
-        <v>1.568911954153728</v>
+        <v>1.688958534564809</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.009059474568929</v>
+        <v>1.010355297222765</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1928442464310707</v>
+        <v>0.1915484237772347</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.374099059733089</v>
+        <v>1.055008919426801</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1131741372669113</v>
+        <v>0.4322642775731991</v>
       </c>
     </row>
     <row r="10">
@@ -4249,28 +4249,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>11.65578383363665</v>
+        <v>9.506795712428664</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7107131263633537</v>
+        <v>2.859701247571335</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>5.999779710836559</v>
+        <v>5.935032208104388</v>
       </c>
       <c r="G10" t="n">
-        <v>3.475239202836559</v>
+        <v>3.410491700104388</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>2.33039686663328</v>
+        <v>2.215518145419143</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3739165146332797</v>
+        <v>0.2590377934191432</v>
       </c>
     </row>
     <row r="11">
@@ -4283,28 +4283,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>1.649247282850856</v>
+        <v>1.698501970801724</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6746463908508558</v>
+        <v>0.7239010788017242</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>0.59634920054746</v>
+        <v>0.6161411100779466</v>
       </c>
       <c r="G11" t="n">
-        <v>0.20271328554746</v>
+        <v>0.2225051950779466</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3008589010276784</v>
+        <v>0.3261172396387673</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1398998620276784</v>
+        <v>0.1651582006387673</v>
       </c>
     </row>
     <row r="12">
@@ -4317,28 +4317,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>1.08229982907741</v>
+        <v>1.042934510287687</v>
       </c>
       <c r="D12" t="n">
-        <v>0.29649395707741</v>
+        <v>0.2571286382876875</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5429239539904671</v>
+        <v>0.5566000912188064</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1495512610095329</v>
+        <v>0.1358751237811936</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1635350397442329</v>
+        <v>0.1699590806762105</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03191581525576714</v>
+        <v>0.02549177432378949</v>
       </c>
     </row>
     <row r="13">
@@ -4351,28 +4351,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>1.177015231878475</v>
+        <v>1.214997660853798</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1425850318784745</v>
+        <v>0.1805674608537975</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>6.522348732188648</v>
+        <v>6.506223519184947</v>
       </c>
       <c r="G13" t="n">
-        <v>3.505912505188649</v>
+        <v>3.489787292184947</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.42316633350637</v>
+        <v>0.3993039292351512</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01471687450636994</v>
+        <v>0.009145529764848837</v>
       </c>
     </row>
     <row r="14">
@@ -4385,10 +4385,10 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>28.85440046034801</v>
+        <v>28.94912941074988</v>
       </c>
       <c r="D14" t="n">
-        <v>32.94945523965199</v>
+        <v>32.85472628925012</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
@@ -4403,10 +4403,10 @@
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>6.070147666547199</v>
+        <v>6.077448808822898</v>
       </c>
       <c r="J14" t="n">
-        <v>2.339666458547199</v>
+        <v>2.346967600822898</v>
       </c>
     </row>
     <row r="15">
@@ -4419,28 +4419,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.071789064726729</v>
+        <v>2.032260131198015</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4468644112732711</v>
+        <v>0.4863933448019848</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6351647323366053</v>
+        <v>0.6377150491102532</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0330091276633947</v>
+        <v>0.03045881088974678</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4068955800982297</v>
+        <v>0.4026348210579553</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09639545890177031</v>
+        <v>0.1006562179420448</v>
       </c>
     </row>
     <row r="16">
@@ -4453,28 +4453,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>1.179549738454571</v>
+        <v>1.184650508664592</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1733537314545706</v>
+        <v>0.1784545016645918</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3978783867550948</v>
+        <v>0.3972230538842872</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06690954524490517</v>
+        <v>0.06756487811571277</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1391254815488472</v>
+        <v>0.1362321162525245</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04699900045115279</v>
+        <v>0.04989236574747552</v>
       </c>
     </row>
     <row r="17">
@@ -4487,28 +4487,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.412281218919012</v>
+        <v>2.581879245518579</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0315743269190123</v>
+        <v>0.201172353518579</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>1.296791375238737</v>
+        <v>1.383000865099478</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4115052597612627</v>
+        <v>0.3252957699005221</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8032296690504402</v>
+        <v>0.8085806808958266</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03182985494955981</v>
+        <v>0.02647884310417348</v>
       </c>
     </row>
     <row r="18">
@@ -4521,28 +4521,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>2.461381278132112</v>
+        <v>2.513349635979526</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6806864981321123</v>
+        <v>0.7326548559795263</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6182943903035616</v>
+        <v>0.6256861866386026</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1127744823035616</v>
+        <v>0.1201662786386026</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.267337504445798</v>
+        <v>0.2774251397173987</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09114123144579803</v>
+        <v>0.1012288667173987</v>
       </c>
     </row>
     <row r="19">
@@ -4555,28 +4555,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>3.60131079269679</v>
+        <v>3.33214648730316</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1105076033032097</v>
+        <v>0.3796719086968396</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>8.4420064525968</v>
+        <v>8.260684755519454</v>
       </c>
       <c r="G19" t="n">
-        <v>2.5272088965968</v>
+        <v>2.345887199519455</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>2.517770885611605</v>
+        <v>2.474978962338342</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6423481173883947</v>
+        <v>0.6851400406616577</v>
       </c>
     </row>
     <row r="20">
@@ -4589,28 +4589,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>3.306449112772966</v>
+        <v>2.376696392702539</v>
       </c>
       <c r="D20" t="n">
-        <v>2.204304332772966</v>
+        <v>1.274551612702539</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>3.615782329260273</v>
+        <v>3.548034292094115</v>
       </c>
       <c r="G20" t="n">
-        <v>2.818096942260273</v>
+        <v>2.750348905094115</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5349213332059073</v>
+        <v>0.4968553181519585</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3858264692059073</v>
+        <v>0.3477604541519585</v>
       </c>
     </row>
     <row r="21">
@@ -4623,28 +4623,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>74.36244750395916</v>
+        <v>73.93403498193881</v>
       </c>
       <c r="D21" t="n">
-        <v>6.690405366040835</v>
+        <v>7.118817888061187</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>36.22914275893417</v>
+        <v>36.23072336048951</v>
       </c>
       <c r="G21" t="n">
-        <v>0.446316788934169</v>
+        <v>0.4478973904895085</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>6.179211916835136</v>
+        <v>6.167822533969735</v>
       </c>
       <c r="J21" t="n">
-        <v>1.566283369835136</v>
+        <v>1.554893986969735</v>
       </c>
     </row>
     <row r="22">
@@ -4657,28 +4657,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.443621573464308</v>
+        <v>1.408140495150735</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9742965354643083</v>
+        <v>0.9388154571507354</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.030801084134737</v>
+        <v>1.023864645441168</v>
       </c>
       <c r="G22" t="n">
-        <v>0.709184505134737</v>
+        <v>0.7022480664411681</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>2.344497240173488</v>
+        <v>2.047588841205097</v>
       </c>
       <c r="J22" t="n">
-        <v>2.002354810173488</v>
+        <v>1.705446411205097</v>
       </c>
     </row>
     <row r="23">
@@ -4691,10 +4691,10 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>80.31928596396524</v>
+        <v>80.40832147609218</v>
       </c>
       <c r="D23" t="n">
-        <v>68.24403783603476</v>
+        <v>68.15500232390782</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
@@ -4709,10 +4709,10 @@
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>10.2549893930974</v>
+        <v>10.45781583377566</v>
       </c>
       <c r="J23" t="n">
-        <v>1.9421839930974</v>
+        <v>2.145010433775662</v>
       </c>
     </row>
     <row r="24">
@@ -4725,28 +4725,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.948588411200382</v>
+        <v>2.966058428692084</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8087953382003819</v>
+        <v>0.826265355692084</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9851905189394538</v>
+        <v>1.003679175753328</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3496024739394538</v>
+        <v>0.3680911307533283</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9696227863995873</v>
+        <v>0.9953103191305744</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3661510293995873</v>
+        <v>0.3918385621305744</v>
       </c>
     </row>
     <row r="25">
@@ -4759,28 +4759,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>28.42244589140336</v>
+        <v>28.89237791464096</v>
       </c>
       <c r="D25" t="n">
-        <v>6.307350561403361</v>
+        <v>6.777282584640961</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>7.46088979276906</v>
+        <v>7.534588408641177</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3246629972309396</v>
+        <v>0.2509643813588225</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9745716174168366</v>
+        <v>1.064416667905601</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2114010035831633</v>
+        <v>0.1215559530943986</v>
       </c>
     </row>
     <row r="26">
@@ -4793,28 +4793,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>17.37212989793426</v>
+        <v>17.37637110135789</v>
       </c>
       <c r="D26" t="n">
-        <v>1.270382862065741</v>
+        <v>1.266141658642105</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>5.750841831873888</v>
+        <v>5.614619082230666</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1544768191261117</v>
+        <v>0.2906995687693339</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>1.195033845553856</v>
+        <v>1.188998304916266</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1109883134461438</v>
+        <v>0.1170238540837338</v>
       </c>
     </row>
     <row r="27">
@@ -4827,28 +4827,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>1.391407737768348</v>
+        <v>1.4351164349298</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2793633587683484</v>
+        <v>0.3230720559298004</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>2.531564419941681</v>
+        <v>2.537711404367764</v>
       </c>
       <c r="G27" t="n">
-        <v>1.059394766941681</v>
+        <v>1.065541751367764</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4776400300787796</v>
+        <v>0.4472838854522333</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1667080780787796</v>
+        <v>0.1363519334522333</v>
       </c>
     </row>
     <row r="28">
@@ -4861,28 +4861,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>10.74946030861786</v>
+        <v>10.66601631828746</v>
       </c>
       <c r="D28" t="n">
-        <v>9.745237428617862</v>
+        <v>9.661793438287459</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>7.879348406428899</v>
+        <v>7.853067098919579</v>
       </c>
       <c r="G28" t="n">
-        <v>7.017803216428899</v>
+        <v>6.991521908919579</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6457561947393997</v>
+        <v>0.639471058107457</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5594108237393998</v>
+        <v>0.553125687107457</v>
       </c>
     </row>
     <row r="29">
@@ -4895,28 +4895,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>3.239869711054037</v>
+        <v>2.495509341007329</v>
       </c>
       <c r="D29" t="n">
-        <v>5.709210219945962</v>
+        <v>6.453570589992671</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>4.535952193085504</v>
+        <v>4.499382617431785</v>
       </c>
       <c r="G29" t="n">
-        <v>1.198087012914496</v>
+        <v>1.234656588568216</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4799683250352662</v>
+        <v>0.4383939662291595</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3671857199647338</v>
+        <v>0.4087600787708405</v>
       </c>
     </row>
     <row r="30">
@@ -4929,28 +4929,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>3.677283773366741</v>
+        <v>3.51494746685165</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1846873156332585</v>
+        <v>0.3470236221483498</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>1.532780803617817</v>
+        <v>1.471526447307986</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6329577463821834</v>
+        <v>0.6942121026920138</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5606255924365866</v>
+        <v>0.6280964871183127</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4662494205634133</v>
+        <v>0.3987785258816873</v>
       </c>
     </row>
     <row r="31">
@@ -4963,28 +4963,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>3.242298937620613</v>
+        <v>3.327275448156886</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5481696326206134</v>
+        <v>0.6331461431568859</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>6.146991867144842</v>
+        <v>6.029109142826743</v>
       </c>
       <c r="G31" t="n">
-        <v>2.851587880855157</v>
+        <v>2.969470605173256</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>2.069999697829691</v>
+        <v>1.507772591618938</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9946209878296906</v>
+        <v>0.4323938816189381</v>
       </c>
     </row>
     <row r="32">
@@ -4997,28 +4997,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.978502947982493</v>
+        <v>2.872155164553426</v>
       </c>
       <c r="D32" t="n">
-        <v>6.606401296017507</v>
+        <v>6.712749079446574</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>5.544906558104016</v>
+        <v>5.462278641433663</v>
       </c>
       <c r="G32" t="n">
-        <v>22.56071731189598</v>
+        <v>22.64334522856634</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>2.081581287788091</v>
+        <v>2.500038390377779</v>
       </c>
       <c r="J32" t="n">
-        <v>5.797233265211909</v>
+        <v>5.37877616262222</v>
       </c>
     </row>
     <row r="33">
@@ -5031,28 +5031,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>20.33843563472583</v>
+        <v>19.98964248080414</v>
       </c>
       <c r="D33" t="n">
-        <v>1.774213945274173</v>
+        <v>2.123007099195863</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>6.949430944290469</v>
+        <v>6.900327104398047</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1529125767095305</v>
+        <v>0.2020164166019525</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.396882393792025</v>
+        <v>1.344720814864175</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2281322172079749</v>
+        <v>0.2802937961358247</v>
       </c>
     </row>
   </sheetData>
@@ -5136,28 +5136,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>2.216148138046265</v>
+        <v>2.77368426322937</v>
       </c>
       <c r="D2" t="n">
-        <v>1.055977852046265</v>
+        <v>1.61351397722937</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7773134112358093</v>
+        <v>1.645295858383179</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3554178622358093</v>
+        <v>1.223400309383179</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4091185927391052</v>
+        <v>0.6574540138244629</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2423139257391052</v>
+        <v>0.4906493468244629</v>
       </c>
     </row>
     <row r="3">
@@ -5170,28 +5170,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>3.191313028335571</v>
+        <v>7.47691535949707</v>
       </c>
       <c r="D3" t="n">
-        <v>2.745173812664429</v>
+        <v>1.540428518497071</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>1.562781572341919</v>
+        <v>3.896192789077759</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8868769983419189</v>
+        <v>3.220288215077759</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.31159508228302</v>
+        <v>1.156824707984924</v>
       </c>
       <c r="J3" t="n">
-        <v>1.31159508228302</v>
+        <v>1.156824707984924</v>
       </c>
     </row>
     <row r="4">
@@ -5204,28 +5204,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.336992979049683</v>
+        <v>2.613375902175903</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2092756129503175</v>
+        <v>0.06710731017590321</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8091912269592285</v>
+        <v>1.520384550094604</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3187171069592285</v>
+        <v>1.029910430094604</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4779019951820374</v>
+        <v>0.8294201493263245</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04315704081796268</v>
+        <v>0.3083611133263244</v>
       </c>
     </row>
     <row r="5">
@@ -5238,28 +5238,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>8.902141571044922</v>
+        <v>3.957051038742065</v>
       </c>
       <c r="D5" t="n">
-        <v>1.761608538955079</v>
+        <v>6.706699071257935</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>4.898034572601318</v>
+        <v>2.331849813461304</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4697163423986819</v>
+        <v>3.035901101538697</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09751374274492264</v>
+        <v>0.5480540990829468</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8024760332550773</v>
+        <v>0.3519356769170532</v>
       </c>
     </row>
     <row r="6">
@@ -5272,28 +5272,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>8.832705497741699</v>
+        <v>4.083518505096436</v>
       </c>
       <c r="D6" t="n">
-        <v>6.7468344322583</v>
+        <v>11.49602142490356</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>4.870738983154297</v>
+        <v>2.391199111938477</v>
       </c>
       <c r="G6" t="n">
-        <v>2.265916425845703</v>
+        <v>4.745456297061524</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.061382956802845</v>
+        <v>0.479215145111084</v>
       </c>
       <c r="J6" t="n">
-        <v>0.862446709197155</v>
+        <v>0.4446145208889161</v>
       </c>
     </row>
     <row r="7">
@@ -5306,28 +5306,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>1.432744026184082</v>
+        <v>2.986143827438354</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4133537381840819</v>
+        <v>1.966753539438354</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>3.716546535491943</v>
+        <v>1.909790754318237</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2352182544919432</v>
+        <v>1.571537526681763</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6909183263778687</v>
+        <v>0.6434555649757385</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07372522737786869</v>
+        <v>0.02626246597573856</v>
       </c>
     </row>
     <row r="8">
@@ -5340,28 +5340,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>10.60783958435059</v>
+        <v>9.167227745056152</v>
       </c>
       <c r="D8" t="n">
-        <v>7.979448435649413</v>
+        <v>9.420060274943847</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>5.233143329620361</v>
+        <v>5.174019813537598</v>
       </c>
       <c r="G8" t="n">
-        <v>2.490652026379639</v>
+        <v>2.549775542462402</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>1.368748188018799</v>
+        <v>0.5101463794708252</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2294101250187988</v>
+        <v>0.6291916835291749</v>
       </c>
     </row>
     <row r="9">
@@ -5374,28 +5374,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>9.489166259765625</v>
+        <v>4.187925815582275</v>
       </c>
       <c r="D9" t="n">
-        <v>3.337791627765625</v>
+        <v>1.963448816417724</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>4.62142276763916</v>
+        <v>2.300287485122681</v>
       </c>
       <c r="G9" t="n">
-        <v>3.41951904663916</v>
+        <v>1.098383764122681</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.694361567497253</v>
+        <v>1.666780710220337</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2070883704972535</v>
+        <v>0.179507513220337</v>
       </c>
     </row>
     <row r="10">
@@ -5408,28 +5408,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>10.97823333740234</v>
+        <v>6.732071876525879</v>
       </c>
       <c r="D10" t="n">
-        <v>1.388263622597655</v>
+        <v>5.63442508347412</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>5.258485794067383</v>
+        <v>3.609970092773438</v>
       </c>
       <c r="G10" t="n">
-        <v>2.733945286067383</v>
+        <v>1.085429584773438</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>2.039793491363525</v>
+        <v>1.772756338119507</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08331313936352536</v>
+        <v>0.1837240138804932</v>
       </c>
     </row>
     <row r="11">
@@ -5442,28 +5442,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>2.25495433807373</v>
+        <v>2.757679462432861</v>
       </c>
       <c r="D11" t="n">
-        <v>1.28035344607373</v>
+        <v>1.783078570432861</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7906249165534973</v>
+        <v>1.640055775642395</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3969890015534973</v>
+        <v>1.246419860642395</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4272965788841248</v>
+        <v>0.6962134838104248</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2663375398841248</v>
+        <v>0.5352544448104248</v>
       </c>
     </row>
     <row r="12">
@@ -5476,28 +5476,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>2.121472835540771</v>
+        <v>2.575214624404907</v>
       </c>
       <c r="D12" t="n">
-        <v>1.335666963540771</v>
+        <v>1.789408752404907</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7477541565895081</v>
+        <v>1.565478801727295</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05527894158950808</v>
+        <v>0.8730035867272949</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3842414319515228</v>
+        <v>0.6460362076759338</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1887905769515228</v>
+        <v>0.4505853526759338</v>
       </c>
     </row>
     <row r="13">
@@ -5510,28 +5510,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>1.373082876205444</v>
+        <v>3.001855611801147</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3386526762054443</v>
+        <v>1.967425411801147</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>3.641356945037842</v>
+        <v>1.896482348442078</v>
       </c>
       <c r="G13" t="n">
-        <v>0.624920718037842</v>
+        <v>1.119953878557922</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6740386486053467</v>
+        <v>0.5769036412239075</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2655891896053467</v>
+        <v>0.1684541822239075</v>
       </c>
     </row>
     <row r="14">
@@ -5544,28 +5544,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>35.56485366821289</v>
+        <v>47.05393600463867</v>
       </c>
       <c r="D14" t="n">
-        <v>26.23900203178711</v>
+        <v>14.74991969536133</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>18.3933048248291</v>
+        <v>25.77590751647949</v>
       </c>
       <c r="G14" t="n">
-        <v>6.6181928551709</v>
+        <v>0.7644098364794907</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>5.809548854827881</v>
+        <v>3.597862482070923</v>
       </c>
       <c r="J14" t="n">
-        <v>2.079067646827881</v>
+        <v>0.1326187259290772</v>
       </c>
     </row>
     <row r="15">
@@ -5578,28 +5578,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.341193437576294</v>
+        <v>2.69317889213562</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1774600384237059</v>
+        <v>0.1745254161356202</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8140217065811157</v>
+        <v>1.575981855392456</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1458478465811157</v>
+        <v>0.907807995392456</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4732697606086731</v>
+        <v>0.8051369190216064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03002127839132696</v>
+        <v>0.3018458800216064</v>
       </c>
     </row>
     <row r="16">
@@ -5612,28 +5612,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>2.21985125541687</v>
+        <v>2.802639484405518</v>
       </c>
       <c r="D16" t="n">
-        <v>1.21365524841687</v>
+        <v>1.796443477405518</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7803188562393188</v>
+        <v>1.668488144874573</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3155309242393188</v>
+        <v>1.203700212874573</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4079669117927551</v>
+        <v>0.6489292979240417</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2218424297927551</v>
+        <v>0.4628048159240418</v>
       </c>
     </row>
     <row r="17">
@@ -5646,28 +5646,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>1.609201431274414</v>
+        <v>2.867833375930786</v>
       </c>
       <c r="D17" t="n">
-        <v>0.771505460725586</v>
+        <v>0.4871264839307861</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>3.865636348724365</v>
+        <v>1.742685317993164</v>
       </c>
       <c r="G17" t="n">
-        <v>2.157339713724365</v>
+        <v>0.03438868299316411</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7734209299087524</v>
+        <v>0.9722372889518738</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06163859409124761</v>
+        <v>0.1371777649518737</v>
       </c>
     </row>
     <row r="18">
@@ -5680,28 +5680,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>2.431018590927124</v>
+        <v>3.391148328781128</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6503238109271241</v>
+        <v>1.610453548781128</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8561937808990479</v>
+        <v>1.954432010650635</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3506738728990478</v>
+        <v>1.448912102650635</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4574771523475647</v>
+        <v>0.6622902750968933</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2812808793475647</v>
+        <v>0.4860940020968934</v>
       </c>
     </row>
     <row r="19">
@@ -5714,28 +5714,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>10.23264026641846</v>
+        <v>4.191934108734131</v>
       </c>
       <c r="D19" t="n">
-        <v>6.520821870418457</v>
+        <v>0.4801157127341309</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>5.085048198699951</v>
+        <v>2.589632511138916</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8297493573000487</v>
+        <v>3.325165044861084</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>2.011760950088501</v>
+        <v>2.116218090057373</v>
       </c>
       <c r="J19" t="n">
-        <v>1.148358052911499</v>
+        <v>1.043900912942627</v>
       </c>
     </row>
     <row r="20">
@@ -5748,28 +5748,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>8.716438293457031</v>
+        <v>3.560271978378296</v>
       </c>
       <c r="D20" t="n">
-        <v>7.614293513457032</v>
+        <v>2.458127198378296</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>4.820240497589111</v>
+        <v>2.145861387252808</v>
       </c>
       <c r="G20" t="n">
-        <v>4.022555110589112</v>
+        <v>1.348176000252808</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06970984488725662</v>
+        <v>0.5599492788314819</v>
       </c>
       <c r="J20" t="n">
-        <v>0.07938501911274337</v>
+        <v>0.4108544148314819</v>
       </c>
     </row>
     <row r="21">
@@ -5782,28 +5782,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>52.90345001220703</v>
+        <v>75.45723724365234</v>
       </c>
       <c r="D21" t="n">
-        <v>28.14940285779296</v>
+        <v>5.595615626347652</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>27.68494415283203</v>
+        <v>41.603515625</v>
       </c>
       <c r="G21" t="n">
-        <v>8.097881817167966</v>
+        <v>5.820689655000002</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>8.792165756225586</v>
+        <v>5.330183506011963</v>
       </c>
       <c r="J21" t="n">
-        <v>4.179237209225586</v>
+        <v>0.7172549590119628</v>
       </c>
     </row>
     <row r="22">
@@ -5816,28 +5816,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.758501648902893</v>
+        <v>2.327610731124878</v>
       </c>
       <c r="D22" t="n">
-        <v>1.289176610902893</v>
+        <v>1.858285693124878</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>3.970914363861084</v>
+        <v>1.428341865539551</v>
       </c>
       <c r="G22" t="n">
-        <v>3.649297784861084</v>
+        <v>1.106725286539551</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8675689697265625</v>
+        <v>1.318450331687927</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5254265397265625</v>
+        <v>0.9763079016879272</v>
       </c>
     </row>
     <row r="23">
@@ -5850,28 +5850,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>104.3151092529297</v>
+        <v>159.1278991699219</v>
       </c>
       <c r="D23" t="n">
-        <v>44.24821454707032</v>
+        <v>10.56457536992187</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>55.3821907043457</v>
+        <v>89.25186157226562</v>
       </c>
       <c r="G23" t="n">
-        <v>22.37043877565429</v>
+        <v>11.49923209226563</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>17.36931228637695</v>
+        <v>9.952269554138184</v>
       </c>
       <c r="J23" t="n">
-        <v>9.056506886376953</v>
+        <v>1.639464154138183</v>
       </c>
     </row>
     <row r="24">
@@ -5884,28 +5884,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.508342981338501</v>
+        <v>2.619955062866211</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3685499083385011</v>
+        <v>0.4801619898662111</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8734674453735352</v>
+        <v>1.541697978973389</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2378794003735352</v>
+        <v>0.9061099339733887</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5692845582962036</v>
+        <v>1.046830296516418</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03418719870379638</v>
+        <v>0.4433585395164185</v>
       </c>
     </row>
     <row r="25">
@@ -5918,28 +5918,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>15.05298233032227</v>
+        <v>15.89988994598389</v>
       </c>
       <c r="D25" t="n">
-        <v>7.062112999677733</v>
+        <v>6.215205384016112</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>7.829206466674805</v>
+        <v>8.678284645080566</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04365367667480502</v>
+        <v>0.8927318550805667</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>1.407685041427612</v>
+        <v>0.8867052793502808</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2217124204276124</v>
+        <v>0.2992673416497191</v>
       </c>
     </row>
     <row r="26">
@@ -5952,28 +5952,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>10.4402904510498</v>
+        <v>8.352972984313965</v>
       </c>
       <c r="D26" t="n">
-        <v>8.202222308950194</v>
+        <v>10.28953977568603</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>5.10288143157959</v>
+        <v>4.604980945587158</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8024372194204101</v>
+        <v>1.300337705412842</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>1.442653775215149</v>
+        <v>0.7275657057762146</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1366316162151489</v>
+        <v>0.5784564532237855</v>
       </c>
     </row>
     <row r="27">
@@ -5986,28 +5986,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>2.410921096801758</v>
+        <v>3.182538747787476</v>
       </c>
       <c r="D27" t="n">
-        <v>1.298876717801758</v>
+        <v>2.070494368787475</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8716699481010437</v>
+        <v>1.986020088195801</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6004997048989562</v>
+        <v>0.5138504351958009</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4577807188034058</v>
+        <v>0.6777623295783997</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1468487668034058</v>
+        <v>0.3668303775783996</v>
       </c>
     </row>
     <row r="28">
@@ -6020,28 +6020,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>9.197603225708008</v>
+        <v>4.823533535003662</v>
       </c>
       <c r="D28" t="n">
-        <v>8.193380345708007</v>
+        <v>3.819310655003662</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>5.068692684173584</v>
+        <v>2.926928758621216</v>
       </c>
       <c r="G28" t="n">
-        <v>4.207147494173584</v>
+        <v>2.065383568621216</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.09714091569185257</v>
+        <v>0.36733278632164</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01079554469185257</v>
+        <v>0.28098741532164</v>
       </c>
     </row>
     <row r="29">
@@ -6054,28 +6054,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>8.677961349487305</v>
+        <v>3.562523126602173</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2711185815126953</v>
+        <v>5.386556804397827</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>4.802918434143066</v>
+        <v>2.13798451423645</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9311207718569339</v>
+        <v>3.59605469176355</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.05838192254304886</v>
+        <v>0.5467482805252075</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7887721224569512</v>
+        <v>0.3004057644747925</v>
       </c>
     </row>
     <row r="30">
@@ -6088,28 +6088,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>9.880153656005859</v>
+        <v>5.266069889068604</v>
       </c>
       <c r="D30" t="n">
-        <v>6.01818256700586</v>
+        <v>1.404098800068604</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>5.282248020172119</v>
+        <v>2.932317972183228</v>
       </c>
       <c r="G30" t="n">
-        <v>3.116509470172119</v>
+        <v>0.7665794221832276</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4353588819503784</v>
+        <v>0.8867701888084412</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5915161310496215</v>
+        <v>0.1401048241915588</v>
       </c>
     </row>
     <row r="31">
@@ -6122,28 +6122,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>2.828965425491333</v>
+        <v>7.249972820281982</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1348361204913329</v>
+        <v>4.555843515281982</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>4.888720512390137</v>
+        <v>4.874138355255127</v>
       </c>
       <c r="G31" t="n">
-        <v>4.109859235609862</v>
+        <v>4.124441392744872</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8326188325881958</v>
+        <v>0.6940616965293884</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2427598774118043</v>
+        <v>0.3813170134706116</v>
       </c>
     </row>
     <row r="32">
@@ -6156,28 +6156,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>1.216747641563416</v>
+        <v>3.519408702850342</v>
       </c>
       <c r="D32" t="n">
-        <v>8.368156602436585</v>
+        <v>6.065495541149659</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>2.023202896118164</v>
+        <v>2.296098232269287</v>
       </c>
       <c r="G32" t="n">
-        <v>26.08242097388183</v>
+        <v>25.80952563773071</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>2.298352718353271</v>
+        <v>1.044525980949402</v>
       </c>
       <c r="J32" t="n">
-        <v>5.580461834646728</v>
+        <v>6.834288572050598</v>
       </c>
     </row>
     <row r="33">
@@ -6190,28 +6190,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>11.29006195068359</v>
+        <v>9.676542282104492</v>
       </c>
       <c r="D33" t="n">
-        <v>10.82258762931641</v>
+        <v>12.43610729789551</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>5.470247268676758</v>
+        <v>5.313716888427734</v>
       </c>
       <c r="G33" t="n">
-        <v>1.632096252323242</v>
+        <v>1.788626632572266</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.635118246078491</v>
+        <v>0.8162521719932556</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0101036350784911</v>
+        <v>0.8087624390067445</v>
       </c>
     </row>
   </sheetData>
@@ -6295,28 +6295,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>1.474927544593811</v>
+        <v>2.071847677230835</v>
       </c>
       <c r="D2" t="n">
-        <v>0.314757258593811</v>
+        <v>0.9116773912308349</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4180921316146851</v>
+        <v>1.562425255775452</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003803417385314922</v>
+        <v>1.140529706775452</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1407113075256348</v>
+        <v>0.1994164735078812</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02609335947436522</v>
+        <v>0.03261180650788117</v>
       </c>
     </row>
     <row r="3">
@@ -6329,28 +6329,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>4.082234859466553</v>
+        <v>12.43583297729492</v>
       </c>
       <c r="D3" t="n">
-        <v>1.854251981533447</v>
+        <v>6.499346136294922</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>0.89788419008255</v>
+        <v>1.865996718406677</v>
       </c>
       <c r="G3" t="n">
-        <v>0.22197961608255</v>
+        <v>1.190092144406677</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8863400816917419</v>
+        <v>1.538376808166504</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8863400816917419</v>
+        <v>1.538376808166504</v>
       </c>
     </row>
     <row r="4">
@@ -6363,28 +6363,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>1.660008072853088</v>
+        <v>1.885131001472473</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8862605191469117</v>
+        <v>0.661137590527527</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4259487688541412</v>
+        <v>1.011518955230713</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06452535114585878</v>
+        <v>0.5210448352307129</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3935792446136475</v>
+        <v>0.6104474067687988</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1274797913863526</v>
+        <v>0.0893883707687988</v>
       </c>
     </row>
     <row r="5">
@@ -6397,28 +6397,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>5.794471263885498</v>
+        <v>4.457962036132812</v>
       </c>
       <c r="D5" t="n">
-        <v>4.869278846114502</v>
+        <v>6.205788073867188</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>4.200136661529541</v>
+        <v>3.163663864135742</v>
       </c>
       <c r="G5" t="n">
-        <v>1.167614253470459</v>
+        <v>2.204087050864258</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5160558819770813</v>
+        <v>0.06001986563205719</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3839338940229187</v>
+        <v>0.8399699103679428</v>
       </c>
     </row>
     <row r="6">
@@ -6431,28 +6431,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>5.93470287322998</v>
+        <v>4.68782901763916</v>
       </c>
       <c r="D6" t="n">
-        <v>9.644837056770019</v>
+        <v>10.89171091236084</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>4.232087135314941</v>
+        <v>3.133527517318726</v>
       </c>
       <c r="G6" t="n">
-        <v>2.904568273685059</v>
+        <v>4.003127891681275</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3968363106250763</v>
+        <v>-0.1150107681751251</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5269933553749238</v>
+        <v>1.038840434175125</v>
       </c>
     </row>
     <row r="7">
@@ -6465,28 +6465,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>1.08449387550354</v>
+        <v>2.196367740631104</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06510358750353995</v>
+        <v>1.176977452631103</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>2.334474325180054</v>
+        <v>3.830319881439209</v>
       </c>
       <c r="G7" t="n">
-        <v>1.146853955819946</v>
+        <v>0.3489916004392088</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6624815464019775</v>
+        <v>0.4102074503898621</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04528844740197757</v>
+        <v>0.2069856486101379</v>
       </c>
     </row>
     <row r="8">
@@ -6499,28 +6499,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>19.13936042785645</v>
+        <v>16.91665267944336</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5520724078564463</v>
+        <v>1.67063534055664</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>7.801872730255127</v>
+        <v>6.881504058837891</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07807737425512684</v>
+        <v>0.8422912971621095</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6866127848625183</v>
+        <v>0.786177396774292</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4527252781374818</v>
+        <v>0.3531606662257081</v>
       </c>
     </row>
     <row r="9">
@@ -6533,28 +6533,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>5.876325130462646</v>
+        <v>4.429277420043945</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2750495015373531</v>
+        <v>1.722097211956054</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>3.0339195728302</v>
+        <v>1.146108984947205</v>
       </c>
       <c r="G9" t="n">
-        <v>1.8320158518302</v>
+        <v>0.0557947360527955</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>4.387969017028809</v>
+        <v>2.682952165603638</v>
       </c>
       <c r="J9" t="n">
-        <v>2.900695820028809</v>
+        <v>1.195678968603638</v>
       </c>
     </row>
     <row r="10">
@@ -6567,28 +6567,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>13.35875606536865</v>
+        <v>9.920787811279297</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9922591053686531</v>
+        <v>2.445709148720702</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>4.899152755737305</v>
+        <v>2.320091247558594</v>
       </c>
       <c r="G10" t="n">
-        <v>2.374612247737305</v>
+        <v>0.2044492604414061</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>4.384274482727051</v>
+        <v>3.252975940704346</v>
       </c>
       <c r="J10" t="n">
-        <v>2.427794130727051</v>
+        <v>1.296495588704346</v>
       </c>
     </row>
     <row r="11">
@@ -6601,28 +6601,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>1.550931096076965</v>
+        <v>2.080829620361328</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5763302040769653</v>
+        <v>1.106228728361328</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4720922112464905</v>
+        <v>1.605077028274536</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07845629624649048</v>
+        <v>1.211441113274536</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2250712513923645</v>
+        <v>0.3041717410087585</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0641122123923645</v>
+        <v>0.1432127020087585</v>
       </c>
     </row>
     <row r="12">
@@ -6635,28 +6635,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>1.171140313148499</v>
+        <v>1.569406509399414</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3853344411484986</v>
+        <v>0.7836006373994141</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3079760670661926</v>
+        <v>1.70751678943634</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3844991479338074</v>
+        <v>1.01504157443634</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05435699969530106</v>
+        <v>0.1422738432884216</v>
       </c>
       <c r="J12" t="n">
-        <v>0.141093855304699</v>
+        <v>0.05317701171157838</v>
       </c>
     </row>
     <row r="13">
@@ -6669,28 +6669,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>1.065675020217896</v>
+        <v>2.338397979736328</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03124482021789543</v>
+        <v>1.303967779736328</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>1.937743544578552</v>
+        <v>3.385696172714233</v>
       </c>
       <c r="G13" t="n">
-        <v>1.078692682421448</v>
+        <v>0.3692599457142336</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4754815697669983</v>
+        <v>0.1011534035205841</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06703211076699828</v>
+        <v>0.3072960554794159</v>
       </c>
     </row>
     <row r="14">
@@ -6703,28 +6703,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>50.27548217773438</v>
+        <v>59.76814270019531</v>
       </c>
       <c r="D14" t="n">
-        <v>11.52837352226562</v>
+        <v>2.035712999804687</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>20.50690650939941</v>
+        <v>20.74378967285156</v>
       </c>
       <c r="G14" t="n">
-        <v>4.504591170600587</v>
+        <v>4.267708007148439</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>2.873213768005371</v>
+        <v>3.073700904846191</v>
       </c>
       <c r="J14" t="n">
-        <v>0.857267439994629</v>
+        <v>0.6567803031538086</v>
       </c>
     </row>
     <row r="15">
@@ -6737,28 +6737,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>1.701187372207642</v>
+        <v>2.028575897216797</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8174661037923583</v>
+        <v>0.490077578783203</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4825678169727325</v>
+        <v>1.222671627998352</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1856060430272675</v>
+        <v>0.554497767998352</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.385315865278244</v>
+        <v>0.5630266666412354</v>
       </c>
       <c r="J15" t="n">
-        <v>0.117975173721756</v>
+        <v>0.0597356276412353</v>
       </c>
     </row>
     <row r="16">
@@ -6771,28 +6771,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>1.489795804023743</v>
+        <v>2.122997283935547</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4835997970237427</v>
+        <v>1.116801276935547</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>0.44692462682724</v>
+        <v>1.679333090782166</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01786330517276002</v>
+        <v>1.214545158782165</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1425458192825317</v>
+        <v>0.1830514222383499</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04357866271746827</v>
+        <v>0.003073059761650093</v>
       </c>
     </row>
     <row r="17">
@@ -6805,28 +6805,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>1.191705942153931</v>
+        <v>2.235264539718628</v>
       </c>
       <c r="D17" t="n">
-        <v>1.189000949846069</v>
+        <v>0.1454423522813721</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>2.665846109390259</v>
+        <v>2.350600481033325</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9575494743902588</v>
+        <v>0.6423038460333252</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9474708437919617</v>
+        <v>1.102639317512512</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1124113197919616</v>
+        <v>0.2675797935125122</v>
       </c>
     </row>
     <row r="18">
@@ -6839,28 +6839,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>2.228156089782715</v>
+        <v>3.31462836265564</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4474613097827149</v>
+        <v>1.53393358265564</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.756753146648407</v>
+        <v>1.795631527900696</v>
       </c>
       <c r="G18" t="n">
-        <v>0.251233238648407</v>
+        <v>1.290111619900696</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3014887273311615</v>
+        <v>0.2381021529436111</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1252924543311615</v>
+        <v>0.06190587994361116</v>
       </c>
     </row>
     <row r="19">
@@ -6873,28 +6873,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>4.160349369049072</v>
+        <v>3.261636018753052</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4485309730490723</v>
+        <v>0.4501823772469482</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>6.762848854064941</v>
+        <v>6.681171417236328</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8480512980649415</v>
+        <v>0.7663738612363282</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>7.518585681915283</v>
+        <v>5.110268592834473</v>
       </c>
       <c r="J19" t="n">
-        <v>4.358466678915283</v>
+        <v>1.950149589834473</v>
       </c>
     </row>
     <row r="20">
@@ -6907,28 +6907,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>5.510651588439941</v>
+        <v>3.61281943321228</v>
       </c>
       <c r="D20" t="n">
-        <v>4.408506808439942</v>
+        <v>2.510674653212281</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>4.215993404388428</v>
+        <v>3.098674535751343</v>
       </c>
       <c r="G20" t="n">
-        <v>3.418308017388428</v>
+        <v>2.300989148751343</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5327234864234924</v>
+        <v>0.08323773741722107</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3836286224234924</v>
+        <v>0.06585712658277892</v>
       </c>
     </row>
     <row r="21">
@@ -6941,28 +6941,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>75.09088134765625</v>
+        <v>87.98492431640625</v>
       </c>
       <c r="D21" t="n">
-        <v>5.961971522343745</v>
+        <v>6.932071446406255</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>34.58391952514648</v>
+        <v>35.40337371826172</v>
       </c>
       <c r="G21" t="n">
-        <v>1.198906444853513</v>
+        <v>0.3794522517382788</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>4.240622043609619</v>
+        <v>4.180713176727295</v>
       </c>
       <c r="J21" t="n">
-        <v>0.372306503390381</v>
+        <v>0.4322153702727052</v>
       </c>
     </row>
     <row r="22">
@@ -6975,28 +6975,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.059423208236694</v>
+        <v>1.066736698150635</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5900981702366943</v>
+        <v>0.5974116601506347</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>2.856479644775391</v>
+        <v>1.627934455871582</v>
       </c>
       <c r="G22" t="n">
-        <v>2.534863065775391</v>
+        <v>1.306317876871582</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>1.334533333778381</v>
+        <v>1.941917300224304</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9923909037783814</v>
+        <v>1.599774870224304</v>
       </c>
     </row>
     <row r="23">
@@ -7009,28 +7009,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>145.8936462402344</v>
+        <v>162.0750274658203</v>
       </c>
       <c r="D23" t="n">
-        <v>2.669677559765631</v>
+        <v>13.51170366582031</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>83.10706329345703</v>
+        <v>86.69599914550781</v>
       </c>
       <c r="G23" t="n">
-        <v>5.354433813457035</v>
+        <v>8.943369665507817</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>8.739484786987305</v>
+        <v>7.744464874267578</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4266793869873045</v>
+        <v>0.5683405257324221</v>
       </c>
     </row>
     <row r="24">
@@ -7043,28 +7043,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>1.95828914642334</v>
+        <v>1.923822164535522</v>
       </c>
       <c r="D24" t="n">
-        <v>0.18150392657666</v>
+        <v>0.2159709084644774</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6583144068717957</v>
+        <v>1.178520083427429</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02272636187179566</v>
+        <v>0.5429320384274292</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7719733119010925</v>
+        <v>1.144995927810669</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1685015549010925</v>
+        <v>0.5415241708106689</v>
       </c>
     </row>
     <row r="25">
@@ -7077,28 +7077,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>22.82402801513672</v>
+        <v>29.43671607971191</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7089326851367197</v>
+        <v>7.321620749711915</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>7.874546527862549</v>
+        <v>8.74562931060791</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08899373786254916</v>
+        <v>0.9600765206079105</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6643476486206055</v>
+        <v>1.045714497566223</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5216249723793944</v>
+        <v>0.1402581234337767</v>
       </c>
     </row>
     <row r="26">
@@ -7111,28 +7111,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>17.46600341796875</v>
+        <v>15.23104095458984</v>
       </c>
       <c r="D26" t="n">
-        <v>1.176509342031249</v>
+        <v>3.411471805410155</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>6.123980522155762</v>
+        <v>4.990451812744141</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2186618711557617</v>
+        <v>0.9148668382558593</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>1.071439146995544</v>
+        <v>1.021687984466553</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2345830120044556</v>
+        <v>0.2843341745334473</v>
       </c>
     </row>
     <row r="27">
@@ -7145,28 +7145,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>2.012962579727173</v>
+        <v>2.721644878387451</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9009182007271728</v>
+        <v>1.609600499387451</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>1.031071186065674</v>
+        <v>3.549609899520874</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4410984669343261</v>
+        <v>2.077440246520874</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4715348482131958</v>
+        <v>0.4646040201187134</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1606028962131958</v>
+        <v>0.1536720681187134</v>
       </c>
     </row>
     <row r="28">
@@ -7179,28 +7179,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>6.397416591644287</v>
+        <v>6.119420051574707</v>
       </c>
       <c r="D28" t="n">
-        <v>5.393193711644287</v>
+        <v>5.115197171574707</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>4.770992755889893</v>
+        <v>5.72465991973877</v>
       </c>
       <c r="G28" t="n">
-        <v>3.909447565889892</v>
+        <v>4.863114729738769</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4300205707550049</v>
+        <v>-0.152199998497963</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3436751997550049</v>
+        <v>0.238545369497963</v>
       </c>
     </row>
     <row r="29">
@@ -7213,28 +7213,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>5.525795936584473</v>
+        <v>3.606338500976562</v>
       </c>
       <c r="D29" t="n">
-        <v>3.423283994415527</v>
+        <v>5.342741430023437</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>4.201491355895996</v>
+        <v>2.980682849884033</v>
       </c>
       <c r="G29" t="n">
-        <v>1.532547850104004</v>
+        <v>2.753356356115967</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4985865652561188</v>
+        <v>0.0372975617647171</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3485674797438812</v>
+        <v>0.8098564832352829</v>
       </c>
     </row>
     <row r="30">
@@ -7247,28 +7247,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>6.416353225708008</v>
+        <v>7.096986770629883</v>
       </c>
       <c r="D30" t="n">
-        <v>2.554382136708008</v>
+        <v>3.235015681629883</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>3.832135915756226</v>
+        <v>2.812552213668823</v>
       </c>
       <c r="G30" t="n">
-        <v>1.666397365756226</v>
+        <v>0.6468136636688233</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8785938024520874</v>
+        <v>0.9412426352500916</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1482812105479125</v>
+        <v>0.08563237774990839</v>
       </c>
     </row>
     <row r="31">
@@ -7281,28 +7281,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>2.532572984695435</v>
+        <v>5.641952037811279</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1615563203045656</v>
+        <v>2.947822732811279</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>10.74196815490723</v>
+        <v>15.28872108459473</v>
       </c>
       <c r="G31" t="n">
-        <v>1.743388406907227</v>
+        <v>6.290141336594727</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>2.144591093063354</v>
+        <v>2.524106740951538</v>
       </c>
       <c r="J31" t="n">
-        <v>1.069212383063354</v>
+        <v>1.448728030951538</v>
       </c>
     </row>
     <row r="32">
@@ -7315,28 +7315,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.079420328140259</v>
+        <v>2.369018793106079</v>
       </c>
       <c r="D32" t="n">
-        <v>7.505483915859742</v>
+        <v>7.215885450893921</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>3.632548809051514</v>
+        <v>6.138282299041748</v>
       </c>
       <c r="G32" t="n">
-        <v>24.47307506094849</v>
+        <v>21.96734157095825</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>2.114997148513794</v>
+        <v>2.006631374359131</v>
       </c>
       <c r="J32" t="n">
-        <v>5.763817404486206</v>
+        <v>5.872183178640869</v>
       </c>
     </row>
     <row r="33">
@@ -7349,28 +7349,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>20.82835388183594</v>
+        <v>18.36080932617188</v>
       </c>
       <c r="D33" t="n">
-        <v>1.284295698164062</v>
+        <v>3.751840253828124</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>7.446923732757568</v>
+        <v>5.730469703674316</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3445802117575685</v>
+        <v>1.371873817325683</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.216149926185608</v>
+        <v>1.367136478424072</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4088646848143922</v>
+        <v>0.2578781325759278</v>
       </c>
     </row>
   </sheetData>

--- a/IndexResults.xlsx
+++ b/IndexResults.xlsx
@@ -5136,28 +5136,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>2.77368426322937</v>
+        <v>2.761710166931152</v>
       </c>
       <c r="D2" t="n">
-        <v>1.61351397722937</v>
+        <v>1.601539880931152</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>1.645295858383179</v>
+        <v>1.735650181770325</v>
       </c>
       <c r="G2" t="n">
-        <v>1.223400309383179</v>
+        <v>1.313754632770325</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6574540138244629</v>
+        <v>0.7169569134712219</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4906493468244629</v>
+        <v>0.550152246471222</v>
       </c>
     </row>
     <row r="3">
@@ -5170,28 +5170,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>7.47691535949707</v>
+        <v>8.318574905395508</v>
       </c>
       <c r="D3" t="n">
-        <v>1.540428518497071</v>
+        <v>2.382088064395508</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>3.896192789077759</v>
+        <v>4.149198532104492</v>
       </c>
       <c r="G3" t="n">
-        <v>3.220288215077759</v>
+        <v>3.473293958104492</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.156824707984924</v>
+        <v>0.9873703122138977</v>
       </c>
       <c r="J3" t="n">
-        <v>1.156824707984924</v>
+        <v>0.9873703122138977</v>
       </c>
     </row>
     <row r="4">
@@ -5204,28 +5204,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.613375902175903</v>
+        <v>2.661058187484741</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06710731017590321</v>
+        <v>0.1147895954847411</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>1.520384550094604</v>
+        <v>1.694624662399292</v>
       </c>
       <c r="G4" t="n">
-        <v>1.029910430094604</v>
+        <v>1.204150542399292</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8294201493263245</v>
+        <v>0.9133692383766174</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3083611133263244</v>
+        <v>0.3923102023766174</v>
       </c>
     </row>
     <row r="5">
@@ -5238,28 +5238,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>3.957051038742065</v>
+        <v>4.13227653503418</v>
       </c>
       <c r="D5" t="n">
-        <v>6.706699071257935</v>
+        <v>6.531473574965821</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.331849813461304</v>
+        <v>2.399416446685791</v>
       </c>
       <c r="G5" t="n">
-        <v>3.035901101538697</v>
+        <v>2.968334468314209</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5480540990829468</v>
+        <v>0.6394060254096985</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3519356769170532</v>
+        <v>0.2605837505903015</v>
       </c>
     </row>
     <row r="6">
@@ -5272,28 +5272,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>4.083518505096436</v>
+        <v>4.264983177185059</v>
       </c>
       <c r="D6" t="n">
-        <v>11.49602142490356</v>
+        <v>11.31455675281494</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>2.391199111938477</v>
+        <v>2.435023307800293</v>
       </c>
       <c r="G6" t="n">
-        <v>4.745456297061524</v>
+        <v>4.701632101199707</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.479215145111084</v>
+        <v>0.5395832061767578</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4446145208889161</v>
+        <v>0.3842464598232422</v>
       </c>
     </row>
     <row r="7">
@@ -5306,28 +5306,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>2.986143827438354</v>
+        <v>2.907890796661377</v>
       </c>
       <c r="D7" t="n">
-        <v>1.966753539438354</v>
+        <v>1.888500508661377</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>1.909790754318237</v>
+        <v>1.937569975852966</v>
       </c>
       <c r="G7" t="n">
-        <v>1.571537526681763</v>
+        <v>1.543758305147034</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6434555649757385</v>
+        <v>0.8661555647850037</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02626246597573856</v>
+        <v>0.2489624657850037</v>
       </c>
     </row>
     <row r="8">
@@ -5340,28 +5340,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>9.167227745056152</v>
+        <v>9.715904235839844</v>
       </c>
       <c r="D8" t="n">
-        <v>9.420060274943847</v>
+        <v>8.871383784160155</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>5.174019813537598</v>
+        <v>4.965664863586426</v>
       </c>
       <c r="G8" t="n">
-        <v>2.549775542462402</v>
+        <v>2.758130492413574</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5101463794708252</v>
+        <v>0.5832244157791138</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6291916835291749</v>
+        <v>0.5561136472208863</v>
       </c>
     </row>
     <row r="9">
@@ -5374,28 +5374,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.187925815582275</v>
+        <v>4.389376640319824</v>
       </c>
       <c r="D9" t="n">
-        <v>1.963448816417724</v>
+        <v>1.761997991680175</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>2.300287485122681</v>
+        <v>2.588962554931641</v>
       </c>
       <c r="G9" t="n">
-        <v>1.098383764122681</v>
+        <v>1.387058833931641</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.666780710220337</v>
+        <v>1.836103796958923</v>
       </c>
       <c r="J9" t="n">
-        <v>0.179507513220337</v>
+        <v>0.3488305999589234</v>
       </c>
     </row>
     <row r="10">
@@ -5408,28 +5408,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>6.732071876525879</v>
+        <v>7.126251220703125</v>
       </c>
       <c r="D10" t="n">
-        <v>5.63442508347412</v>
+        <v>5.240245739296874</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>3.609970092773438</v>
+        <v>3.84226131439209</v>
       </c>
       <c r="G10" t="n">
-        <v>1.085429584773438</v>
+        <v>1.31772080639209</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>1.772756338119507</v>
+        <v>1.868015885353088</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1837240138804932</v>
+        <v>0.08846446664691165</v>
       </c>
     </row>
     <row r="11">
@@ -5442,28 +5442,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>2.757679462432861</v>
+        <v>2.75774073600769</v>
       </c>
       <c r="D11" t="n">
-        <v>1.783078570432861</v>
+        <v>1.78313984400769</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>1.640055775642395</v>
+        <v>1.745952725410461</v>
       </c>
       <c r="G11" t="n">
-        <v>1.246419860642395</v>
+        <v>1.352316810410461</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6962134838104248</v>
+        <v>0.7743073105812073</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5352544448104248</v>
+        <v>0.6133482715812073</v>
       </c>
     </row>
     <row r="12">
@@ -5476,28 +5476,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>2.575214624404907</v>
+        <v>2.474215507507324</v>
       </c>
       <c r="D12" t="n">
-        <v>1.789408752404907</v>
+        <v>1.688409635507324</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>1.565478801727295</v>
+        <v>1.628124594688416</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8730035867272949</v>
+        <v>0.9356493796884156</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6460362076759338</v>
+        <v>0.7203201651573181</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4505853526759338</v>
+        <v>0.5248693101573181</v>
       </c>
     </row>
     <row r="13">
@@ -5510,28 +5510,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>3.001855611801147</v>
+        <v>2.90733814239502</v>
       </c>
       <c r="D13" t="n">
-        <v>1.967425411801147</v>
+        <v>1.872907942395019</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>1.896482348442078</v>
+        <v>1.902608036994934</v>
       </c>
       <c r="G13" t="n">
-        <v>1.119953878557922</v>
+        <v>1.113828190005066</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5769036412239075</v>
+        <v>0.7501155138015747</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1684541822239075</v>
+        <v>0.3416660548015747</v>
       </c>
     </row>
     <row r="14">
@@ -5544,28 +5544,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>47.05393600463867</v>
+        <v>48.07374572753906</v>
       </c>
       <c r="D14" t="n">
-        <v>14.74991969536133</v>
+        <v>13.73010997246094</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>25.77590751647949</v>
+        <v>24.44048690795898</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7644098364794907</v>
+        <v>0.5710107720410171</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>3.597862482070923</v>
+        <v>3.684933423995972</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1326187259290772</v>
+        <v>0.04554778400402837</v>
       </c>
     </row>
     <row r="15">
@@ -5578,28 +5578,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.69317889213562</v>
+        <v>2.737678050994873</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1745254161356202</v>
+        <v>0.2190245749948732</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>1.575981855392456</v>
+        <v>1.7371666431427</v>
       </c>
       <c r="G15" t="n">
-        <v>0.907807995392456</v>
+        <v>1.0689927831427</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8051369190216064</v>
+        <v>0.8942362666130066</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3018458800216064</v>
+        <v>0.3909452276130065</v>
       </c>
     </row>
     <row r="16">
@@ -5612,28 +5612,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>2.802639484405518</v>
+        <v>2.787344694137573</v>
       </c>
       <c r="D16" t="n">
-        <v>1.796443477405518</v>
+        <v>1.781148687137573</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>1.668488144874573</v>
+        <v>1.752798914909363</v>
       </c>
       <c r="G16" t="n">
-        <v>1.203700212874573</v>
+        <v>1.288010982909363</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6489292979240417</v>
+        <v>0.7137766480445862</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4628048159240418</v>
+        <v>0.5276521660445862</v>
       </c>
     </row>
     <row r="17">
@@ -5646,28 +5646,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.867833375930786</v>
+        <v>2.881857633590698</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4871264839307861</v>
+        <v>0.5011507415906982</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>1.742685317993164</v>
+        <v>1.911916613578796</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03438868299316411</v>
+        <v>0.2036199785787964</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9722372889518738</v>
+        <v>1.172721266746521</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1371777649518737</v>
+        <v>0.3376617427465209</v>
       </c>
     </row>
     <row r="18">
@@ -5680,28 +5680,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>3.391148328781128</v>
+        <v>3.530785799026489</v>
       </c>
       <c r="D18" t="n">
-        <v>1.610453548781128</v>
+        <v>1.750091019026489</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>1.954432010650635</v>
+        <v>2.077642917633057</v>
       </c>
       <c r="G18" t="n">
-        <v>1.448912102650635</v>
+        <v>1.572123009633057</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6622902750968933</v>
+        <v>0.7071412205696106</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4860940020968934</v>
+        <v>0.5309449475696106</v>
       </c>
     </row>
     <row r="19">
@@ -5714,28 +5714,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>4.191934108734131</v>
+        <v>4.021617412567139</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4801157127341309</v>
+        <v>0.3097990165671387</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>2.589632511138916</v>
+        <v>2.75681209564209</v>
       </c>
       <c r="G19" t="n">
-        <v>3.325165044861084</v>
+        <v>3.15798546035791</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>2.116218090057373</v>
+        <v>2.660654306411743</v>
       </c>
       <c r="J19" t="n">
-        <v>1.043900912942627</v>
+        <v>0.499464696588257</v>
       </c>
     </row>
     <row r="20">
@@ -5748,28 +5748,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>3.560271978378296</v>
+        <v>3.637675762176514</v>
       </c>
       <c r="D20" t="n">
-        <v>2.458127198378296</v>
+        <v>2.535530982176514</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>2.145861387252808</v>
+        <v>2.19162130355835</v>
       </c>
       <c r="G20" t="n">
-        <v>1.348176000252808</v>
+        <v>1.39393591655835</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5599492788314819</v>
+        <v>0.6754158139228821</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4108544148314819</v>
+        <v>0.526320949922882</v>
       </c>
     </row>
     <row r="21">
@@ -5782,28 +5782,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>75.45723724365234</v>
+        <v>76.53546142578125</v>
       </c>
       <c r="D21" t="n">
-        <v>5.595615626347652</v>
+        <v>4.517391444218745</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>41.603515625</v>
+        <v>39.03950119018555</v>
       </c>
       <c r="G21" t="n">
-        <v>5.820689655000002</v>
+        <v>3.256675220185549</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>5.330183506011963</v>
+        <v>5.778985500335693</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7172549590119628</v>
+        <v>1.166056953335693</v>
       </c>
     </row>
     <row r="22">
@@ -5816,28 +5816,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>2.327610731124878</v>
+        <v>2.272838354110718</v>
       </c>
       <c r="D22" t="n">
-        <v>1.858285693124878</v>
+        <v>1.803513316110718</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.428341865539551</v>
+        <v>1.6682368516922</v>
       </c>
       <c r="G22" t="n">
-        <v>1.106725286539551</v>
+        <v>1.3466202726922</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>1.318450331687927</v>
+        <v>1.572451114654541</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9763079016879272</v>
+        <v>1.230308684654541</v>
       </c>
     </row>
     <row r="23">
@@ -5850,28 +5850,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>159.1278991699219</v>
+        <v>158.7060546875</v>
       </c>
       <c r="D23" t="n">
-        <v>10.56457536992187</v>
+        <v>10.14273088749999</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>89.25186157226562</v>
+        <v>81.87762451171875</v>
       </c>
       <c r="G23" t="n">
-        <v>11.49923209226563</v>
+        <v>4.124995031718754</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>9.952269554138184</v>
+        <v>12.4525032043457</v>
       </c>
       <c r="J23" t="n">
-        <v>1.639464154138183</v>
+        <v>4.139697804345703</v>
       </c>
     </row>
     <row r="24">
@@ -5884,28 +5884,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.619955062866211</v>
+        <v>2.661042928695679</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4801619898662111</v>
+        <v>0.5212498556956788</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.541697978973389</v>
+        <v>1.764781713485718</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9061099339733887</v>
+        <v>1.129193668485718</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>1.046830296516418</v>
+        <v>1.207040190696716</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4433585395164185</v>
+        <v>0.6035684336967163</v>
       </c>
     </row>
     <row r="25">
@@ -5918,28 +5918,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>15.89988994598389</v>
+        <v>16.89458465576172</v>
       </c>
       <c r="D25" t="n">
-        <v>6.215205384016112</v>
+        <v>5.22051067423828</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>8.678284645080566</v>
+        <v>8.377403259277344</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8927318550805667</v>
+        <v>0.5918504692773441</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8867052793502808</v>
+        <v>0.8502839803695679</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2992673416497191</v>
+        <v>0.335688640630432</v>
       </c>
     </row>
     <row r="26">
@@ -5952,28 +5952,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>8.352972984313965</v>
+        <v>8.959884643554688</v>
       </c>
       <c r="D26" t="n">
-        <v>10.28953977568603</v>
+        <v>9.682628116445311</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>4.604980945587158</v>
+        <v>4.576831817626953</v>
       </c>
       <c r="G26" t="n">
-        <v>1.300337705412842</v>
+        <v>1.328486833373047</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7275657057762146</v>
+        <v>0.7209558486938477</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5784564532237855</v>
+        <v>0.5850663103061524</v>
       </c>
     </row>
     <row r="27">
@@ -5986,28 +5986,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>3.182538747787476</v>
+        <v>3.182562112808228</v>
       </c>
       <c r="D27" t="n">
-        <v>2.070494368787475</v>
+        <v>2.070517733808227</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>1.986020088195801</v>
+        <v>2.047421216964722</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5138504351958009</v>
+        <v>0.5752515639647218</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6777623295783997</v>
+        <v>0.8787896633148193</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3668303775783996</v>
+        <v>0.5678577113148193</v>
       </c>
     </row>
     <row r="28">
@@ -6020,28 +6020,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>4.823533535003662</v>
+        <v>5.010613918304443</v>
       </c>
       <c r="D28" t="n">
-        <v>3.819310655003662</v>
+        <v>4.006391038304443</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>2.926928758621216</v>
+        <v>2.874365329742432</v>
       </c>
       <c r="G28" t="n">
-        <v>2.065383568621216</v>
+        <v>2.012820139742431</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.36733278632164</v>
+        <v>0.5393688678741455</v>
       </c>
       <c r="J28" t="n">
-        <v>0.28098741532164</v>
+        <v>0.4530234968741455</v>
       </c>
     </row>
     <row r="29">
@@ -6054,28 +6054,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>3.562523126602173</v>
+        <v>3.637582540512085</v>
       </c>
       <c r="D29" t="n">
-        <v>5.386556804397827</v>
+        <v>5.311497390487915</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>2.13798451423645</v>
+        <v>2.180203437805176</v>
       </c>
       <c r="G29" t="n">
-        <v>3.59605469176355</v>
+        <v>3.553835768194824</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5467482805252075</v>
+        <v>0.6478962898254395</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3004057644747925</v>
+        <v>0.1992577551745606</v>
       </c>
     </row>
     <row r="30">
@@ -6088,28 +6088,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>5.266069889068604</v>
+        <v>5.634063243865967</v>
       </c>
       <c r="D30" t="n">
-        <v>1.404098800068604</v>
+        <v>1.772092154865967</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>2.932317972183228</v>
+        <v>3.069186687469482</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7665794221832276</v>
+        <v>0.9034481374694825</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8867701888084412</v>
+        <v>0.9349796175956726</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1401048241915588</v>
+        <v>0.09189539540432734</v>
       </c>
     </row>
     <row r="31">
@@ -6122,28 +6122,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>7.249972820281982</v>
+        <v>6.793090343475342</v>
       </c>
       <c r="D31" t="n">
-        <v>4.555843515281982</v>
+        <v>4.098961038475341</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>4.874138355255127</v>
+        <v>4.22835636138916</v>
       </c>
       <c r="G31" t="n">
-        <v>4.124441392744872</v>
+        <v>4.770223386610839</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6940616965293884</v>
+        <v>1.460177063941956</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3813170134706116</v>
+        <v>0.3847983539419555</v>
       </c>
     </row>
     <row r="32">
@@ -6156,28 +6156,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>3.519408702850342</v>
+        <v>3.370322942733765</v>
       </c>
       <c r="D32" t="n">
-        <v>6.065495541149659</v>
+        <v>6.214581301266236</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>2.296098232269287</v>
+        <v>2.304643154144287</v>
       </c>
       <c r="G32" t="n">
-        <v>25.80952563773071</v>
+        <v>25.80098071585571</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>1.044525980949402</v>
+        <v>1.415459871292114</v>
       </c>
       <c r="J32" t="n">
-        <v>6.834288572050598</v>
+        <v>6.463354681707886</v>
       </c>
     </row>
     <row r="33">
@@ -6190,28 +6190,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>9.676542282104492</v>
+        <v>10.32976818084717</v>
       </c>
       <c r="D33" t="n">
-        <v>12.43610729789551</v>
+        <v>11.78288139915283</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>5.313716888427734</v>
+        <v>5.244025230407715</v>
       </c>
       <c r="G33" t="n">
-        <v>1.788626632572266</v>
+        <v>1.858318290592285</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8162521719932556</v>
+        <v>0.8046647906303406</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8087624390067445</v>
+        <v>0.8203498203696595</v>
       </c>
     </row>
   </sheetData>
@@ -6295,28 +6295,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>2.071847677230835</v>
+        <v>1.643923282623291</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9116773912308349</v>
+        <v>0.483752996623291</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>1.562425255775452</v>
+        <v>1.405514359474182</v>
       </c>
       <c r="G2" t="n">
-        <v>1.140529706775452</v>
+        <v>0.9836188104741821</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1994164735078812</v>
+        <v>0.1627254337072372</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03261180650788117</v>
+        <v>0.004079233292762746</v>
       </c>
     </row>
     <row r="3">
@@ -6329,28 +6329,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>12.43583297729492</v>
+        <v>11.58598709106445</v>
       </c>
       <c r="D3" t="n">
-        <v>6.499346136294922</v>
+        <v>5.649500250064453</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>1.865996718406677</v>
+        <v>2.199965715408325</v>
       </c>
       <c r="G3" t="n">
-        <v>1.190092144406677</v>
+        <v>1.524061141408325</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.538376808166504</v>
+        <v>1.348795056343079</v>
       </c>
       <c r="J3" t="n">
-        <v>1.538376808166504</v>
+        <v>1.348795056343079</v>
       </c>
     </row>
     <row r="4">
@@ -6363,28 +6363,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>1.885131001472473</v>
+        <v>1.546847939491272</v>
       </c>
       <c r="D4" t="n">
-        <v>0.661137590527527</v>
+        <v>0.9994206525087281</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>1.011518955230713</v>
+        <v>0.9783089160919189</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5210448352307129</v>
+        <v>0.4878347960919189</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6104474067687988</v>
+        <v>0.5291029810905457</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0893883707687988</v>
+        <v>0.008043945090545623</v>
       </c>
     </row>
     <row r="5">
@@ -6397,28 +6397,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>4.457962036132812</v>
+        <v>3.979392290115356</v>
       </c>
       <c r="D5" t="n">
-        <v>6.205788073867188</v>
+        <v>6.684357819884644</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>3.163663864135742</v>
+        <v>2.944733142852783</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204087050864258</v>
+        <v>2.423017772147217</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06001986563205719</v>
+        <v>0.1543428748846054</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8399699103679428</v>
+        <v>0.7456469011153946</v>
       </c>
     </row>
     <row r="6">
@@ -6431,28 +6431,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>4.68782901763916</v>
+        <v>4.23035717010498</v>
       </c>
       <c r="D6" t="n">
-        <v>10.89171091236084</v>
+        <v>11.34918275989502</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>3.133527517318726</v>
+        <v>2.891024827957153</v>
       </c>
       <c r="G6" t="n">
-        <v>4.003127891681275</v>
+        <v>4.245630581042847</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1150107681751251</v>
+        <v>-0.01287080347537994</v>
       </c>
       <c r="J6" t="n">
-        <v>1.038840434175125</v>
+        <v>0.93670046947538</v>
       </c>
     </row>
     <row r="7">
@@ -6465,28 +6465,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>2.196367740631104</v>
+        <v>1.932649731636047</v>
       </c>
       <c r="D7" t="n">
-        <v>1.176977452631103</v>
+        <v>0.9132594436360473</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>3.830319881439209</v>
+        <v>3.303617000579834</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3489916004392088</v>
+        <v>0.1777112804201662</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4102074503898621</v>
+        <v>0.5075545310974121</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2069856486101379</v>
+        <v>0.1096385679025879</v>
       </c>
     </row>
     <row r="8">
@@ -6499,28 +6499,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>16.91665267944336</v>
+        <v>15.05831146240234</v>
       </c>
       <c r="D8" t="n">
-        <v>1.67063534055664</v>
+        <v>3.528976557597655</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>6.881504058837891</v>
+        <v>6.518694877624512</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8422912971621095</v>
+        <v>1.205100478375488</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.786177396774292</v>
+        <v>0.291964054107666</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3531606662257081</v>
+        <v>0.8473740088923341</v>
       </c>
     </row>
     <row r="9">
@@ -6533,28 +6533,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.429277420043945</v>
+        <v>3.898766756057739</v>
       </c>
       <c r="D9" t="n">
-        <v>1.722097211956054</v>
+        <v>2.25260787594226</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.146108984947205</v>
+        <v>1.754676461219788</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0557947360527955</v>
+        <v>0.5527727402197875</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>2.682952165603638</v>
+        <v>2.812133312225342</v>
       </c>
       <c r="J9" t="n">
-        <v>1.195678968603638</v>
+        <v>1.324860115225342</v>
       </c>
     </row>
     <row r="10">
@@ -6567,28 +6567,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>9.920787811279297</v>
+        <v>9.02044677734375</v>
       </c>
       <c r="D10" t="n">
-        <v>2.445709148720702</v>
+        <v>3.346050182656249</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>2.320091247558594</v>
+        <v>2.843713521957397</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2044492604414061</v>
+        <v>0.3191730139573976</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>3.252975940704346</v>
+        <v>3.036555767059326</v>
       </c>
       <c r="J10" t="n">
-        <v>1.296495588704346</v>
+        <v>1.080075415059326</v>
       </c>
     </row>
     <row r="11">
@@ -6601,28 +6601,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>2.080829620361328</v>
+        <v>1.645213484764099</v>
       </c>
       <c r="D11" t="n">
-        <v>1.106228728361328</v>
+        <v>0.6706125927640991</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>1.605077028274536</v>
+        <v>1.462982416152954</v>
       </c>
       <c r="G11" t="n">
-        <v>1.211441113274536</v>
+        <v>1.069346501152954</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3041717410087585</v>
+        <v>0.2543874979019165</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1432127020087585</v>
+        <v>0.09342845890191651</v>
       </c>
     </row>
     <row r="12">
@@ -6635,28 +6635,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>1.569406509399414</v>
+        <v>1.207472920417786</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7836006373994141</v>
+        <v>0.4216670484177857</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>1.70751678943634</v>
+        <v>1.50673520565033</v>
       </c>
       <c r="G12" t="n">
-        <v>1.01504157443634</v>
+        <v>0.8142599906503296</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1422738432884216</v>
+        <v>0.1070841997861862</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05317701171157838</v>
+        <v>0.08836665521381379</v>
       </c>
     </row>
     <row r="13">
@@ -6669,28 +6669,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>2.338397979736328</v>
+        <v>1.942900776863098</v>
       </c>
       <c r="D13" t="n">
-        <v>1.303967779736328</v>
+        <v>0.9084705768630981</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>3.385696172714233</v>
+        <v>2.938977241516113</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3692599457142336</v>
+        <v>0.07745898548388652</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1011534035205841</v>
+        <v>0.2233205288648605</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3072960554794159</v>
+        <v>0.1851289301351395</v>
       </c>
     </row>
     <row r="14">
@@ -6703,28 +6703,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>59.76814270019531</v>
+        <v>51.03729629516602</v>
       </c>
       <c r="D14" t="n">
-        <v>2.035712999804687</v>
+        <v>10.76655940483398</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>20.74378967285156</v>
+        <v>19.89897727966309</v>
       </c>
       <c r="G14" t="n">
-        <v>4.267708007148439</v>
+        <v>5.112520400336916</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>3.073700904846191</v>
+        <v>1.898283362388611</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6567803031538086</v>
+        <v>1.832197845611389</v>
       </c>
     </row>
     <row r="15">
@@ -6737,28 +6737,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.028575897216797</v>
+        <v>1.651172995567322</v>
       </c>
       <c r="D15" t="n">
-        <v>0.490077578783203</v>
+        <v>0.8674804804326781</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>1.222671627998352</v>
+        <v>1.173227071762085</v>
       </c>
       <c r="G15" t="n">
-        <v>0.554497767998352</v>
+        <v>0.505053211762085</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5630266666412354</v>
+        <v>0.4959650635719299</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0597356276412353</v>
+        <v>0.007325975428070119</v>
       </c>
     </row>
     <row r="16">
@@ -6771,28 +6771,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>2.122997283935547</v>
+        <v>1.689183235168457</v>
       </c>
       <c r="D16" t="n">
-        <v>1.116801276935547</v>
+        <v>0.682987228168457</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>1.679333090782166</v>
+        <v>1.505406260490417</v>
       </c>
       <c r="G16" t="n">
-        <v>1.214545158782165</v>
+        <v>1.040618328490417</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1830514222383499</v>
+        <v>0.1574511975049973</v>
       </c>
       <c r="J16" t="n">
-        <v>0.003073059761650093</v>
+        <v>0.02867328449500275</v>
       </c>
     </row>
     <row r="17">
@@ -6805,28 +6805,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.235264539718628</v>
+        <v>1.876558899879456</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1454423522813721</v>
+        <v>0.5041479921205445</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>2.350600481033325</v>
+        <v>2.352059364318848</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6423038460333252</v>
+        <v>0.6437627293188477</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>1.102639317512512</v>
+        <v>1.170823216438293</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2675797935125122</v>
+        <v>0.3357636924382934</v>
       </c>
     </row>
     <row r="18">
@@ -6839,28 +6839,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>3.31462836265564</v>
+        <v>2.90959620475769</v>
       </c>
       <c r="D18" t="n">
-        <v>1.53393358265564</v>
+        <v>1.128901424757691</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>1.795631527900696</v>
+        <v>1.705207943916321</v>
       </c>
       <c r="G18" t="n">
-        <v>1.290111619900696</v>
+        <v>1.199688035916321</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2381021529436111</v>
+        <v>0.2978107333183289</v>
       </c>
       <c r="J18" t="n">
-        <v>0.06190587994361116</v>
+        <v>0.1216144603183289</v>
       </c>
     </row>
     <row r="19">
@@ -6873,28 +6873,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>3.261636018753052</v>
+        <v>2.481577396392822</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4501823772469482</v>
+        <v>1.230240999607178</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>6.681171417236328</v>
+        <v>5.740447521209717</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7663738612363282</v>
+        <v>0.1743500347902831</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>5.110268592834473</v>
+        <v>4.762238502502441</v>
       </c>
       <c r="J19" t="n">
-        <v>1.950149589834473</v>
+        <v>1.602119499502441</v>
       </c>
     </row>
     <row r="20">
@@ -6907,28 +6907,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>3.61281943321228</v>
+        <v>3.156768798828125</v>
       </c>
       <c r="D20" t="n">
-        <v>2.510674653212281</v>
+        <v>2.054624018828125</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>3.098674535751343</v>
+        <v>2.858088731765747</v>
       </c>
       <c r="G20" t="n">
-        <v>2.300989148751343</v>
+        <v>2.060403344765747</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08323773741722107</v>
+        <v>0.1458070129156113</v>
       </c>
       <c r="J20" t="n">
-        <v>0.06585712658277892</v>
+        <v>0.003287851084388727</v>
       </c>
     </row>
     <row r="21">
@@ -6941,28 +6941,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>87.98492431640625</v>
+        <v>75.79782867431641</v>
       </c>
       <c r="D21" t="n">
-        <v>6.932071446406255</v>
+        <v>5.255024195683589</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>35.40337371826172</v>
+        <v>33.53458404541016</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3794522517382788</v>
+        <v>2.248241924589841</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>4.180713176727295</v>
+        <v>2.639647722244263</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4322153702727052</v>
+        <v>1.973280824755737</v>
       </c>
     </row>
     <row r="22">
@@ -6975,28 +6975,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.066736698150635</v>
+        <v>0.9757897257804871</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5974116601506347</v>
+        <v>0.506464687780487</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.627934455871582</v>
+        <v>1.814268231391907</v>
       </c>
       <c r="G22" t="n">
-        <v>1.306317876871582</v>
+        <v>1.492651652391907</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>1.941917300224304</v>
+        <v>1.941669225692749</v>
       </c>
       <c r="J22" t="n">
-        <v>1.599774870224304</v>
+        <v>1.599526795692749</v>
       </c>
     </row>
     <row r="23">
@@ -7009,28 +7009,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>162.0750274658203</v>
+        <v>142.3776550292969</v>
       </c>
       <c r="D23" t="n">
-        <v>13.51170366582031</v>
+        <v>6.185668770703131</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>86.69599914550781</v>
+        <v>83.06424713134766</v>
       </c>
       <c r="G23" t="n">
-        <v>8.943369665507817</v>
+        <v>5.31161765134766</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>7.744464874267578</v>
+        <v>5.823230266571045</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5683405257324221</v>
+        <v>2.489575133428955</v>
       </c>
     </row>
     <row r="24">
@@ -7043,28 +7043,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>1.923822164535522</v>
+        <v>1.641902804374695</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2159709084644774</v>
+        <v>0.4978902686253051</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.178520083427429</v>
+        <v>1.380645036697388</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5429320384274292</v>
+        <v>0.7450569916973877</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>1.144995927810669</v>
+        <v>1.160987615585327</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5415241708106689</v>
+        <v>0.5575158585853272</v>
       </c>
     </row>
     <row r="25">
@@ -7077,28 +7077,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>29.43671607971191</v>
+        <v>23.90386962890625</v>
       </c>
       <c r="D25" t="n">
-        <v>7.321620749711915</v>
+        <v>1.788774298906251</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>8.74562931060791</v>
+        <v>8.046791076660156</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9600765206079105</v>
+        <v>0.2612382866601566</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>1.045714497566223</v>
+        <v>0.5409074425697327</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1402581234337767</v>
+        <v>0.6450651784302672</v>
       </c>
     </row>
     <row r="26">
@@ -7111,28 +7111,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>15.23104095458984</v>
+        <v>13.64951705932617</v>
       </c>
       <c r="D26" t="n">
-        <v>3.411471805410155</v>
+        <v>4.992995700673827</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>4.990451812744141</v>
+        <v>4.835035800933838</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9148668382558593</v>
+        <v>1.070282850066162</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>1.021687984466553</v>
+        <v>0.5928405523300171</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2843341745334473</v>
+        <v>0.713181606669983</v>
       </c>
     </row>
     <row r="27">
@@ -7145,28 +7145,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>2.721644878387451</v>
+        <v>2.359725952148438</v>
       </c>
       <c r="D27" t="n">
-        <v>1.609600499387451</v>
+        <v>1.247681573148437</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>3.549609899520874</v>
+        <v>3.200043916702271</v>
       </c>
       <c r="G27" t="n">
-        <v>2.077440246520874</v>
+        <v>1.727874263702271</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4646040201187134</v>
+        <v>0.5614113807678223</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1536720681187134</v>
+        <v>0.2504794287678223</v>
       </c>
     </row>
     <row r="28">
@@ -7179,28 +7179,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>6.119420051574707</v>
+        <v>5.655130863189697</v>
       </c>
       <c r="D28" t="n">
-        <v>5.115197171574707</v>
+        <v>4.650907983189697</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>5.72465991973877</v>
+        <v>4.970434665679932</v>
       </c>
       <c r="G28" t="n">
-        <v>4.863114729738769</v>
+        <v>4.108889475679931</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.152199998497963</v>
+        <v>0.001089528203010559</v>
       </c>
       <c r="J28" t="n">
-        <v>0.238545369497963</v>
+        <v>0.08525584279698945</v>
       </c>
     </row>
     <row r="29">
@@ -7213,28 +7213,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>3.606338500976562</v>
+        <v>3.148920059204102</v>
       </c>
       <c r="D29" t="n">
-        <v>5.342741430023437</v>
+        <v>5.800159871795898</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>2.980682849884033</v>
+        <v>2.749097108840942</v>
       </c>
       <c r="G29" t="n">
-        <v>2.753356356115967</v>
+        <v>2.984942097159058</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0372975617647171</v>
+        <v>0.104235514998436</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8098564832352829</v>
+        <v>0.742918530001564</v>
       </c>
     </row>
     <row r="30">
@@ -7247,28 +7247,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>7.096986770629883</v>
+        <v>6.739343166351318</v>
       </c>
       <c r="D30" t="n">
-        <v>3.235015681629883</v>
+        <v>2.877372077351319</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>2.812552213668823</v>
+        <v>2.75163459777832</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6468136636688233</v>
+        <v>0.5858960477783204</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9412426352500916</v>
+        <v>0.9141685366630554</v>
       </c>
       <c r="J30" t="n">
-        <v>0.08563237774990839</v>
+        <v>0.1127064763369445</v>
       </c>
     </row>
     <row r="31">
@@ -7281,28 +7281,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>5.641952037811279</v>
+        <v>6.562483310699463</v>
       </c>
       <c r="D31" t="n">
-        <v>2.947822732811279</v>
+        <v>3.868354005699463</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>15.28872108459473</v>
+        <v>12.75977039337158</v>
       </c>
       <c r="G31" t="n">
-        <v>6.290141336594727</v>
+        <v>3.761190645371583</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>2.524106740951538</v>
+        <v>2.536073684692383</v>
       </c>
       <c r="J31" t="n">
-        <v>1.448728030951538</v>
+        <v>1.460694974692383</v>
       </c>
     </row>
     <row r="32">
@@ -7315,28 +7315,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.369018793106079</v>
+        <v>2.398838520050049</v>
       </c>
       <c r="D32" t="n">
-        <v>7.215885450893921</v>
+        <v>7.186065723949952</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>6.138282299041748</v>
+        <v>5.058980941772461</v>
       </c>
       <c r="G32" t="n">
-        <v>21.96734157095825</v>
+        <v>23.04664292822754</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>2.006631374359131</v>
+        <v>1.910897493362427</v>
       </c>
       <c r="J32" t="n">
-        <v>5.872183178640869</v>
+        <v>5.967917059637573</v>
       </c>
     </row>
     <row r="33">
@@ -7349,28 +7349,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>18.36080932617188</v>
+        <v>16.35378646850586</v>
       </c>
       <c r="D33" t="n">
-        <v>3.751840253828124</v>
+        <v>5.75886311149414</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>5.730469703674316</v>
+        <v>5.643258571624756</v>
       </c>
       <c r="G33" t="n">
-        <v>1.371873817325683</v>
+        <v>1.459084949375244</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.367136478424072</v>
+        <v>0.7622479200363159</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2578781325759278</v>
+        <v>0.8627666909636842</v>
       </c>
     </row>
   </sheetData>

--- a/IndexResults.xlsx
+++ b/IndexResults.xlsx
@@ -5136,28 +5136,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>2.761710166931152</v>
+        <v>3.035971641540527</v>
       </c>
       <c r="D2" t="n">
-        <v>1.601539880931152</v>
+        <v>1.875801355540527</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>1.735650181770325</v>
+        <v>1.889573097229004</v>
       </c>
       <c r="G2" t="n">
-        <v>1.313754632770325</v>
+        <v>1.467677548229004</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7169569134712219</v>
+        <v>0.5093469619750977</v>
       </c>
       <c r="J2" t="n">
-        <v>0.550152246471222</v>
+        <v>0.3425422949750977</v>
       </c>
     </row>
     <row r="3">
@@ -5170,28 +5170,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>8.318574905395508</v>
+        <v>7.764360427856445</v>
       </c>
       <c r="D3" t="n">
-        <v>2.382088064395508</v>
+        <v>1.827873586856446</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>4.149198532104492</v>
+        <v>3.634698629379272</v>
       </c>
       <c r="G3" t="n">
-        <v>3.473293958104492</v>
+        <v>2.958794055379272</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9873703122138977</v>
+        <v>0.8147715330123901</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9873703122138977</v>
+        <v>0.8147715330123901</v>
       </c>
     </row>
     <row r="4">
@@ -5204,28 +5204,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.661058187484741</v>
+        <v>2.843204736709595</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1147895954847411</v>
+        <v>0.2969361447095946</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>1.694624662399292</v>
+        <v>1.809594750404358</v>
       </c>
       <c r="G4" t="n">
-        <v>1.204150542399292</v>
+        <v>1.319120630404358</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9133692383766174</v>
+        <v>0.7301504611968994</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3923102023766174</v>
+        <v>0.2090914251968994</v>
       </c>
     </row>
     <row r="5">
@@ -5238,28 +5238,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>4.13227653503418</v>
+        <v>4.065407276153564</v>
       </c>
       <c r="D5" t="n">
-        <v>6.531473574965821</v>
+        <v>6.598342833846436</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.399416446685791</v>
+        <v>2.381070375442505</v>
       </c>
       <c r="G5" t="n">
-        <v>2.968334468314209</v>
+        <v>2.986680539557495</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6394060254096985</v>
+        <v>0.340738832950592</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2605837505903015</v>
+        <v>0.5592509430494079</v>
       </c>
     </row>
     <row r="6">
@@ -5272,28 +5272,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>4.264983177185059</v>
+        <v>4.231990814208984</v>
       </c>
       <c r="D6" t="n">
-        <v>11.31455675281494</v>
+        <v>11.34754911579101</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>2.435023307800293</v>
+        <v>2.406908273696899</v>
       </c>
       <c r="G6" t="n">
-        <v>4.701632101199707</v>
+        <v>4.729747135303101</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5395832061767578</v>
+        <v>0.2422125488519669</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3842464598232422</v>
+        <v>0.6816171171480332</v>
       </c>
     </row>
     <row r="7">
@@ -5306,28 +5306,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>2.907890796661377</v>
+        <v>3.013283014297485</v>
       </c>
       <c r="D7" t="n">
-        <v>1.888500508661377</v>
+        <v>1.993892726297485</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>1.937569975852966</v>
+        <v>2.123495817184448</v>
       </c>
       <c r="G7" t="n">
-        <v>1.543758305147034</v>
+        <v>1.357832463815552</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8661555647850037</v>
+        <v>0.5666282176971436</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2489624657850037</v>
+        <v>0.05056488130285641</v>
       </c>
     </row>
     <row r="8">
@@ -5340,28 +5340,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>9.715904235839844</v>
+        <v>8.926012992858887</v>
       </c>
       <c r="D8" t="n">
-        <v>8.871383784160155</v>
+        <v>9.661275027141112</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>4.965664863586426</v>
+        <v>4.55111026763916</v>
       </c>
       <c r="G8" t="n">
-        <v>2.758130492413574</v>
+        <v>3.17268508836084</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5832244157791138</v>
+        <v>0.08946964144706726</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5561136472208863</v>
+        <v>1.049868421552933</v>
       </c>
     </row>
     <row r="9">
@@ -5374,28 +5374,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.389376640319824</v>
+        <v>4.234931945800781</v>
       </c>
       <c r="D9" t="n">
-        <v>1.761997991680175</v>
+        <v>1.916442686199218</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>2.588962554931641</v>
+        <v>2.582365274429321</v>
       </c>
       <c r="G9" t="n">
-        <v>1.387058833931641</v>
+        <v>1.380461553429321</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.836103796958923</v>
+        <v>1.758330464363098</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3488305999589234</v>
+        <v>0.2710572673630982</v>
       </c>
     </row>
     <row r="10">
@@ -5408,28 +5408,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>7.126251220703125</v>
+        <v>6.707079887390137</v>
       </c>
       <c r="D10" t="n">
-        <v>5.240245739296874</v>
+        <v>5.659417072609862</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>3.84226131439209</v>
+        <v>3.584478616714478</v>
       </c>
       <c r="G10" t="n">
-        <v>1.31772080639209</v>
+        <v>1.059938108714478</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>1.868015885353088</v>
+        <v>1.734049201011658</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08846446664691165</v>
+        <v>0.2224311509883423</v>
       </c>
     </row>
     <row r="11">
@@ -5442,28 +5442,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>2.75774073600769</v>
+        <v>2.985702991485596</v>
       </c>
       <c r="D11" t="n">
-        <v>1.78313984400769</v>
+        <v>2.011102099485596</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>1.745952725410461</v>
+        <v>1.889833688735962</v>
       </c>
       <c r="G11" t="n">
-        <v>1.352316810410461</v>
+        <v>1.496197773735962</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7743073105812073</v>
+        <v>0.558558464050293</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6133482715812073</v>
+        <v>0.397599425050293</v>
       </c>
     </row>
     <row r="12">
@@ -5476,28 +5476,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>2.474215507507324</v>
+        <v>2.832234382629395</v>
       </c>
       <c r="D12" t="n">
-        <v>1.688409635507324</v>
+        <v>2.046428510629394</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>1.628124594688416</v>
+        <v>1.843997359275818</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9356493796884156</v>
+        <v>1.151522144275818</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7203201651573181</v>
+        <v>0.521807074546814</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5248693101573181</v>
+        <v>0.3263562195468139</v>
       </c>
     </row>
     <row r="13">
@@ -5510,28 +5510,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>2.90733814239502</v>
+        <v>3.100089073181152</v>
       </c>
       <c r="D13" t="n">
-        <v>1.872907942395019</v>
+        <v>2.065658873181152</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>1.902608036994934</v>
+        <v>2.09514331817627</v>
       </c>
       <c r="G13" t="n">
-        <v>1.113828190005066</v>
+        <v>0.9212929088237303</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7501155138015747</v>
+        <v>0.4683831632137299</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3416660548015747</v>
+        <v>0.05993370421372984</v>
       </c>
     </row>
     <row r="14">
@@ -5544,28 +5544,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>48.07374572753906</v>
+        <v>46.59523010253906</v>
       </c>
       <c r="D14" t="n">
-        <v>13.73010997246094</v>
+        <v>15.20862559746094</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>24.44048690795898</v>
+        <v>23.28647232055664</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5710107720410171</v>
+        <v>1.725025359443361</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>3.684933423995972</v>
+        <v>1.656699299812317</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04554778400402837</v>
+        <v>2.073781908187683</v>
       </c>
     </row>
     <row r="15">
@@ -5578,28 +5578,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.737678050994873</v>
+        <v>2.906314373016357</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2190245749948732</v>
+        <v>0.3876608970163575</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>1.7371666431427</v>
+        <v>1.851216912269592</v>
       </c>
       <c r="G15" t="n">
-        <v>1.0689927831427</v>
+        <v>1.183043052269592</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8942362666130066</v>
+        <v>0.6984462738037109</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3909452276130065</v>
+        <v>0.1951552348037109</v>
       </c>
     </row>
     <row r="16">
@@ -5612,28 +5612,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>2.787344694137573</v>
+        <v>3.055233478546143</v>
       </c>
       <c r="D16" t="n">
-        <v>1.781148687137573</v>
+        <v>2.049037471546143</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>1.752798914909363</v>
+        <v>1.907571911811829</v>
       </c>
       <c r="G16" t="n">
-        <v>1.288010982909363</v>
+        <v>1.442783979811828</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7137766480445862</v>
+        <v>0.500950813293457</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5276521660445862</v>
+        <v>0.3148263312934571</v>
       </c>
     </row>
     <row r="17">
@@ -5646,28 +5646,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.881857633590698</v>
+        <v>2.923670291900635</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5011507415906982</v>
+        <v>0.5429633999006347</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>1.911916613578796</v>
+        <v>2.046664237976074</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2036199785787964</v>
+        <v>0.3383676029760743</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>1.172721266746521</v>
+        <v>0.9568867683410645</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3376617427465209</v>
+        <v>0.1218272443410644</v>
       </c>
     </row>
     <row r="18">
@@ -5680,28 +5680,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530785799026489</v>
+        <v>3.60446310043335</v>
       </c>
       <c r="D18" t="n">
-        <v>1.750091019026489</v>
+        <v>1.82376832043335</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>2.077642917633057</v>
+        <v>2.099247694015503</v>
       </c>
       <c r="G18" t="n">
-        <v>1.572123009633057</v>
+        <v>1.593727786015503</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7071412205696106</v>
+        <v>0.4750446379184723</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5309449475696106</v>
+        <v>0.2988483649184723</v>
       </c>
     </row>
     <row r="19">
@@ -5714,28 +5714,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>4.021617412567139</v>
+        <v>3.729485988616943</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3097990165671387</v>
+        <v>0.0176675926169434</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>2.75681209564209</v>
+        <v>3.072922706604004</v>
       </c>
       <c r="G19" t="n">
-        <v>3.15798546035791</v>
+        <v>2.841874849395996</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>2.660654306411743</v>
+        <v>2.573738098144531</v>
       </c>
       <c r="J19" t="n">
-        <v>0.499464696588257</v>
+        <v>0.5863809048554689</v>
       </c>
     </row>
     <row r="20">
@@ -5748,28 +5748,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>3.637675762176514</v>
+        <v>3.675829410552979</v>
       </c>
       <c r="D20" t="n">
-        <v>2.535530982176514</v>
+        <v>2.573684630552979</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>2.19162130355835</v>
+        <v>2.252356290817261</v>
       </c>
       <c r="G20" t="n">
-        <v>1.39393591655835</v>
+        <v>1.454670903817261</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6754158139228821</v>
+        <v>0.3852575719356537</v>
       </c>
       <c r="J20" t="n">
-        <v>0.526320949922882</v>
+        <v>0.2361627079356537</v>
       </c>
     </row>
     <row r="21">
@@ -5782,28 +5782,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>76.53546142578125</v>
+        <v>74.14340972900391</v>
       </c>
       <c r="D21" t="n">
-        <v>4.517391444218745</v>
+        <v>6.909443140996089</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>39.03950119018555</v>
+        <v>37.45560455322266</v>
       </c>
       <c r="G21" t="n">
-        <v>3.256675220185549</v>
+        <v>1.672778583222659</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>5.778985500335693</v>
+        <v>2.408670663833618</v>
       </c>
       <c r="J21" t="n">
-        <v>1.166056953335693</v>
+        <v>2.204257883166382</v>
       </c>
     </row>
     <row r="22">
@@ -5816,28 +5816,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>2.272838354110718</v>
+        <v>2.3628830909729</v>
       </c>
       <c r="D22" t="n">
-        <v>1.803513316110718</v>
+        <v>1.8935580529729</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.6682368516922</v>
+        <v>1.875877618789673</v>
       </c>
       <c r="G22" t="n">
-        <v>1.3466202726922</v>
+        <v>1.554261039789673</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>1.572451114654541</v>
+        <v>1.451704144477844</v>
       </c>
       <c r="J22" t="n">
-        <v>1.230308684654541</v>
+        <v>1.109561714477844</v>
       </c>
     </row>
     <row r="23">
@@ -5850,28 +5850,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>158.7060546875</v>
+        <v>153.9537963867188</v>
       </c>
       <c r="D23" t="n">
-        <v>10.14273088749999</v>
+        <v>5.390472586718744</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>81.87762451171875</v>
+        <v>79.88976287841797</v>
       </c>
       <c r="G23" t="n">
-        <v>4.124995031718754</v>
+        <v>2.137133398417973</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>12.4525032043457</v>
+        <v>4.58919620513916</v>
       </c>
       <c r="J23" t="n">
-        <v>4.139697804345703</v>
+        <v>3.72360919486084</v>
       </c>
     </row>
     <row r="24">
@@ -5884,28 +5884,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.661042928695679</v>
+        <v>2.760966777801514</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5212498556956788</v>
+        <v>0.6211737048015138</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.764781713485718</v>
+        <v>1.88813054561615</v>
       </c>
       <c r="G24" t="n">
-        <v>1.129193668485718</v>
+        <v>1.25254250061615</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>1.207040190696716</v>
+        <v>1.039048433303833</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6035684336967163</v>
+        <v>0.435576676303833</v>
       </c>
     </row>
     <row r="25">
@@ -5918,28 +5918,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>16.89458465576172</v>
+        <v>15.66946792602539</v>
       </c>
       <c r="D25" t="n">
-        <v>5.22051067423828</v>
+        <v>6.445627403974608</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>8.377403259277344</v>
+        <v>7.590682506561279</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5918504692773441</v>
+        <v>0.1948702834387204</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8502839803695679</v>
+        <v>0.1652802526950836</v>
       </c>
       <c r="J25" t="n">
-        <v>0.335688640630432</v>
+        <v>1.020692368304916</v>
       </c>
     </row>
     <row r="26">
@@ -5952,28 +5952,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>8.959884643554688</v>
+        <v>8.289852142333984</v>
       </c>
       <c r="D26" t="n">
-        <v>9.682628116445311</v>
+        <v>10.35266061766601</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>4.576831817626953</v>
+        <v>4.146126270294189</v>
       </c>
       <c r="G26" t="n">
-        <v>1.328486833373047</v>
+        <v>1.759192380705811</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7209558486938477</v>
+        <v>0.3362270891666412</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5850663103061524</v>
+        <v>0.9697950698333588</v>
       </c>
     </row>
     <row r="27">
@@ -5986,28 +5986,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>3.182562112808228</v>
+        <v>3.209793090820312</v>
       </c>
       <c r="D27" t="n">
-        <v>2.070517733808227</v>
+        <v>2.097748711820312</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>2.047421216964722</v>
+        <v>2.178654909133911</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5752515639647218</v>
+        <v>0.7064852561339112</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8787896633148193</v>
+        <v>0.5825200080871582</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5678577113148193</v>
+        <v>0.2715880560871582</v>
       </c>
     </row>
     <row r="28">
@@ -6020,28 +6020,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>5.010613918304443</v>
+        <v>4.767471790313721</v>
       </c>
       <c r="D28" t="n">
-        <v>4.006391038304443</v>
+        <v>3.763248910313721</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>2.874365329742432</v>
+        <v>2.824214935302734</v>
       </c>
       <c r="G28" t="n">
-        <v>2.012820139742431</v>
+        <v>1.962669745302734</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5393688678741455</v>
+        <v>0.1464018523693085</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4530234968741455</v>
+        <v>0.06005648136930847</v>
       </c>
     </row>
     <row r="29">
@@ -6054,28 +6054,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>3.637582540512085</v>
+        <v>3.696052074432373</v>
       </c>
       <c r="D29" t="n">
-        <v>5.311497390487915</v>
+        <v>5.253027856567627</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>2.180203437805176</v>
+        <v>2.240268468856812</v>
       </c>
       <c r="G29" t="n">
-        <v>3.553835768194824</v>
+        <v>3.493770737143189</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6478962898254395</v>
+        <v>0.3644398152828217</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1992577551745606</v>
+        <v>0.4827142297171784</v>
       </c>
     </row>
     <row r="30">
@@ -6088,28 +6088,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>5.634063243865967</v>
+        <v>5.359376430511475</v>
       </c>
       <c r="D30" t="n">
-        <v>1.772092154865967</v>
+        <v>1.497405341511475</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>3.069186687469482</v>
+        <v>2.900048971176147</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9034481374694825</v>
+        <v>0.7343104211761475</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9349796175956726</v>
+        <v>0.6873917579650879</v>
       </c>
       <c r="J30" t="n">
-        <v>0.09189539540432734</v>
+        <v>0.3394832550349121</v>
       </c>
     </row>
     <row r="31">
@@ -6122,28 +6122,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>6.793090343475342</v>
+        <v>6.203695297241211</v>
       </c>
       <c r="D31" t="n">
-        <v>4.098961038475341</v>
+        <v>3.509565992241211</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>4.22835636138916</v>
+        <v>4.517917156219482</v>
       </c>
       <c r="G31" t="n">
-        <v>4.770223386610839</v>
+        <v>4.480662591780517</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>1.460177063941956</v>
+        <v>0.8515607118606567</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3847983539419555</v>
+        <v>0.2238179981393433</v>
       </c>
     </row>
     <row r="32">
@@ -6156,28 +6156,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>3.370322942733765</v>
+        <v>3.290653705596924</v>
       </c>
       <c r="D32" t="n">
-        <v>6.214581301266236</v>
+        <v>6.294250538403077</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>2.304643154144287</v>
+        <v>2.533974170684814</v>
       </c>
       <c r="G32" t="n">
-        <v>25.80098071585571</v>
+        <v>25.57164969931518</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>1.415459871292114</v>
+        <v>1.140129923820496</v>
       </c>
       <c r="J32" t="n">
-        <v>6.463354681707886</v>
+        <v>6.738684629179504</v>
       </c>
     </row>
     <row r="33">
@@ -6190,28 +6190,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>10.32976818084717</v>
+        <v>9.53678035736084</v>
       </c>
       <c r="D33" t="n">
-        <v>11.78288139915283</v>
+        <v>12.57586922263916</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>5.244025230407715</v>
+        <v>4.721968173980713</v>
       </c>
       <c r="G33" t="n">
-        <v>1.858318290592285</v>
+        <v>2.380375347019287</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8046647906303406</v>
+        <v>0.368080198764801</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8203498203696595</v>
+        <v>1.256934412235199</v>
       </c>
     </row>
   </sheetData>
@@ -6295,28 +6295,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>1.643923282623291</v>
+        <v>1.71685516834259</v>
       </c>
       <c r="D2" t="n">
-        <v>0.483752996623291</v>
+        <v>0.5566848823425903</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>1.405514359474182</v>
+        <v>1.080246329307556</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9836188104741821</v>
+        <v>0.6583507803075561</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1627254337072372</v>
+        <v>0.3020269274711609</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004079233292762746</v>
+        <v>0.1352222604711609</v>
       </c>
     </row>
     <row r="3">
@@ -6329,28 +6329,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>11.58598709106445</v>
+        <v>11.95135974884033</v>
       </c>
       <c r="D3" t="n">
-        <v>5.649500250064453</v>
+        <v>6.014872907840332</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>2.199965715408325</v>
+        <v>2.15087103843689</v>
       </c>
       <c r="G3" t="n">
-        <v>1.524061141408325</v>
+        <v>1.47496646443689</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.348795056343079</v>
+        <v>2.052312850952148</v>
       </c>
       <c r="J3" t="n">
-        <v>1.348795056343079</v>
+        <v>2.052312850952148</v>
       </c>
     </row>
     <row r="4">
@@ -6363,28 +6363,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>1.546847939491272</v>
+        <v>1.590012788772583</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9994206525087281</v>
+        <v>0.9562558032274171</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9783089160919189</v>
+        <v>0.6851937174797058</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4878347960919189</v>
+        <v>0.1947195974797058</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5291029810905457</v>
+        <v>0.5087978839874268</v>
       </c>
       <c r="J4" t="n">
-        <v>0.008043945090545623</v>
+        <v>0.01226115201257327</v>
       </c>
     </row>
     <row r="5">
@@ -6397,28 +6397,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>3.979392290115356</v>
+        <v>3.480880975723267</v>
       </c>
       <c r="D5" t="n">
-        <v>6.684357819884644</v>
+        <v>7.182869134276734</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.944733142852783</v>
+        <v>2.3523850440979</v>
       </c>
       <c r="G5" t="n">
-        <v>2.423017772147217</v>
+        <v>3.0153658709021</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1543428748846054</v>
+        <v>0.2386967390775681</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7456469011153946</v>
+        <v>0.6612930369224319</v>
       </c>
     </row>
     <row r="6">
@@ -6431,28 +6431,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>4.23035717010498</v>
+        <v>3.64106011390686</v>
       </c>
       <c r="D6" t="n">
-        <v>11.34918275989502</v>
+        <v>11.93847981609314</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>2.891024827957153</v>
+        <v>2.30732798576355</v>
       </c>
       <c r="G6" t="n">
-        <v>4.245630581042847</v>
+        <v>4.82932742323645</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01287080347537994</v>
+        <v>0.1031937748193741</v>
       </c>
       <c r="J6" t="n">
-        <v>0.93670046947538</v>
+        <v>0.820635891180626</v>
       </c>
     </row>
     <row r="7">
@@ -6465,28 +6465,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>1.932649731636047</v>
+        <v>2.013847351074219</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9132594436360473</v>
+        <v>0.9944570630742187</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>3.303617000579834</v>
+        <v>2.919358491897583</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1777112804201662</v>
+        <v>0.5619697891024171</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5075545310974121</v>
+        <v>0.5008716583251953</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1096385679025879</v>
+        <v>0.1163214406748047</v>
       </c>
     </row>
     <row r="8">
@@ -6499,28 +6499,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>15.05831146240234</v>
+        <v>16.35537910461426</v>
       </c>
       <c r="D8" t="n">
-        <v>3.528976557597655</v>
+        <v>2.231908915385741</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>6.518694877624512</v>
+        <v>6.601923942565918</v>
       </c>
       <c r="G8" t="n">
-        <v>1.205100478375488</v>
+        <v>1.121871413434082</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.291964054107666</v>
+        <v>0.7546231150627136</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8473740088923341</v>
+        <v>0.3847149479372864</v>
       </c>
     </row>
     <row r="9">
@@ -6533,28 +6533,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>3.898766756057739</v>
+        <v>4.085438251495361</v>
       </c>
       <c r="D9" t="n">
-        <v>2.25260787594226</v>
+        <v>2.065936380504638</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.754676461219788</v>
+        <v>0.7122712731361389</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5527727402197875</v>
+        <v>0.4896324478638612</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>2.812133312225342</v>
+        <v>2.848731994628906</v>
       </c>
       <c r="J9" t="n">
-        <v>1.324860115225342</v>
+        <v>1.361458797628906</v>
       </c>
     </row>
     <row r="10">
@@ -6567,28 +6567,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>9.02044677734375</v>
+        <v>10.40627384185791</v>
       </c>
       <c r="D10" t="n">
-        <v>3.346050182656249</v>
+        <v>1.960223118142089</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>2.843713521957397</v>
+        <v>1.978761553764343</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3191730139573976</v>
+        <v>0.5457789542356566</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>3.036555767059326</v>
+        <v>3.814637660980225</v>
       </c>
       <c r="J10" t="n">
-        <v>1.080075415059326</v>
+        <v>1.858157308980225</v>
       </c>
     </row>
     <row r="11">
@@ -6601,28 +6601,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>1.645213484764099</v>
+        <v>1.731987953186035</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6706125927640991</v>
+        <v>0.7573870611860352</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>1.462982416152954</v>
+        <v>1.130110025405884</v>
       </c>
       <c r="G11" t="n">
-        <v>1.069346501152954</v>
+        <v>0.7364741104058838</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2543874979019165</v>
+        <v>0.3677033185958862</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09342845890191651</v>
+        <v>0.2067442795958862</v>
       </c>
     </row>
     <row r="12">
@@ -6635,28 +6635,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>1.207472920417786</v>
+        <v>1.444767117500305</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4216670484177857</v>
+        <v>0.6589612455003052</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>1.50673520565033</v>
+        <v>1.21329391002655</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8142599906503296</v>
+        <v>0.5208186950265503</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1070841997861862</v>
+        <v>0.3128553628921509</v>
       </c>
       <c r="J12" t="n">
-        <v>0.08836665521381379</v>
+        <v>0.1174045078921509</v>
       </c>
     </row>
     <row r="13">
@@ -6669,28 +6669,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>1.942900776863098</v>
+        <v>2.025751352310181</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9084705768630981</v>
+        <v>0.9913211523101806</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>2.938977241516113</v>
+        <v>2.585455894470215</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07745898548388652</v>
+        <v>0.430980332529785</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2233205288648605</v>
+        <v>0.3083294034004211</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1851289301351395</v>
+        <v>0.1001200555995789</v>
       </c>
     </row>
     <row r="14">
@@ -6703,28 +6703,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>51.03729629516602</v>
+        <v>57.56928253173828</v>
       </c>
       <c r="D14" t="n">
-        <v>10.76655940483398</v>
+        <v>4.234573168261718</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>19.89897727966309</v>
+        <v>21.89504623413086</v>
       </c>
       <c r="G14" t="n">
-        <v>5.112520400336916</v>
+        <v>3.116451445869142</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>1.898283362388611</v>
+        <v>4.003339767456055</v>
       </c>
       <c r="J14" t="n">
-        <v>1.832197845611389</v>
+        <v>0.2728585594560546</v>
       </c>
     </row>
     <row r="15">
@@ -6737,28 +6737,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>1.651172995567322</v>
+        <v>1.690682172775269</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8674804804326781</v>
+        <v>0.8279713032247313</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>1.173227071762085</v>
+        <v>0.8464617729187012</v>
       </c>
       <c r="G15" t="n">
-        <v>0.505053211762085</v>
+        <v>0.1782879129187012</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4959650635719299</v>
+        <v>0.4966763854026794</v>
       </c>
       <c r="J15" t="n">
-        <v>0.007325975428070119</v>
+        <v>0.006614653597320608</v>
       </c>
     </row>
     <row r="16">
@@ -6771,28 +6771,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>1.689183235168457</v>
+        <v>1.754834055900574</v>
       </c>
       <c r="D16" t="n">
-        <v>0.682987228168457</v>
+        <v>0.7486380489005737</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>1.505406260490417</v>
+        <v>1.175041198730469</v>
       </c>
       <c r="G16" t="n">
-        <v>1.040618328490417</v>
+        <v>0.7102532667304687</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1574511975049973</v>
+        <v>0.2999914884567261</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02867328449500275</v>
+        <v>0.1138670064567261</v>
       </c>
     </row>
     <row r="17">
@@ -6805,28 +6805,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>1.876558899879456</v>
+        <v>1.90115213394165</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5041479921205445</v>
+        <v>0.4795547580583497</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>2.352059364318848</v>
+        <v>1.771840333938599</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6437627293188477</v>
+        <v>0.06354369893859868</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>1.170823216438293</v>
+        <v>0.9718776345252991</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3357636924382934</v>
+        <v>0.136818110525299</v>
       </c>
     </row>
     <row r="18">
@@ -6839,28 +6839,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>2.90959620475769</v>
+        <v>2.591815233230591</v>
       </c>
       <c r="D18" t="n">
-        <v>1.128901424757691</v>
+        <v>0.8111204532305909</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>1.705207943916321</v>
+        <v>1.207934737205505</v>
       </c>
       <c r="G18" t="n">
-        <v>1.199688035916321</v>
+        <v>0.7024148292055054</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2978107333183289</v>
+        <v>0.3468466997146606</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1216144603183289</v>
+        <v>0.1706504267146607</v>
       </c>
     </row>
     <row r="19">
@@ -6873,28 +6873,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>2.481577396392822</v>
+        <v>3.006704330444336</v>
       </c>
       <c r="D19" t="n">
-        <v>1.230240999607178</v>
+        <v>0.705114065555664</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>5.740447521209717</v>
+        <v>5.665797233581543</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1743500347902831</v>
+        <v>0.2490003224184569</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>4.762238502502441</v>
+        <v>5.656315803527832</v>
       </c>
       <c r="J19" t="n">
-        <v>1.602119499502441</v>
+        <v>2.496196800527832</v>
       </c>
     </row>
     <row r="20">
@@ -6907,28 +6907,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>3.156768798828125</v>
+        <v>2.811300992965698</v>
       </c>
       <c r="D20" t="n">
-        <v>2.054624018828125</v>
+        <v>1.709156212965698</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>2.858088731765747</v>
+        <v>2.353917360305786</v>
       </c>
       <c r="G20" t="n">
-        <v>2.060403344765747</v>
+        <v>1.556231973305786</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1458070129156113</v>
+        <v>0.2360158115625381</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003287851084388727</v>
+        <v>0.08692094756253815</v>
       </c>
     </row>
     <row r="21">
@@ -6941,28 +6941,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>75.79782867431641</v>
+        <v>86.48673248291016</v>
       </c>
       <c r="D21" t="n">
-        <v>5.255024195683589</v>
+        <v>5.433879612910161</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>33.53458404541016</v>
+        <v>35.82675170898438</v>
       </c>
       <c r="G21" t="n">
-        <v>2.248241924589841</v>
+        <v>0.04392573898437746</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>2.639647722244263</v>
+        <v>5.120907783508301</v>
       </c>
       <c r="J21" t="n">
-        <v>1.973280824755737</v>
+        <v>0.5079792365083007</v>
       </c>
     </row>
     <row r="22">
@@ -6975,28 +6975,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9757897257804871</v>
+        <v>1.126173734664917</v>
       </c>
       <c r="D22" t="n">
-        <v>0.506464687780487</v>
+        <v>0.656848696664917</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.814268231391907</v>
+        <v>1.304885149002075</v>
       </c>
       <c r="G22" t="n">
-        <v>1.492651652391907</v>
+        <v>0.9832685700020751</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>1.941669225692749</v>
+        <v>1.589310765266418</v>
       </c>
       <c r="J22" t="n">
-        <v>1.599526795692749</v>
+        <v>1.247168335266418</v>
       </c>
     </row>
     <row r="23">
@@ -7009,28 +7009,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>142.3776550292969</v>
+        <v>165.0450744628906</v>
       </c>
       <c r="D23" t="n">
-        <v>6.185668770703131</v>
+        <v>16.48175066289062</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>83.06424713134766</v>
+        <v>84.67376708984375</v>
       </c>
       <c r="G23" t="n">
-        <v>5.31161765134766</v>
+        <v>6.921137609843754</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>5.823230266571045</v>
+        <v>6.685192584991455</v>
       </c>
       <c r="J23" t="n">
-        <v>2.489575133428955</v>
+        <v>1.627612815008545</v>
       </c>
     </row>
     <row r="24">
@@ -7043,28 +7043,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>1.641902804374695</v>
+        <v>1.645090818405151</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4978902686253051</v>
+        <v>0.4947022545948485</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.380645036697388</v>
+        <v>0.8718785643577576</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7450569916973877</v>
+        <v>0.2362905193577576</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>1.160987615585327</v>
+        <v>0.9275170564651489</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5575158585853272</v>
+        <v>0.3240452994651489</v>
       </c>
     </row>
     <row r="25">
@@ -7077,28 +7077,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>23.90386962890625</v>
+        <v>26.94645690917969</v>
       </c>
       <c r="D25" t="n">
-        <v>1.788774298906251</v>
+        <v>4.831361579179688</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>8.046791076660156</v>
+        <v>9.140545845031738</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2612382866601566</v>
+        <v>1.354993055031739</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5409074425697327</v>
+        <v>1.702297210693359</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6450651784302672</v>
+        <v>0.5163245896933595</v>
       </c>
     </row>
     <row r="26">
@@ -7111,28 +7111,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>13.64951705932617</v>
+        <v>14.53476810455322</v>
       </c>
       <c r="D26" t="n">
-        <v>4.992995700673827</v>
+        <v>4.107744655446776</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>4.835035800933838</v>
+        <v>4.985452651977539</v>
       </c>
       <c r="G26" t="n">
-        <v>1.070282850066162</v>
+        <v>0.9198659990224609</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5928405523300171</v>
+        <v>1.08689296245575</v>
       </c>
       <c r="J26" t="n">
-        <v>0.713181606669983</v>
+        <v>0.2191291965442506</v>
       </c>
     </row>
     <row r="27">
@@ -7145,28 +7145,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>2.359725952148438</v>
+        <v>2.293047904968262</v>
       </c>
       <c r="D27" t="n">
-        <v>1.247681573148437</v>
+        <v>1.181003525968262</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>3.200043916702271</v>
+        <v>2.715330362319946</v>
       </c>
       <c r="G27" t="n">
-        <v>1.727874263702271</v>
+        <v>1.243160709319946</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5614113807678223</v>
+        <v>0.4963430762290955</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2504794287678223</v>
+        <v>0.1854111242290954</v>
       </c>
     </row>
     <row r="28">
@@ -7179,28 +7179,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>5.655130863189697</v>
+        <v>5.167090892791748</v>
       </c>
       <c r="D28" t="n">
-        <v>4.650907983189697</v>
+        <v>4.162868012791748</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>4.970434665679932</v>
+        <v>4.611931800842285</v>
       </c>
       <c r="G28" t="n">
-        <v>4.108889475679931</v>
+        <v>3.750386610842285</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.001089528203010559</v>
+        <v>-0.0267719179391861</v>
       </c>
       <c r="J28" t="n">
-        <v>0.08525584279698945</v>
+        <v>0.1131172889391861</v>
       </c>
     </row>
     <row r="29">
@@ -7213,28 +7213,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>3.148920059204102</v>
+        <v>2.794551134109497</v>
       </c>
       <c r="D29" t="n">
-        <v>5.800159871795898</v>
+        <v>6.154528796890503</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>2.749097108840942</v>
+        <v>2.249882221221924</v>
       </c>
       <c r="G29" t="n">
-        <v>2.984942097159058</v>
+        <v>3.484156984778076</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.104235514998436</v>
+        <v>0.2085471153259277</v>
       </c>
       <c r="J29" t="n">
-        <v>0.742918530001564</v>
+        <v>0.6386069296740723</v>
       </c>
     </row>
     <row r="30">
@@ -7247,28 +7247,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>6.739343166351318</v>
+        <v>6.04601526260376</v>
       </c>
       <c r="D30" t="n">
-        <v>2.877372077351319</v>
+        <v>2.18404417360376</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>2.75163459777832</v>
+        <v>2.254735946655273</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5858960477783204</v>
+        <v>0.08899739665527351</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9141685366630554</v>
+        <v>0.9835784435272217</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1127064763369445</v>
+        <v>0.04329656947277827</v>
       </c>
     </row>
     <row r="31">
@@ -7281,28 +7281,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>6.562483310699463</v>
+        <v>7.042696475982666</v>
       </c>
       <c r="D31" t="n">
-        <v>3.868354005699463</v>
+        <v>4.348567170982665</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>12.75977039337158</v>
+        <v>14.48710823059082</v>
       </c>
       <c r="G31" t="n">
-        <v>3.761190645371583</v>
+        <v>5.488528482590821</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>2.536073684692383</v>
+        <v>2.68515157699585</v>
       </c>
       <c r="J31" t="n">
-        <v>1.460694974692383</v>
+        <v>1.60977286699585</v>
       </c>
     </row>
     <row r="32">
@@ -7315,28 +7315,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.398838520050049</v>
+        <v>2.217966794967651</v>
       </c>
       <c r="D32" t="n">
-        <v>7.186065723949952</v>
+        <v>7.366937449032349</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>5.058980941772461</v>
+        <v>4.94398307800293</v>
       </c>
       <c r="G32" t="n">
-        <v>23.04664292822754</v>
+        <v>23.16164079199707</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>1.910897493362427</v>
+        <v>1.777146816253662</v>
       </c>
       <c r="J32" t="n">
-        <v>5.967917059637573</v>
+        <v>6.101667736746338</v>
       </c>
     </row>
     <row r="33">
@@ -7349,28 +7349,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>16.35378646850586</v>
+        <v>18.12860107421875</v>
       </c>
       <c r="D33" t="n">
-        <v>5.75886311149414</v>
+        <v>3.984048505781249</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>5.643258571624756</v>
+        <v>5.975821495056152</v>
       </c>
       <c r="G33" t="n">
-        <v>1.459084949375244</v>
+        <v>1.126522025943848</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7622479200363159</v>
+        <v>1.521459579467773</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8627666909636842</v>
+        <v>0.1035550315322267</v>
       </c>
     </row>
   </sheetData>

--- a/IndexResults.xlsx
+++ b/IndexResults.xlsx
@@ -5136,28 +5136,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>3.035971641540527</v>
+        <v>2.770697832107544</v>
       </c>
       <c r="D2" t="n">
-        <v>1.875801355540527</v>
+        <v>1.610527546107544</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>1.889573097229004</v>
+        <v>1.634085655212402</v>
       </c>
       <c r="G2" t="n">
-        <v>1.467677548229004</v>
+        <v>1.212190106212402</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5093469619750977</v>
+        <v>0.6188272833824158</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3425422949750977</v>
+        <v>0.4520226163824158</v>
       </c>
     </row>
     <row r="3">
@@ -5170,28 +5170,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>7.764360427856445</v>
+        <v>7.807881832122803</v>
       </c>
       <c r="D3" t="n">
-        <v>1.827873586856446</v>
+        <v>1.871394991122803</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>3.634698629379272</v>
+        <v>4.036614418029785</v>
       </c>
       <c r="G3" t="n">
-        <v>2.958794055379272</v>
+        <v>3.360709844029785</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8147715330123901</v>
+        <v>0.7153096795082092</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8147715330123901</v>
+        <v>0.7153096795082092</v>
       </c>
     </row>
     <row r="4">
@@ -5204,28 +5204,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.843204736709595</v>
+        <v>2.537908315658569</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2969361447095946</v>
+        <v>0.008360276341430772</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>1.809594750404358</v>
+        <v>1.538327932357788</v>
       </c>
       <c r="G4" t="n">
-        <v>1.319120630404358</v>
+        <v>1.047853812357788</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7301504611968994</v>
+        <v>0.8021338582038879</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2090914251968994</v>
+        <v>0.2810748222038879</v>
       </c>
     </row>
     <row r="5">
@@ -5238,28 +5238,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>4.065407276153564</v>
+        <v>3.977242469787598</v>
       </c>
       <c r="D5" t="n">
-        <v>6.598342833846436</v>
+        <v>6.686507640212403</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.381070375442505</v>
+        <v>2.273437738418579</v>
       </c>
       <c r="G5" t="n">
-        <v>2.986680539557495</v>
+        <v>3.094313176581421</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.340738832950592</v>
+        <v>0.4547584652900696</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5592509430494079</v>
+        <v>0.4452313107099304</v>
       </c>
     </row>
     <row r="6">
@@ -5272,28 +5272,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>4.231990814208984</v>
+        <v>4.144336700439453</v>
       </c>
       <c r="D6" t="n">
-        <v>11.34754911579101</v>
+        <v>11.43520322956055</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>2.406908273696899</v>
+        <v>2.313212156295776</v>
       </c>
       <c r="G6" t="n">
-        <v>4.729747135303101</v>
+        <v>4.823443252704224</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2422125488519669</v>
+        <v>0.3459333777427673</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6816171171480332</v>
+        <v>0.5778962882572327</v>
       </c>
     </row>
     <row r="7">
@@ -5306,28 +5306,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>3.013283014297485</v>
+        <v>2.870755195617676</v>
       </c>
       <c r="D7" t="n">
-        <v>1.993892726297485</v>
+        <v>1.851364907617676</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>2.123495817184448</v>
+        <v>1.883112549781799</v>
       </c>
       <c r="G7" t="n">
-        <v>1.357832463815552</v>
+        <v>1.598215731218201</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5666282176971436</v>
+        <v>0.7486581206321716</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05056488130285641</v>
+        <v>0.1314650216321717</v>
       </c>
     </row>
     <row r="8">
@@ -5340,28 +5340,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>8.926012992858887</v>
+        <v>9.289728164672852</v>
       </c>
       <c r="D8" t="n">
-        <v>9.661275027141112</v>
+        <v>9.297559855327147</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>4.55111026763916</v>
+        <v>5.061763286590576</v>
       </c>
       <c r="G8" t="n">
-        <v>3.17268508836084</v>
+        <v>2.662032069409424</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08946964144706726</v>
+        <v>0.2974969148635864</v>
       </c>
       <c r="J8" t="n">
-        <v>1.049868421552933</v>
+        <v>0.8418411481364136</v>
       </c>
     </row>
     <row r="9">
@@ -5374,28 +5374,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.234931945800781</v>
+        <v>4.11467981338501</v>
       </c>
       <c r="D9" t="n">
-        <v>1.916442686199218</v>
+        <v>2.03669481861499</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>2.582365274429321</v>
+        <v>2.60042929649353</v>
       </c>
       <c r="G9" t="n">
-        <v>1.380461553429321</v>
+        <v>1.39852557549353</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.758330464363098</v>
+        <v>1.732366442680359</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2710572673630982</v>
+        <v>0.245093245680359</v>
       </c>
     </row>
     <row r="10">
@@ -5408,28 +5408,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>6.707079887390137</v>
+        <v>6.840263843536377</v>
       </c>
       <c r="D10" t="n">
-        <v>5.659417072609862</v>
+        <v>5.526233116463622</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>3.584478616714478</v>
+        <v>3.933088064193726</v>
       </c>
       <c r="G10" t="n">
-        <v>1.059938108714478</v>
+        <v>1.408547556193726</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>1.734049201011658</v>
+        <v>1.718608379364014</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2224311509883423</v>
+        <v>0.2378719726359864</v>
       </c>
     </row>
     <row r="11">
@@ -5442,28 +5442,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>2.985702991485596</v>
+        <v>2.723424196243286</v>
       </c>
       <c r="D11" t="n">
-        <v>2.011102099485596</v>
+        <v>1.748823304243286</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>1.889833688735962</v>
+        <v>1.633400797843933</v>
       </c>
       <c r="G11" t="n">
-        <v>1.496197773735962</v>
+        <v>1.239764882843933</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.558558464050293</v>
+        <v>0.6684341430664062</v>
       </c>
       <c r="J11" t="n">
-        <v>0.397599425050293</v>
+        <v>0.5074751040664063</v>
       </c>
     </row>
     <row r="12">
@@ -5476,28 +5476,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>2.832234382629395</v>
+        <v>2.561013698577881</v>
       </c>
       <c r="D12" t="n">
-        <v>2.046428510629394</v>
+        <v>1.775207826577881</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>1.843997359275818</v>
+        <v>1.559224247932434</v>
       </c>
       <c r="G12" t="n">
-        <v>1.151522144275818</v>
+        <v>0.8667490329324341</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.521807074546814</v>
+        <v>0.6532016396522522</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3263562195468139</v>
+        <v>0.4577507846522522</v>
       </c>
     </row>
     <row r="13">
@@ -5510,28 +5510,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>3.100089073181152</v>
+        <v>2.931074142456055</v>
       </c>
       <c r="D13" t="n">
-        <v>2.065658873181152</v>
+        <v>1.896643942456055</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>2.09514331817627</v>
+        <v>1.852902054786682</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9212929088237303</v>
+        <v>1.163534172213318</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4683831632137299</v>
+        <v>0.6397285461425781</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05993370421372984</v>
+        <v>0.2312790871425781</v>
       </c>
     </row>
     <row r="14">
@@ -5544,28 +5544,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>46.59523010253906</v>
+        <v>46.19211196899414</v>
       </c>
       <c r="D14" t="n">
-        <v>15.20862559746094</v>
+        <v>15.61174373100586</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>23.28647232055664</v>
+        <v>25.81099128723145</v>
       </c>
       <c r="G14" t="n">
-        <v>1.725025359443361</v>
+        <v>0.7994936072314438</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>1.656699299812317</v>
+        <v>3.688429832458496</v>
       </c>
       <c r="J14" t="n">
-        <v>2.073781908187683</v>
+        <v>0.04205137554150395</v>
       </c>
     </row>
     <row r="15">
@@ -5578,28 +5578,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.906314373016357</v>
+        <v>2.619437217712402</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3876608970163575</v>
+        <v>0.1007837417124025</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>1.851216912269592</v>
+        <v>1.587683081626892</v>
       </c>
       <c r="G15" t="n">
-        <v>1.183043052269592</v>
+        <v>0.9195092216268921</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6984462738037109</v>
+        <v>0.7783800959587097</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1951552348037109</v>
+        <v>0.2750890569587097</v>
       </c>
     </row>
     <row r="16">
@@ -5612,28 +5612,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>3.055233478546143</v>
+        <v>2.797711849212646</v>
       </c>
       <c r="D16" t="n">
-        <v>2.049037471546143</v>
+        <v>1.791515842212646</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>1.907571911811829</v>
+        <v>1.654653429985046</v>
       </c>
       <c r="G16" t="n">
-        <v>1.442783979811828</v>
+        <v>1.189865497985046</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.500950813293457</v>
+        <v>0.6139466166496277</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3148263312934571</v>
+        <v>0.4278221346496277</v>
       </c>
     </row>
     <row r="17">
@@ -5646,28 +5646,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.923670291900635</v>
+        <v>2.726659297943115</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5429633999006347</v>
+        <v>0.3459524059431152</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>2.046664237976074</v>
+        <v>1.827372193336487</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3383676029760743</v>
+        <v>0.1190755583364869</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9568867683410645</v>
+        <v>1.064384579658508</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1218272443410644</v>
+        <v>0.2293250556585082</v>
       </c>
     </row>
     <row r="18">
@@ -5680,28 +5680,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>3.60446310043335</v>
+        <v>3.397495746612549</v>
       </c>
       <c r="D18" t="n">
-        <v>1.82376832043335</v>
+        <v>1.616800966612549</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>2.099247694015503</v>
+        <v>1.921924114227295</v>
       </c>
       <c r="G18" t="n">
-        <v>1.593727786015503</v>
+        <v>1.416404206227295</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4750446379184723</v>
+        <v>0.5488576889038086</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2988483649184723</v>
+        <v>0.3726614159038086</v>
       </c>
     </row>
     <row r="19">
@@ -5714,28 +5714,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>3.729485988616943</v>
+        <v>3.893709182739258</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0176675926169434</v>
+        <v>0.1818907867392578</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>3.072922706604004</v>
+        <v>3.158528566360474</v>
       </c>
       <c r="G19" t="n">
-        <v>2.841874849395996</v>
+        <v>2.756268989639526</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>2.573738098144531</v>
+        <v>2.751118898391724</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5863809048554689</v>
+        <v>0.4090001046082765</v>
       </c>
     </row>
     <row r="20">
@@ -5748,28 +5748,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>3.675829410552979</v>
+        <v>3.556252479553223</v>
       </c>
       <c r="D20" t="n">
-        <v>2.573684630552979</v>
+        <v>2.454107699553223</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>2.252356290817261</v>
+        <v>2.093706130981445</v>
       </c>
       <c r="G20" t="n">
-        <v>1.454670903817261</v>
+        <v>1.296020743981445</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3852575719356537</v>
+        <v>0.5183082222938538</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2361627079356537</v>
+        <v>0.3692133582938538</v>
       </c>
     </row>
     <row r="21">
@@ -5782,28 +5782,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>74.14340972900391</v>
+        <v>73.70899200439453</v>
       </c>
       <c r="D21" t="n">
-        <v>6.909443140996089</v>
+        <v>7.343860865605464</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>37.45560455322266</v>
+        <v>41.37599563598633</v>
       </c>
       <c r="G21" t="n">
-        <v>1.672778583222659</v>
+        <v>5.593169665986331</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>2.408670663833618</v>
+        <v>6.02285099029541</v>
       </c>
       <c r="J21" t="n">
-        <v>2.204257883166382</v>
+        <v>1.40992244329541</v>
       </c>
     </row>
     <row r="22">
@@ -5816,28 +5816,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>2.3628830909729</v>
+        <v>2.087308645248413</v>
       </c>
       <c r="D22" t="n">
-        <v>1.8935580529729</v>
+        <v>1.617983607248413</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.875877618789673</v>
+        <v>1.627632975578308</v>
       </c>
       <c r="G22" t="n">
-        <v>1.554261039789673</v>
+        <v>1.306016396578308</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>1.451704144477844</v>
+        <v>1.526596665382385</v>
       </c>
       <c r="J22" t="n">
-        <v>1.109561714477844</v>
+        <v>1.184454235382385</v>
       </c>
     </row>
     <row r="23">
@@ -5850,28 +5850,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>153.9537963867188</v>
+        <v>154.4186248779297</v>
       </c>
       <c r="D23" t="n">
-        <v>5.390472586718744</v>
+        <v>5.855301077929681</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>79.88976287841797</v>
+        <v>87.72187042236328</v>
       </c>
       <c r="G23" t="n">
-        <v>2.137133398417973</v>
+        <v>9.969240942363285</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>4.58919620513916</v>
+        <v>13.49117374420166</v>
       </c>
       <c r="J23" t="n">
-        <v>3.72360919486084</v>
+        <v>5.17836834420166</v>
       </c>
     </row>
     <row r="24">
@@ -5884,28 +5884,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.760966777801514</v>
+        <v>2.487301111221313</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6211737048015138</v>
+        <v>0.3475080382213136</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.88813054561615</v>
+        <v>1.647400379180908</v>
       </c>
       <c r="G24" t="n">
-        <v>1.25254250061615</v>
+        <v>1.011812334180908</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>1.039048433303833</v>
+        <v>1.10819935798645</v>
       </c>
       <c r="J24" t="n">
-        <v>0.435576676303833</v>
+        <v>0.5047276009864502</v>
       </c>
     </row>
     <row r="25">
@@ -5918,28 +5918,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>15.66946792602539</v>
+        <v>15.55559921264648</v>
       </c>
       <c r="D25" t="n">
-        <v>6.445627403974608</v>
+        <v>6.559496117353515</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>7.590682506561279</v>
+        <v>8.477485656738281</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1948702834387204</v>
+        <v>0.6919328667382816</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1652802526950836</v>
+        <v>0.6906794905662537</v>
       </c>
       <c r="J25" t="n">
-        <v>1.020692368304916</v>
+        <v>0.4952931304337462</v>
       </c>
     </row>
     <row r="26">
@@ -5952,28 +5952,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>8.289852142333984</v>
+        <v>8.574667930603027</v>
       </c>
       <c r="D26" t="n">
-        <v>10.35266061766601</v>
+        <v>10.06784482939697</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>4.146126270294189</v>
+        <v>4.5907883644104</v>
       </c>
       <c r="G26" t="n">
-        <v>1.759192380705811</v>
+        <v>1.3145302865896</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3362270891666412</v>
+        <v>0.4287429451942444</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9697950698333588</v>
+        <v>0.8772792138057557</v>
       </c>
     </row>
     <row r="27">
@@ -5986,28 +5986,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>3.209793090820312</v>
+        <v>3.084545612335205</v>
       </c>
       <c r="D27" t="n">
-        <v>2.097748711820312</v>
+        <v>1.972501233335205</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>2.178654909133911</v>
+        <v>1.970826029777527</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7064852561339112</v>
+        <v>0.4986563767775269</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5825200080871582</v>
+        <v>0.7447643876075745</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2715880560871582</v>
+        <v>0.4338324356075745</v>
       </c>
     </row>
     <row r="28">
@@ -6020,28 +6020,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>4.767471790313721</v>
+        <v>4.857752323150635</v>
       </c>
       <c r="D28" t="n">
-        <v>3.763248910313721</v>
+        <v>3.853529443150635</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>2.824214935302734</v>
+        <v>2.81243371963501</v>
       </c>
       <c r="G28" t="n">
-        <v>1.962669745302734</v>
+        <v>1.95088852963501</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1464018523693085</v>
+        <v>0.3160014748573303</v>
       </c>
       <c r="J28" t="n">
-        <v>0.06005648136930847</v>
+        <v>0.2296561038573303</v>
       </c>
     </row>
     <row r="29">
@@ -6054,28 +6054,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>3.696052074432373</v>
+        <v>3.570563793182373</v>
       </c>
       <c r="D29" t="n">
-        <v>5.253027856567627</v>
+        <v>5.378516137817627</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>2.240268468856812</v>
+        <v>2.082376480102539</v>
       </c>
       <c r="G29" t="n">
-        <v>3.493770737143189</v>
+        <v>3.651662725897461</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3644398152828217</v>
+        <v>0.49187171459198</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4827142297171784</v>
+        <v>0.35528233040802</v>
       </c>
     </row>
     <row r="30">
@@ -6088,28 +6088,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>5.359376430511475</v>
+        <v>5.327510356903076</v>
       </c>
       <c r="D30" t="n">
-        <v>1.497405341511475</v>
+        <v>1.465539267903076</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>2.900048971176147</v>
+        <v>2.967047452926636</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7343104211761475</v>
+        <v>0.8013089029266358</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6873917579650879</v>
+        <v>0.7067816257476807</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3394832550349121</v>
+        <v>0.3200933872523193</v>
       </c>
     </row>
     <row r="31">
@@ -6122,28 +6122,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>6.203695297241211</v>
+        <v>6.865587711334229</v>
       </c>
       <c r="D31" t="n">
-        <v>3.509565992241211</v>
+        <v>4.171458406334228</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>4.517917156219482</v>
+        <v>4.770915508270264</v>
       </c>
       <c r="G31" t="n">
-        <v>4.480662591780517</v>
+        <v>4.227664239729735</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8515607118606567</v>
+        <v>1.347963571548462</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2238179981393433</v>
+        <v>0.2725848615484618</v>
       </c>
     </row>
     <row r="32">
@@ -6156,28 +6156,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>3.290653705596924</v>
+        <v>3.23934531211853</v>
       </c>
       <c r="D32" t="n">
-        <v>6.294250538403077</v>
+        <v>6.34555893188147</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>2.533974170684814</v>
+        <v>2.389941692352295</v>
       </c>
       <c r="G32" t="n">
-        <v>25.57164969931518</v>
+        <v>25.7156821776477</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>1.140129923820496</v>
+        <v>1.333219647407532</v>
       </c>
       <c r="J32" t="n">
-        <v>6.738684629179504</v>
+        <v>6.545594905592468</v>
       </c>
     </row>
     <row r="33">
@@ -6190,28 +6190,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>9.53678035736084</v>
+        <v>9.845495223999023</v>
       </c>
       <c r="D33" t="n">
-        <v>12.57586922263916</v>
+        <v>12.26715435600098</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>4.721968173980713</v>
+        <v>5.344236850738525</v>
       </c>
       <c r="G33" t="n">
-        <v>2.380375347019287</v>
+        <v>1.758106670261474</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>0.368080198764801</v>
+        <v>0.5050948858261108</v>
       </c>
       <c r="J33" t="n">
-        <v>1.256934412235199</v>
+        <v>1.119919725173889</v>
       </c>
     </row>
   </sheetData>
@@ -6295,28 +6295,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>1.71685516834259</v>
+        <v>2.058802366256714</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5566848823425903</v>
+        <v>0.8986320802567138</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>1.080246329307556</v>
+        <v>1.487817764282227</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6583507803075561</v>
+        <v>1.065922215282227</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3020269274711609</v>
+        <v>0.3832489252090454</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1352222604711609</v>
+        <v>0.2164442582090454</v>
       </c>
     </row>
     <row r="3">
@@ -6329,28 +6329,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>11.95135974884033</v>
+        <v>11.90138721466064</v>
       </c>
       <c r="D3" t="n">
-        <v>6.014872907840332</v>
+        <v>5.964900373660645</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15087103843689</v>
+        <v>1.86379861831665</v>
       </c>
       <c r="G3" t="n">
-        <v>1.47496646443689</v>
+        <v>1.18789404431665</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.052312850952148</v>
+        <v>1.662627339363098</v>
       </c>
       <c r="J3" t="n">
-        <v>2.052312850952148</v>
+        <v>1.662627339363098</v>
       </c>
     </row>
     <row r="4">
@@ -6363,28 +6363,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>1.590012788772583</v>
+        <v>2.054032564163208</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9562558032274171</v>
+        <v>0.4922360278367921</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6851937174797058</v>
+        <v>1.054974913597107</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1947195974797058</v>
+        <v>0.5645007935971069</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5087978839874268</v>
+        <v>0.7916519641876221</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01226115201257327</v>
+        <v>0.270592928187622</v>
       </c>
     </row>
     <row r="5">
@@ -6397,28 +6397,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>3.480880975723267</v>
+        <v>4.242328643798828</v>
       </c>
       <c r="D5" t="n">
-        <v>7.182869134276734</v>
+        <v>6.421421466201172</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.3523850440979</v>
+        <v>2.805562257766724</v>
       </c>
       <c r="G5" t="n">
-        <v>3.0153658709021</v>
+        <v>2.562188657233277</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2386967390775681</v>
+        <v>0.5151007175445557</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6612930369224319</v>
+        <v>0.3848890584554443</v>
       </c>
     </row>
     <row r="6">
@@ -6431,28 +6431,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>3.64106011390686</v>
+        <v>4.419394493103027</v>
       </c>
       <c r="D6" t="n">
-        <v>11.93847981609314</v>
+        <v>11.16014543689697</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>2.30732798576355</v>
+        <v>2.777554750442505</v>
       </c>
       <c r="G6" t="n">
-        <v>4.82932742323645</v>
+        <v>4.359100658557495</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1031937748193741</v>
+        <v>0.3644145727157593</v>
       </c>
       <c r="J6" t="n">
-        <v>0.820635891180626</v>
+        <v>0.5594150932842408</v>
       </c>
     </row>
     <row r="7">
@@ -6465,28 +6465,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>2.013847351074219</v>
+        <v>2.330676794052124</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9944570630742187</v>
+        <v>1.311286506052124</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>2.919358491897583</v>
+        <v>3.237976789474487</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5619697891024171</v>
+        <v>0.2433514915255128</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5008716583251953</v>
+        <v>0.4918133616447449</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1163214406748047</v>
+        <v>0.1253797373552551</v>
       </c>
     </row>
     <row r="8">
@@ -6499,28 +6499,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>16.35537910461426</v>
+        <v>15.86813163757324</v>
       </c>
       <c r="D8" t="n">
-        <v>2.231908915385741</v>
+        <v>2.719156382426757</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>6.601923942565918</v>
+        <v>5.914060592651367</v>
       </c>
       <c r="G8" t="n">
-        <v>1.121871413434082</v>
+        <v>1.809734763348633</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7546231150627136</v>
+        <v>0.7233356237411499</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3847149479372864</v>
+        <v>0.4160024392588502</v>
       </c>
     </row>
     <row r="9">
@@ -6533,28 +6533,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.085438251495361</v>
+        <v>4.361367225646973</v>
       </c>
       <c r="D9" t="n">
-        <v>2.065936380504638</v>
+        <v>1.790007406353027</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7122712731361389</v>
+        <v>1.004542469978333</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4896324478638612</v>
+        <v>0.1973612510216676</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>2.848731994628906</v>
+        <v>2.882237195968628</v>
       </c>
       <c r="J9" t="n">
-        <v>1.361458797628906</v>
+        <v>1.394963998968628</v>
       </c>
     </row>
     <row r="10">
@@ -6567,28 +6567,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>10.40627384185791</v>
+        <v>9.265346527099609</v>
       </c>
       <c r="D10" t="n">
-        <v>1.960223118142089</v>
+        <v>3.10115043290039</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>1.978761553764343</v>
+        <v>1.8836590051651</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5457789542356566</v>
+        <v>0.6408815028348998</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>3.814637660980225</v>
+        <v>2.969884157180786</v>
       </c>
       <c r="J10" t="n">
-        <v>1.858157308980225</v>
+        <v>1.013403805180786</v>
       </c>
     </row>
     <row r="11">
@@ -6601,28 +6601,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>1.731987953186035</v>
+        <v>2.110862016677856</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7573870611860352</v>
+        <v>1.136261124677856</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>1.130110025405884</v>
+        <v>1.530386924743652</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7364741104058838</v>
+        <v>1.136751009743652</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3677033185958862</v>
+        <v>0.4985709190368652</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2067442795958862</v>
+        <v>0.3376118800368653</v>
       </c>
     </row>
     <row r="12">
@@ -6635,28 +6635,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>1.444767117500305</v>
+        <v>1.530370354652405</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6589612455003052</v>
+        <v>0.7445644826524048</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>1.21329391002655</v>
+        <v>1.573949337005615</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5208186950265503</v>
+        <v>0.8814741220056153</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3128553628921509</v>
+        <v>0.2625041604042053</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1174045078921509</v>
+        <v>0.06705330540420532</v>
       </c>
     </row>
     <row r="13">
@@ -6669,28 +6669,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>2.025751352310181</v>
+        <v>2.256744861602783</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9913211523101806</v>
+        <v>1.222314661602783</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>2.585455894470215</v>
+        <v>2.960287809371948</v>
       </c>
       <c r="G13" t="n">
-        <v>0.430980332529785</v>
+        <v>0.05614841762805156</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3083294034004211</v>
+        <v>0.2946279048919678</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1001200555995789</v>
+        <v>0.1138215541080322</v>
       </c>
     </row>
     <row r="14">
@@ -6703,28 +6703,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>57.56928253173828</v>
+        <v>53.59357070922852</v>
       </c>
       <c r="D14" t="n">
-        <v>4.234573168261718</v>
+        <v>8.210284990771484</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>21.89504623413086</v>
+        <v>18.53630638122559</v>
       </c>
       <c r="G14" t="n">
-        <v>3.116451445869142</v>
+        <v>6.475191298774416</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>4.003339767456055</v>
+        <v>3.57302713394165</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2728585594560546</v>
+        <v>0.1574540740583497</v>
       </c>
     </row>
     <row r="15">
@@ -6737,28 +6737,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>1.690682172775269</v>
+        <v>2.169328927993774</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8279713032247313</v>
+        <v>0.3493245480062255</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8464617729187012</v>
+        <v>1.241965532302856</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1782879129187012</v>
+        <v>0.5737916723028564</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4966763854026794</v>
+        <v>0.7602269649505615</v>
       </c>
       <c r="J15" t="n">
-        <v>0.006614653597320608</v>
+        <v>0.2569359259505615</v>
       </c>
     </row>
     <row r="16">
@@ -6771,28 +6771,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>1.754834055900574</v>
+        <v>2.101152896881104</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7486380489005737</v>
+        <v>1.094956889881104</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>1.175041198730469</v>
+        <v>1.580263376235962</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7102532667304687</v>
+        <v>1.115475444235962</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2999914884567261</v>
+        <v>0.3755123615264893</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1138670064567261</v>
+        <v>0.1893878795264893</v>
       </c>
     </row>
     <row r="17">
@@ -6805,28 +6805,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>1.90115213394165</v>
+        <v>2.506531238555908</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4795547580583497</v>
+        <v>0.1258243465559081</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>1.771840333938599</v>
+        <v>2.050143003463745</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06354369893859868</v>
+        <v>0.3418463684637452</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9718776345252991</v>
+        <v>1.240594744682312</v>
       </c>
       <c r="J17" t="n">
-        <v>0.136818110525299</v>
+        <v>0.405535220682312</v>
       </c>
     </row>
     <row r="18">
@@ -6839,28 +6839,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>2.591815233230591</v>
+        <v>3.325734853744507</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8111204532305909</v>
+        <v>1.545040073744507</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>1.207934737205505</v>
+        <v>1.721148252487183</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7024148292055054</v>
+        <v>1.215628344487182</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3468466997146606</v>
+        <v>0.5981664061546326</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1706504267146607</v>
+        <v>0.4219701331546326</v>
       </c>
     </row>
     <row r="19">
@@ -6873,28 +6873,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>3.006704330444336</v>
+        <v>2.547013998031616</v>
       </c>
       <c r="D19" t="n">
-        <v>0.705114065555664</v>
+        <v>1.164804397968384</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>5.665797233581543</v>
+        <v>5.844404220581055</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2490003224184569</v>
+        <v>0.07039333541894521</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>5.656315803527832</v>
+        <v>5.191498756408691</v>
       </c>
       <c r="J19" t="n">
-        <v>2.496196800527832</v>
+        <v>2.031379753408691</v>
       </c>
     </row>
     <row r="20">
@@ -6907,28 +6907,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>2.811300992965698</v>
+        <v>3.466354131698608</v>
       </c>
       <c r="D20" t="n">
-        <v>1.709156212965698</v>
+        <v>2.364209351698609</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>2.353917360305786</v>
+        <v>2.780101776123047</v>
       </c>
       <c r="G20" t="n">
-        <v>1.556231973305786</v>
+        <v>1.982416389123047</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2360158115625381</v>
+        <v>0.4389534592628479</v>
       </c>
       <c r="J20" t="n">
-        <v>0.08692094756253815</v>
+        <v>0.2898585952628479</v>
       </c>
     </row>
     <row r="21">
@@ -6941,28 +6941,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>86.48673248291016</v>
+        <v>80.08550262451172</v>
       </c>
       <c r="D21" t="n">
-        <v>5.433879612910161</v>
+        <v>0.9673502454882765</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>35.82675170898438</v>
+        <v>31.33637619018555</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04392573898437746</v>
+        <v>4.446449779814451</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>5.120907783508301</v>
+        <v>4.830312728881836</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5079792365083007</v>
+        <v>0.2173841818818358</v>
       </c>
     </row>
     <row r="22">
@@ -6975,28 +6975,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.126173734664917</v>
+        <v>1.569989681243896</v>
       </c>
       <c r="D22" t="n">
-        <v>0.656848696664917</v>
+        <v>1.100664643243896</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.304885149002075</v>
+        <v>1.520691633224487</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9832685700020751</v>
+        <v>1.199075054224487</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>1.589310765266418</v>
+        <v>2.080085039138794</v>
       </c>
       <c r="J22" t="n">
-        <v>1.247168335266418</v>
+        <v>1.737942609138794</v>
       </c>
     </row>
     <row r="23">
@@ -7009,28 +7009,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>165.0450744628906</v>
+        <v>151.488037109375</v>
       </c>
       <c r="D23" t="n">
-        <v>16.48175066289062</v>
+        <v>2.924713309374994</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>84.67376708984375</v>
+        <v>76.93002319335938</v>
       </c>
       <c r="G23" t="n">
-        <v>6.921137609843754</v>
+        <v>0.822606286640621</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>6.685192584991455</v>
+        <v>7.838691234588623</v>
       </c>
       <c r="J23" t="n">
-        <v>1.627612815008545</v>
+        <v>0.4741141654113772</v>
       </c>
     </row>
     <row r="24">
@@ -7043,28 +7043,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>1.645090818405151</v>
+        <v>2.1812584400177</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4947022545948485</v>
+        <v>0.04146536701770032</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8718785643577576</v>
+        <v>1.201701521873474</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2362905193577576</v>
+        <v>0.5661134768734741</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9275170564651489</v>
+        <v>1.322614312171936</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3240452994651489</v>
+        <v>0.719142555171936</v>
       </c>
     </row>
     <row r="25">
@@ -7077,28 +7077,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>26.94645690917969</v>
+        <v>24.87978172302246</v>
       </c>
       <c r="D25" t="n">
-        <v>4.831361579179688</v>
+        <v>2.764686393022462</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>9.140545845031738</v>
+        <v>7.463892459869385</v>
       </c>
       <c r="G25" t="n">
-        <v>1.354993055031739</v>
+        <v>0.3216603301306149</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>1.702297210693359</v>
+        <v>1.29400098323822</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5163245896933595</v>
+        <v>0.1080283622382203</v>
       </c>
     </row>
     <row r="26">
@@ -7111,28 +7111,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>14.53476810455322</v>
+        <v>14.4576416015625</v>
       </c>
       <c r="D26" t="n">
-        <v>4.107744655446776</v>
+        <v>4.184871158437499</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>4.985452651977539</v>
+        <v>4.483814716339111</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9198659990224609</v>
+        <v>1.421503934660889</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>1.08689296245575</v>
+        <v>0.933152437210083</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2191291965442506</v>
+        <v>0.3728697217899171</v>
       </c>
     </row>
     <row r="27">
@@ -7145,28 +7145,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>2.293047904968262</v>
+        <v>2.814109563827515</v>
       </c>
       <c r="D27" t="n">
-        <v>1.181003525968262</v>
+        <v>1.702065184827515</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>2.715330362319946</v>
+        <v>3.054393529891968</v>
       </c>
       <c r="G27" t="n">
-        <v>1.243160709319946</v>
+        <v>1.582223876891968</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4963430762290955</v>
+        <v>0.6440065503120422</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1854111242290954</v>
+        <v>0.3330745983120422</v>
       </c>
     </row>
     <row r="28">
@@ -7179,28 +7179,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>5.167090892791748</v>
+        <v>5.776369571685791</v>
       </c>
       <c r="D28" t="n">
-        <v>4.162868012791748</v>
+        <v>4.772146691685791</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>4.611931800842285</v>
+        <v>4.946385860443115</v>
       </c>
       <c r="G28" t="n">
-        <v>3.750386610842285</v>
+        <v>4.084840670443115</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.0267719179391861</v>
+        <v>0.0886867567896843</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1131172889391861</v>
+        <v>0.002341385789684292</v>
       </c>
     </row>
     <row r="29">
@@ -7213,28 +7213,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>2.794551134109497</v>
+        <v>3.456521272659302</v>
       </c>
       <c r="D29" t="n">
-        <v>6.154528796890503</v>
+        <v>5.492558658340698</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>2.249882221221924</v>
+        <v>2.681339979171753</v>
       </c>
       <c r="G29" t="n">
-        <v>3.484156984778076</v>
+        <v>3.052699226828247</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2085471153259277</v>
+        <v>0.400057315826416</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6386069296740723</v>
+        <v>0.447096729173584</v>
       </c>
     </row>
     <row r="30">
@@ -7247,28 +7247,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>6.04601526260376</v>
+        <v>6.788624286651611</v>
       </c>
       <c r="D30" t="n">
-        <v>2.18404417360376</v>
+        <v>2.926653197651611</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>2.254735946655273</v>
+        <v>2.459293842315674</v>
       </c>
       <c r="G30" t="n">
-        <v>0.08899739665527351</v>
+        <v>0.2935552923156739</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9835784435272217</v>
+        <v>1.221905469894409</v>
       </c>
       <c r="J30" t="n">
-        <v>0.04329656947277827</v>
+        <v>0.1950304568944092</v>
       </c>
     </row>
     <row r="31">
@@ -7281,28 +7281,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>7.042696475982666</v>
+        <v>6.326809883117676</v>
       </c>
       <c r="D31" t="n">
-        <v>4.348567170982665</v>
+        <v>3.632680578117676</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>14.48710823059082</v>
+        <v>13.50008583068848</v>
       </c>
       <c r="G31" t="n">
-        <v>5.488528482590821</v>
+        <v>4.501506082688477</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>2.68515157699585</v>
+        <v>2.174927234649658</v>
       </c>
       <c r="J31" t="n">
-        <v>1.60977286699585</v>
+        <v>1.099548524649658</v>
       </c>
     </row>
     <row r="32">
@@ -7315,28 +7315,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.217966794967651</v>
+        <v>2.728539228439331</v>
       </c>
       <c r="D32" t="n">
-        <v>7.366937449032349</v>
+        <v>6.856365015560669</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>4.94398307800293</v>
+        <v>5.06915283203125</v>
       </c>
       <c r="G32" t="n">
-        <v>23.16164079199707</v>
+        <v>23.03647103796875</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>1.777146816253662</v>
+        <v>1.975358963012695</v>
       </c>
       <c r="J32" t="n">
-        <v>6.101667736746338</v>
+        <v>5.903455589987304</v>
       </c>
     </row>
     <row r="33">
@@ -7349,28 +7349,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>18.12860107421875</v>
+        <v>17.22923469543457</v>
       </c>
       <c r="D33" t="n">
-        <v>3.984048505781249</v>
+        <v>4.883414884565429</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>5.975821495056152</v>
+        <v>5.166049003601074</v>
       </c>
       <c r="G33" t="n">
-        <v>1.126522025943848</v>
+        <v>1.936294517398926</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.521459579467773</v>
+        <v>1.104485034942627</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1035550315322267</v>
+        <v>0.5205295760573732</v>
       </c>
     </row>
   </sheetData>

--- a/IndexResults.xlsx
+++ b/IndexResults.xlsx
@@ -5136,28 +5136,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>2.770697832107544</v>
+        <v>2.918674945831299</v>
       </c>
       <c r="D2" t="n">
-        <v>1.610527546107544</v>
+        <v>1.758504659831299</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>1.634085655212402</v>
+        <v>1.890294313430786</v>
       </c>
       <c r="G2" t="n">
-        <v>1.212190106212402</v>
+        <v>1.468398764430786</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6188272833824158</v>
+        <v>0.6000443696975708</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4520226163824158</v>
+        <v>0.4332397026975708</v>
       </c>
     </row>
     <row r="3">
@@ -5170,28 +5170,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>7.807881832122803</v>
+        <v>8.020929336547852</v>
       </c>
       <c r="D3" t="n">
-        <v>1.871394991122803</v>
+        <v>2.084442495547852</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>4.036614418029785</v>
+        <v>4.088818073272705</v>
       </c>
       <c r="G3" t="n">
-        <v>3.360709844029785</v>
+        <v>3.412913499272705</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7153096795082092</v>
+        <v>1.102591753005981</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7153096795082092</v>
+        <v>1.102591753005981</v>
       </c>
     </row>
     <row r="4">
@@ -5204,28 +5204,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.537908315658569</v>
+        <v>2.827799320220947</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008360276341430772</v>
+        <v>0.2815307282209472</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>1.538327932357788</v>
+        <v>1.840588212013245</v>
       </c>
       <c r="G4" t="n">
-        <v>1.047853812357788</v>
+        <v>1.350114092013245</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8021338582038879</v>
+        <v>0.7985001802444458</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2810748222038879</v>
+        <v>0.2774411442444458</v>
       </c>
     </row>
     <row r="5">
@@ -5238,28 +5238,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>3.977242469787598</v>
+        <v>4.115481853485107</v>
       </c>
       <c r="D5" t="n">
-        <v>6.686507640212403</v>
+        <v>6.548268256514893</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.273437738418579</v>
+        <v>2.453428268432617</v>
       </c>
       <c r="G5" t="n">
-        <v>3.094313176581421</v>
+        <v>2.914322646567383</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4547584652900696</v>
+        <v>0.502974271774292</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4452313107099304</v>
+        <v>0.397015504225708</v>
       </c>
     </row>
     <row r="6">
@@ -5272,28 +5272,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>4.144336700439453</v>
+        <v>4.231954097747803</v>
       </c>
       <c r="D6" t="n">
-        <v>11.43520322956055</v>
+        <v>11.3475858322522</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>2.313212156295776</v>
+        <v>2.491971731185913</v>
       </c>
       <c r="G6" t="n">
-        <v>4.823443252704224</v>
+        <v>4.644683677814087</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3459333777427673</v>
+        <v>0.4125597178936005</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5778962882572327</v>
+        <v>0.5112699481063996</v>
       </c>
     </row>
     <row r="7">
@@ -5306,28 +5306,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>2.870755195617676</v>
+        <v>3.028092384338379</v>
       </c>
       <c r="D7" t="n">
-        <v>1.851364907617676</v>
+        <v>2.008702096338379</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>1.883112549781799</v>
+        <v>2.044620752334595</v>
       </c>
       <c r="G7" t="n">
-        <v>1.598215731218201</v>
+        <v>1.436707528665405</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7486581206321716</v>
+        <v>0.686677098274231</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1314650216321717</v>
+        <v>0.06948399927423099</v>
       </c>
     </row>
     <row r="8">
@@ -5340,28 +5340,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>9.289728164672852</v>
+        <v>9.234163284301758</v>
       </c>
       <c r="D8" t="n">
-        <v>9.297559855327147</v>
+        <v>9.353124735698241</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>5.061763286590576</v>
+        <v>4.832934379577637</v>
       </c>
       <c r="G8" t="n">
-        <v>2.662032069409424</v>
+        <v>2.890860976422363</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2974969148635864</v>
+        <v>0.5239003300666809</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8418411481364136</v>
+        <v>0.6154377329333192</v>
       </c>
     </row>
     <row r="9">
@@ -5374,28 +5374,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.11467981338501</v>
+        <v>4.499577045440674</v>
       </c>
       <c r="D9" t="n">
-        <v>2.03669481861499</v>
+        <v>1.651797586559326</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>2.60042929649353</v>
+        <v>2.675518035888672</v>
       </c>
       <c r="G9" t="n">
-        <v>1.39852557549353</v>
+        <v>1.473614314888672</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.732366442680359</v>
+        <v>1.845086097717285</v>
       </c>
       <c r="J9" t="n">
-        <v>0.245093245680359</v>
+        <v>0.3578129007172852</v>
       </c>
     </row>
     <row r="10">
@@ -5408,28 +5408,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>6.840263843536377</v>
+        <v>7.025923252105713</v>
       </c>
       <c r="D10" t="n">
-        <v>5.526233116463622</v>
+        <v>5.340573707894286</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>3.933088064193726</v>
+        <v>3.820010900497437</v>
       </c>
       <c r="G10" t="n">
-        <v>1.408547556193726</v>
+        <v>1.295470392497437</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>1.718608379364014</v>
+        <v>1.9544438123703</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2378719726359864</v>
+        <v>0.002036539629699741</v>
       </c>
     </row>
     <row r="11">
@@ -5442,28 +5442,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>2.723424196243286</v>
+        <v>2.893759250640869</v>
       </c>
       <c r="D11" t="n">
-        <v>1.748823304243286</v>
+        <v>1.919158358640869</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>1.633400797843933</v>
+        <v>1.883564233779907</v>
       </c>
       <c r="G11" t="n">
-        <v>1.239764882843933</v>
+        <v>1.489928318779907</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6684341430664062</v>
+        <v>0.6463325619697571</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5074751040664063</v>
+        <v>0.4853735229697571</v>
       </c>
     </row>
     <row r="12">
@@ -5476,28 +5476,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>2.561013698577881</v>
+        <v>2.71188759803772</v>
       </c>
       <c r="D12" t="n">
-        <v>1.775207826577881</v>
+        <v>1.92608172603772</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>1.559224247932434</v>
+        <v>1.821523427963257</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8667490329324341</v>
+        <v>1.129048212963257</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6532016396522522</v>
+        <v>0.6060829758644104</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4577507846522522</v>
+        <v>0.4106321208644104</v>
       </c>
     </row>
     <row r="13">
@@ -5510,28 +5510,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>2.931074142456055</v>
+        <v>3.042943000793457</v>
       </c>
       <c r="D13" t="n">
-        <v>1.896643942456055</v>
+        <v>2.008512800793457</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>1.852902054786682</v>
+        <v>2.032486438751221</v>
       </c>
       <c r="G13" t="n">
-        <v>1.163534172213318</v>
+        <v>0.9839497882487791</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6397285461425781</v>
+        <v>0.5852052569389343</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2312790871425781</v>
+        <v>0.1767557979389343</v>
       </c>
     </row>
     <row r="14">
@@ -5544,28 +5544,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>46.19211196899414</v>
+        <v>45.82164001464844</v>
       </c>
       <c r="D14" t="n">
-        <v>15.61174373100586</v>
+        <v>15.98221568535156</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>25.81099128723145</v>
+        <v>23.10589027404785</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7994936072314438</v>
+        <v>1.90560740595215</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>3.688429832458496</v>
+        <v>4.612604141235352</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04205137554150395</v>
+        <v>0.8821229332353515</v>
       </c>
     </row>
     <row r="15">
@@ -5578,28 +5578,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.619437217712402</v>
+        <v>2.890092849731445</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1007837417124025</v>
+        <v>0.3714393737314454</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>1.587683081626892</v>
+        <v>1.874714851379395</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9195092216268921</v>
+        <v>1.206540991379395</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7783800959587097</v>
+        <v>0.7734241485595703</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2750890569587097</v>
+        <v>0.2701331095595703</v>
       </c>
     </row>
     <row r="16">
@@ -5612,28 +5612,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>2.797711849212646</v>
+        <v>2.940435647964478</v>
       </c>
       <c r="D16" t="n">
-        <v>1.791515842212646</v>
+        <v>1.934239640964478</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>1.654653429985046</v>
+        <v>1.905044317245483</v>
       </c>
       <c r="G16" t="n">
-        <v>1.189865497985046</v>
+        <v>1.440256385245483</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6139466166496277</v>
+        <v>0.5940552949905396</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4278221346496277</v>
+        <v>0.4079308129905396</v>
       </c>
     </row>
     <row r="17">
@@ -5646,28 +5646,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.726659297943115</v>
+        <v>3.079904556274414</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3459524059431152</v>
+        <v>0.699197664274414</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>1.827372193336487</v>
+        <v>2.036974430084229</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1190755583364869</v>
+        <v>0.3286777950842286</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>1.064384579658508</v>
+        <v>1.039785504341125</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2293250556585082</v>
+        <v>0.2047259803411254</v>
       </c>
     </row>
     <row r="18">
@@ -5680,28 +5680,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>3.397495746612549</v>
+        <v>3.599254608154297</v>
       </c>
       <c r="D18" t="n">
-        <v>1.616800966612549</v>
+        <v>1.818559828154297</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>1.921924114227295</v>
+        <v>2.179501295089722</v>
       </c>
       <c r="G18" t="n">
-        <v>1.416404206227295</v>
+        <v>1.673981387089722</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5488576889038086</v>
+        <v>0.5917050838470459</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3726614159038086</v>
+        <v>0.4155088108470459</v>
       </c>
     </row>
     <row r="19">
@@ -5714,28 +5714,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>3.893709182739258</v>
+        <v>4.087494850158691</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1818907867392578</v>
+        <v>0.3756764541586914</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>3.158528566360474</v>
+        <v>2.786132335662842</v>
       </c>
       <c r="G19" t="n">
-        <v>2.756268989639526</v>
+        <v>3.128665220337158</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>2.751118898391724</v>
+        <v>2.597333431243896</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4090001046082765</v>
+        <v>0.5627855717561037</v>
       </c>
     </row>
     <row r="20">
@@ -5748,28 +5748,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>3.556252479553223</v>
+        <v>3.668655395507812</v>
       </c>
       <c r="D20" t="n">
-        <v>2.454107699553223</v>
+        <v>2.566510615507813</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>2.093706130981445</v>
+        <v>2.270438671112061</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296020743981445</v>
+        <v>1.472753284112061</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5183082222938538</v>
+        <v>0.5276719331741333</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3692133582938538</v>
+        <v>0.3785770691741333</v>
       </c>
     </row>
     <row r="21">
@@ -5782,28 +5782,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>73.70899200439453</v>
+        <v>72.68624877929688</v>
       </c>
       <c r="D21" t="n">
-        <v>7.343860865605464</v>
+        <v>8.36660409070312</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>41.37599563598633</v>
+        <v>36.71243667602539</v>
       </c>
       <c r="G21" t="n">
-        <v>5.593169665986331</v>
+        <v>0.9296107060253931</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>6.02285099029541</v>
+        <v>7.215937614440918</v>
       </c>
       <c r="J21" t="n">
-        <v>1.40992244329541</v>
+        <v>2.603009067440918</v>
       </c>
     </row>
     <row r="22">
@@ -5816,28 +5816,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>2.087308645248413</v>
+        <v>2.578056812286377</v>
       </c>
       <c r="D22" t="n">
-        <v>1.617983607248413</v>
+        <v>2.108731774286377</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.627632975578308</v>
+        <v>1.831616640090942</v>
       </c>
       <c r="G22" t="n">
-        <v>1.306016396578308</v>
+        <v>1.510000061090942</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>1.526596665382385</v>
+        <v>1.479187488555908</v>
       </c>
       <c r="J22" t="n">
-        <v>1.184454235382385</v>
+        <v>1.137045058555908</v>
       </c>
     </row>
     <row r="23">
@@ -5850,28 +5850,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>154.4186248779297</v>
+        <v>150.0323028564453</v>
       </c>
       <c r="D23" t="n">
-        <v>5.855301077929681</v>
+        <v>1.468979056445306</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>87.72187042236328</v>
+        <v>76.52129364013672</v>
       </c>
       <c r="G23" t="n">
-        <v>9.969240942363285</v>
+        <v>1.231335839863277</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>13.49117374420166</v>
+        <v>14.97958087921143</v>
       </c>
       <c r="J23" t="n">
-        <v>5.17836834420166</v>
+        <v>6.666775479211426</v>
       </c>
     </row>
     <row r="24">
@@ -5884,28 +5884,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.487301111221313</v>
+        <v>2.90544056892395</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3475080382213136</v>
+        <v>0.7656474959239503</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.647400379180908</v>
+        <v>1.913898825645447</v>
       </c>
       <c r="G24" t="n">
-        <v>1.011812334180908</v>
+        <v>1.278310780645447</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>1.10819935798645</v>
+        <v>1.100597262382507</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5047276009864502</v>
+        <v>0.4971255053825073</v>
       </c>
     </row>
     <row r="25">
@@ -5918,28 +5918,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>15.55559921264648</v>
+        <v>15.86643314361572</v>
       </c>
       <c r="D25" t="n">
-        <v>6.559496117353515</v>
+        <v>6.248662186384276</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>8.477485656738281</v>
+        <v>7.929287910461426</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6919328667382816</v>
+        <v>0.1437351204614261</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6906794905662537</v>
+        <v>1.109696865081787</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4952931304337462</v>
+        <v>0.07627575591821278</v>
       </c>
     </row>
     <row r="26">
@@ -5952,28 +5952,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>8.574667930603027</v>
+        <v>8.569062232971191</v>
       </c>
       <c r="D26" t="n">
-        <v>10.06784482939697</v>
+        <v>10.07345052702881</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>4.5907883644104</v>
+        <v>4.473904609680176</v>
       </c>
       <c r="G26" t="n">
-        <v>1.3145302865896</v>
+        <v>1.431414041319824</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4287429451942444</v>
+        <v>0.7093331813812256</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8772792138057557</v>
+        <v>0.5966889776187745</v>
       </c>
     </row>
     <row r="27">
@@ -5986,28 +5986,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>3.084545612335205</v>
+        <v>3.262041091918945</v>
       </c>
       <c r="D27" t="n">
-        <v>1.972501233335205</v>
+        <v>2.149996712918945</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>1.970826029777527</v>
+        <v>2.130741834640503</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4986563767775269</v>
+        <v>0.658572181640503</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7447643876075745</v>
+        <v>0.7059664726257324</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4338324356075745</v>
+        <v>0.3950345206257324</v>
       </c>
     </row>
     <row r="28">
@@ -6020,28 +6020,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>4.857752323150635</v>
+        <v>4.877839088439941</v>
       </c>
       <c r="D28" t="n">
-        <v>3.853529443150635</v>
+        <v>3.873616208439941</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>2.81243371963501</v>
+        <v>2.872250318527222</v>
       </c>
       <c r="G28" t="n">
-        <v>1.95088852963501</v>
+        <v>2.010705128527221</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3160014748573303</v>
+        <v>0.3743075430393219</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2296561038573303</v>
+        <v>0.2879621720393219</v>
       </c>
     </row>
     <row r="29">
@@ -6054,28 +6054,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>3.570563793182373</v>
+        <v>3.671152591705322</v>
       </c>
       <c r="D29" t="n">
-        <v>5.378516137817627</v>
+        <v>5.277927339294678</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>2.082376480102539</v>
+        <v>2.264708995819092</v>
       </c>
       <c r="G29" t="n">
-        <v>3.651662725897461</v>
+        <v>3.469330210180908</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.49187171459198</v>
+        <v>0.5049826502799988</v>
       </c>
       <c r="J29" t="n">
-        <v>0.35528233040802</v>
+        <v>0.3421713947200012</v>
       </c>
     </row>
     <row r="30">
@@ -6088,28 +6088,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>5.327510356903076</v>
+        <v>5.568417072296143</v>
       </c>
       <c r="D30" t="n">
-        <v>1.465539267903076</v>
+        <v>1.706445983296143</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>2.967047452926636</v>
+        <v>3.095419883728027</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8013089029266358</v>
+        <v>0.9296813337280274</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7067816257476807</v>
+        <v>0.8840384483337402</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3200933872523193</v>
+        <v>0.1428365646662597</v>
       </c>
     </row>
     <row r="31">
@@ -6122,28 +6122,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>6.865587711334229</v>
+        <v>6.633945941925049</v>
       </c>
       <c r="D31" t="n">
-        <v>4.171458406334228</v>
+        <v>3.939816636925049</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>4.770915508270264</v>
+        <v>4.1610426902771</v>
       </c>
       <c r="G31" t="n">
-        <v>4.227664239729735</v>
+        <v>4.8375370577229</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>1.347963571548462</v>
+        <v>1.149508595466614</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2725848615484618</v>
+        <v>0.0741298854666137</v>
       </c>
     </row>
     <row r="32">
@@ -6156,28 +6156,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>3.23934531211853</v>
+        <v>3.526651859283447</v>
       </c>
       <c r="D32" t="n">
-        <v>6.34555893188147</v>
+        <v>6.058252384716553</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>2.389941692352295</v>
+        <v>2.389626741409302</v>
       </c>
       <c r="G32" t="n">
-        <v>25.7156821776477</v>
+        <v>25.7159971285907</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>1.333219647407532</v>
+        <v>1.245201468467712</v>
       </c>
       <c r="J32" t="n">
-        <v>6.545594905592468</v>
+        <v>6.633613084532287</v>
       </c>
     </row>
     <row r="33">
@@ -6190,28 +6190,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>9.845495223999023</v>
+        <v>9.864062309265137</v>
       </c>
       <c r="D33" t="n">
-        <v>12.26715435600098</v>
+        <v>12.24858727073486</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>5.344236850738525</v>
+        <v>5.089628219604492</v>
       </c>
       <c r="G33" t="n">
-        <v>1.758106670261474</v>
+        <v>2.012715301395508</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5050948858261108</v>
+        <v>0.8149771690368652</v>
       </c>
       <c r="J33" t="n">
-        <v>1.119919725173889</v>
+        <v>0.8100374419631349</v>
       </c>
     </row>
   </sheetData>
@@ -6295,28 +6295,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>2.058802366256714</v>
+        <v>2.003654479980469</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8986320802567138</v>
+        <v>0.8434841939804687</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>1.487817764282227</v>
+        <v>1.653952956199646</v>
       </c>
       <c r="G2" t="n">
-        <v>1.065922215282227</v>
+        <v>1.232057407199646</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3832489252090454</v>
+        <v>0.3576293289661407</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2164442582090454</v>
+        <v>0.1908246619661408</v>
       </c>
     </row>
     <row r="3">
@@ -6329,28 +6329,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>11.90138721466064</v>
+        <v>12.83629989624023</v>
       </c>
       <c r="D3" t="n">
-        <v>5.964900373660645</v>
+        <v>6.899813055240235</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>1.86379861831665</v>
+        <v>2.025389194488525</v>
       </c>
       <c r="G3" t="n">
-        <v>1.18789404431665</v>
+        <v>1.349484620488525</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.662627339363098</v>
+        <v>0.9235283136367798</v>
       </c>
       <c r="J3" t="n">
-        <v>1.662627339363098</v>
+        <v>0.9235283136367798</v>
       </c>
     </row>
     <row r="4">
@@ -6363,28 +6363,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.054032564163208</v>
+        <v>2.093174695968628</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4922360278367921</v>
+        <v>0.4530938960313722</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>1.054974913597107</v>
+        <v>1.356009840965271</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5645007935971069</v>
+        <v>0.865535720965271</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7916519641876221</v>
+        <v>0.8184666037559509</v>
       </c>
       <c r="J4" t="n">
-        <v>0.270592928187622</v>
+        <v>0.2974075677559509</v>
       </c>
     </row>
     <row r="5">
@@ -6397,28 +6397,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>4.242328643798828</v>
+        <v>4.685019016265869</v>
       </c>
       <c r="D5" t="n">
-        <v>6.421421466201172</v>
+        <v>5.978731093734131</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.805562257766724</v>
+        <v>2.893545866012573</v>
       </c>
       <c r="G5" t="n">
-        <v>2.562188657233277</v>
+        <v>2.474205048987427</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5151007175445557</v>
+        <v>0.1915122866630554</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3848890584554443</v>
+        <v>0.7084774893369445</v>
       </c>
     </row>
     <row r="6">
@@ -6431,28 +6431,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>4.419394493103027</v>
+        <v>4.932826995849609</v>
       </c>
       <c r="D6" t="n">
-        <v>11.16014543689697</v>
+        <v>10.64671293415039</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>2.777554750442505</v>
+        <v>2.810656309127808</v>
       </c>
       <c r="G6" t="n">
-        <v>4.359100658557495</v>
+        <v>4.325999099872193</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3644145727157593</v>
+        <v>-0.02281791716814041</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5594150932842408</v>
+        <v>0.9466475831681405</v>
       </c>
     </row>
     <row r="7">
@@ -6465,28 +6465,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>2.330676794052124</v>
+        <v>2.016396284103394</v>
       </c>
       <c r="D7" t="n">
-        <v>1.311286506052124</v>
+        <v>0.9970059961033935</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>3.237976789474487</v>
+        <v>3.269332885742188</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2433514915255128</v>
+        <v>0.2119953952578126</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4918133616447449</v>
+        <v>0.6281497478485107</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1253797373552551</v>
+        <v>0.01095664884851077</v>
       </c>
     </row>
     <row r="8">
@@ -6499,28 +6499,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>15.86813163757324</v>
+        <v>14.7548131942749</v>
       </c>
       <c r="D8" t="n">
-        <v>2.719156382426757</v>
+        <v>3.832474825725097</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>5.914060592651367</v>
+        <v>5.936500549316406</v>
       </c>
       <c r="G8" t="n">
-        <v>1.809734763348633</v>
+        <v>1.787294806683594</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7233356237411499</v>
+        <v>0.02302863448858261</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4160024392588502</v>
+        <v>1.116309428511417</v>
       </c>
     </row>
     <row r="9">
@@ -6533,28 +6533,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.361367225646973</v>
+        <v>5.376293659210205</v>
       </c>
       <c r="D9" t="n">
-        <v>1.790007406353027</v>
+        <v>0.7750809727897945</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.004542469978333</v>
+        <v>1.821502566337585</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1973612510216676</v>
+        <v>0.6195988453375854</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>2.882237195968628</v>
+        <v>2.770897388458252</v>
       </c>
       <c r="J9" t="n">
-        <v>1.394963998968628</v>
+        <v>1.283624191458252</v>
       </c>
     </row>
     <row r="10">
@@ -6567,28 +6567,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>9.265346527099609</v>
+        <v>10.34830760955811</v>
       </c>
       <c r="D10" t="n">
-        <v>3.10115043290039</v>
+        <v>2.018189350441894</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8836590051651</v>
+        <v>2.760162830352783</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6408815028348998</v>
+        <v>0.2356223223527834</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>2.969884157180786</v>
+        <v>2.616421222686768</v>
       </c>
       <c r="J10" t="n">
-        <v>1.013403805180786</v>
+        <v>0.6599408706867675</v>
       </c>
     </row>
     <row r="11">
@@ -6601,28 +6601,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>2.110862016677856</v>
+        <v>2.038829803466797</v>
       </c>
       <c r="D11" t="n">
-        <v>1.136261124677856</v>
+        <v>1.064228911466797</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>1.530386924743652</v>
+        <v>1.727116703987122</v>
       </c>
       <c r="G11" t="n">
-        <v>1.136751009743652</v>
+        <v>1.333480788987122</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4985709190368652</v>
+        <v>0.481685996055603</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3376118800368653</v>
+        <v>0.3207269570556031</v>
       </c>
     </row>
     <row r="12">
@@ -6635,28 +6635,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>1.530370354652405</v>
+        <v>1.293150782585144</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7445644826524048</v>
+        <v>0.5073449105851441</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>1.573949337005615</v>
+        <v>1.757577776908875</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8814741220056153</v>
+        <v>1.065102561908875</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2625041604042053</v>
+        <v>0.3578768968582153</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06705330540420532</v>
+        <v>0.1624260418582153</v>
       </c>
     </row>
     <row r="13">
@@ -6669,28 +6669,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>2.256744861602783</v>
+        <v>1.967421889305115</v>
       </c>
       <c r="D13" t="n">
-        <v>1.222314661602783</v>
+        <v>0.9329916893051147</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>2.960287809371948</v>
+        <v>2.971554756164551</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05614841762805156</v>
+        <v>0.04488147083544902</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2946279048919678</v>
+        <v>0.3642145097255707</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1138215541080322</v>
+        <v>0.04423494927442934</v>
       </c>
     </row>
     <row r="14">
@@ -6703,28 +6703,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>53.59357070922852</v>
+        <v>54.23857116699219</v>
       </c>
       <c r="D14" t="n">
-        <v>8.210284990771484</v>
+        <v>7.565284533007812</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>18.53630638122559</v>
+        <v>21.14275550842285</v>
       </c>
       <c r="G14" t="n">
-        <v>6.475191298774416</v>
+        <v>3.86874217157715</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>3.57302713394165</v>
+        <v>2.370658874511719</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1574540740583497</v>
+        <v>1.359822333488281</v>
       </c>
     </row>
     <row r="15">
@@ -6737,28 +6737,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.169328927993774</v>
+        <v>2.200066328048706</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3493245480062255</v>
+        <v>0.3185871479512938</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>1.241965532302856</v>
+        <v>1.529342293739319</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5737916723028564</v>
+        <v>0.8611684337393188</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7602269649505615</v>
+        <v>0.7701123356819153</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2569359259505615</v>
+        <v>0.2668212966819152</v>
       </c>
     </row>
     <row r="16">
@@ -6771,28 +6771,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>2.101152896881104</v>
+        <v>2.032684326171875</v>
       </c>
       <c r="D16" t="n">
-        <v>1.094956889881104</v>
+        <v>1.026488319171875</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>1.580263376235962</v>
+        <v>1.741692423820496</v>
       </c>
       <c r="G16" t="n">
-        <v>1.115475444235962</v>
+        <v>1.276904491820495</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3755123615264893</v>
+        <v>0.344488650560379</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1893878795264893</v>
+        <v>0.158364168560379</v>
       </c>
     </row>
     <row r="17">
@@ -6805,28 +6805,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.506531238555908</v>
+        <v>2.405847072601318</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1258243465559081</v>
+        <v>0.02514018060131828</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>2.050143003463745</v>
+        <v>2.502346992492676</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3418463684637452</v>
+        <v>0.7940503574926758</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>1.240594744682312</v>
+        <v>1.363104104995728</v>
       </c>
       <c r="J17" t="n">
-        <v>0.405535220682312</v>
+        <v>0.5280445809957275</v>
       </c>
     </row>
     <row r="18">
@@ -6839,28 +6839,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>3.325734853744507</v>
+        <v>3.726677417755127</v>
       </c>
       <c r="D18" t="n">
-        <v>1.545040073744507</v>
+        <v>1.945982637755127</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>1.721148252487183</v>
+        <v>1.884464621543884</v>
       </c>
       <c r="G18" t="n">
-        <v>1.215628344487182</v>
+        <v>1.378944713543884</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5981664061546326</v>
+        <v>0.3701610267162323</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4219701331546326</v>
+        <v>0.1939647537162323</v>
       </c>
     </row>
     <row r="19">
@@ -6873,28 +6873,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>2.547013998031616</v>
+        <v>3.32796311378479</v>
       </c>
       <c r="D19" t="n">
-        <v>1.164804397968384</v>
+        <v>0.3838552822152099</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>5.844404220581055</v>
+        <v>5.183079242706299</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07039333541894521</v>
+        <v>0.7317183132937011</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>5.191498756408691</v>
+        <v>4.476378440856934</v>
       </c>
       <c r="J19" t="n">
-        <v>2.031379753408691</v>
+        <v>1.316259437856933</v>
       </c>
     </row>
     <row r="20">
@@ -6907,28 +6907,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>3.466354131698608</v>
+        <v>3.634314298629761</v>
       </c>
       <c r="D20" t="n">
-        <v>2.364209351698609</v>
+        <v>2.532169518629761</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>2.780101776123047</v>
+        <v>2.85850191116333</v>
       </c>
       <c r="G20" t="n">
-        <v>1.982416389123047</v>
+        <v>2.06081652416333</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4389534592628479</v>
+        <v>0.2473330497741699</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2898585952628479</v>
+        <v>0.09823818577416993</v>
       </c>
     </row>
     <row r="21">
@@ -6941,28 +6941,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>80.08550262451172</v>
+        <v>81.94386291503906</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9673502454882765</v>
+        <v>0.8910100450390672</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>31.33637619018555</v>
+        <v>35.04876327514648</v>
       </c>
       <c r="G21" t="n">
-        <v>4.446449779814451</v>
+        <v>0.7340626948535132</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>4.830312728881836</v>
+        <v>4.038412570953369</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2173841818818358</v>
+        <v>0.574515976046631</v>
       </c>
     </row>
     <row r="22">
@@ -6975,28 +6975,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.569989681243896</v>
+        <v>1.311265826225281</v>
       </c>
       <c r="D22" t="n">
-        <v>1.100664643243896</v>
+        <v>0.8419407882252807</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.520691633224487</v>
+        <v>2.030910730361938</v>
       </c>
       <c r="G22" t="n">
-        <v>1.199075054224487</v>
+        <v>1.709294151361938</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>2.080085039138794</v>
+        <v>2.252238035202026</v>
       </c>
       <c r="J22" t="n">
-        <v>1.737942609138794</v>
+        <v>1.910095605202026</v>
       </c>
     </row>
     <row r="23">
@@ -7009,28 +7009,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>151.488037109375</v>
+        <v>156.3787536621094</v>
       </c>
       <c r="D23" t="n">
-        <v>2.924713309374994</v>
+        <v>7.815429862109369</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>76.93002319335938</v>
+        <v>83.27356719970703</v>
       </c>
       <c r="G23" t="n">
-        <v>0.822606286640621</v>
+        <v>5.520937719707035</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>7.838691234588623</v>
+        <v>10.81099891662598</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4741141654113772</v>
+        <v>2.498193516625976</v>
       </c>
     </row>
     <row r="24">
@@ -7043,28 +7043,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.1812584400177</v>
+        <v>2.186264276504517</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04146536701770032</v>
+        <v>0.04647120350451672</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.201701521873474</v>
+        <v>1.711902141571045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5661134768734741</v>
+        <v>1.076314096571045</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>1.322614312171936</v>
+        <v>1.461559295654297</v>
       </c>
       <c r="J24" t="n">
-        <v>0.719142555171936</v>
+        <v>0.8580875386542969</v>
       </c>
     </row>
     <row r="25">
@@ -7077,28 +7077,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>24.87978172302246</v>
+        <v>23.84564018249512</v>
       </c>
       <c r="D25" t="n">
-        <v>2.764686393022462</v>
+        <v>1.730544852495118</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>7.463892459869385</v>
+        <v>7.595100402832031</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3216603301306149</v>
+        <v>0.1904523871679684</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>1.29400098323822</v>
+        <v>-0.01522649079561234</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1080283622382203</v>
+        <v>1.201199111795612</v>
       </c>
     </row>
     <row r="26">
@@ -7111,28 +7111,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>14.4576416015625</v>
+        <v>13.75238132476807</v>
       </c>
       <c r="D26" t="n">
-        <v>4.184871158437499</v>
+        <v>4.890131435231932</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>4.483814716339111</v>
+        <v>4.507912158966064</v>
       </c>
       <c r="G26" t="n">
-        <v>1.421503934660889</v>
+        <v>1.397406492033936</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.933152437210083</v>
+        <v>0.3220258355140686</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3728697217899171</v>
+        <v>0.9839963234859315</v>
       </c>
     </row>
     <row r="27">
@@ -7145,28 +7145,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>2.814109563827515</v>
+        <v>2.688971281051636</v>
       </c>
       <c r="D27" t="n">
-        <v>1.702065184827515</v>
+        <v>1.576926902051636</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>3.054393529891968</v>
+        <v>3.170727729797363</v>
       </c>
       <c r="G27" t="n">
-        <v>1.582223876891968</v>
+        <v>1.698558076797363</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6440065503120422</v>
+        <v>0.681947648525238</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3330745983120422</v>
+        <v>0.371015696525238</v>
       </c>
     </row>
     <row r="28">
@@ -7179,28 +7179,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>5.776369571685791</v>
+        <v>6.027414798736572</v>
       </c>
       <c r="D28" t="n">
-        <v>4.772146691685791</v>
+        <v>5.023191918736572</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>4.946385860443115</v>
+        <v>4.512380123138428</v>
       </c>
       <c r="G28" t="n">
-        <v>4.084840670443115</v>
+        <v>3.650834933138428</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0886867567896843</v>
+        <v>-0.07898483425378799</v>
       </c>
       <c r="J28" t="n">
-        <v>0.002341385789684292</v>
+        <v>0.165330205253788</v>
       </c>
     </row>
     <row r="29">
@@ -7213,28 +7213,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>3.456521272659302</v>
+        <v>3.642887830734253</v>
       </c>
       <c r="D29" t="n">
-        <v>5.492558658340698</v>
+        <v>5.306192100265747</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>2.681339979171753</v>
+        <v>2.754827976226807</v>
       </c>
       <c r="G29" t="n">
-        <v>3.052699226828247</v>
+        <v>2.979211229773194</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.400057315826416</v>
+        <v>0.1893097758293152</v>
       </c>
       <c r="J29" t="n">
-        <v>0.447096729173584</v>
+        <v>0.6578442691706848</v>
       </c>
     </row>
     <row r="30">
@@ -7247,28 +7247,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>6.788624286651611</v>
+        <v>7.75047779083252</v>
       </c>
       <c r="D30" t="n">
-        <v>2.926653197651611</v>
+        <v>3.88850670183252</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>2.459293842315674</v>
+        <v>2.751675605773926</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2935552923156739</v>
+        <v>0.5859370557739259</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>1.221905469894409</v>
+        <v>0.8444535136222839</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1950304568944092</v>
+        <v>0.182421499377716</v>
       </c>
     </row>
     <row r="31">
@@ -7281,28 +7281,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>6.326809883117676</v>
+        <v>7.250783920288086</v>
       </c>
       <c r="D31" t="n">
-        <v>3.632680578117676</v>
+        <v>4.556654615288085</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>13.50008583068848</v>
+        <v>10.52305316925049</v>
       </c>
       <c r="G31" t="n">
-        <v>4.501506082688477</v>
+        <v>1.524473421250489</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>2.174927234649658</v>
+        <v>2.09834361076355</v>
       </c>
       <c r="J31" t="n">
-        <v>1.099548524649658</v>
+        <v>1.02296490076355</v>
       </c>
     </row>
     <row r="32">
@@ -7315,28 +7315,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.728539228439331</v>
+        <v>2.8303062915802</v>
       </c>
       <c r="D32" t="n">
-        <v>6.856365015560669</v>
+        <v>6.7545979524198</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>5.06915283203125</v>
+        <v>4.638801097869873</v>
       </c>
       <c r="G32" t="n">
-        <v>23.03647103796875</v>
+        <v>23.46682277213013</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>1.975358963012695</v>
+        <v>1.829335689544678</v>
       </c>
       <c r="J32" t="n">
-        <v>5.903455589987304</v>
+        <v>6.049478863455322</v>
       </c>
     </row>
     <row r="33">
@@ -7349,28 +7349,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>17.22923469543457</v>
+        <v>16.11728858947754</v>
       </c>
       <c r="D33" t="n">
-        <v>4.883414884565429</v>
+        <v>5.99536099052246</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>5.166049003601074</v>
+        <v>5.246719837188721</v>
       </c>
       <c r="G33" t="n">
-        <v>1.936294517398926</v>
+        <v>1.855623683811279</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.104485034942627</v>
+        <v>0.3477259874343872</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5205295760573732</v>
+        <v>1.277288623565613</v>
       </c>
     </row>
   </sheetData>

--- a/IndexResults.xlsx
+++ b/IndexResults.xlsx
@@ -500,28 +500,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>3.524984309247755</v>
+        <v>3.521118942155523</v>
       </c>
       <c r="D2" t="n">
-        <v>2.364814023247755</v>
+        <v>2.360948656155523</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>2.288066253965174</v>
+        <v>2.28611561528249</v>
       </c>
       <c r="G2" t="n">
-        <v>1.866170704965174</v>
+        <v>1.86422006628249</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6222443502867944</v>
+        <v>0.6202882130379204</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4554396832867944</v>
+        <v>0.4534835460379204</v>
       </c>
     </row>
     <row r="3">
@@ -534,28 +534,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>11.54371550822559</v>
+        <v>12.42073516705219</v>
       </c>
       <c r="D3" t="n">
-        <v>5.607228667225592</v>
+        <v>6.48424832605219</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3531220156818469</v>
+        <v>0.08946168494967122</v>
       </c>
       <c r="G3" t="n">
-        <v>1.029026589681847</v>
+        <v>0.5864428890503288</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.087771606036061</v>
+        <v>1.531602885624793</v>
       </c>
       <c r="J3" t="n">
-        <v>1.087771606036061</v>
+        <v>1.531602885624793</v>
       </c>
     </row>
     <row r="4">
@@ -568,28 +568,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>3.816778122104188</v>
+        <v>3.74986897897116</v>
       </c>
       <c r="D4" t="n">
-        <v>1.270509530104188</v>
+        <v>1.20360038697116</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>1.924152270905973</v>
+        <v>1.890386897603485</v>
       </c>
       <c r="G4" t="n">
-        <v>1.433678150905973</v>
+        <v>1.399912777603485</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8963915481807556</v>
+        <v>0.8625309952113392</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3753325121807556</v>
+        <v>0.3414719592113392</v>
       </c>
     </row>
     <row r="5">
@@ -602,28 +602,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>4.75848280449799</v>
+        <v>4.060886068295078</v>
       </c>
       <c r="D5" t="n">
-        <v>5.905267305502011</v>
+        <v>6.602864041704922</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>3.14164787904513</v>
+        <v>2.789609082708183</v>
       </c>
       <c r="G5" t="n">
-        <v>2.22610303595487</v>
+        <v>2.578141832291817</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6283526549771009</v>
+        <v>0.275321512573625</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2716371210228991</v>
+        <v>0.6246682634263749</v>
       </c>
     </row>
     <row r="6">
@@ -636,28 +636,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>4.94849444645426</v>
+        <v>4.24243724502482</v>
       </c>
       <c r="D6" t="n">
-        <v>10.63104548354574</v>
+        <v>11.33710268497518</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>3.002300400897101</v>
+        <v>2.645992071977463</v>
       </c>
       <c r="G6" t="n">
-        <v>4.134355008102899</v>
+        <v>4.490663337022538</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4856633552656766</v>
+        <v>0.1283506450893306</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4381663107343234</v>
+        <v>0.7954790209106695</v>
       </c>
     </row>
     <row r="7">
@@ -670,28 +670,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>2.77011697040838</v>
+        <v>1.487031940483265</v>
       </c>
       <c r="D7" t="n">
-        <v>1.75072668240838</v>
+        <v>0.4676416524832645</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>4.090039942128816</v>
+        <v>3.442537329098521</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6087116611288157</v>
+        <v>0.03879095190147952</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8967982025773288</v>
+        <v>0.2474703740372808</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2796051035773288</v>
+        <v>0.3697227249627192</v>
       </c>
     </row>
     <row r="8">
@@ -704,28 +704,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>10.25716417682596</v>
+        <v>12.35384143219669</v>
       </c>
       <c r="D8" t="n">
-        <v>8.330123843174038</v>
+        <v>6.233446587803307</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>4.528512807833282</v>
+        <v>5.58659077606658</v>
       </c>
       <c r="G8" t="n">
-        <v>3.195282548166718</v>
+        <v>2.13720457993342</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7418628530639872</v>
+        <v>1.802923388902863</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3974752099360128</v>
+        <v>0.6635853259028632</v>
       </c>
     </row>
     <row r="9">
@@ -738,28 +738,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>6.210820241360901</v>
+        <v>8.094667652672536</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05944560936090149</v>
+        <v>1.943293020672536</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.546187344446367</v>
+        <v>2.496861768140506</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3442836234463671</v>
+        <v>1.294958047140506</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>2.126952434944189</v>
+        <v>3.080306671303073</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6396792379441889</v>
+        <v>1.593033474303073</v>
       </c>
     </row>
     <row r="10">
@@ -772,28 +772,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>9.435029061581336</v>
+        <v>11.17108732775639</v>
       </c>
       <c r="D10" t="n">
-        <v>2.931467898418664</v>
+        <v>1.19540963224361</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>1.329512297988914</v>
+        <v>2.205605649172971</v>
       </c>
       <c r="G10" t="n">
-        <v>1.195028210011086</v>
+        <v>0.3189348588270291</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>2.249244763071762</v>
+        <v>3.127807693745375</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2927644110717618</v>
+        <v>1.171327341745375</v>
       </c>
     </row>
     <row r="11">
@@ -806,28 +806,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>3.537061818642715</v>
+        <v>3.53338159692089</v>
       </c>
       <c r="D11" t="n">
-        <v>2.562460926642715</v>
+        <v>2.55878070492089</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>2.373916104850511</v>
+        <v>2.372058898877532</v>
       </c>
       <c r="G11" t="n">
-        <v>1.980280189850511</v>
+        <v>1.978422983877532</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7132127368218575</v>
+        <v>0.7113502956558826</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5522536978218575</v>
+        <v>0.5503912566558826</v>
       </c>
     </row>
     <row r="12">
@@ -840,28 +840,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>2.915481231464856</v>
+        <v>2.957126670453862</v>
       </c>
       <c r="D12" t="n">
-        <v>2.129675359464856</v>
+        <v>2.171320798453862</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>2.53138185961163</v>
+        <v>2.552398027626422</v>
       </c>
       <c r="G12" t="n">
-        <v>1.83890664461163</v>
+        <v>1.859922812626422</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.59931366905852</v>
+        <v>0.6203890785883981</v>
       </c>
       <c r="J12" t="n">
-        <v>0.40386281405852</v>
+        <v>0.4249382235883981</v>
       </c>
     </row>
     <row r="13">
@@ -874,28 +874,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>2.820267124022909</v>
+        <v>1.523611120442411</v>
       </c>
       <c r="D13" t="n">
-        <v>1.785836924022909</v>
+        <v>0.4891809204424113</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>3.798770175077967</v>
+        <v>3.144419036269346</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7823339480779676</v>
+        <v>0.1279828092693465</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7155051902120259</v>
+        <v>0.0593095308974747</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3070557312120258</v>
+        <v>0.3491399281025253</v>
       </c>
     </row>
     <row r="14">
@@ -908,28 +908,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>56.87533370334597</v>
+        <v>55.37536588733486</v>
       </c>
       <c r="D14" t="n">
-        <v>4.928521996654027</v>
+        <v>6.428489812665141</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>17.91549445052061</v>
+        <v>17.158542995491</v>
       </c>
       <c r="G14" t="n">
-        <v>7.096003229479393</v>
+        <v>7.852954684509005</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>2.630101287824517</v>
+        <v>1.871016096948818</v>
       </c>
       <c r="J14" t="n">
-        <v>1.100379920175483</v>
+        <v>1.859465111051182</v>
       </c>
     </row>
     <row r="15">
@@ -942,28 +942,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>3.796234342238522</v>
+        <v>3.746711823180561</v>
       </c>
       <c r="D15" t="n">
-        <v>1.277580866238522</v>
+        <v>1.228058347180561</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>2.100337784915455</v>
+        <v>2.075346486797241</v>
       </c>
       <c r="G15" t="n">
-        <v>1.432163924915455</v>
+        <v>1.407172626797241</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8789239208063093</v>
+        <v>0.8538621758605236</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3756328818063093</v>
+        <v>0.3505711368605235</v>
       </c>
     </row>
     <row r="16">
@@ -976,28 +976,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>3.498670129195811</v>
+        <v>3.504255574516148</v>
       </c>
       <c r="D16" t="n">
-        <v>2.492474122195811</v>
+        <v>2.498059567516148</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>2.385313904811722</v>
+        <v>2.38813257259718</v>
       </c>
       <c r="G16" t="n">
-        <v>1.920525972811722</v>
+        <v>1.923344640597179</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6219596237125165</v>
+        <v>0.6247862369117181</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4358351417125165</v>
+        <v>0.4386617549117181</v>
       </c>
     </row>
     <row r="17">
@@ -1010,28 +1010,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>3.553182697010456</v>
+        <v>2.123465107963935</v>
       </c>
       <c r="D17" t="n">
-        <v>1.172475805010456</v>
+        <v>0.257241784036065</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>3.083977799456988</v>
+        <v>2.362477779417769</v>
       </c>
       <c r="G17" t="n">
-        <v>1.375681164456988</v>
+        <v>0.6541811444177692</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>1.297901265824536</v>
+        <v>0.5743674423683693</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4628417418245361</v>
+        <v>0.2606920816316307</v>
       </c>
     </row>
     <row r="18">
@@ -1044,28 +1044,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>4.625915480059565</v>
+        <v>4.570614681007614</v>
       </c>
       <c r="D18" t="n">
-        <v>2.845220700059564</v>
+        <v>2.789919901007614</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>2.202909747613095</v>
+        <v>2.175002468630272</v>
       </c>
       <c r="G18" t="n">
-        <v>1.697389839613094</v>
+        <v>1.669482560630271</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6640125111686391</v>
+        <v>0.6360265656331137</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4878162381686392</v>
+        <v>0.4598302926331137</v>
       </c>
     </row>
     <row r="19">
@@ -1078,28 +1078,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>3.345197601453823</v>
+        <v>5.593503588055516</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3666207945461766</v>
+        <v>1.881685192055516</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>5.589622507541835</v>
+        <v>6.724219176712865</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3251750484581653</v>
+        <v>0.8094216207128646</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>3.371638370322679</v>
+        <v>4.50943330216665</v>
       </c>
       <c r="J19" t="n">
-        <v>0.211519367322679</v>
+        <v>1.349314299166649</v>
       </c>
     </row>
     <row r="20">
@@ -1112,28 +1112,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>4.048906981103769</v>
+        <v>3.391659294576899</v>
       </c>
       <c r="D20" t="n">
-        <v>2.946762201103769</v>
+        <v>2.289514514576899</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>3.325576919586887</v>
+        <v>2.993900074710048</v>
       </c>
       <c r="G20" t="n">
-        <v>2.527891532586887</v>
+        <v>2.196214687710048</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6549619231923267</v>
+        <v>0.322350129622909</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5058670591923267</v>
+        <v>0.173255265622909</v>
       </c>
     </row>
     <row r="21">
@@ -1146,28 +1146,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>88.57607782440728</v>
+        <v>87.19868726813361</v>
       </c>
       <c r="D21" t="n">
-        <v>7.523224954407283</v>
+        <v>6.145834398133616</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>33.43993111450082</v>
+        <v>32.74483767677091</v>
       </c>
       <c r="G21" t="n">
-        <v>2.342894855499182</v>
+        <v>3.037988293229091</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>3.282727440981202</v>
+        <v>2.585674636141801</v>
       </c>
       <c r="J21" t="n">
-        <v>1.330201106018798</v>
+        <v>2.027253910858199</v>
       </c>
     </row>
     <row r="22">
@@ -1180,28 +1180,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>3.166309966138803</v>
+        <v>1.68015343392952</v>
       </c>
       <c r="D22" t="n">
-        <v>2.696984928138803</v>
+        <v>1.21082839592952</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>2.699946229440292</v>
+        <v>1.949964571534338</v>
       </c>
       <c r="G22" t="n">
-        <v>2.378329650440292</v>
+        <v>1.628347992534338</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>1.796678759602443</v>
+        <v>1.044583012692839</v>
       </c>
       <c r="J22" t="n">
-        <v>1.454536329602443</v>
+        <v>0.7024405826928395</v>
       </c>
     </row>
     <row r="23">
@@ -1214,28 +1214,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>171.8352260522801</v>
+        <v>172.2719316164603</v>
       </c>
       <c r="D23" t="n">
-        <v>23.27190225228006</v>
+        <v>23.70860781646033</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>92.83684293870016</v>
+        <v>93.05722427535106</v>
       </c>
       <c r="G23" t="n">
-        <v>15.08421345870016</v>
+        <v>15.30459479535106</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>6.681128984084169</v>
+        <v>6.902131543608286</v>
       </c>
       <c r="J23" t="n">
-        <v>1.631676415915831</v>
+        <v>1.410673856391714</v>
       </c>
     </row>
     <row r="24">
@@ -1248,28 +1248,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>3.810233647398613</v>
+        <v>3.740179371436771</v>
       </c>
       <c r="D24" t="n">
-        <v>1.670440574398613</v>
+        <v>1.600386298436772</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>2.241178371162189</v>
+        <v>2.205825821891243</v>
       </c>
       <c r="G24" t="n">
-        <v>1.605590326162189</v>
+        <v>1.570237776891243</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>1.308649993211744</v>
+        <v>1.273197790256104</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7051782362117439</v>
+        <v>0.6697260332561045</v>
       </c>
     </row>
     <row r="25">
@@ -1282,28 +1282,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>19.78710241772608</v>
+        <v>18.72258891994586</v>
       </c>
       <c r="D25" t="n">
-        <v>2.327992912273917</v>
+        <v>3.392506410054136</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>5.281581329451348</v>
+        <v>4.744379775896528</v>
       </c>
       <c r="G25" t="n">
-        <v>2.503971460548652</v>
+        <v>3.041173014103472</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5562302753837582</v>
+        <v>0.01751442893238342</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6297423456162416</v>
+        <v>1.168458192067616</v>
       </c>
     </row>
     <row r="26">
@@ -1316,28 +1316,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>10.31102407040192</v>
+        <v>12.2618500493199</v>
       </c>
       <c r="D26" t="n">
-        <v>8.331488689598075</v>
+        <v>6.380662710680095</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>2.983214476179589</v>
+        <v>3.967689307898644</v>
       </c>
       <c r="G26" t="n">
-        <v>2.922104174820411</v>
+        <v>1.937629343101356</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8690697594236533</v>
+        <v>1.856319682232163</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4369523995763468</v>
+        <v>0.5502975232321625</v>
       </c>
     </row>
     <row r="27">
@@ -1350,28 +1350,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>3.303006110926455</v>
+        <v>3.418509647902478</v>
       </c>
       <c r="D27" t="n">
-        <v>2.190961731926455</v>
+        <v>2.306465268902477</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>3.831815964867417</v>
+        <v>3.890104262417406</v>
       </c>
       <c r="G27" t="n">
-        <v>2.359646311867417</v>
+        <v>2.417934609417406</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9293086104083719</v>
+        <v>0.9877612141751795</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6183766584083719</v>
+        <v>0.6768292621751795</v>
       </c>
     </row>
     <row r="28">
@@ -1384,28 +1384,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>4.843338608458144</v>
+        <v>4.280467686589189</v>
       </c>
       <c r="D28" t="n">
-        <v>3.839115728458144</v>
+        <v>3.276244806589189</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>4.68231166018651</v>
+        <v>4.398261590075261</v>
       </c>
       <c r="G28" t="n">
-        <v>3.82076647018651</v>
+        <v>3.536716400075261</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5753516979501453</v>
+        <v>0.2905009320840397</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4890063269501453</v>
+        <v>0.2041555610840397</v>
       </c>
     </row>
     <row r="29">
@@ -1418,28 +1418,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>4.098556128020903</v>
+        <v>3.432784818952608</v>
       </c>
       <c r="D29" t="n">
-        <v>4.850523802979097</v>
+        <v>5.516295112047392</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>3.211509913489746</v>
+        <v>2.875531663998766</v>
       </c>
       <c r="G29" t="n">
-        <v>2.522529292510254</v>
+        <v>2.858507542001234</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6118657681171485</v>
+        <v>0.2749404449007975</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2352882768828515</v>
+        <v>0.5722136000992025</v>
       </c>
     </row>
     <row r="30">
@@ -1452,28 +1452,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>7.074930081643116</v>
+        <v>6.18486824859651</v>
       </c>
       <c r="D30" t="n">
-        <v>3.212958992643116</v>
+        <v>2.32289715959651</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>2.272687686547767</v>
+        <v>1.82352231619827</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1069491365477666</v>
+        <v>0.3422162338017301</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>1.039889217570557</v>
+        <v>0.589457715496017</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01301420457055724</v>
+        <v>0.4374172975039829</v>
       </c>
     </row>
     <row r="31">
@@ -1486,28 +1486,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>3.006687083899297</v>
+        <v>2.288450898316919</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3125577788992966</v>
+        <v>0.4056784066830814</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>11.7056590292652</v>
+        <v>11.34320463529207</v>
       </c>
       <c r="G31" t="n">
-        <v>2.707079281265203</v>
+        <v>2.344624887292071</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>2.072528402045613</v>
+        <v>1.709052301954012</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9971496920456124</v>
+        <v>0.633673591954012</v>
       </c>
     </row>
     <row r="32">
@@ -1520,28 +1520,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.868338801545766</v>
+        <v>3.791735648060622</v>
       </c>
       <c r="D32" t="n">
-        <v>6.716565442454234</v>
+        <v>5.793168595939378</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>5.311280882556106</v>
+        <v>5.77726860514468</v>
       </c>
       <c r="G32" t="n">
-        <v>22.79434298744389</v>
+        <v>22.32835526485532</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>1.70835739262262</v>
+        <v>2.17565866669579</v>
       </c>
       <c r="J32" t="n">
-        <v>6.17045716037738</v>
+        <v>5.703155886304209</v>
       </c>
     </row>
     <row r="33">
@@ -1554,28 +1554,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>11.7311277309227</v>
+        <v>13.64313116478277</v>
       </c>
       <c r="D33" t="n">
-        <v>10.3815218490773</v>
+        <v>8.469518415217227</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>3.285314471322336</v>
+        <v>4.250197694704298</v>
       </c>
       <c r="G33" t="n">
-        <v>3.817029049677664</v>
+        <v>2.852145826295702</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.033239753082913</v>
+        <v>2.000842841665385</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5917748579170867</v>
+        <v>0.3758282306653848</v>
       </c>
     </row>
   </sheetData>
@@ -1659,28 +1659,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>1.203440056799999</v>
+        <v>1.168622927289998</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0432697707999985</v>
+        <v>0.008452641289998342</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3821741909500002</v>
+        <v>0.37437911836</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03972135804999982</v>
+        <v>0.04751643063999994</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1481407316600001</v>
+        <v>0.1478092547500001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01866393533999985</v>
+        <v>0.01899541224999993</v>
       </c>
     </row>
     <row r="3">
@@ -1693,28 +1693,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>13.93448073870002</v>
+        <v>13.58173200937002</v>
       </c>
       <c r="D3" t="n">
-        <v>7.997993897700018</v>
+        <v>7.645245168370017</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>1.808685585540001</v>
+        <v>1.941382321010001</v>
       </c>
       <c r="G3" t="n">
-        <v>1.132781011540001</v>
+        <v>1.265477747010001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9227475129700005</v>
+        <v>0.72049262682</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9227475129700005</v>
+        <v>0.72049262682</v>
       </c>
     </row>
     <row r="4">
@@ -1727,28 +1727,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.421490956909999</v>
+        <v>2.37889496287</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1247776350900009</v>
+        <v>0.1673736291300001</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7188137280300002</v>
+        <v>0.7388700954200005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2283396080300002</v>
+        <v>0.2483959754200005</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5704565864099993</v>
+        <v>0.5891793888899995</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04939755040999927</v>
+        <v>0.06812035288999951</v>
       </c>
     </row>
     <row r="5">
@@ -1761,28 +1761,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>5.646334426669998</v>
+        <v>5.562297733879998</v>
       </c>
       <c r="D5" t="n">
-        <v>5.017415683330002</v>
+        <v>5.101452376120003</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>3.030520644330001</v>
+        <v>3.19333611229</v>
       </c>
       <c r="G5" t="n">
-        <v>2.337230270669999</v>
+        <v>2.17441480271</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5966433494400002</v>
+        <v>0.5472538117000002</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3033464265599998</v>
+        <v>0.3527359642999998</v>
       </c>
     </row>
     <row r="6">
@@ -1795,28 +1795,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>6.939039860660002</v>
+        <v>6.936124929030001</v>
       </c>
       <c r="D6" t="n">
-        <v>8.640500069339996</v>
+        <v>8.643415000969998</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>4.090186334449999</v>
+        <v>4.127362902329999</v>
       </c>
       <c r="G6" t="n">
-        <v>3.046469074550001</v>
+        <v>3.009292506670001</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.50002602703</v>
+        <v>0.4806902299800003</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4238036389700001</v>
+        <v>0.4431394360199998</v>
       </c>
     </row>
     <row r="7">
@@ -1829,28 +1829,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>1.095548958249999</v>
+        <v>1.076380667469999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07615867024999901</v>
+        <v>0.05699037946999908</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>5.308941273639996</v>
+        <v>5.380110148169996</v>
       </c>
       <c r="G7" t="n">
-        <v>1.827612992639996</v>
+        <v>1.898781867169995</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4617573418499998</v>
+        <v>0.4728536468999999</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1554357571500001</v>
+        <v>0.1443394521000001</v>
       </c>
     </row>
     <row r="8">
@@ -1863,28 +1863,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>17.80430762236001</v>
+        <v>18.17517130101001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7829803976399887</v>
+        <v>0.4121167189899886</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>6.545813136959998</v>
+        <v>6.765534182949999</v>
       </c>
       <c r="G8" t="n">
-        <v>1.177982219040002</v>
+        <v>0.9582611730500012</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>1.018863064940001</v>
+        <v>1.047037760790001</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1204749980599993</v>
+        <v>0.09230030220999885</v>
       </c>
     </row>
     <row r="9">
@@ -1897,28 +1897,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.664321041939997</v>
+        <v>4.486789636539997</v>
       </c>
       <c r="D9" t="n">
-        <v>1.487053590060003</v>
+        <v>1.664584995460003</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.025324961700001</v>
+        <v>1.25298747137</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1765787592999994</v>
+        <v>0.0510837503699999</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.051360061570001</v>
+        <v>1.45131273818</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4359131354299994</v>
+        <v>0.03596045881999976</v>
       </c>
     </row>
     <row r="10">
@@ -1931,28 +1931,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>8.58965259079001</v>
+        <v>10.96165060166001</v>
       </c>
       <c r="D10" t="n">
-        <v>3.776844369209989</v>
+        <v>1.404846358339991</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>4.80705467981</v>
+        <v>5.019057683900001</v>
       </c>
       <c r="G10" t="n">
-        <v>2.28251417181</v>
+        <v>2.494517175900001</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>1.95064370465</v>
+        <v>2.01951817637</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005836647349999557</v>
+        <v>0.06303782436999961</v>
       </c>
     </row>
     <row r="11">
@@ -1965,28 +1965,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>1.700909059440001</v>
+        <v>1.737151889180001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7263081674400009</v>
+        <v>0.7625509971800009</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>0.61093360935</v>
+        <v>0.6211004718599998</v>
       </c>
       <c r="G11" t="n">
-        <v>0.21729769435</v>
+        <v>0.2274645568599998</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.33224486511</v>
+        <v>0.29034417344</v>
       </c>
       <c r="J11" t="n">
-        <v>0.17128582611</v>
+        <v>0.12938513444</v>
       </c>
     </row>
     <row r="12">
@@ -1999,28 +1999,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7587689503800006</v>
+        <v>0.9541937701200004</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02703692161999938</v>
+        <v>0.1683878981200004</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5433215975599998</v>
+        <v>0.5536326736299997</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1491536174400002</v>
+        <v>0.1388425413700003</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.16369263155</v>
+        <v>0.14538445252</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03175822345000001</v>
+        <v>0.05006640248000002</v>
       </c>
     </row>
     <row r="13">
@@ -2033,28 +2033,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>1.211696083259999</v>
+        <v>1.195172649719999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1772658832599985</v>
+        <v>0.1607424497199985</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>5.733554319979999</v>
+        <v>5.860524827869999</v>
       </c>
       <c r="G13" t="n">
-        <v>2.717118092979999</v>
+        <v>2.844088600869999</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3786990003900002</v>
+        <v>0.3781893132800001</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02975045860999986</v>
+        <v>0.03026014571999991</v>
       </c>
     </row>
     <row r="14">
@@ -2067,28 +2067,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>29.64252553876997</v>
+        <v>29.60175154474996</v>
       </c>
       <c r="D14" t="n">
-        <v>32.16133016123003</v>
+        <v>32.20210415525004</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>28.33833646545999</v>
+        <v>29.76363382137999</v>
       </c>
       <c r="G14" t="n">
-        <v>3.326838785459991</v>
+        <v>4.752136141379989</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>5.609592363950004</v>
+        <v>5.655830560730003</v>
       </c>
       <c r="J14" t="n">
-        <v>1.879111155950004</v>
+        <v>1.925349352730003</v>
       </c>
     </row>
     <row r="15">
@@ -2101,28 +2101,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.04607050106</v>
+        <v>2.03762759692</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4725829749400003</v>
+        <v>0.4810258790799997</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.62817593388</v>
+        <v>0.6068800683899999</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03999792611999997</v>
+        <v>0.06129379161000015</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.37454933318</v>
+        <v>0.3850271120199998</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1287417058200001</v>
+        <v>0.1182639269800002</v>
       </c>
     </row>
     <row r="16">
@@ -2135,28 +2135,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>1.151278495299998</v>
+        <v>1.111383839249999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1450824882999984</v>
+        <v>0.1051878322499986</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4006967776200002</v>
+        <v>0.3973915915700001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06409115437999985</v>
+        <v>0.06739634042999992</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1458109050700002</v>
+        <v>0.1467899030400001</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04031357692999984</v>
+        <v>0.03933457895999989</v>
       </c>
     </row>
     <row r="17">
@@ -2169,28 +2169,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.674625038359999</v>
+        <v>2.461170245</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2939181463599994</v>
+        <v>0.08046335299999985</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>1.561466770950001</v>
+        <v>1.3767907869</v>
       </c>
       <c r="G17" t="n">
-        <v>0.146829864049999</v>
+        <v>0.3315058480999995</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9011419827100002</v>
+        <v>0.76503229468</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06608245871000018</v>
+        <v>0.07002722932000005</v>
       </c>
     </row>
     <row r="18">
@@ -2203,28 +2203,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>2.51297876138</v>
+        <v>2.34315390956</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7322839813800004</v>
+        <v>0.5624591295599999</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6030512434199995</v>
+        <v>0.5695652797399998</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09753133541999948</v>
+        <v>0.0640453717399998</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2472412613900002</v>
+        <v>0.2449396026900001</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07104498839000026</v>
+        <v>0.06874332969000013</v>
       </c>
     </row>
     <row r="19">
@@ -2237,28 +2237,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>3.338299330310001</v>
+        <v>4.19742752374</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3735190656899987</v>
+        <v>0.4856091277400001</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>7.638273932379999</v>
+        <v>8.390715400360001</v>
       </c>
       <c r="G19" t="n">
-        <v>1.723476376379999</v>
+        <v>2.475917844360001</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>2.46436282027</v>
+        <v>2.599176334700001</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6957561827300003</v>
+        <v>0.5609426682999992</v>
       </c>
     </row>
     <row r="20">
@@ -2271,28 +2271,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>2.133671469420001</v>
+        <v>2.177700297410002</v>
       </c>
       <c r="D20" t="n">
-        <v>1.031526689420001</v>
+        <v>1.075555517410002</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>3.736950825060001</v>
+        <v>3.992826103839999</v>
       </c>
       <c r="G20" t="n">
-        <v>2.939265438060001</v>
+        <v>3.195140716839999</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5028613476700002</v>
+        <v>0.5276506165300003</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3537664836700002</v>
+        <v>0.3785557525300003</v>
       </c>
     </row>
     <row r="21">
@@ -2305,28 +2305,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>77.29131967859999</v>
+        <v>77.94248130359</v>
       </c>
       <c r="D21" t="n">
-        <v>3.761533191400005</v>
+        <v>3.110371566409995</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>42.35854494025995</v>
+        <v>43.04043635225995</v>
       </c>
       <c r="G21" t="n">
-        <v>6.575718970259949</v>
+        <v>7.257610382259948</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>6.287925658270003</v>
+        <v>6.1591552724</v>
       </c>
       <c r="J21" t="n">
-        <v>1.674997111270003</v>
+        <v>1.5462267254</v>
       </c>
     </row>
     <row r="22">
@@ -2339,28 +2339,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.415825699590001</v>
+        <v>1.317426497760001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9465006615900011</v>
+        <v>0.8481014597600005</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.13121965821</v>
+        <v>0.9797003864900007</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8096030792099995</v>
+        <v>0.6580838074900006</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>2.194908626489999</v>
+        <v>2.349653915189998</v>
       </c>
       <c r="J22" t="n">
-        <v>1.852766196489999</v>
+        <v>2.007511485189998</v>
       </c>
     </row>
     <row r="23">
@@ -2373,28 +2373,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>85.51599956470001</v>
+        <v>85.28738402429001</v>
       </c>
       <c r="D23" t="n">
-        <v>63.0473242353</v>
+        <v>63.27593977571</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>45.55576664275993</v>
+        <v>45.27823490725993</v>
       </c>
       <c r="G23" t="n">
-        <v>32.19686283724007</v>
+        <v>32.47439457274007</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>11.26294613621</v>
+        <v>10.3419195775</v>
       </c>
       <c r="J23" t="n">
-        <v>2.950140736210004</v>
+        <v>2.029114177500004</v>
       </c>
     </row>
     <row r="24">
@@ -2407,28 +2407,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.928519790110002</v>
+        <v>2.91910991622</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7887267171100016</v>
+        <v>0.7793168432200002</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.003203373310001</v>
+        <v>1.005166724360001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3676153283100014</v>
+        <v>0.3695786793600013</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>1.07165658664</v>
+        <v>1.07478937982</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4681848296400003</v>
+        <v>0.4713176228200001</v>
       </c>
     </row>
     <row r="25">
@@ -2441,28 +2441,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>31.53531023836999</v>
+        <v>30.69549464868</v>
       </c>
       <c r="D25" t="n">
-        <v>9.420214908369989</v>
+        <v>8.580399318679998</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>8.543510443180001</v>
+        <v>8.314017990080002</v>
       </c>
       <c r="G25" t="n">
-        <v>0.757957653180001</v>
+        <v>0.5284652000800021</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>1.229092488000002</v>
+        <v>1.080137714290001</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0431198670000017</v>
+        <v>0.1058349067099988</v>
       </c>
     </row>
     <row r="26">
@@ -2475,28 +2475,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>17.53173996791001</v>
+        <v>17.56238211554</v>
       </c>
       <c r="D26" t="n">
-        <v>1.110772792089993</v>
+        <v>1.080130644459995</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>5.494672795070001</v>
+        <v>5.958478748799998</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4106458559299986</v>
+        <v>0.05316009779999753</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>1.137098324420001</v>
+        <v>1.197962483630001</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1689238345799995</v>
+        <v>0.1080596753699994</v>
       </c>
     </row>
     <row r="27">
@@ -2509,28 +2509,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>1.506554203599999</v>
+        <v>1.4615123579</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3945098245999994</v>
+        <v>0.3494679788999995</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>2.499060731890001</v>
+        <v>2.822342819010002</v>
       </c>
       <c r="G27" t="n">
-        <v>1.026891078890001</v>
+        <v>1.350173166010002</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4524754015399998</v>
+        <v>0.47799334595</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1415434495399998</v>
+        <v>0.16706139395</v>
       </c>
     </row>
     <row r="28">
@@ -2543,28 +2543,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>11.01158499882</v>
+        <v>10.71004557714</v>
       </c>
       <c r="D28" t="n">
-        <v>10.00736211882</v>
+        <v>9.705822697140004</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>8.458355910680005</v>
+        <v>8.771893261560006</v>
       </c>
       <c r="G28" t="n">
-        <v>7.596810720680005</v>
+        <v>7.910348071560006</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6847216730799999</v>
+        <v>0.6668336580399997</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5983763020799999</v>
+        <v>0.5804882870399997</v>
       </c>
     </row>
     <row r="29">
@@ -2577,28 +2577,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>2.113667852120001</v>
+        <v>2.189451635000002</v>
       </c>
       <c r="D29" t="n">
-        <v>6.835412078879999</v>
+        <v>6.759628295999998</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>5.160522665940002</v>
+        <v>5.199406423400001</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5735165400599982</v>
+        <v>0.5346327825999992</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.42278061148</v>
+        <v>0.4586391293300002</v>
       </c>
       <c r="J29" t="n">
-        <v>0.42437343352</v>
+        <v>0.3885149156699998</v>
       </c>
     </row>
     <row r="30">
@@ -2611,28 +2611,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>3.258864525750001</v>
+        <v>3.554290865029999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.603106563249999</v>
+        <v>0.3076802239700007</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>1.295178431590001</v>
+        <v>1.425962202280001</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8705601184099991</v>
+        <v>0.7397763477199992</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5987913835200001</v>
+        <v>0.5723680857599999</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4280836294799999</v>
+        <v>0.4545069272400001</v>
       </c>
     </row>
     <row r="31">
@@ -2645,28 +2645,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>3.50237025931</v>
+        <v>3.127372628050001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.80824095431</v>
+        <v>0.4332433230500006</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>5.225952890950003</v>
+        <v>5.05200358497</v>
       </c>
       <c r="G31" t="n">
-        <v>3.772626857049996</v>
+        <v>3.946576163029999</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>1.465565218839998</v>
+        <v>1.685497344329998</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3901865088399981</v>
+        <v>0.6101186343299982</v>
       </c>
     </row>
     <row r="32">
@@ -2679,28 +2679,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.878315422030001</v>
+        <v>3.68781747255</v>
       </c>
       <c r="D32" t="n">
-        <v>6.70658882197</v>
+        <v>5.897086771450001</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>5.480569766199999</v>
+        <v>6.045812145869999</v>
       </c>
       <c r="G32" t="n">
-        <v>22.6250541038</v>
+        <v>22.05981172413</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>2.396773178329997</v>
+        <v>2.121230592279999</v>
       </c>
       <c r="J32" t="n">
-        <v>5.482041374670002</v>
+        <v>5.757583960720002</v>
       </c>
     </row>
     <row r="33">
@@ -2713,28 +2713,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>21.09209261170004</v>
+        <v>21.25517781819003</v>
       </c>
       <c r="D33" t="n">
-        <v>1.020556968299964</v>
+        <v>0.8574717618099648</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>6.954027643659995</v>
+        <v>6.911662700749993</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1483158773400053</v>
+        <v>0.190680820250007</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.47971403987</v>
+        <v>1.48258173635</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1453005711300004</v>
+        <v>0.1424328746499999</v>
       </c>
     </row>
   </sheetData>
@@ -2818,28 +2818,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>1.236396943699597</v>
+        <v>1.245521668481179</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07622665769959736</v>
+        <v>0.08535138248117891</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3947923912970007</v>
+        <v>0.3930123693033896</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02710315770299926</v>
+        <v>0.02888317969661042</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1387618070834848</v>
+        <v>0.1399620119320997</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02804285991651514</v>
+        <v>0.02684265506790029</v>
       </c>
     </row>
     <row r="3">
@@ -2852,28 +2852,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>14.40919336905178</v>
+        <v>14.89053380422369</v>
       </c>
       <c r="D3" t="n">
-        <v>8.472706528051781</v>
+        <v>8.954046963223689</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>1.977986899112876</v>
+        <v>2.042240123567588</v>
       </c>
       <c r="G3" t="n">
-        <v>1.302082325112876</v>
+        <v>1.366335549567588</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.109468239301523</v>
+        <v>0.9542977201022744</v>
       </c>
       <c r="J3" t="n">
-        <v>1.109468239301523</v>
+        <v>0.9542977201022744</v>
       </c>
     </row>
     <row r="4">
@@ -2886,28 +2886,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.32544645561254</v>
+        <v>2.319748214372313</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2208221363874605</v>
+        <v>0.2265203776276867</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7113842968041347</v>
+        <v>0.7310317098210202</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2209101768041347</v>
+        <v>0.2405575898210202</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7612593285448088</v>
+        <v>0.7221811347768655</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2402002925448088</v>
+        <v>0.2011220987768655</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>5.41726321603415</v>
+        <v>5.490441466210043</v>
       </c>
       <c r="D5" t="n">
-        <v>5.246486893965851</v>
+        <v>5.173308643789958</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.860761649247247</v>
+        <v>2.99666355392865</v>
       </c>
       <c r="G5" t="n">
-        <v>2.506989265752753</v>
+        <v>2.37108736107135</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.578795743103885</v>
+        <v>0.5384591494066818</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3211940328961149</v>
+        <v>0.3615306265933181</v>
       </c>
     </row>
     <row r="6">
@@ -2954,28 +2954,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>6.654189131956905</v>
+        <v>6.762716517366448</v>
       </c>
       <c r="D6" t="n">
-        <v>8.925350798043095</v>
+        <v>8.816823412633552</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>3.690932133265668</v>
+        <v>3.739728876011422</v>
       </c>
       <c r="G6" t="n">
-        <v>3.445723275734332</v>
+        <v>3.396926532988578</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5005847004225865</v>
+        <v>0.5085842727279595</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4232449655774135</v>
+        <v>0.4152453932720406</v>
       </c>
     </row>
     <row r="7">
@@ -2988,28 +2988,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>1.126675772416687</v>
+        <v>1.114513937699889</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1072854844166868</v>
+        <v>0.09512364969988862</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>5.796430142613948</v>
+        <v>5.874833896710347</v>
       </c>
       <c r="G7" t="n">
-        <v>2.315101861613948</v>
+        <v>2.393505615710346</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4710040317132774</v>
+        <v>0.4712416649052362</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1461890672867226</v>
+        <v>0.1459514340947637</v>
       </c>
     </row>
     <row r="8">
@@ -3022,28 +3022,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>17.31321739350757</v>
+        <v>17.89219523655023</v>
       </c>
       <c r="D8" t="n">
-        <v>1.274070626492431</v>
+        <v>0.6950927834497733</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>6.396499004000468</v>
+        <v>6.572052766896189</v>
       </c>
       <c r="G8" t="n">
-        <v>1.327296351999532</v>
+        <v>1.151742589103812</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.999920873751267</v>
+        <v>1.080510516418195</v>
       </c>
       <c r="J8" t="n">
-        <v>0.139417189248733</v>
+        <v>0.05882754658180533</v>
       </c>
     </row>
     <row r="9">
@@ -3056,28 +3056,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.462416097435191</v>
+        <v>4.590145116801882</v>
       </c>
       <c r="D9" t="n">
-        <v>1.688958534564809</v>
+        <v>1.561229515198118</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.010355297222765</v>
+        <v>1.228811520517536</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1915484237772347</v>
+        <v>0.02690779951753552</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.055008919426801</v>
+        <v>1.384179627402394</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4322642775731991</v>
+        <v>0.1030935695976056</v>
       </c>
     </row>
     <row r="10">
@@ -3090,28 +3090,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>9.506795712428664</v>
+        <v>11.99280082189858</v>
       </c>
       <c r="D10" t="n">
-        <v>2.859701247571335</v>
+        <v>0.3736961381014208</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>5.935032208104388</v>
+        <v>6.009051986675434</v>
       </c>
       <c r="G10" t="n">
-        <v>3.410491700104388</v>
+        <v>3.484511478675434</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>2.215518145419143</v>
+        <v>2.375483216633616</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2590377934191432</v>
+        <v>0.4190028646336155</v>
       </c>
     </row>
     <row r="11">
@@ -3124,28 +3124,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>1.698501970801724</v>
+        <v>1.711162409201349</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7239010788017242</v>
+        <v>0.7365615172013489</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6161411100779466</v>
+        <v>0.6070523989505379</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2225051950779466</v>
+        <v>0.2134164839505379</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3261172396387673</v>
+        <v>0.2751790693874512</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1651582006387673</v>
+        <v>0.1142200303874512</v>
       </c>
     </row>
     <row r="12">
@@ -3158,28 +3158,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>1.042934510287687</v>
+        <v>1.106896003848815</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2571286382876875</v>
+        <v>0.3210901318488154</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5566000912188064</v>
+        <v>0.5485841696506415</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1358751237811936</v>
+        <v>0.1438910453493585</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1699590806762105</v>
+        <v>0.1516724032295669</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02549177432378949</v>
+        <v>0.04377845177043313</v>
       </c>
     </row>
     <row r="13">
@@ -3192,28 +3192,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>1.214997660853798</v>
+        <v>1.211570914832782</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1805674608537975</v>
+        <v>0.1771407148327817</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>6.506223519184947</v>
+        <v>6.56736721271286</v>
       </c>
       <c r="G13" t="n">
-        <v>3.489787292184947</v>
+        <v>3.55093098571286</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3993039292351512</v>
+        <v>0.4077412253224079</v>
       </c>
       <c r="J13" t="n">
-        <v>0.009145529764848837</v>
+        <v>0.0007082336775920961</v>
       </c>
     </row>
     <row r="14">
@@ -3226,28 +3226,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>28.94912941074988</v>
+        <v>28.81335912102396</v>
       </c>
       <c r="D14" t="n">
-        <v>32.85472628925012</v>
+        <v>32.99049657897604</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>33.45449276514796</v>
+        <v>33.43085898077162</v>
       </c>
       <c r="G14" t="n">
-        <v>8.44299508514796</v>
+        <v>8.419361300771623</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>6.077448808822898</v>
+        <v>6.066622027107607</v>
       </c>
       <c r="J14" t="n">
-        <v>2.346967600822898</v>
+        <v>2.336140819107607</v>
       </c>
     </row>
     <row r="15">
@@ -3260,28 +3260,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.032260131198015</v>
+        <v>2.051500505533256</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4863933448019848</v>
+        <v>0.4671529704667443</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6377150491102532</v>
+        <v>0.648507252531229</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03045881088974678</v>
+        <v>0.01966660746877102</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4026348210579553</v>
+        <v>0.4007857040038597</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1006562179420448</v>
+        <v>0.1025053349961403</v>
       </c>
     </row>
     <row r="16">
@@ -3294,28 +3294,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>1.184650508664592</v>
+        <v>1.185047786644818</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1784545016645918</v>
+        <v>0.1788517796448179</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3972230538842872</v>
+        <v>0.396712145231377</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06756487811571277</v>
+        <v>0.06807578676862297</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1362321162525245</v>
+        <v>0.1384758007700378</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04989236574747552</v>
+        <v>0.04764868122996221</v>
       </c>
     </row>
     <row r="17">
@@ -3328,28 +3328,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.581879245518579</v>
+        <v>2.457482684552021</v>
       </c>
       <c r="D17" t="n">
-        <v>0.201172353518579</v>
+        <v>0.07677579255202094</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>1.383000865099478</v>
+        <v>1.242848492713282</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3252957699005221</v>
+        <v>0.4654481422867183</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8085806808958266</v>
+        <v>0.748840066998355</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02647884310417348</v>
+        <v>0.08621945700164502</v>
       </c>
     </row>
     <row r="18">
@@ -3362,28 +3362,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>2.513349635979526</v>
+        <v>2.579438988084656</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7326548559795263</v>
+        <v>0.7987442080846556</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6256861866386026</v>
+        <v>0.6187618351145278</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1201662786386026</v>
+        <v>0.1132419271145277</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2774251397173987</v>
+        <v>0.270813407261005</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1012288667173987</v>
+        <v>0.09461713426100501</v>
       </c>
     </row>
     <row r="19">
@@ -3396,28 +3396,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>3.33214648730316</v>
+        <v>3.819243772202239</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3796719086968396</v>
+        <v>0.1074253762022388</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>8.260684755519454</v>
+        <v>8.309764505062075</v>
       </c>
       <c r="G19" t="n">
-        <v>2.345887199519455</v>
+        <v>2.394966949062075</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>2.474978962338342</v>
+        <v>2.581389361695645</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6851400406616577</v>
+        <v>0.5787296413043554</v>
       </c>
     </row>
     <row r="20">
@@ -3430,28 +3430,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>2.376696392702539</v>
+        <v>2.395953580123428</v>
       </c>
       <c r="D20" t="n">
-        <v>1.274551612702539</v>
+        <v>1.293808800123428</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>3.548034292094115</v>
+        <v>3.625777437475948</v>
       </c>
       <c r="G20" t="n">
-        <v>2.750348905094115</v>
+        <v>2.828092050475948</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4968553181519585</v>
+        <v>0.5177328379357536</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3477604541519585</v>
+        <v>0.3686379739357536</v>
       </c>
     </row>
     <row r="21">
@@ -3464,28 +3464,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>73.93403498193881</v>
+        <v>74.89144623904232</v>
       </c>
       <c r="D21" t="n">
-        <v>7.118817888061187</v>
+        <v>6.161406630957671</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>36.23072336048951</v>
+        <v>36.30101940340059</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4478973904895085</v>
+        <v>0.5181934334005902</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>6.167822533969735</v>
+        <v>6.170048319586972</v>
       </c>
       <c r="J21" t="n">
-        <v>1.554893986969735</v>
+        <v>1.557119772586971</v>
       </c>
     </row>
     <row r="22">
@@ -3498,28 +3498,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.408140495150735</v>
+        <v>1.36834057804416</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9388154571507354</v>
+        <v>0.8990155400441604</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.023864645441168</v>
+        <v>0.9045501471663477</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7022480664411681</v>
+        <v>0.5829335681663477</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>2.047588841205097</v>
+        <v>2.275580956408488</v>
       </c>
       <c r="J22" t="n">
-        <v>1.705446411205097</v>
+        <v>1.933438526408488</v>
       </c>
     </row>
     <row r="23">
@@ -3532,28 +3532,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>80.40832147609218</v>
+        <v>80.25857643823791</v>
       </c>
       <c r="D23" t="n">
-        <v>68.15500232390782</v>
+        <v>68.3047473617621</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>36.57756337710474</v>
+        <v>36.55618347023174</v>
       </c>
       <c r="G23" t="n">
-        <v>41.17506610289526</v>
+        <v>41.19644600976826</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>10.45781583377566</v>
+        <v>10.54659805340877</v>
       </c>
       <c r="J23" t="n">
-        <v>2.145010433775662</v>
+        <v>2.233792653408774</v>
       </c>
     </row>
     <row r="24">
@@ -3566,28 +3566,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.966058428692084</v>
+        <v>2.959014020047395</v>
       </c>
       <c r="D24" t="n">
-        <v>0.826265355692084</v>
+        <v>0.8192209470473952</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.003679175753328</v>
+        <v>0.9808267680477027</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3680911307533283</v>
+        <v>0.3452387230477028</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9953103191305744</v>
+        <v>0.9782718498028941</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3918385621305744</v>
+        <v>0.3748000928028941</v>
       </c>
     </row>
     <row r="25">
@@ -3600,28 +3600,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>28.89237791464096</v>
+        <v>28.31015184242666</v>
       </c>
       <c r="D25" t="n">
-        <v>6.777282584640961</v>
+        <v>6.19505651242666</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>7.534588408641177</v>
+        <v>7.219702340332548</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2509643813588225</v>
+        <v>0.5658504496674519</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>1.064416667905601</v>
+        <v>0.9839373673734898</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1215559530943986</v>
+        <v>0.2020352536265101</v>
       </c>
     </row>
     <row r="26">
@@ -3634,28 +3634,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>17.37637110135789</v>
+        <v>17.8609089578604</v>
       </c>
       <c r="D26" t="n">
-        <v>1.266141658642105</v>
+        <v>0.7816038021395997</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>5.614619082230666</v>
+        <v>5.955153177385949</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2906995687693339</v>
+        <v>0.04983452638594876</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>1.188998304916266</v>
+        <v>1.23583596762689</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1170238540837338</v>
+        <v>0.07018619137311033</v>
       </c>
     </row>
     <row r="27">
@@ -3668,28 +3668,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>1.4351164349298</v>
+        <v>1.522476745329717</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3230720559298004</v>
+        <v>0.4104323663297169</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>2.537711404367764</v>
+        <v>2.652245624132938</v>
       </c>
       <c r="G27" t="n">
-        <v>1.065541751367764</v>
+        <v>1.180075971132938</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4472838854522333</v>
+        <v>0.479882025765223</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1363519334522333</v>
+        <v>0.168950073765223</v>
       </c>
     </row>
     <row r="28">
@@ -3702,28 +3702,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>10.66601631828746</v>
+        <v>10.68114586795743</v>
       </c>
       <c r="D28" t="n">
-        <v>9.661793438287459</v>
+        <v>9.676922987957433</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>7.853067098919579</v>
+        <v>7.832935241070381</v>
       </c>
       <c r="G28" t="n">
-        <v>6.991521908919579</v>
+        <v>6.97139005107038</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.639471058107457</v>
+        <v>0.6460242998979244</v>
       </c>
       <c r="J28" t="n">
-        <v>0.553125687107457</v>
+        <v>0.5596789288979245</v>
       </c>
     </row>
     <row r="29">
@@ -3736,28 +3736,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>2.495509341007329</v>
+        <v>2.522957968124956</v>
       </c>
       <c r="D29" t="n">
-        <v>6.453570589992671</v>
+        <v>6.426121962875044</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>4.499382617431785</v>
+        <v>4.597975377822053</v>
       </c>
       <c r="G29" t="n">
-        <v>1.234656588568216</v>
+        <v>1.136063828177948</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4383939662291595</v>
+        <v>0.4700979722577164</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4087600787708405</v>
+        <v>0.3770560727422836</v>
       </c>
     </row>
     <row r="30">
@@ -3770,28 +3770,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>3.51494746685165</v>
+        <v>3.468223970802755</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3470236221483498</v>
+        <v>0.3937471181972452</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>1.471526447307986</v>
+        <v>1.464753757663972</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6942121026920138</v>
+        <v>0.7009847923360282</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6280964871183127</v>
+        <v>0.6011386673177617</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3987785258816873</v>
+        <v>0.4257363456822383</v>
       </c>
     </row>
     <row r="31">
@@ -3804,28 +3804,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>3.327275448156886</v>
+        <v>3.121973119775658</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6331461431568859</v>
+        <v>0.4278438147756582</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>6.029109142826743</v>
+        <v>5.608880913751492</v>
       </c>
       <c r="G31" t="n">
-        <v>2.969470605173256</v>
+        <v>3.389698834248507</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>1.507772591618938</v>
+        <v>1.897114286587939</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4323938816189381</v>
+        <v>0.8217355765879391</v>
       </c>
     </row>
     <row r="32">
@@ -3838,28 +3838,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.872155164553426</v>
+        <v>3.346502558056279</v>
       </c>
       <c r="D32" t="n">
-        <v>6.712749079446574</v>
+        <v>6.238401685943722</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>5.462278641433663</v>
+        <v>5.785693295911723</v>
       </c>
       <c r="G32" t="n">
-        <v>22.64334522856634</v>
+        <v>22.31993057408827</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>2.500038390377779</v>
+        <v>2.074223587255222</v>
       </c>
       <c r="J32" t="n">
-        <v>5.37877616262222</v>
+        <v>5.804590965744778</v>
       </c>
     </row>
     <row r="33">
@@ -3872,28 +3872,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>19.98964248080414</v>
+        <v>20.62266711101117</v>
       </c>
       <c r="D33" t="n">
-        <v>2.123007099195863</v>
+        <v>1.489982468988828</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>6.900327104398047</v>
+        <v>6.880837932889839</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2020164166019525</v>
+        <v>0.2215055881101611</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.344720814864175</v>
+        <v>1.366662720101112</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2802937961358247</v>
+        <v>0.2583518908988882</v>
       </c>
     </row>
   </sheetData>
@@ -3977,28 +3977,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>1.236396943699597</v>
+        <v>1.245521668481179</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07622665769959736</v>
+        <v>0.08535138248117891</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3947923912970007</v>
+        <v>0.3930123693033896</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02710315770299926</v>
+        <v>0.02888317969661042</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1387618070834848</v>
+        <v>0.1399620119320997</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02804285991651514</v>
+        <v>0.02684265506790029</v>
       </c>
     </row>
     <row r="3">
@@ -4011,28 +4011,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>14.40919336905178</v>
+        <v>14.89053380422369</v>
       </c>
       <c r="D3" t="n">
-        <v>8.472706528051781</v>
+        <v>8.954046963223689</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>1.977986899112876</v>
+        <v>2.042240123567588</v>
       </c>
       <c r="G3" t="n">
-        <v>1.302082325112876</v>
+        <v>1.366335549567588</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.109468239301523</v>
+        <v>0.9542977201022744</v>
       </c>
       <c r="J3" t="n">
-        <v>1.109468239301523</v>
+        <v>0.9542977201022744</v>
       </c>
     </row>
     <row r="4">
@@ -4045,28 +4045,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.32544645561254</v>
+        <v>2.319748214372313</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2208221363874605</v>
+        <v>0.2265203776276867</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7113842968041347</v>
+        <v>0.7310317098210202</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2209101768041347</v>
+        <v>0.2405575898210202</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7612593285448088</v>
+        <v>0.7221811347768655</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2402002925448088</v>
+        <v>0.2011220987768655</v>
       </c>
     </row>
     <row r="5">
@@ -4079,28 +4079,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>5.41726321603415</v>
+        <v>5.490441466210043</v>
       </c>
       <c r="D5" t="n">
-        <v>5.246486893965851</v>
+        <v>5.173308643789958</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.860761649247247</v>
+        <v>2.99666355392865</v>
       </c>
       <c r="G5" t="n">
-        <v>2.506989265752753</v>
+        <v>2.37108736107135</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.578795743103885</v>
+        <v>0.5384591494066818</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3211940328961149</v>
+        <v>0.3615306265933181</v>
       </c>
     </row>
     <row r="6">
@@ -4113,28 +4113,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>6.654189131956905</v>
+        <v>6.762716517366448</v>
       </c>
       <c r="D6" t="n">
-        <v>8.925350798043095</v>
+        <v>8.816823412633552</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>3.690932133265668</v>
+        <v>3.739728876011422</v>
       </c>
       <c r="G6" t="n">
-        <v>3.445723275734332</v>
+        <v>3.396926532988578</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5005847004225865</v>
+        <v>0.5085842727279595</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4232449655774135</v>
+        <v>0.4152453932720406</v>
       </c>
     </row>
     <row r="7">
@@ -4147,28 +4147,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>1.126675772416687</v>
+        <v>1.114513937699889</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1072854844166868</v>
+        <v>0.09512364969988862</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>5.796430142613948</v>
+        <v>5.874833896710347</v>
       </c>
       <c r="G7" t="n">
-        <v>2.315101861613948</v>
+        <v>2.393505615710346</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4710040317132774</v>
+        <v>0.4712416649052362</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1461890672867226</v>
+        <v>0.1459514340947637</v>
       </c>
     </row>
     <row r="8">
@@ -4181,28 +4181,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>17.31321739350757</v>
+        <v>17.89219523655023</v>
       </c>
       <c r="D8" t="n">
-        <v>1.274070626492431</v>
+        <v>0.6950927834497733</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>6.396499004000468</v>
+        <v>6.572052766896189</v>
       </c>
       <c r="G8" t="n">
-        <v>1.327296351999532</v>
+        <v>1.151742589103812</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.999920873751267</v>
+        <v>1.080510516418195</v>
       </c>
       <c r="J8" t="n">
-        <v>0.139417189248733</v>
+        <v>0.05882754658180533</v>
       </c>
     </row>
     <row r="9">
@@ -4215,28 +4215,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.462416097435191</v>
+        <v>4.590145116801882</v>
       </c>
       <c r="D9" t="n">
-        <v>1.688958534564809</v>
+        <v>1.561229515198118</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.010355297222765</v>
+        <v>1.228811520517536</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1915484237772347</v>
+        <v>0.02690779951753552</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.055008919426801</v>
+        <v>1.384179627402394</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4322642775731991</v>
+        <v>0.1030935695976056</v>
       </c>
     </row>
     <row r="10">
@@ -4249,28 +4249,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>9.506795712428664</v>
+        <v>11.99280082189858</v>
       </c>
       <c r="D10" t="n">
-        <v>2.859701247571335</v>
+        <v>0.3736961381014208</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>5.935032208104388</v>
+        <v>6.009051986675434</v>
       </c>
       <c r="G10" t="n">
-        <v>3.410491700104388</v>
+        <v>3.484511478675434</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>2.215518145419143</v>
+        <v>2.375483216633616</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2590377934191432</v>
+        <v>0.4190028646336155</v>
       </c>
     </row>
     <row r="11">
@@ -4283,28 +4283,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>1.698501970801724</v>
+        <v>1.711162409201349</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7239010788017242</v>
+        <v>0.7365615172013489</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6161411100779466</v>
+        <v>0.6070523989505379</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2225051950779466</v>
+        <v>0.2134164839505379</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3261172396387673</v>
+        <v>0.2751790693874512</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1651582006387673</v>
+        <v>0.1142200303874512</v>
       </c>
     </row>
     <row r="12">
@@ -4317,28 +4317,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>1.042934510287687</v>
+        <v>1.106896003848815</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2571286382876875</v>
+        <v>0.3210901318488154</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5566000912188064</v>
+        <v>0.5485841696506415</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1358751237811936</v>
+        <v>0.1438910453493585</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1699590806762105</v>
+        <v>0.1516724032295669</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02549177432378949</v>
+        <v>0.04377845177043313</v>
       </c>
     </row>
     <row r="13">
@@ -4351,28 +4351,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>1.214997660853798</v>
+        <v>1.211570914832782</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1805674608537975</v>
+        <v>0.1771407148327817</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>6.506223519184947</v>
+        <v>6.56736721271286</v>
       </c>
       <c r="G13" t="n">
-        <v>3.489787292184947</v>
+        <v>3.55093098571286</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3993039292351512</v>
+        <v>0.4077412253224079</v>
       </c>
       <c r="J13" t="n">
-        <v>0.009145529764848837</v>
+        <v>0.0007082336775920961</v>
       </c>
     </row>
     <row r="14">
@@ -4385,28 +4385,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>28.94912941074988</v>
+        <v>28.81335912102396</v>
       </c>
       <c r="D14" t="n">
-        <v>32.85472628925012</v>
+        <v>32.99049657897604</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>33.45449276514796</v>
+        <v>33.43085898077162</v>
       </c>
       <c r="G14" t="n">
-        <v>8.44299508514796</v>
+        <v>8.419361300771623</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>6.077448808822898</v>
+        <v>6.066622027107607</v>
       </c>
       <c r="J14" t="n">
-        <v>2.346967600822898</v>
+        <v>2.336140819107607</v>
       </c>
     </row>
     <row r="15">
@@ -4419,28 +4419,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.032260131198015</v>
+        <v>2.051500505533256</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4863933448019848</v>
+        <v>0.4671529704667443</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6377150491102532</v>
+        <v>0.648507252531229</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03045881088974678</v>
+        <v>0.01966660746877102</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4026348210579553</v>
+        <v>0.4007857040038597</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1006562179420448</v>
+        <v>0.1025053349961403</v>
       </c>
     </row>
     <row r="16">
@@ -4453,28 +4453,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>1.184650508664592</v>
+        <v>1.185047786644818</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1784545016645918</v>
+        <v>0.1788517796448179</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3972230538842872</v>
+        <v>0.396712145231377</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06756487811571277</v>
+        <v>0.06807578676862297</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1362321162525245</v>
+        <v>0.1384758007700378</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04989236574747552</v>
+        <v>0.04764868122996221</v>
       </c>
     </row>
     <row r="17">
@@ -4487,28 +4487,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.581879245518579</v>
+        <v>2.457482684552021</v>
       </c>
       <c r="D17" t="n">
-        <v>0.201172353518579</v>
+        <v>0.07677579255202094</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>1.383000865099478</v>
+        <v>1.242848492713282</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3252957699005221</v>
+        <v>0.4654481422867183</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8085806808958266</v>
+        <v>0.748840066998355</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02647884310417348</v>
+        <v>0.08621945700164502</v>
       </c>
     </row>
     <row r="18">
@@ -4521,28 +4521,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>2.513349635979526</v>
+        <v>2.579438988084656</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7326548559795263</v>
+        <v>0.7987442080846556</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6256861866386026</v>
+        <v>0.6187618351145278</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1201662786386026</v>
+        <v>0.1132419271145277</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2774251397173987</v>
+        <v>0.270813407261005</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1012288667173987</v>
+        <v>0.09461713426100501</v>
       </c>
     </row>
     <row r="19">
@@ -4555,28 +4555,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>3.33214648730316</v>
+        <v>3.819243772202239</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3796719086968396</v>
+        <v>0.1074253762022388</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>8.260684755519454</v>
+        <v>8.309764505062075</v>
       </c>
       <c r="G19" t="n">
-        <v>2.345887199519455</v>
+        <v>2.394966949062075</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>2.474978962338342</v>
+        <v>2.581389361695645</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6851400406616577</v>
+        <v>0.5787296413043554</v>
       </c>
     </row>
     <row r="20">
@@ -4589,28 +4589,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>2.376696392702539</v>
+        <v>2.398075879470028</v>
       </c>
       <c r="D20" t="n">
-        <v>1.274551612702539</v>
+        <v>1.295931099470028</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>3.548034292094115</v>
+        <v>3.625777437475948</v>
       </c>
       <c r="G20" t="n">
-        <v>2.750348905094115</v>
+        <v>2.828092050475948</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4968553181519585</v>
+        <v>0.5177328379357536</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3477604541519585</v>
+        <v>0.3686379739357536</v>
       </c>
     </row>
     <row r="21">
@@ -4623,28 +4623,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>73.93403498193881</v>
+        <v>74.89144623904232</v>
       </c>
       <c r="D21" t="n">
-        <v>7.118817888061187</v>
+        <v>6.161406630957671</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>36.23072336048951</v>
+        <v>36.30101940340059</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4478973904895085</v>
+        <v>0.5181934334005902</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>6.167822533969735</v>
+        <v>6.170048319586972</v>
       </c>
       <c r="J21" t="n">
-        <v>1.554893986969735</v>
+        <v>1.557119772586971</v>
       </c>
     </row>
     <row r="22">
@@ -4657,28 +4657,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.408140495150735</v>
+        <v>1.36834057804416</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9388154571507354</v>
+        <v>0.8990155400441604</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.023864645441168</v>
+        <v>0.9045501471663477</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7022480664411681</v>
+        <v>0.5829335681663477</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>2.047588841205097</v>
+        <v>2.275580956408488</v>
       </c>
       <c r="J22" t="n">
-        <v>1.705446411205097</v>
+        <v>1.933438526408488</v>
       </c>
     </row>
     <row r="23">
@@ -4691,28 +4691,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>80.40832147609218</v>
+        <v>80.25857643823791</v>
       </c>
       <c r="D23" t="n">
-        <v>68.15500232390782</v>
+        <v>68.3047473617621</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>36.57756337710474</v>
+        <v>36.55618347023174</v>
       </c>
       <c r="G23" t="n">
-        <v>41.17506610289526</v>
+        <v>41.19644600976826</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>10.45781583377566</v>
+        <v>10.54659805340877</v>
       </c>
       <c r="J23" t="n">
-        <v>2.145010433775662</v>
+        <v>2.233792653408774</v>
       </c>
     </row>
     <row r="24">
@@ -4725,28 +4725,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.966058428692084</v>
+        <v>2.959014020047395</v>
       </c>
       <c r="D24" t="n">
-        <v>0.826265355692084</v>
+        <v>0.8192209470473952</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.003679175753328</v>
+        <v>0.9808267680477027</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3680911307533283</v>
+        <v>0.3452387230477028</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9953103191305744</v>
+        <v>0.9782718498028941</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3918385621305744</v>
+        <v>0.3748000928028941</v>
       </c>
     </row>
     <row r="25">
@@ -4759,28 +4759,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>28.89237791464096</v>
+        <v>28.31015184242666</v>
       </c>
       <c r="D25" t="n">
-        <v>6.777282584640961</v>
+        <v>6.19505651242666</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>7.534588408641177</v>
+        <v>7.219702340332548</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2509643813588225</v>
+        <v>0.5658504496674519</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>1.064416667905601</v>
+        <v>0.9275639876450468</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1215559530943986</v>
+        <v>0.2584086333549531</v>
       </c>
     </row>
     <row r="26">
@@ -4793,28 +4793,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>17.37637110135789</v>
+        <v>17.8609089578604</v>
       </c>
       <c r="D26" t="n">
-        <v>1.266141658642105</v>
+        <v>0.7816038021395997</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>5.614619082230666</v>
+        <v>5.955153177385949</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2906995687693339</v>
+        <v>0.04983452638594876</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>1.188998304916266</v>
+        <v>1.23583596762689</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1170238540837338</v>
+        <v>0.07018619137311033</v>
       </c>
     </row>
     <row r="27">
@@ -4827,28 +4827,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>1.4351164349298</v>
+        <v>1.522476745329717</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3230720559298004</v>
+        <v>0.4104323663297169</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>2.537711404367764</v>
+        <v>2.652245624132938</v>
       </c>
       <c r="G27" t="n">
-        <v>1.065541751367764</v>
+        <v>1.180075971132938</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4472838854522333</v>
+        <v>0.479882025765223</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1363519334522333</v>
+        <v>0.168950073765223</v>
       </c>
     </row>
     <row r="28">
@@ -4861,28 +4861,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>10.66601631828746</v>
+        <v>10.68114586795743</v>
       </c>
       <c r="D28" t="n">
-        <v>9.661793438287459</v>
+        <v>9.676922987957433</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>7.853067098919579</v>
+        <v>7.832935241070381</v>
       </c>
       <c r="G28" t="n">
-        <v>6.991521908919579</v>
+        <v>6.97139005107038</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.639471058107457</v>
+        <v>0.6460242998979244</v>
       </c>
       <c r="J28" t="n">
-        <v>0.553125687107457</v>
+        <v>0.5596789288979245</v>
       </c>
     </row>
     <row r="29">
@@ -4895,28 +4895,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>2.495509341007329</v>
+        <v>2.525080267471556</v>
       </c>
       <c r="D29" t="n">
-        <v>6.453570589992671</v>
+        <v>6.423999663528444</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>4.499382617431785</v>
+        <v>4.597975377822053</v>
       </c>
       <c r="G29" t="n">
-        <v>1.234656588568216</v>
+        <v>1.136063828177948</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4383939662291595</v>
+        <v>0.4700979722577164</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4087600787708405</v>
+        <v>0.3770560727422836</v>
       </c>
     </row>
     <row r="30">
@@ -4929,28 +4929,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>3.51494746685165</v>
+        <v>3.468223970802755</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3470236221483498</v>
+        <v>0.3937471181972452</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>1.471526447307986</v>
+        <v>1.464753757663972</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6942121026920138</v>
+        <v>0.7009847923360282</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6280964871183127</v>
+        <v>0.5959205233137617</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3987785258816873</v>
+        <v>0.4309544896862383</v>
       </c>
     </row>
     <row r="31">
@@ -4963,28 +4963,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>3.327275448156886</v>
+        <v>3.121973119775658</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6331461431568859</v>
+        <v>0.4278438147756582</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>6.029109142826743</v>
+        <v>5.608880913751492</v>
       </c>
       <c r="G31" t="n">
-        <v>2.969470605173256</v>
+        <v>3.389698834248507</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>1.507772591618938</v>
+        <v>1.897114286587939</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4323938816189381</v>
+        <v>0.8217355765879391</v>
       </c>
     </row>
     <row r="32">
@@ -4997,28 +4997,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.872155164553426</v>
+        <v>3.346502558056279</v>
       </c>
       <c r="D32" t="n">
-        <v>6.712749079446574</v>
+        <v>6.238401685943722</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>5.462278641433663</v>
+        <v>5.785693295911723</v>
       </c>
       <c r="G32" t="n">
-        <v>22.64334522856634</v>
+        <v>22.31993057408827</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>2.500038390377779</v>
+        <v>2.074223587255222</v>
       </c>
       <c r="J32" t="n">
-        <v>5.37877616262222</v>
+        <v>5.804590965744778</v>
       </c>
     </row>
     <row r="33">
@@ -5031,28 +5031,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>19.98964248080414</v>
+        <v>20.62266711101117</v>
       </c>
       <c r="D33" t="n">
-        <v>2.123007099195863</v>
+        <v>1.489982468988828</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>6.900327104398047</v>
+        <v>6.880837932889839</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2020164166019525</v>
+        <v>0.2215055881101611</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>1.344720814864175</v>
+        <v>1.366662720101112</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2802937961358247</v>
+        <v>0.2583518908988882</v>
       </c>
     </row>
   </sheetData>
@@ -5136,28 +5136,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>2.918674945831299</v>
+        <v>1.862748980522156</v>
       </c>
       <c r="D2" t="n">
-        <v>1.758504659831299</v>
+        <v>0.7025786945221557</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>1.890294313430786</v>
+        <v>0.9641599059104919</v>
       </c>
       <c r="G2" t="n">
-        <v>1.468398764430786</v>
+        <v>0.5422643569104919</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6000443696975708</v>
+        <v>0.4612068235874176</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4332397026975708</v>
+        <v>0.2944021565874176</v>
       </c>
     </row>
     <row r="3">
@@ -5170,28 +5170,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>8.020929336547852</v>
+        <v>9.018898963928223</v>
       </c>
       <c r="D3" t="n">
-        <v>2.084442495547852</v>
+        <v>3.082412122928223</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>4.088818073272705</v>
+        <v>3.53024959564209</v>
       </c>
       <c r="G3" t="n">
-        <v>3.412913499272705</v>
+        <v>2.85434502164209</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.102591753005981</v>
+        <v>1.054798245429993</v>
       </c>
       <c r="J3" t="n">
-        <v>1.102591753005981</v>
+        <v>1.054798245429993</v>
       </c>
     </row>
     <row r="4">
@@ -5204,28 +5204,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.827799320220947</v>
+        <v>1.65110981464386</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2815307282209472</v>
+        <v>0.8951587773561402</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>1.840588212013245</v>
+        <v>0.9235767126083374</v>
       </c>
       <c r="G4" t="n">
-        <v>1.350114092013245</v>
+        <v>0.4331025926083374</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7985001802444458</v>
+        <v>0.5955607891082764</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2774411442444458</v>
+        <v>0.07450175310827634</v>
       </c>
     </row>
     <row r="5">
@@ -5238,28 +5238,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>4.115481853485107</v>
+        <v>3.525344848632812</v>
       </c>
       <c r="D5" t="n">
-        <v>6.548268256514893</v>
+        <v>7.138405261367188</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.453428268432617</v>
+        <v>2.671213626861572</v>
       </c>
       <c r="G5" t="n">
-        <v>2.914322646567383</v>
+        <v>2.696537288138428</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.502974271774292</v>
+        <v>0.4566435217857361</v>
       </c>
       <c r="J5" t="n">
-        <v>0.397015504225708</v>
+        <v>0.4433462542142639</v>
       </c>
     </row>
     <row r="6">
@@ -5272,28 +5272,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>4.231954097747803</v>
+        <v>3.627847909927368</v>
       </c>
       <c r="D6" t="n">
-        <v>11.3475858322522</v>
+        <v>11.95169202007263</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>2.491971731185913</v>
+        <v>2.668688535690308</v>
       </c>
       <c r="G6" t="n">
-        <v>4.644683677814087</v>
+        <v>4.467966873309693</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4125597178936005</v>
+        <v>0.4180521667003632</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5112699481063996</v>
+        <v>0.5057774992996369</v>
       </c>
     </row>
     <row r="7">
@@ -5306,28 +5306,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>3.028092384338379</v>
+        <v>4.32270336151123</v>
       </c>
       <c r="D7" t="n">
-        <v>2.008702096338379</v>
+        <v>3.30331307351123</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>2.044620752334595</v>
+        <v>4.119077205657959</v>
       </c>
       <c r="G7" t="n">
-        <v>1.436707528665405</v>
+        <v>0.6377489246579588</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.686677098274231</v>
+        <v>0.7559722065925598</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06948399927423099</v>
+        <v>0.1387791075925598</v>
       </c>
     </row>
     <row r="8">
@@ -5340,28 +5340,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>9.234163284301758</v>
+        <v>11.87650871276855</v>
       </c>
       <c r="D8" t="n">
-        <v>9.353124735698241</v>
+        <v>6.710779307231444</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>4.832934379577637</v>
+        <v>4.681550979614258</v>
       </c>
       <c r="G8" t="n">
-        <v>2.890860976422363</v>
+        <v>3.042244376385742</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5239003300666809</v>
+        <v>0.8411224484443665</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6154377329333192</v>
+        <v>0.2982156145556336</v>
       </c>
     </row>
     <row r="9">
@@ -5374,28 +5374,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>4.499577045440674</v>
+        <v>9.032584190368652</v>
       </c>
       <c r="D9" t="n">
-        <v>1.651797586559326</v>
+        <v>2.881209558368653</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>2.675518035888672</v>
+        <v>3.616966724395752</v>
       </c>
       <c r="G9" t="n">
-        <v>1.473614314888672</v>
+        <v>2.415063003395752</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.845086097717285</v>
+        <v>1.993317246437073</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3578129007172852</v>
+        <v>0.5060440494370728</v>
       </c>
     </row>
     <row r="10">
@@ -5408,28 +5408,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>7.025923252105713</v>
+        <v>10.75770854949951</v>
       </c>
       <c r="D10" t="n">
-        <v>5.340573707894286</v>
+        <v>1.608788410500487</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>3.820010900497437</v>
+        <v>4.288100242614746</v>
       </c>
       <c r="G10" t="n">
-        <v>1.295470392497437</v>
+        <v>1.763559734614746</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>1.9544438123703</v>
+        <v>2.007182359695435</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002036539629699741</v>
+        <v>0.05070200769543454</v>
       </c>
     </row>
     <row r="11">
@@ -5442,28 +5442,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>2.893759250640869</v>
+        <v>1.805274128913879</v>
       </c>
       <c r="D11" t="n">
-        <v>1.919158358640869</v>
+        <v>0.8306732369138794</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>1.883564233779907</v>
+        <v>0.9582811594009399</v>
       </c>
       <c r="G11" t="n">
-        <v>1.489928318779907</v>
+        <v>0.56464524440094</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6463325619697571</v>
+        <v>0.4897474348545074</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4853735229697571</v>
+        <v>0.3287883958545075</v>
       </c>
     </row>
     <row r="12">
@@ -5476,28 +5476,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>2.71188759803772</v>
+        <v>1.693335890769958</v>
       </c>
       <c r="D12" t="n">
-        <v>1.92608172603772</v>
+        <v>0.9075300187699585</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>1.821523427963257</v>
+        <v>0.89935302734375</v>
       </c>
       <c r="G12" t="n">
-        <v>1.129048212963257</v>
+        <v>0.20687781234375</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6060829758644104</v>
+        <v>0.4819134175777435</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4106321208644104</v>
+        <v>0.2864625625777435</v>
       </c>
     </row>
     <row r="13">
@@ -5510,28 +5510,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>3.042943000793457</v>
+        <v>4.29758358001709</v>
       </c>
       <c r="D13" t="n">
-        <v>2.008512800793457</v>
+        <v>3.26315338001709</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>2.032486438751221</v>
+        <v>4.042895317077637</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9839497882487791</v>
+        <v>1.026459090077637</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5852052569389343</v>
+        <v>0.7198851108551025</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1767557979389343</v>
+        <v>0.3114356518551025</v>
       </c>
     </row>
     <row r="14">
@@ -5544,28 +5544,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>45.82164001464844</v>
+        <v>45.03789520263672</v>
       </c>
       <c r="D14" t="n">
-        <v>15.98221568535156</v>
+        <v>16.76596049736328</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>23.10589027404785</v>
+        <v>23.68393135070801</v>
       </c>
       <c r="G14" t="n">
-        <v>1.90560740595215</v>
+        <v>1.327566329291994</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>4.612604141235352</v>
+        <v>3.187656164169312</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8821229332353515</v>
+        <v>0.5428250438306885</v>
       </c>
     </row>
     <row r="15">
@@ -5578,28 +5578,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.890092849731445</v>
+        <v>1.701130151748657</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3714393737314454</v>
+        <v>0.8175233242513427</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>1.874714851379395</v>
+        <v>0.9450182318687439</v>
       </c>
       <c r="G15" t="n">
-        <v>1.206540991379395</v>
+        <v>0.2768443718687439</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7734241485595703</v>
+        <v>0.575143039226532</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2701331095595703</v>
+        <v>0.07185200022653193</v>
       </c>
     </row>
     <row r="16">
@@ -5612,28 +5612,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>2.940435647964478</v>
+        <v>1.877219319343567</v>
       </c>
       <c r="D16" t="n">
-        <v>1.934239640964478</v>
+        <v>0.8710233123435669</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>1.905044317245483</v>
+        <v>0.9727911949157715</v>
       </c>
       <c r="G16" t="n">
-        <v>1.440256385245483</v>
+        <v>0.5080032629157715</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5940552949905396</v>
+        <v>0.4571910500526428</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4079308129905396</v>
+        <v>0.2710665680526428</v>
       </c>
     </row>
     <row r="17">
@@ -5646,28 +5646,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>3.079904556274414</v>
+        <v>4.325681686401367</v>
       </c>
       <c r="D17" t="n">
-        <v>0.699197664274414</v>
+        <v>1.944974794401367</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>2.036974430084229</v>
+        <v>4.220611095428467</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3286777950842286</v>
+        <v>2.512314460428467</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>1.039785504341125</v>
+        <v>0.8928664922714233</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2047259803411254</v>
+        <v>0.05780696827142329</v>
       </c>
     </row>
     <row r="18">
@@ -5680,28 +5680,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>3.599254608154297</v>
+        <v>2.299866914749146</v>
       </c>
       <c r="D18" t="n">
-        <v>1.818559828154297</v>
+        <v>0.5191721347491456</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>2.179501295089722</v>
+        <v>1.159781575202942</v>
       </c>
       <c r="G18" t="n">
-        <v>1.673981387089722</v>
+        <v>0.6542616672029419</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5917050838470459</v>
+        <v>0.3967380225658417</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4155088108470459</v>
+        <v>0.2205417495658417</v>
       </c>
     </row>
     <row r="19">
@@ -5714,28 +5714,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>4.087494850158691</v>
+        <v>8.521726608276367</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3756764541586914</v>
+        <v>4.809908212276367</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>2.786132335662842</v>
+        <v>3.636682271957397</v>
       </c>
       <c r="G19" t="n">
-        <v>3.128665220337158</v>
+        <v>2.278115284042602</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>2.597333431243896</v>
+        <v>2.702895641326904</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5627855717561037</v>
+        <v>0.4572233616730959</v>
       </c>
     </row>
     <row r="20">
@@ -5748,28 +5748,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>3.668655395507812</v>
+        <v>3.235771417617798</v>
       </c>
       <c r="D20" t="n">
-        <v>2.566510615507813</v>
+        <v>2.133626637617798</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>2.270438671112061</v>
+        <v>2.533380270004272</v>
       </c>
       <c r="G20" t="n">
-        <v>1.472753284112061</v>
+        <v>1.735694883004272</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5276719331741333</v>
+        <v>0.4824493825435638</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3785770691741333</v>
+        <v>0.3333545185435638</v>
       </c>
     </row>
     <row r="21">
@@ -5782,28 +5782,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>72.68624877929688</v>
+        <v>72.62607574462891</v>
       </c>
       <c r="D21" t="n">
-        <v>8.36660409070312</v>
+        <v>8.426777125371089</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>36.71243667602539</v>
+        <v>37.70552444458008</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9296107060253931</v>
+        <v>1.922698474580081</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>7.215937614440918</v>
+        <v>4.90034294128418</v>
       </c>
       <c r="J21" t="n">
-        <v>2.603009067440918</v>
+        <v>0.2874143942841796</v>
       </c>
     </row>
     <row r="22">
@@ -5816,28 +5816,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>2.578056812286377</v>
+        <v>4.033840179443359</v>
       </c>
       <c r="D22" t="n">
-        <v>2.108731774286377</v>
+        <v>3.564515141443359</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.831616640090942</v>
+        <v>4.200574398040771</v>
       </c>
       <c r="G22" t="n">
-        <v>1.510000061090942</v>
+        <v>3.878957819040771</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>1.479187488555908</v>
+        <v>1.079928874969482</v>
       </c>
       <c r="J22" t="n">
-        <v>1.137045058555908</v>
+        <v>0.7377864449694824</v>
       </c>
     </row>
     <row r="23">
@@ -5850,28 +5850,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>150.0323028564453</v>
+        <v>152.5897979736328</v>
       </c>
       <c r="D23" t="n">
-        <v>1.468979056445306</v>
+        <v>4.026474173632806</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>76.52129364013672</v>
+        <v>78.92023468017578</v>
       </c>
       <c r="G23" t="n">
-        <v>1.231335839863277</v>
+        <v>1.167605200175785</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>14.97958087921143</v>
+        <v>10.01294898986816</v>
       </c>
       <c r="J23" t="n">
-        <v>6.666775479211426</v>
+        <v>1.700143589868164</v>
       </c>
     </row>
     <row r="24">
@@ -5884,28 +5884,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.90544056892395</v>
+        <v>1.510611295700073</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7656474959239503</v>
+        <v>0.6291817772999266</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.913898825645447</v>
+        <v>0.9821611046791077</v>
       </c>
       <c r="G24" t="n">
-        <v>1.278310780645447</v>
+        <v>0.3465730596791077</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>1.100597262382507</v>
+        <v>0.8710103631019592</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4971255053825073</v>
+        <v>0.2675386061019592</v>
       </c>
     </row>
     <row r="25">
@@ -5918,28 +5918,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>15.86643314361572</v>
+        <v>13.25770568847656</v>
       </c>
       <c r="D25" t="n">
-        <v>6.248662186384276</v>
+        <v>8.857389641523437</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>7.929287910461426</v>
+        <v>7.655489921569824</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1437351204614261</v>
+        <v>0.1300628684301754</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>1.109696865081787</v>
+        <v>0.7251724600791931</v>
       </c>
       <c r="J25" t="n">
-        <v>0.07627575591821278</v>
+        <v>0.4608001609208068</v>
       </c>
     </row>
     <row r="26">
@@ -5952,28 +5952,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>8.569062232971191</v>
+        <v>11.54300689697266</v>
       </c>
       <c r="D26" t="n">
-        <v>10.07345052702881</v>
+        <v>7.099505863027343</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>4.473904609680176</v>
+        <v>4.529932498931885</v>
       </c>
       <c r="G26" t="n">
-        <v>1.431414041319824</v>
+        <v>1.375386152068115</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7093331813812256</v>
+        <v>1.001373767852783</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5966889776187745</v>
+        <v>0.3046483911472169</v>
       </c>
     </row>
     <row r="27">
@@ -5986,28 +5986,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>3.262041091918945</v>
+        <v>1.900897741317749</v>
       </c>
       <c r="D27" t="n">
-        <v>2.149996712918945</v>
+        <v>0.7888533623177489</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>2.130741834640503</v>
+        <v>1.102656960487366</v>
       </c>
       <c r="G27" t="n">
-        <v>0.658572181640503</v>
+        <v>0.3695126925126342</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7059664726257324</v>
+        <v>0.5125570893287659</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3950345206257324</v>
+        <v>0.2016251373287659</v>
       </c>
     </row>
     <row r="28">
@@ -6020,28 +6020,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>4.877839088439941</v>
+        <v>3.972717761993408</v>
       </c>
       <c r="D28" t="n">
-        <v>3.873616208439941</v>
+        <v>2.968494881993408</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>2.872250318527222</v>
+        <v>2.930344581604004</v>
       </c>
       <c r="G28" t="n">
-        <v>2.010705128527221</v>
+        <v>2.068799391604004</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3743075430393219</v>
+        <v>0.3803680837154388</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2879621720393219</v>
+        <v>0.2940227127154388</v>
       </c>
     </row>
     <row r="29">
@@ -6054,28 +6054,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>3.671152591705322</v>
+        <v>3.248183250427246</v>
       </c>
       <c r="D29" t="n">
-        <v>5.277927339294678</v>
+        <v>5.700896680572754</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>2.264708995819092</v>
+        <v>2.520676374435425</v>
       </c>
       <c r="G29" t="n">
-        <v>3.469330210180908</v>
+        <v>3.213362831564575</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5049826502799988</v>
+        <v>0.4728142917156219</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3421713947200012</v>
+        <v>0.3743397532843781</v>
       </c>
     </row>
     <row r="30">
@@ -6088,28 +6088,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>5.568417072296143</v>
+        <v>4.257501125335693</v>
       </c>
       <c r="D30" t="n">
-        <v>1.706445983296143</v>
+        <v>0.3955300363356935</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>3.095419883728027</v>
+        <v>3.186763525009155</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9296813337280274</v>
+        <v>1.021024975009155</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8840384483337402</v>
+        <v>0.5558552145957947</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1428365646662597</v>
+        <v>0.4710197984042053</v>
       </c>
     </row>
     <row r="31">
@@ -6122,28 +6122,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>6.633945941925049</v>
+        <v>6.344573974609375</v>
       </c>
       <c r="D31" t="n">
-        <v>3.939816636925049</v>
+        <v>3.650444669609375</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>4.1610426902771</v>
+        <v>5.778390884399414</v>
       </c>
       <c r="G31" t="n">
-        <v>4.8375370577229</v>
+        <v>3.220188863600585</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>1.149508595466614</v>
+        <v>0.9168002009391785</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0741298854666137</v>
+        <v>0.1585785090608216</v>
       </c>
     </row>
     <row r="32">
@@ -6156,28 +6156,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>3.526651859283447</v>
+        <v>3.259223937988281</v>
       </c>
       <c r="D32" t="n">
-        <v>6.058252384716553</v>
+        <v>6.325680306011719</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>2.389626741409302</v>
+        <v>1.505456924438477</v>
       </c>
       <c r="G32" t="n">
-        <v>25.7159971285907</v>
+        <v>26.60016694556152</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>1.245201468467712</v>
+        <v>1.154539704322815</v>
       </c>
       <c r="J32" t="n">
-        <v>6.633613084532287</v>
+        <v>6.724274848677185</v>
       </c>
     </row>
     <row r="33">
@@ -6190,28 +6190,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>9.864062309265137</v>
+        <v>12.40554428100586</v>
       </c>
       <c r="D33" t="n">
-        <v>12.24858727073486</v>
+        <v>9.70710529899414</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>5.089628219604492</v>
+        <v>4.881223201751709</v>
       </c>
       <c r="G33" t="n">
-        <v>2.012715301395508</v>
+        <v>2.221120319248291</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8149771690368652</v>
+        <v>1.058293342590332</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8100374419631349</v>
+        <v>0.5667212684096681</v>
       </c>
     </row>
   </sheetData>
@@ -6295,28 +6295,28 @@
         <v>1.160170286</v>
       </c>
       <c r="C2" t="n">
-        <v>2.003654479980469</v>
+        <v>2.251258611679077</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8434841939804687</v>
+        <v>1.091088325679077</v>
       </c>
       <c r="E2" t="n">
         <v>0.421895549</v>
       </c>
       <c r="F2" t="n">
-        <v>1.653952956199646</v>
+        <v>1.128465056419373</v>
       </c>
       <c r="G2" t="n">
-        <v>1.232057407199646</v>
+        <v>0.7065695074193725</v>
       </c>
       <c r="H2" t="n">
         <v>0.166804667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3576293289661407</v>
+        <v>0.3281590044498444</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1908246619661408</v>
+        <v>0.1613543374498444</v>
       </c>
     </row>
     <row r="3">
@@ -6329,28 +6329,28 @@
         <v>5.936486841</v>
       </c>
       <c r="C3" t="n">
-        <v>12.83629989624023</v>
+        <v>13.07404613494873</v>
       </c>
       <c r="D3" t="n">
-        <v>6.899813055240235</v>
+        <v>7.137559293948731</v>
       </c>
       <c r="E3" t="n">
         <v>0.675904574</v>
       </c>
       <c r="F3" t="n">
-        <v>2.025389194488525</v>
+        <v>3.793991088867188</v>
       </c>
       <c r="G3" t="n">
-        <v>1.349484620488525</v>
+        <v>3.118086514867187</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9235283136367798</v>
+        <v>0.9974533319473267</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9235283136367798</v>
+        <v>0.9974533319473267</v>
       </c>
     </row>
     <row r="4">
@@ -6363,28 +6363,28 @@
         <v>2.546268592</v>
       </c>
       <c r="C4" t="n">
-        <v>2.093174695968628</v>
+        <v>2.061957836151123</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4530938960313722</v>
+        <v>0.4843107558488771</v>
       </c>
       <c r="E4" t="n">
         <v>0.49047412</v>
       </c>
       <c r="F4" t="n">
-        <v>1.356009840965271</v>
+        <v>0.9158993363380432</v>
       </c>
       <c r="G4" t="n">
-        <v>0.865535720965271</v>
+        <v>0.4254252163380432</v>
       </c>
       <c r="H4" t="n">
         <v>0.521059036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8184666037559509</v>
+        <v>0.5979734063148499</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2974075677559509</v>
+        <v>0.07691437031484982</v>
       </c>
     </row>
     <row r="5">
@@ -6397,28 +6397,28 @@
         <v>10.66375011</v>
       </c>
       <c r="C5" t="n">
-        <v>4.685019016265869</v>
+        <v>4.514641761779785</v>
       </c>
       <c r="D5" t="n">
-        <v>5.978731093734131</v>
+        <v>6.149108348220215</v>
       </c>
       <c r="E5" t="n">
         <v>5.367750915</v>
       </c>
       <c r="F5" t="n">
-        <v>2.893545866012573</v>
+        <v>3.077279329299927</v>
       </c>
       <c r="G5" t="n">
-        <v>2.474205048987427</v>
+        <v>2.290471585700073</v>
       </c>
       <c r="H5" t="n">
         <v>0.899989776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1915122866630554</v>
+        <v>0.2373123168945312</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7084774893369445</v>
+        <v>0.6626774591054687</v>
       </c>
     </row>
     <row r="6">
@@ -6431,28 +6431,28 @@
         <v>15.57953993</v>
       </c>
       <c r="C6" t="n">
-        <v>4.932826995849609</v>
+        <v>4.884239673614502</v>
       </c>
       <c r="D6" t="n">
-        <v>10.64671293415039</v>
+        <v>10.6953002563855</v>
       </c>
       <c r="E6" t="n">
         <v>7.136655409</v>
       </c>
       <c r="F6" t="n">
-        <v>2.810656309127808</v>
+        <v>3.024887561798096</v>
       </c>
       <c r="G6" t="n">
-        <v>4.325999099872193</v>
+        <v>4.111767847201905</v>
       </c>
       <c r="H6" t="n">
         <v>0.923829666</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02281791716814041</v>
+        <v>0.1010928824543953</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9466475831681405</v>
+        <v>0.8227367835456048</v>
       </c>
     </row>
     <row r="7">
@@ -6465,28 +6465,28 @@
         <v>1.019390288</v>
       </c>
       <c r="C7" t="n">
-        <v>2.016396284103394</v>
+        <v>2.113339424133301</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9970059961033935</v>
+        <v>1.093949136133301</v>
       </c>
       <c r="E7" t="n">
         <v>3.481328281</v>
       </c>
       <c r="F7" t="n">
-        <v>3.269332885742188</v>
+        <v>4.311078548431396</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119953952578126</v>
+        <v>0.8297502674313963</v>
       </c>
       <c r="H7" t="n">
         <v>0.617193099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6281497478485107</v>
+        <v>1.002715587615967</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01095664884851077</v>
+        <v>0.3855224886159668</v>
       </c>
     </row>
     <row r="8">
@@ -6499,28 +6499,28 @@
         <v>18.58728802</v>
       </c>
       <c r="C8" t="n">
-        <v>14.7548131942749</v>
+        <v>17.66021728515625</v>
       </c>
       <c r="D8" t="n">
-        <v>3.832474825725097</v>
+        <v>0.927070734843749</v>
       </c>
       <c r="E8" t="n">
         <v>7.723795356</v>
       </c>
       <c r="F8" t="n">
-        <v>5.936500549316406</v>
+        <v>7.570832252502441</v>
       </c>
       <c r="G8" t="n">
-        <v>1.787294806683594</v>
+        <v>0.1529631034975587</v>
       </c>
       <c r="H8" t="n">
         <v>1.139338063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02302863448858261</v>
+        <v>0.5791252851486206</v>
       </c>
       <c r="J8" t="n">
-        <v>1.116309428511417</v>
+        <v>0.5602127778513795</v>
       </c>
     </row>
     <row r="9">
@@ -6533,28 +6533,28 @@
         <v>6.151374632</v>
       </c>
       <c r="C9" t="n">
-        <v>5.376293659210205</v>
+        <v>6.629209995269775</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7750809727897945</v>
+        <v>0.4778353632697758</v>
       </c>
       <c r="E9" t="n">
         <v>1.201903721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.821502566337585</v>
+        <v>3.597861766815186</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6195988453375854</v>
+        <v>2.395958045815186</v>
       </c>
       <c r="H9" t="n">
         <v>1.487273197</v>
       </c>
       <c r="I9" t="n">
-        <v>2.770897388458252</v>
+        <v>4.196963787078857</v>
       </c>
       <c r="J9" t="n">
-        <v>1.283624191458252</v>
+        <v>2.709690590078857</v>
       </c>
     </row>
     <row r="10">
@@ -6567,28 +6567,28 @@
         <v>12.36649696</v>
       </c>
       <c r="C10" t="n">
-        <v>10.34830760955811</v>
+        <v>11.47744655609131</v>
       </c>
       <c r="D10" t="n">
-        <v>2.018189350441894</v>
+        <v>0.8890504039086906</v>
       </c>
       <c r="E10" t="n">
         <v>2.524540508</v>
       </c>
       <c r="F10" t="n">
-        <v>2.760162830352783</v>
+        <v>4.76176118850708</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2356223223527834</v>
+        <v>2.23722068050708</v>
       </c>
       <c r="H10" t="n">
         <v>1.956480352</v>
       </c>
       <c r="I10" t="n">
-        <v>2.616421222686768</v>
+        <v>3.547997951507568</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6599408706867675</v>
+        <v>1.591517599507568</v>
       </c>
     </row>
     <row r="11">
@@ -6601,28 +6601,28 @@
         <v>0.974600892</v>
       </c>
       <c r="C11" t="n">
-        <v>2.038829803466797</v>
+        <v>2.247614622116089</v>
       </c>
       <c r="D11" t="n">
-        <v>1.064228911466797</v>
+        <v>1.273013730116089</v>
       </c>
       <c r="E11" t="n">
         <v>0.393635915</v>
       </c>
       <c r="F11" t="n">
-        <v>1.727116703987122</v>
+        <v>1.182513117790222</v>
       </c>
       <c r="G11" t="n">
-        <v>1.333480788987122</v>
+        <v>0.7888772027902222</v>
       </c>
       <c r="H11" t="n">
         <v>0.160959039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.481685996055603</v>
+        <v>0.3967395722866058</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3207269570556031</v>
+        <v>0.2357805332866058</v>
       </c>
     </row>
     <row r="12">
@@ -6635,28 +6635,28 @@
         <v>0.785805872</v>
       </c>
       <c r="C12" t="n">
-        <v>1.293150782585144</v>
+        <v>1.796708106994629</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5073449105851441</v>
+        <v>1.010902234994629</v>
       </c>
       <c r="E12" t="n">
         <v>0.692475215</v>
       </c>
       <c r="F12" t="n">
-        <v>1.757577776908875</v>
+        <v>1.068984627723694</v>
       </c>
       <c r="G12" t="n">
-        <v>1.065102561908875</v>
+        <v>0.3765094127236939</v>
       </c>
       <c r="H12" t="n">
         <v>0.195450855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3578768968582153</v>
+        <v>0.3789900541305542</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1624260418582153</v>
+        <v>0.1835391991305542</v>
       </c>
     </row>
     <row r="13">
@@ -6669,28 +6669,28 @@
         <v>1.0344302</v>
       </c>
       <c r="C13" t="n">
-        <v>1.967421889305115</v>
+        <v>2.256433725357056</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9329916893051147</v>
+        <v>1.222003525357056</v>
       </c>
       <c r="E13" t="n">
         <v>3.016436227</v>
       </c>
       <c r="F13" t="n">
-        <v>2.971554756164551</v>
+        <v>4.150411128997803</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04488147083544902</v>
+        <v>1.133974901997803</v>
       </c>
       <c r="H13" t="n">
         <v>0.408449459</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3642145097255707</v>
+        <v>0.877886176109314</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04423494927442934</v>
+        <v>0.469436717109314</v>
       </c>
     </row>
     <row r="14">
@@ -6703,28 +6703,28 @@
         <v>61.8038557</v>
       </c>
       <c r="C14" t="n">
-        <v>54.23857116699219</v>
+        <v>52.30491638183594</v>
       </c>
       <c r="D14" t="n">
-        <v>7.565284533007812</v>
+        <v>9.498939318164062</v>
       </c>
       <c r="E14" t="n">
         <v>25.01149768</v>
       </c>
       <c r="F14" t="n">
-        <v>21.14275550842285</v>
+        <v>23.92896842956543</v>
       </c>
       <c r="G14" t="n">
-        <v>3.86874217157715</v>
+        <v>1.082529250434572</v>
       </c>
       <c r="H14" t="n">
         <v>3.730481208</v>
       </c>
       <c r="I14" t="n">
-        <v>2.370658874511719</v>
+        <v>2.427626371383667</v>
       </c>
       <c r="J14" t="n">
-        <v>1.359822333488281</v>
+        <v>1.302854836616333</v>
       </c>
     </row>
     <row r="15">
@@ -6737,28 +6737,28 @@
         <v>2.518653476</v>
       </c>
       <c r="C15" t="n">
-        <v>2.200066328048706</v>
+        <v>2.194549798965454</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3185871479512938</v>
+        <v>0.3241036770345458</v>
       </c>
       <c r="E15" t="n">
         <v>0.66817386</v>
       </c>
       <c r="F15" t="n">
-        <v>1.529342293739319</v>
+        <v>1.043479084968567</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8611684337393188</v>
+        <v>0.3753052249685669</v>
       </c>
       <c r="H15" t="n">
         <v>0.5032910390000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7701123356819153</v>
+        <v>0.5686133503913879</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2668212966819152</v>
+        <v>0.06532231139138789</v>
       </c>
     </row>
     <row r="16">
@@ -6771,28 +6771,28 @@
         <v>1.006196007</v>
       </c>
       <c r="C16" t="n">
-        <v>2.032684326171875</v>
+        <v>2.298770427703857</v>
       </c>
       <c r="D16" t="n">
-        <v>1.026488319171875</v>
+        <v>1.292574420703857</v>
       </c>
       <c r="E16" t="n">
         <v>0.464787932</v>
       </c>
       <c r="F16" t="n">
-        <v>1.741692423820496</v>
+        <v>1.197710752487183</v>
       </c>
       <c r="G16" t="n">
-        <v>1.276904491820495</v>
+        <v>0.7329228204871826</v>
       </c>
       <c r="H16" t="n">
         <v>0.186124482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.344488650560379</v>
+        <v>0.3172274827957153</v>
       </c>
       <c r="J16" t="n">
-        <v>0.158364168560379</v>
+        <v>0.1311030007957153</v>
       </c>
     </row>
     <row r="17">
@@ -6805,28 +6805,28 @@
         <v>2.380706892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.405847072601318</v>
+        <v>1.770479321479797</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02514018060131828</v>
+        <v>0.6102275705202027</v>
       </c>
       <c r="E17" t="n">
         <v>1.708296635</v>
       </c>
       <c r="F17" t="n">
-        <v>2.502346992492676</v>
+        <v>3.690825939178467</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7940503574926758</v>
+        <v>1.982529304178467</v>
       </c>
       <c r="H17" t="n">
         <v>0.8350595240000001</v>
       </c>
       <c r="I17" t="n">
-        <v>1.363104104995728</v>
+        <v>1.316470623016357</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5280445809957275</v>
+        <v>0.4814110990163574</v>
       </c>
     </row>
     <row r="18">
@@ -6839,28 +6839,28 @@
         <v>1.78069478</v>
       </c>
       <c r="C18" t="n">
-        <v>3.726677417755127</v>
+        <v>3.638192653656006</v>
       </c>
       <c r="D18" t="n">
-        <v>1.945982637755127</v>
+        <v>1.857497873656006</v>
       </c>
       <c r="E18" t="n">
         <v>0.505519908</v>
       </c>
       <c r="F18" t="n">
-        <v>1.884464621543884</v>
+        <v>1.539409875869751</v>
       </c>
       <c r="G18" t="n">
-        <v>1.378944713543884</v>
+        <v>1.033889967869751</v>
       </c>
       <c r="H18" t="n">
         <v>0.176196273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3701610267162323</v>
+        <v>0.2166066020727158</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1939647537162323</v>
+        <v>0.04041032907271577</v>
       </c>
     </row>
     <row r="19">
@@ -6873,28 +6873,28 @@
         <v>3.711818396</v>
       </c>
       <c r="C19" t="n">
-        <v>3.32796311378479</v>
+        <v>4.977049827575684</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3838552822152099</v>
+        <v>1.265231431575684</v>
       </c>
       <c r="E19" t="n">
         <v>5.914797556</v>
       </c>
       <c r="F19" t="n">
-        <v>5.183079242706299</v>
+        <v>5.473247051239014</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7317183132937011</v>
+        <v>0.4415505047609862</v>
       </c>
       <c r="H19" t="n">
         <v>3.160119003</v>
       </c>
       <c r="I19" t="n">
-        <v>4.476378440856934</v>
+        <v>5.940792083740234</v>
       </c>
       <c r="J19" t="n">
-        <v>1.316259437856933</v>
+        <v>2.780673080740234</v>
       </c>
     </row>
     <row r="20">
@@ -6907,28 +6907,28 @@
         <v>1.10214478</v>
       </c>
       <c r="C20" t="n">
-        <v>3.634314298629761</v>
+        <v>3.681017160415649</v>
       </c>
       <c r="D20" t="n">
-        <v>2.532169518629761</v>
+        <v>2.57887238041565</v>
       </c>
       <c r="E20" t="n">
         <v>0.797685387</v>
       </c>
       <c r="F20" t="n">
-        <v>2.85850191116333</v>
+        <v>3.042634010314941</v>
       </c>
       <c r="G20" t="n">
-        <v>2.06081652416333</v>
+        <v>2.244948623314941</v>
       </c>
       <c r="H20" t="n">
         <v>0.149094864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2473330497741699</v>
+        <v>0.4057087302207947</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09823818577416993</v>
+        <v>0.2566138662207947</v>
       </c>
     </row>
     <row r="21">
@@ -6941,28 +6941,28 @@
         <v>81.05285287</v>
       </c>
       <c r="C21" t="n">
-        <v>81.94386291503906</v>
+        <v>82.88920593261719</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8910100450390672</v>
+        <v>1.836353062617192</v>
       </c>
       <c r="E21" t="n">
         <v>35.78282597</v>
       </c>
       <c r="F21" t="n">
-        <v>35.04876327514648</v>
+        <v>39.8958625793457</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7340626948535132</v>
+        <v>4.113036609345706</v>
       </c>
       <c r="H21" t="n">
         <v>4.612928547</v>
       </c>
       <c r="I21" t="n">
-        <v>4.038412570953369</v>
+        <v>4.113474369049072</v>
       </c>
       <c r="J21" t="n">
-        <v>0.574515976046631</v>
+        <v>0.4994541779509278</v>
       </c>
     </row>
     <row r="22">
@@ -6975,28 +6975,28 @@
         <v>0.469325038</v>
       </c>
       <c r="C22" t="n">
-        <v>1.311265826225281</v>
+        <v>0.9874799847602844</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8419407882252807</v>
+        <v>0.5181549467602844</v>
       </c>
       <c r="E22" t="n">
         <v>0.321616579</v>
       </c>
       <c r="F22" t="n">
-        <v>2.030910730361938</v>
+        <v>3.192824840545654</v>
       </c>
       <c r="G22" t="n">
-        <v>1.709294151361938</v>
+        <v>2.871208261545654</v>
       </c>
       <c r="H22" t="n">
         <v>0.34214243</v>
       </c>
       <c r="I22" t="n">
-        <v>2.252238035202026</v>
+        <v>1.716023325920105</v>
       </c>
       <c r="J22" t="n">
-        <v>1.910095605202026</v>
+        <v>1.373880895920105</v>
       </c>
     </row>
     <row r="23">
@@ -7009,28 +7009,28 @@
         <v>148.5633238</v>
       </c>
       <c r="C23" t="n">
-        <v>156.3787536621094</v>
+        <v>169.7745819091797</v>
       </c>
       <c r="D23" t="n">
-        <v>7.815429862109369</v>
+        <v>21.21125810917968</v>
       </c>
       <c r="E23" t="n">
         <v>77.75262948</v>
       </c>
       <c r="F23" t="n">
-        <v>83.27356719970703</v>
+        <v>92.44784545898438</v>
       </c>
       <c r="G23" t="n">
-        <v>5.520937719707035</v>
+        <v>14.69521597898438</v>
       </c>
       <c r="H23" t="n">
         <v>8.3128054</v>
       </c>
       <c r="I23" t="n">
-        <v>10.81099891662598</v>
+        <v>10.74849033355713</v>
       </c>
       <c r="J23" t="n">
-        <v>2.498193516625976</v>
+        <v>2.435684933557129</v>
       </c>
     </row>
     <row r="24">
@@ -7043,28 +7043,28 @@
         <v>2.139793073</v>
       </c>
       <c r="C24" t="n">
-        <v>2.186264276504517</v>
+        <v>1.981966972351074</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04647120350451672</v>
+        <v>0.1578261006489257</v>
       </c>
       <c r="E24" t="n">
         <v>0.635588045</v>
       </c>
       <c r="F24" t="n">
-        <v>1.711902141571045</v>
+        <v>1.107225298881531</v>
       </c>
       <c r="G24" t="n">
-        <v>1.076314096571045</v>
+        <v>0.4716372538815308</v>
       </c>
       <c r="H24" t="n">
         <v>0.603471757</v>
       </c>
       <c r="I24" t="n">
-        <v>1.461559295654297</v>
+        <v>1.034664869308472</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8580875386542969</v>
+        <v>0.4311931123084717</v>
       </c>
     </row>
     <row r="25">
@@ -7077,28 +7077,28 @@
         <v>22.11509533</v>
       </c>
       <c r="C25" t="n">
-        <v>23.84564018249512</v>
+        <v>19.43718528747559</v>
       </c>
       <c r="D25" t="n">
-        <v>1.730544852495118</v>
+        <v>2.677910042524413</v>
       </c>
       <c r="E25" t="n">
         <v>7.78555279</v>
       </c>
       <c r="F25" t="n">
-        <v>7.595100402832031</v>
+        <v>7.929389476776123</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1904523871679684</v>
+        <v>0.1438366867761234</v>
       </c>
       <c r="H25" t="n">
         <v>1.185972621</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.01522649079561234</v>
+        <v>-0.1225087195634842</v>
       </c>
       <c r="J25" t="n">
-        <v>1.201199111795612</v>
+        <v>1.308481340563484</v>
       </c>
     </row>
     <row r="26">
@@ -7111,28 +7111,28 @@
         <v>18.64251276</v>
       </c>
       <c r="C26" t="n">
-        <v>13.75238132476807</v>
+        <v>16.05723762512207</v>
       </c>
       <c r="D26" t="n">
-        <v>4.890131435231932</v>
+        <v>2.585275134877929</v>
       </c>
       <c r="E26" t="n">
         <v>5.905318651</v>
       </c>
       <c r="F26" t="n">
-        <v>4.507912158966064</v>
+        <v>6.384812831878662</v>
       </c>
       <c r="G26" t="n">
-        <v>1.397406492033936</v>
+        <v>0.4794941808786621</v>
       </c>
       <c r="H26" t="n">
         <v>1.306022159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3220258355140686</v>
+        <v>1.014856696128845</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9839963234859315</v>
+        <v>0.2911654628711549</v>
       </c>
     </row>
     <row r="27">
@@ -7145,28 +7145,28 @@
         <v>1.112044379</v>
       </c>
       <c r="C27" t="n">
-        <v>2.688971281051636</v>
+        <v>2.95928955078125</v>
       </c>
       <c r="D27" t="n">
-        <v>1.576926902051636</v>
+        <v>1.84724517178125</v>
       </c>
       <c r="E27" t="n">
         <v>1.472169653</v>
       </c>
       <c r="F27" t="n">
-        <v>3.170727729797363</v>
+        <v>2.350732088088989</v>
       </c>
       <c r="G27" t="n">
-        <v>1.698558076797363</v>
+        <v>0.8785624350889893</v>
       </c>
       <c r="H27" t="n">
         <v>0.310931952</v>
       </c>
       <c r="I27" t="n">
-        <v>0.681947648525238</v>
+        <v>0.5024642944335938</v>
       </c>
       <c r="J27" t="n">
-        <v>0.371015696525238</v>
+        <v>0.1915323424335937</v>
       </c>
     </row>
     <row r="28">
@@ -7179,28 +7179,28 @@
         <v>1.00422288</v>
       </c>
       <c r="C28" t="n">
-        <v>6.027414798736572</v>
+        <v>5.854277610778809</v>
       </c>
       <c r="D28" t="n">
-        <v>5.023191918736572</v>
+        <v>4.850054730778808</v>
       </c>
       <c r="E28" t="n">
         <v>0.86154519</v>
       </c>
       <c r="F28" t="n">
-        <v>4.512380123138428</v>
+        <v>4.2967209815979</v>
       </c>
       <c r="G28" t="n">
-        <v>3.650834933138428</v>
+        <v>3.4351757915979</v>
       </c>
       <c r="H28" t="n">
         <v>0.086345371</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.07898483425378799</v>
+        <v>-0.07057780027389526</v>
       </c>
       <c r="J28" t="n">
-        <v>0.165330205253788</v>
+        <v>0.1569231712738953</v>
       </c>
     </row>
     <row r="29">
@@ -7213,28 +7213,28 @@
         <v>8.949079931</v>
       </c>
       <c r="C29" t="n">
-        <v>3.642887830734253</v>
+        <v>3.734002113342285</v>
       </c>
       <c r="D29" t="n">
-        <v>5.306192100265747</v>
+        <v>5.215077817657715</v>
       </c>
       <c r="E29" t="n">
         <v>5.734039206</v>
       </c>
       <c r="F29" t="n">
-        <v>2.754827976226807</v>
+        <v>2.964216709136963</v>
       </c>
       <c r="G29" t="n">
-        <v>2.979211229773194</v>
+        <v>2.769822496863037</v>
       </c>
       <c r="H29" t="n">
         <v>0.847154045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1893097758293152</v>
+        <v>0.3728818893432617</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6578442691706848</v>
+        <v>0.4742721556567383</v>
       </c>
     </row>
     <row r="30">
@@ -7247,28 +7247,28 @@
         <v>3.861971089</v>
       </c>
       <c r="C30" t="n">
-        <v>7.75047779083252</v>
+        <v>6.226727962493896</v>
       </c>
       <c r="D30" t="n">
-        <v>3.88850670183252</v>
+        <v>2.364756873493897</v>
       </c>
       <c r="E30" t="n">
         <v>2.16573855</v>
       </c>
       <c r="F30" t="n">
-        <v>2.751675605773926</v>
+        <v>3.008526086807251</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5859370557739259</v>
+        <v>0.842787536807251</v>
       </c>
       <c r="H30" t="n">
         <v>1.026875013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8444535136222839</v>
+        <v>0.267043262720108</v>
       </c>
       <c r="J30" t="n">
-        <v>0.182421499377716</v>
+        <v>0.7598317502798919</v>
       </c>
     </row>
     <row r="31">
@@ -7281,28 +7281,28 @@
         <v>2.694129305</v>
       </c>
       <c r="C31" t="n">
-        <v>7.250783920288086</v>
+        <v>4.147773742675781</v>
       </c>
       <c r="D31" t="n">
-        <v>4.556654615288085</v>
+        <v>1.453644437675781</v>
       </c>
       <c r="E31" t="n">
         <v>8.998579747999999</v>
       </c>
       <c r="F31" t="n">
-        <v>10.52305316925049</v>
+        <v>9.796435356140137</v>
       </c>
       <c r="G31" t="n">
-        <v>1.524473421250489</v>
+        <v>0.7978556081401376</v>
       </c>
       <c r="H31" t="n">
         <v>1.07537871</v>
       </c>
       <c r="I31" t="n">
-        <v>2.09834361076355</v>
+        <v>1.589933037757874</v>
       </c>
       <c r="J31" t="n">
-        <v>1.02296490076355</v>
+        <v>0.5145543277578735</v>
       </c>
     </row>
     <row r="32">
@@ -7315,28 +7315,28 @@
         <v>9.584904244000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.8303062915802</v>
+        <v>3.65402889251709</v>
       </c>
       <c r="D32" t="n">
-        <v>6.7545979524198</v>
+        <v>5.930875351482911</v>
       </c>
       <c r="E32" t="n">
         <v>28.10562387</v>
       </c>
       <c r="F32" t="n">
-        <v>4.638801097869873</v>
+        <v>3.804194927215576</v>
       </c>
       <c r="G32" t="n">
-        <v>23.46682277213013</v>
+        <v>24.30142894278442</v>
       </c>
       <c r="H32" t="n">
         <v>7.878814553</v>
       </c>
       <c r="I32" t="n">
-        <v>1.829335689544678</v>
+        <v>1.929740071296692</v>
       </c>
       <c r="J32" t="n">
-        <v>6.049478863455322</v>
+        <v>5.949074481703308</v>
       </c>
     </row>
     <row r="33">
@@ -7349,28 +7349,28 @@
         <v>22.11264958</v>
       </c>
       <c r="C33" t="n">
-        <v>16.11728858947754</v>
+        <v>18.38618278503418</v>
       </c>
       <c r="D33" t="n">
-        <v>5.99536099052246</v>
+        <v>3.72646679496582</v>
       </c>
       <c r="E33" t="n">
         <v>7.102343521</v>
       </c>
       <c r="F33" t="n">
-        <v>5.246719837188721</v>
+        <v>7.180585384368896</v>
       </c>
       <c r="G33" t="n">
-        <v>1.855623683811279</v>
+        <v>0.0782418633688966</v>
       </c>
       <c r="H33" t="n">
         <v>1.625014611</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3477259874343872</v>
+        <v>0.884367048740387</v>
       </c>
       <c r="J33" t="n">
-        <v>1.277288623565613</v>
+        <v>0.7406475622596131</v>
       </c>
     </row>
   </sheetData>
